--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -941,13 +941,13 @@
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" customWidth="1"/>
     <col min="25" max="25" width="21.7109375" customWidth="1"/>
     <col min="26" max="26" width="20.7109375" customWidth="1"/>
@@ -1092,58 +1092,58 @@
         <v>35</v>
       </c>
       <c r="I3" s="4">
-        <v>0.009969280117327521</v>
+        <v>0.01000133335800107</v>
       </c>
       <c r="J3" s="4">
-        <v>0.4520898421929036</v>
+        <v>0.4506409409315248</v>
       </c>
       <c r="K3" s="4">
-        <v>0.007177768136834272</v>
+        <v>0.00717799145314555</v>
       </c>
       <c r="L3" s="4">
-        <v>0.006103873466328116</v>
+        <v>0.006103683567173748</v>
       </c>
       <c r="M3" s="4">
-        <v>2.69984585972793</v>
+        <v>2.699694738769988</v>
       </c>
       <c r="N3" s="4">
-        <v>0.01120906247751112</v>
+        <v>0.01120968992780575</v>
       </c>
       <c r="O3" s="4">
-        <v>2.046636197755046</v>
+        <v>2.045544290722234</v>
       </c>
       <c r="P3" s="4">
-        <v>0.4404323244646988</v>
+        <v>0.4406674262685277</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.007556148153474185</v>
+        <v>0.007552282583021711</v>
       </c>
       <c r="R3" s="4">
-        <v>0.1299588005109008</v>
+        <v>0.1300253187977594</v>
       </c>
       <c r="S3" s="4">
-        <v>5.48019535213277E-05</v>
+        <v>5.477391796564943E-05</v>
       </c>
       <c r="T3" s="4">
-        <v>0.1299588005109007</v>
+        <v>0.1300253187977592</v>
       </c>
       <c r="U3" s="4">
-        <v>1.307099537421564</v>
+        <v>1.305966114169593</v>
       </c>
       <c r="V3" s="4">
-        <v>0.3719291263266972</v>
+        <v>0.3722519165700965</v>
       </c>
       <c r="W3" s="4">
-        <v>0.1951421303808006</v>
+        <v>0.1946590676346031</v>
       </c>
       <c r="X3" s="4">
-        <v>0.3990259786879766</v>
+        <v>0.4000161950052096</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.2547799290699635</v>
+        <v>0.2546811624431466</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.3649466894622249</v>
+        <v>0.3650882176111481</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1169,58 +1169,58 @@
         <v>36</v>
       </c>
       <c r="I4">
-        <v>0.006094486463237138</v>
+        <v>0.006314133240824234</v>
       </c>
       <c r="J4">
-        <v>15.94316389804815</v>
+        <v>15.38855656855631</v>
       </c>
       <c r="K4">
-        <v>0.007175248086664387</v>
+        <v>0.007175141914796956</v>
       </c>
       <c r="L4">
-        <v>0.006046642463070012</v>
+        <v>0.00604673193632777</v>
       </c>
       <c r="M4">
-        <v>32.40326371742279</v>
+        <v>32.39369657979356</v>
       </c>
       <c r="N4">
-        <v>0.1315642780674438</v>
+        <v>0.1316031341934269</v>
       </c>
       <c r="O4">
-        <v>67.09481988047879</v>
+        <v>34.97014251891885</v>
       </c>
       <c r="P4">
-        <v>69.18855739201307</v>
+        <v>132.7473513582583</v>
       </c>
       <c r="Q4">
-        <v>0.00757344661909439</v>
+        <v>0.00757535263272339</v>
       </c>
       <c r="R4">
-        <v>0.146362331380735</v>
+        <v>0.1463255055573167</v>
       </c>
       <c r="S4">
-        <v>5.492741290746652E-05</v>
+        <v>5.494123652079249E-05</v>
       </c>
       <c r="T4">
-        <v>0.1463623313807348</v>
+        <v>0.1463255055573166</v>
       </c>
       <c r="U4">
-        <v>15.30933219515846</v>
+        <v>15.28067913104173</v>
       </c>
       <c r="V4">
-        <v>0.7616084039434942</v>
+        <v>0.7630365089539382</v>
       </c>
       <c r="W4">
-        <v>0.05901112647024482</v>
+        <v>0.0589822979282273</v>
       </c>
       <c r="X4">
-        <v>2.929932492543371</v>
+        <v>2.931364543937377</v>
       </c>
       <c r="Y4">
-        <v>0.9033010487875309</v>
+        <v>0.9018582759042776</v>
       </c>
       <c r="Z4">
-        <v>2.842723571483857</v>
+        <v>2.847271297654479</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1">
@@ -1243,58 +1243,58 @@
         <v>37</v>
       </c>
       <c r="I5" s="4">
-        <v>0.0098817676214793</v>
+        <v>0.009859724104468644</v>
       </c>
       <c r="J5" s="4">
-        <v>0.4234414502635361</v>
+        <v>0.4243881439755509</v>
       </c>
       <c r="K5" s="4">
-        <v>0.007176944546217577</v>
+        <v>0.007177055373651661</v>
       </c>
       <c r="L5" s="4">
-        <v>0.006501576965482248</v>
+        <v>0.006501476568724097</v>
       </c>
       <c r="M5" s="4">
-        <v>2.699583035312471</v>
+        <v>2.699718702860548</v>
       </c>
       <c r="N5" s="4">
-        <v>0.008423663969765736</v>
+        <v>0.008423240659798149</v>
       </c>
       <c r="O5" s="4">
-        <v>2.0635718201411</v>
+        <v>2.064165395369796</v>
       </c>
       <c r="P5" s="4">
-        <v>0.4556666714120036</v>
+        <v>0.4555356390590248</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.007544744499583755</v>
+        <v>0.007540655251536639</v>
       </c>
       <c r="R5" s="4">
-        <v>0.1117455601314045</v>
+        <v>0.1118061590181456</v>
       </c>
       <c r="S5" s="4">
-        <v>5.471924702884194E-05</v>
+        <v>5.468958922213095E-05</v>
       </c>
       <c r="T5" s="4">
-        <v>0.111745560131405</v>
+        <v>0.1118061590181461</v>
       </c>
       <c r="U5" s="4">
-        <v>1.308204699111776</v>
+        <v>1.309592230342671</v>
       </c>
       <c r="V5" s="4">
-        <v>0.2311552953756151</v>
+        <v>0.230910383116601</v>
       </c>
       <c r="W5" s="4">
-        <v>0.1945116429061541</v>
+        <v>0.1951022458973197</v>
       </c>
       <c r="X5" s="4">
-        <v>0.4452648950579985</v>
+        <v>0.4439170131939391</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.2543991181516105</v>
+        <v>0.2544523546619117</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.2770297951967517</v>
+        <v>0.2769718350353481</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1320,58 +1320,58 @@
         <v>38</v>
       </c>
       <c r="I6">
-        <v>0.009820115417633854</v>
+        <v>0.009882492370345322</v>
       </c>
       <c r="J6">
-        <v>2.234001093019618</v>
+        <v>2.21990038083948</v>
       </c>
       <c r="K6">
-        <v>0.00717408523159289</v>
+        <v>0.007173997915120665</v>
       </c>
       <c r="L6">
-        <v>0.00578856249717499</v>
+        <v>0.005788632951176021</v>
       </c>
       <c r="M6">
-        <v>7.502572401482168</v>
+        <v>7.502573418054824</v>
       </c>
       <c r="N6">
-        <v>0.02586661088812609</v>
+        <v>0.0258666073832901</v>
       </c>
       <c r="O6">
-        <v>5.848636375990949</v>
+        <v>5.73688258602763</v>
       </c>
       <c r="P6">
-        <v>2.278032896353791</v>
+        <v>2.322408706039819</v>
       </c>
       <c r="Q6">
-        <v>0.007582901838381435</v>
+        <v>0.007578669278143239</v>
       </c>
       <c r="R6">
-        <v>0.165114332335523</v>
+        <v>0.1652065459329437</v>
       </c>
       <c r="S6">
-        <v>5.499598812295702E-05</v>
+        <v>5.496529092582182E-05</v>
       </c>
       <c r="T6">
-        <v>0.1651143323355232</v>
+        <v>0.1652065459329439</v>
       </c>
       <c r="U6">
-        <v>3.602021872905649</v>
+        <v>3.607035859658489</v>
       </c>
       <c r="V6">
-        <v>0.4404684278906724</v>
+        <v>0.4398561515096172</v>
       </c>
       <c r="W6">
-        <v>0.005845374461645975</v>
+        <v>0.005860629943994579</v>
       </c>
       <c r="X6">
-        <v>0.4365037162627248</v>
+        <v>0.4353674775303392</v>
       </c>
       <c r="Y6">
-        <v>0.02107560741542367</v>
+        <v>0.02107339427257118</v>
       </c>
       <c r="Z6">
-        <v>0.2154446931175135</v>
+        <v>0.2154673192723945</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1">
@@ -1394,58 +1394,58 @@
         <v>39</v>
       </c>
       <c r="I7" s="4">
-        <v>0.009898463170733666</v>
+        <v>0.00990981077345649</v>
       </c>
       <c r="J7" s="4">
-        <v>0.3950012908949203</v>
+        <v>0.3945489797634017</v>
       </c>
       <c r="K7" s="4">
-        <v>0.007177534625300202</v>
+        <v>0.007177484057560762</v>
       </c>
       <c r="L7" s="4">
-        <v>0.005465041601531201</v>
+        <v>0.005465080104549463</v>
       </c>
       <c r="M7" s="4">
-        <v>2.699483392961258</v>
+        <v>2.699478350561817</v>
       </c>
       <c r="N7" s="4">
-        <v>0.009400005428079162</v>
+        <v>0.009400022986501923</v>
       </c>
       <c r="O7" s="4">
-        <v>2.061978795939123</v>
+        <v>2.060119946887088</v>
       </c>
       <c r="P7" s="4">
-        <v>0.406824831641942</v>
+        <v>0.4071919102451975</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.00756149220462867</v>
+        <v>0.007562015437654122</v>
       </c>
       <c r="R7" s="4">
-        <v>0.09847563815660898</v>
+        <v>0.09846882440351487</v>
       </c>
       <c r="S7" s="4">
-        <v>5.484071195181838E-05</v>
+        <v>5.484450676782241E-05</v>
       </c>
       <c r="T7" s="4">
-        <v>0.09847563815660948</v>
+        <v>0.09846882440351537</v>
       </c>
       <c r="U7" s="4">
-        <v>1.307126697943714</v>
+        <v>1.306146495871305</v>
       </c>
       <c r="V7" s="4">
-        <v>0.3267822419809668</v>
+        <v>0.3270274768239409</v>
       </c>
       <c r="W7" s="4">
-        <v>0.1947287178726052</v>
+        <v>0.1949372469548754</v>
       </c>
       <c r="X7" s="4">
-        <v>0.4558715161242138</v>
+        <v>0.4553838593506854</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.2545854329993658</v>
+        <v>0.2542352498259605</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.2903208624350778</v>
+        <v>0.2907207498660413</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1471,58 +1471,58 @@
         <v>40</v>
       </c>
       <c r="I8">
-        <v>0.009609960273039559</v>
+        <v>0.009695338289446138</v>
       </c>
       <c r="J8">
-        <v>3.609048839758808</v>
+        <v>3.577267232778834</v>
       </c>
       <c r="K8">
-        <v>0.007174457157354743</v>
+        <v>0.007174498837758559</v>
       </c>
       <c r="L8">
-        <v>0.00392893733930243</v>
+        <v>0.00392891451405727</v>
       </c>
       <c r="M8">
-        <v>24.41842748353419</v>
+        <v>24.41778435892999</v>
       </c>
       <c r="N8">
-        <v>0.03321230717941123</v>
+        <v>0.0332131819373989</v>
       </c>
       <c r="O8">
-        <v>19.48673627441504</v>
+        <v>18.74110099785223</v>
       </c>
       <c r="P8">
-        <v>3.53187696124833</v>
+        <v>3.672396563329767</v>
       </c>
       <c r="Q8">
-        <v>0.007559449509069897</v>
+        <v>0.007561725911077375</v>
       </c>
       <c r="R8">
-        <v>0.07413202636483412</v>
+        <v>0.07410970946316117</v>
       </c>
       <c r="S8">
-        <v>5.482589703490616E-05</v>
+        <v>5.48424069384279E-05</v>
       </c>
       <c r="T8">
-        <v>0.07413202636483363</v>
+        <v>0.07410970946316066</v>
       </c>
       <c r="U8">
-        <v>11.53131285793913</v>
+        <v>11.51100365806201</v>
       </c>
       <c r="V8">
-        <v>0.3787924278821364</v>
+        <v>0.37946074242345</v>
       </c>
       <c r="W8">
-        <v>0.09829738195301137</v>
+        <v>0.09872799592855958</v>
       </c>
       <c r="X8">
-        <v>1.492674383932083</v>
+        <v>1.486163905879544</v>
       </c>
       <c r="Y8">
-        <v>1.134330019521224</v>
+        <v>1.133871896585667</v>
       </c>
       <c r="Z8">
-        <v>1.40067714097342</v>
+        <v>1.401243062331488</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1">
@@ -1545,58 +1545,58 @@
         <v>41</v>
       </c>
       <c r="I9" s="4">
-        <v>0.009937690253973987</v>
+        <v>0.009942642374867586</v>
       </c>
       <c r="J9" s="4">
-        <v>0.3789291850644814</v>
+        <v>0.3787404522242763</v>
       </c>
       <c r="K9" s="4">
-        <v>0.007176026117582307</v>
+        <v>0.007175964846226958</v>
       </c>
       <c r="L9" s="4">
-        <v>0.00466996760022504</v>
+        <v>0.004670007474339591</v>
       </c>
       <c r="M9" s="4">
-        <v>2.699309545259597</v>
+        <v>2.699349606342518</v>
       </c>
       <c r="N9" s="4">
-        <v>0.00682883386831321</v>
+        <v>0.006828732521500181</v>
       </c>
       <c r="O9" s="4">
-        <v>2.051160749312588</v>
+        <v>2.053786140768191</v>
       </c>
       <c r="P9" s="4">
-        <v>0.4328449026523639</v>
+        <v>0.4322915892929702</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.007552977771824213</v>
+        <v>0.007553655516833508</v>
       </c>
       <c r="R9" s="4">
-        <v>0.08373883943101065</v>
+        <v>0.08373132603827226</v>
       </c>
       <c r="S9" s="4">
-        <v>5.477895991343415E-05</v>
+        <v>5.478387534782535E-05</v>
       </c>
       <c r="T9" s="4">
-        <v>0.08373883943101122</v>
+        <v>0.08373132603827285</v>
       </c>
       <c r="U9" s="4">
-        <v>1.305662393149226</v>
+        <v>1.309110682592674</v>
       </c>
       <c r="V9" s="4">
-        <v>0.3126162791904639</v>
+        <v>0.3117928259639976</v>
       </c>
       <c r="W9" s="4">
-        <v>0.1953827299701781</v>
+        <v>0.1953125163448551</v>
       </c>
       <c r="X9" s="4">
-        <v>0.4638404913757248</v>
+        <v>0.4640072391248222</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.2551557351932992</v>
+        <v>0.2555664552922462</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.2556604654389273</v>
+        <v>0.25524959425655</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1622,58 +1622,58 @@
         <v>42</v>
       </c>
       <c r="I10">
-        <v>0.009440096350573773</v>
+        <v>0.009501002438922376</v>
       </c>
       <c r="J10">
-        <v>2.963141473734973</v>
+        <v>2.944146282696039</v>
       </c>
       <c r="K10">
-        <v>0.007175298596582939</v>
+        <v>0.0071752783125933</v>
       </c>
       <c r="L10">
-        <v>0.003295112378592302</v>
+        <v>0.003295121693635208</v>
       </c>
       <c r="M10">
-        <v>33.45701007655609</v>
+        <v>33.45852367426423</v>
       </c>
       <c r="N10">
-        <v>0.0339668320266534</v>
+        <v>0.03396529543407661</v>
       </c>
       <c r="O10">
-        <v>26.7749323068</v>
+        <v>26.46578628848677</v>
       </c>
       <c r="P10">
-        <v>3.178157733517896</v>
+        <v>3.215281694173313</v>
       </c>
       <c r="Q10">
-        <v>0.007570411177137836</v>
+        <v>0.007569434626890977</v>
       </c>
       <c r="R10">
-        <v>0.06241401263487427</v>
+        <v>0.06242206481082272</v>
       </c>
       <c r="S10">
-        <v>5.490539796736197E-05</v>
+        <v>5.489831540887415E-05</v>
       </c>
       <c r="T10">
-        <v>0.062414012634874</v>
+        <v>0.06242206481082245</v>
       </c>
       <c r="U10">
-        <v>15.7601226857966</v>
+        <v>15.76782841539394</v>
       </c>
       <c r="V10">
-        <v>0.4304744712955171</v>
+        <v>0.4302640986438764</v>
       </c>
       <c r="W10">
-        <v>0.01118110551768327</v>
+        <v>0.01117163554071872</v>
       </c>
       <c r="X10">
-        <v>0.5578203104023658</v>
+        <v>0.5582931637702198</v>
       </c>
       <c r="Y10">
-        <v>0.1762362596327645</v>
+        <v>0.1766722212465853</v>
       </c>
       <c r="Z10">
-        <v>0.3524673191975353</v>
+        <v>0.3515975603853564</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1">
@@ -1696,58 +1696,58 @@
         <v>43</v>
       </c>
       <c r="I11" s="4">
-        <v>0.009883620440080225</v>
+        <v>0.009900252643082731</v>
       </c>
       <c r="J11" s="4">
-        <v>0.4870596468792335</v>
+        <v>0.4862413975664865</v>
       </c>
       <c r="K11" s="4">
-        <v>0.007175779198353556</v>
+        <v>0.007175743706411997</v>
       </c>
       <c r="L11" s="4">
-        <v>0.005376245762691754</v>
+        <v>0.005376272354137635</v>
       </c>
       <c r="M11" s="4">
-        <v>2.699463977054997</v>
+        <v>2.699247965118998</v>
       </c>
       <c r="N11" s="4">
-        <v>0.007366368758302179</v>
+        <v>0.007366958264563671</v>
       </c>
       <c r="O11" s="4">
-        <v>2.060044850781017</v>
+        <v>2.057099993786945</v>
       </c>
       <c r="P11" s="4">
-        <v>0.4814502484650409</v>
+        <v>0.4821394721954245</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.007546220977122042</v>
+        <v>0.007548645568612128</v>
       </c>
       <c r="R11" s="4">
-        <v>0.1052178306191872</v>
+        <v>0.1051840351184704</v>
       </c>
       <c r="S11" s="4">
-        <v>5.472995537544725E-05</v>
+        <v>5.474754004258839E-05</v>
       </c>
       <c r="T11" s="4">
-        <v>0.1052178306191881</v>
+        <v>0.1051840351184713</v>
       </c>
       <c r="U11" s="4">
-        <v>1.305113624554582</v>
+        <v>1.305377877935024</v>
       </c>
       <c r="V11" s="4">
-        <v>0.2873236598103063</v>
+        <v>0.287265495619179</v>
       </c>
       <c r="W11" s="4">
-        <v>0.1952314029601841</v>
+        <v>0.1955331892553568</v>
       </c>
       <c r="X11" s="4">
-        <v>0.4598742121188855</v>
+        <v>0.4591644413876385</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.2552566239881773</v>
+        <v>0.2551270533060435</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.2917540574804503</v>
+        <v>0.2919022298194994</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1773,58 +1773,58 @@
         <v>44</v>
       </c>
       <c r="I12">
-        <v>0.009487403354555272</v>
+        <v>0.009610709267804031</v>
       </c>
       <c r="J12">
-        <v>2.53644352667617</v>
+        <v>2.503900820748269</v>
       </c>
       <c r="K12">
-        <v>0.007173563718519486</v>
+        <v>0.007173593772190717</v>
       </c>
       <c r="L12">
-        <v>0.003069006008533759</v>
+        <v>0.003068993150975816</v>
       </c>
       <c r="M12">
-        <v>31.72087915327379</v>
+        <v>31.71906999615733</v>
       </c>
       <c r="N12">
-        <v>0.02674313040086092</v>
+        <v>0.02674465574585643</v>
       </c>
       <c r="O12">
-        <v>25.3375528244668</v>
+        <v>24.88698370481256</v>
       </c>
       <c r="P12">
-        <v>2.537669234336503</v>
+        <v>2.583612744665059</v>
       </c>
       <c r="Q12">
-        <v>0.007566562887130689</v>
+        <v>0.00756852798933107</v>
       </c>
       <c r="R12">
-        <v>0.06160966803485823</v>
+        <v>0.06159367162255841</v>
       </c>
       <c r="S12">
-        <v>5.487748774037531E-05</v>
+        <v>5.489173990129945E-05</v>
       </c>
       <c r="T12">
-        <v>0.06160966803485844</v>
+        <v>0.06159367162255863</v>
       </c>
       <c r="U12">
-        <v>15.0228543467471</v>
+        <v>15.02000864866997</v>
       </c>
       <c r="V12">
-        <v>0.2607807078363422</v>
+        <v>0.2608301154749262</v>
       </c>
       <c r="W12">
-        <v>0.0004873108255863941</v>
+        <v>0.0004873868849594435</v>
       </c>
       <c r="X12">
-        <v>0.2702500168961465</v>
+        <v>0.2702078429118109</v>
       </c>
       <c r="Y12">
-        <v>0.007329162023043708</v>
+        <v>0.007330486930141442</v>
       </c>
       <c r="Z12">
-        <v>0.06276175247515996</v>
+        <v>0.06275040895976827</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1">
@@ -1847,58 +1847,58 @@
         <v>45</v>
       </c>
       <c r="I13" s="4">
-        <v>0.009942955813991438</v>
+        <v>0.009915310322743721</v>
       </c>
       <c r="J13" s="4">
-        <v>0.4781354106721791</v>
+        <v>0.4794685296448291</v>
       </c>
       <c r="K13" s="4">
-        <v>0.007175356576917184</v>
+        <v>0.007175344537425666</v>
       </c>
       <c r="L13" s="4">
-        <v>0.004395947462145746</v>
+        <v>0.004395954838094303</v>
       </c>
       <c r="M13" s="4">
-        <v>2.699597622255987</v>
+        <v>2.699528980303033</v>
       </c>
       <c r="N13" s="4">
-        <v>0.006932752004564243</v>
+        <v>0.00693292828629354</v>
       </c>
       <c r="O13" s="4">
-        <v>2.049710078689774</v>
+        <v>2.048005683746828</v>
       </c>
       <c r="P13" s="4">
-        <v>0.4855358211679444</v>
+        <v>0.4859398946550374</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.007548630467973634</v>
+        <v>0.007548806468902021</v>
       </c>
       <c r="R13" s="4">
-        <v>0.08924069664290218</v>
+        <v>0.08923861599008324</v>
       </c>
       <c r="S13" s="4">
-        <v>5.474743052323115E-05</v>
+        <v>5.474870699300137E-05</v>
       </c>
       <c r="T13" s="4">
-        <v>0.08924069664290053</v>
+        <v>0.08923861599008161</v>
       </c>
       <c r="U13" s="4">
-        <v>1.3066724939202</v>
+        <v>1.307630094685265</v>
       </c>
       <c r="V13" s="4">
-        <v>0.2159736089007706</v>
+        <v>0.2158154475874466</v>
       </c>
       <c r="W13" s="4">
-        <v>0.1946950519444107</v>
+        <v>0.1945463722328488</v>
       </c>
       <c r="X13" s="4">
-        <v>0.3251071635678012</v>
+        <v>0.3253556227847539</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.2544105331741326</v>
+        <v>0.2542119999036979</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.2209169781038759</v>
+        <v>0.2210895087876128</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1924,58 +1924,58 @@
         <v>46</v>
       </c>
       <c r="I14">
-        <v>0.008755799692347315</v>
+        <v>0.008660796286496011</v>
       </c>
       <c r="J14">
-        <v>2.96185397948124</v>
+        <v>2.994343626665726</v>
       </c>
       <c r="K14">
-        <v>0.007174050105841434</v>
+        <v>0.007174118780785095</v>
       </c>
       <c r="L14">
-        <v>0.003691460229459285</v>
+        <v>0.003691424892600358</v>
       </c>
       <c r="M14">
-        <v>19.64405846258551</v>
+        <v>19.64649218141604</v>
       </c>
       <c r="N14">
-        <v>0.02485576683611989</v>
+        <v>0.024852687815843</v>
       </c>
       <c r="O14">
-        <v>17.09807045289071</v>
+        <v>17.11992933803555</v>
       </c>
       <c r="P14">
-        <v>2.969044156191978</v>
+        <v>2.965253252975106</v>
       </c>
       <c r="Q14">
-        <v>0.007564490348416833</v>
+        <v>0.00756288409115601</v>
       </c>
       <c r="R14">
-        <v>0.06810354261871222</v>
+        <v>0.06811800691678958</v>
       </c>
       <c r="S14">
-        <v>5.486245638207463E-05</v>
+        <v>5.485080679104452E-05</v>
       </c>
       <c r="T14">
-        <v>0.06810354261871156</v>
+        <v>0.06811800691678893</v>
       </c>
       <c r="U14">
-        <v>9.330838981762803</v>
+        <v>9.315907172679495</v>
       </c>
       <c r="V14">
-        <v>0.3562335204826603</v>
+        <v>0.3568045020111711</v>
       </c>
       <c r="W14">
-        <v>0.02226580494729695</v>
+        <v>0.02233836201713205</v>
       </c>
       <c r="X14">
-        <v>0.6365202419269219</v>
+        <v>0.6344527651974496</v>
       </c>
       <c r="Y14">
-        <v>0.2074262417872774</v>
+        <v>0.2082698513425592</v>
       </c>
       <c r="Z14">
-        <v>0.5094612156275244</v>
+        <v>0.5073976123417954</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1">
@@ -1998,58 +1998,58 @@
         <v>47</v>
       </c>
       <c r="I15" s="4">
-        <v>0.009857552171206933</v>
+        <v>0.0098836395373202</v>
       </c>
       <c r="J15" s="4">
-        <v>0.4597603348935775</v>
+        <v>0.4585468207690044</v>
       </c>
       <c r="K15" s="4">
-        <v>0.007175524326662111</v>
+        <v>0.007175724036267457</v>
       </c>
       <c r="L15" s="4">
-        <v>0.004989779700928007</v>
+        <v>0.004989640828957764</v>
       </c>
       <c r="M15" s="4">
-        <v>2.69926084063386</v>
+        <v>2.699293296102625</v>
       </c>
       <c r="N15" s="4">
-        <v>0.008384063810247094</v>
+        <v>0.008383963002853724</v>
       </c>
       <c r="O15" s="4">
-        <v>2.065346642606248</v>
+        <v>2.065583347955624</v>
       </c>
       <c r="P15" s="4">
-        <v>0.4501397466717666</v>
+        <v>0.4500881629454989</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.007550206539135336</v>
+        <v>0.007551099651594036</v>
       </c>
       <c r="R15" s="4">
-        <v>0.07932911193486328</v>
+        <v>0.07931972921956675</v>
       </c>
       <c r="S15" s="4">
-        <v>5.475886118562624E-05</v>
+        <v>5.476533860063415E-05</v>
       </c>
       <c r="T15" s="4">
-        <v>0.07932911193486331</v>
+        <v>0.07931972921956673</v>
       </c>
       <c r="U15" s="4">
-        <v>1.304482294510548</v>
+        <v>1.304508843912329</v>
       </c>
       <c r="V15" s="4">
-        <v>0.2363411464051823</v>
+        <v>0.2363363363833242</v>
       </c>
       <c r="W15" s="4">
-        <v>0.1937295673288651</v>
+        <v>0.1939276295426846</v>
       </c>
       <c r="X15" s="4">
-        <v>0.4231008055075224</v>
+        <v>0.4226686840898305</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.2528477252011239</v>
+        <v>0.2532553014898574</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.3816689386724827</v>
+        <v>0.3810546999630308</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2075,58 +2075,58 @@
         <v>48</v>
       </c>
       <c r="I16">
-        <v>0.009555237304478012</v>
+        <v>0.009562542639302308</v>
       </c>
       <c r="J16">
-        <v>2.335984021334833</v>
+        <v>2.334199438921583</v>
       </c>
       <c r="K16">
-        <v>0.00717267765308464</v>
+        <v>0.007172705358310005</v>
       </c>
       <c r="L16">
-        <v>0.002934310487219762</v>
+        <v>0.002934299153179218</v>
       </c>
       <c r="M16">
-        <v>26.13750213057232</v>
+        <v>26.13831359394676</v>
       </c>
       <c r="N16">
-        <v>0.0206799264554004</v>
+        <v>0.02067928444753542</v>
       </c>
       <c r="O16">
-        <v>20.7905278955502</v>
+        <v>20.56717153534174</v>
       </c>
       <c r="P16">
-        <v>2.430907481352213</v>
+        <v>2.457306767520724</v>
       </c>
       <c r="Q16">
-        <v>0.007566497634100648</v>
+        <v>0.007566691699335247</v>
       </c>
       <c r="R16">
-        <v>0.05200680597616672</v>
+        <v>0.05200547214185662</v>
       </c>
       <c r="S16">
-        <v>5.487701448423384E-05</v>
+        <v>5.487842196774934E-05</v>
       </c>
       <c r="T16">
-        <v>0.05200680597616677</v>
+        <v>0.05200547214185666</v>
       </c>
       <c r="U16">
-        <v>12.44906434466002</v>
+        <v>12.44650878844356</v>
       </c>
       <c r="V16">
-        <v>0.2349292894137989</v>
+        <v>0.2349775258322351</v>
       </c>
       <c r="W16">
-        <v>0.0008441119735818969</v>
+        <v>0.0008440191775448218</v>
       </c>
       <c r="X16">
-        <v>0.2206198538240843</v>
+        <v>0.2206441099650343</v>
       </c>
       <c r="Y16">
-        <v>0.01050732759955239</v>
+        <v>0.01050848119283961</v>
       </c>
       <c r="Z16">
-        <v>0.05845621411757618</v>
+        <v>0.05844979694891361</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1">
@@ -2149,58 +2149,58 @@
         <v>49</v>
       </c>
       <c r="I17" s="4">
-        <v>0.009933353286865032</v>
+        <v>0.009903412313649067</v>
       </c>
       <c r="J17" s="4">
-        <v>0.3932927679723144</v>
+        <v>0.394481809472249</v>
       </c>
       <c r="K17" s="4">
-        <v>0.007175338588542672</v>
+        <v>0.007175176480282673</v>
       </c>
       <c r="L17" s="4">
-        <v>0.003976337401878786</v>
+        <v>0.003976427238991387</v>
       </c>
       <c r="M17" s="4">
-        <v>2.699247062586395</v>
+        <v>2.699291895192637</v>
       </c>
       <c r="N17" s="4">
-        <v>0.006324550632621455</v>
+        <v>0.006324445588002652</v>
       </c>
       <c r="O17" s="4">
-        <v>2.052985398839601</v>
+        <v>2.051668836958891</v>
       </c>
       <c r="P17" s="4">
-        <v>0.3974768072012285</v>
+        <v>0.3977318692284916</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.007544769876235149</v>
+        <v>0.007541556728975534</v>
       </c>
       <c r="R17" s="4">
-        <v>0.1021492932287154</v>
+        <v>0.1021928148428072</v>
       </c>
       <c r="S17" s="4">
-        <v>5.471943107632778E-05</v>
+        <v>5.46961273052526E-05</v>
       </c>
       <c r="T17" s="4">
-        <v>0.102149293228716</v>
+        <v>0.1021928148428077</v>
       </c>
       <c r="U17" s="4">
-        <v>1.305332127505846</v>
+        <v>1.306532670285804</v>
       </c>
       <c r="V17" s="4">
-        <v>0.3392770574246313</v>
+        <v>0.3389653035504574</v>
       </c>
       <c r="W17" s="4">
-        <v>0.1951196802213739</v>
+        <v>0.1948974100333302</v>
       </c>
       <c r="X17" s="4">
-        <v>0.4478104010203486</v>
+        <v>0.448321105098077</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.2543240245112843</v>
+        <v>0.2543404327212342</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.2858331097738412</v>
+        <v>0.2858146698835508</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2249,7 @@
     <col min="31" max="31" width="20.7109375" customWidth="1"/>
     <col min="32" max="32" width="19.7109375" customWidth="1"/>
     <col min="33" max="33" width="21.7109375" customWidth="1"/>
-    <col min="34" max="34" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" customWidth="1"/>
     <col min="35" max="35" width="19.7109375" customWidth="1"/>
     <col min="36" max="36" width="20.7109375" customWidth="1"/>
     <col min="37" max="37" width="19.7109375" customWidth="1"/>
@@ -2260,7 +2260,7 @@
     <col min="42" max="42" width="16.7109375" customWidth="1"/>
     <col min="43" max="43" width="9.7109375" customWidth="1"/>
     <col min="44" max="44" width="19.7109375" customWidth="1"/>
-    <col min="45" max="45" width="24.7109375" customWidth="1"/>
+    <col min="45" max="45" width="23.7109375" customWidth="1"/>
     <col min="46" max="46" width="23.7109375" customWidth="1"/>
     <col min="47" max="47" width="18.7109375" customWidth="1"/>
     <col min="48" max="48" width="9.7109375" customWidth="1"/>
@@ -2272,7 +2272,7 @@
     <col min="54" max="54" width="6.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
     <col min="56" max="56" width="19.7109375" customWidth="1"/>
-    <col min="57" max="57" width="19.7109375" customWidth="1"/>
+    <col min="57" max="57" width="13.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
     <col min="59" max="59" width="19.7109375" customWidth="1"/>
   </cols>
@@ -2628,61 +2628,61 @@
         <v>9186</v>
       </c>
       <c r="C3" s="4">
-        <v>2.046636197755046</v>
+        <v>2.045544290722234</v>
       </c>
       <c r="D3" s="4">
-        <v>0.4404323244646988</v>
+        <v>0.4406674262685277</v>
       </c>
       <c r="E3" s="4">
-        <v>2.69984585972793</v>
+        <v>2.699694738769988</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01120906247751112</v>
+        <v>0.01120968992780575</v>
       </c>
       <c r="G3" s="4">
-        <v>372.2574469851468</v>
+        <v>372.2366102763448</v>
       </c>
       <c r="H3" s="4">
-        <v>0.04172656980975294</v>
+        <v>0.04172656980975295</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>748.5851532213228</v>
+        <v>748.1857733049716</v>
       </c>
       <c r="K3" s="4">
         <v>3.297010990930299</v>
       </c>
       <c r="L3" s="4">
-        <v>10.35263142005802</v>
+        <v>10.34710815653514</v>
       </c>
       <c r="M3" s="4">
-        <v>0.04559633520662431</v>
+        <v>0.04559633520662432</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>13.71600703906943</v>
+        <v>13.71523930037968</v>
       </c>
       <c r="P3" s="4">
         <v>0.001537435798429116</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.35263142005802</v>
+        <v>10.34710815653514</v>
       </c>
       <c r="R3" s="4">
-        <v>0.04559633520662431</v>
+        <v>0.04559633520662432</v>
       </c>
       <c r="S3" s="4">
-        <v>0.9984642142615856</v>
+        <v>0.9979534204436099</v>
       </c>
       <c r="T3" s="4">
         <v>0.001297592116384946</v>
       </c>
       <c r="U3" s="4">
-        <v>0.9984642142615856</v>
+        <v>0.9979534204436099</v>
       </c>
       <c r="V3" s="4">
         <v>0.001297592116384946</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <v>0.8883770317103723</v>
+        <v>0.8905816135662882</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.003544855145221509</v>
+        <v>0.003562470684003865</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.0002169213414245276</v>
+        <v>0.000217459649863845</v>
       </c>
       <c r="AA3" s="4">
-        <v>8.655725056023084E-07</v>
+        <v>8.69873817057004E-07</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
@@ -2709,40 +2709,40 @@
         <v>0.85</v>
       </c>
       <c r="AD3" s="4">
-        <v>224.6325466597775</v>
+        <v>224.4377544158947</v>
       </c>
       <c r="AE3" s="4">
-        <v>0.835473868237121</v>
+        <v>0.8354738423200543</v>
       </c>
       <c r="AF3" s="4">
-        <v>10.24090644512335</v>
+        <v>10.2320259459459</v>
       </c>
       <c r="AG3" s="4">
-        <v>0.0380889138692817</v>
+        <v>0.03808891268773317</v>
       </c>
       <c r="AH3" s="4">
-        <v>47210.23011323402</v>
+        <v>47052.52653700281</v>
       </c>
       <c r="AI3" s="4">
-        <v>257.5243435537484</v>
+        <v>257.1085613729377</v>
       </c>
       <c r="AJ3" s="4">
-        <v>-1.535785738414397</v>
+        <v>-2.046579556390093</v>
       </c>
       <c r="AK3" s="4">
         <v>1.297592116384946</v>
       </c>
       <c r="AL3" s="4">
-        <v>1.000667855004778</v>
+        <v>0.9998560822461793</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.003723465027889132</v>
+        <v>0.003723670601000376</v>
       </c>
       <c r="AN3" s="4">
-        <v>1.000667855004778</v>
+        <v>0.9998560822461793</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.003723465027889132</v>
+        <v>0.003723670601000376</v>
       </c>
       <c r="AP3" s="4" t="s">
         <v>125</v>
@@ -2754,10 +2754,10 @@
         <v>126</v>
       </c>
       <c r="AS3" s="4">
-        <v>2.119599613483496E-05</v>
+        <v>2.124978520462398E-05</v>
       </c>
       <c r="AT3" s="4">
-        <v>8.461089482615696E-08</v>
+        <v>8.503595166371856E-08</v>
       </c>
       <c r="AU3" s="4">
         <v>0.75</v>
@@ -2801,19 +2801,19 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>67.09481988047879</v>
+        <v>34.97014251891885</v>
       </c>
       <c r="D4">
-        <v>69.18855739201307</v>
+        <v>132.7473513582583</v>
       </c>
       <c r="E4">
-        <v>32.40326371742279</v>
+        <v>32.39369657979356</v>
       </c>
       <c r="F4">
-        <v>0.1315642780674438</v>
+        <v>0.1316031341934269</v>
       </c>
       <c r="G4">
-        <v>4467.794404621972</v>
+        <v>4466.475278118516</v>
       </c>
       <c r="H4">
         <v>5.878021453978547</v>
@@ -2822,58 +2822,58 @@
         <v>0.3</v>
       </c>
       <c r="J4">
-        <v>2242.365317585261</v>
+        <v>1168.718990583996</v>
       </c>
       <c r="K4">
-        <v>1551.460214696074</v>
+        <v>1551.443504821226</v>
       </c>
       <c r="L4">
-        <v>31.01100995950173</v>
+        <v>16.16291331864172</v>
       </c>
       <c r="M4">
-        <v>21.45607042367274</v>
+        <v>21.45583933282805</v>
       </c>
       <c r="N4">
         <v>0.005</v>
       </c>
       <c r="O4">
-        <v>15.0413474329494</v>
+        <v>15.03690631139007</v>
       </c>
       <c r="P4">
-        <v>0.01978904016177587</v>
+        <v>0.01978903999151855</v>
       </c>
       <c r="Q4">
-        <v>31.01100995950173</v>
+        <v>16.16291331864172</v>
       </c>
       <c r="R4">
-        <v>21.45607042367274</v>
+        <v>21.45583933282805</v>
       </c>
       <c r="S4">
-        <v>1.00075002159789</v>
+        <v>1.001001880926452</v>
       </c>
       <c r="T4">
-        <v>0.001464721062903878</v>
+        <v>0.001464721062903879</v>
       </c>
       <c r="U4">
-        <v>1.003046216285865</v>
+        <v>1.003827447745538</v>
       </c>
       <c r="V4">
-        <v>0.00146808182698224</v>
+        <v>0.001468855587836767</v>
       </c>
       <c r="W4">
         <v>0.003</v>
       </c>
       <c r="X4">
-        <v>0.005529071023814666</v>
+        <v>0.005660272088261397</v>
       </c>
       <c r="Y4">
-        <v>0.0001619980484625463</v>
+        <v>0.0001659232090856783</v>
       </c>
       <c r="Z4">
-        <v>1.350072616137133E-06</v>
+        <v>1.382108913655223E-06</v>
       </c>
       <c r="AA4">
-        <v>3.955621625313221E-08</v>
+        <v>4.051465065348725E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
@@ -2882,43 +2882,43 @@
         <v>0.85</v>
       </c>
       <c r="AD4">
-        <v>240.407746887284</v>
+        <v>239.9577883215322</v>
       </c>
       <c r="AE4">
-        <v>1.830965604024759</v>
+        <v>1.8309655309717</v>
       </c>
       <c r="AF4">
-        <v>10.96009140778892</v>
+        <v>10.93957797977251</v>
       </c>
       <c r="AG4">
-        <v>0.08347297724160921</v>
+        <v>0.08347297391114994</v>
       </c>
       <c r="AH4">
-        <v>8118149.554909309</v>
+        <v>7915134.524992632</v>
       </c>
       <c r="AI4">
-        <v>245760.828385499</v>
+        <v>239753.1066621384</v>
       </c>
       <c r="AJ4">
-        <v>3.046216285864878</v>
+        <v>3.827447745538448</v>
       </c>
       <c r="AK4">
-        <v>1.46808182698224</v>
+        <v>1.468855587836767</v>
       </c>
       <c r="AL4">
-        <v>0.9765774297323896</v>
+        <v>0.9750375114366199</v>
       </c>
       <c r="AM4">
-        <v>0.007547853932759595</v>
+        <v>0.007549738173726313</v>
       </c>
       <c r="AN4">
-        <v>0.9754657320938003</v>
+        <v>0.9738301850808498</v>
       </c>
       <c r="AO4">
-        <v>0.007539261750370366</v>
+        <v>0.007540389817617558</v>
       </c>
       <c r="AP4">
-        <v>405.3622</v>
+        <v>397.3046</v>
       </c>
       <c r="AQ4" t="s">
         <v>126</v>
@@ -2927,10 +2927,10 @@
         <v>126</v>
       </c>
       <c r="AS4">
-        <v>1.202955702068609E-07</v>
+        <v>1.231864737557985E-07</v>
       </c>
       <c r="AT4">
-        <v>3.52813055930718E-09</v>
+        <v>3.6146818967608E-09</v>
       </c>
       <c r="AU4">
         <v>0.75</v>
@@ -2939,34 +2939,34 @@
         <v>0.375</v>
       </c>
       <c r="AW4">
-        <v>388.2673</v>
+        <v>378.6177</v>
       </c>
       <c r="AX4">
-        <v>30.5029479563</v>
+        <v>27.776555387</v>
       </c>
       <c r="AY4">
-        <v>29.4940938394352</v>
+        <v>26.94013232986835</v>
       </c>
       <c r="AZ4">
-        <v>7.856172270057253</v>
+        <v>7.336306619315472</v>
       </c>
       <c r="BA4" t="s">
         <v>25</v>
       </c>
       <c r="BC4">
-        <v>9.127210607306973</v>
+        <v>11.15943581643624</v>
       </c>
       <c r="BD4">
-        <v>4.468557078687228</v>
+        <v>4.371332342713034</v>
       </c>
       <c r="BE4">
-        <v>388209.3</v>
+        <v>378559.7</v>
       </c>
       <c r="BF4">
-        <v>14747.0469197176</v>
+        <v>13470.06616493417</v>
       </c>
       <c r="BG4">
-        <v>3798.168663628794</v>
+        <v>3557.695840668351</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="4" customFormat="1">
@@ -2974,19 +2974,19 @@
         <v>9186</v>
       </c>
       <c r="C5" s="4">
-        <v>2.0635718201411</v>
+        <v>2.064165395369796</v>
       </c>
       <c r="D5" s="4">
-        <v>0.4556666714120036</v>
+        <v>0.4555356390590248</v>
       </c>
       <c r="E5" s="4">
-        <v>2.699583035312471</v>
+        <v>2.699718702860548</v>
       </c>
       <c r="F5" s="4">
-        <v>0.008423663969765736</v>
+        <v>0.008423240659798149</v>
       </c>
       <c r="G5" s="4">
-        <v>372.2212084919188</v>
+        <v>372.2399144691153</v>
       </c>
       <c r="H5" s="4">
         <v>0.03135466382756037</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>754.7795885062401</v>
+        <v>754.9966967563577</v>
       </c>
       <c r="K5" s="4">
         <v>3.439279027443602</v>
       </c>
       <c r="L5" s="4">
-        <v>10.43829796725602</v>
+        <v>10.44130048698547</v>
       </c>
       <c r="M5" s="4">
         <v>0.04756384489946232</v>
@@ -3010,25 +3010,25 @@
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>13.71467181412706</v>
+        <v>13.71536104497248</v>
       </c>
       <c r="P5" s="4">
         <v>0.001155277868178238</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.43829796725602</v>
+        <v>10.44130048698547</v>
       </c>
       <c r="R5" s="4">
         <v>0.04756384489946232</v>
       </c>
       <c r="S5" s="4">
-        <v>0.9969573432884189</v>
+        <v>0.9964169928670988</v>
       </c>
       <c r="T5" s="4">
         <v>0.001114055567528818</v>
       </c>
       <c r="U5" s="4">
-        <v>0.9969573432884189</v>
+        <v>0.9964169928670988</v>
       </c>
       <c r="V5" s="4">
         <v>0.001114055567528818</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.891256605307554</v>
+        <v>0.8885586414037057</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.003968452788320161</v>
+        <v>0.003944462981395974</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002176244674004757</v>
+        <v>0.0002169656863556631</v>
       </c>
       <c r="AA5" s="4">
-        <v>9.690053563912567E-07</v>
+        <v>9.631475945257893E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
@@ -3055,40 +3055,40 @@
         <v>0.85</v>
       </c>
       <c r="AD5" s="4">
-        <v>224.8224818187</v>
+        <v>225.0609455359863</v>
       </c>
       <c r="AE5" s="4">
-        <v>0.5196890719188046</v>
+        <v>0.5196890915829907</v>
       </c>
       <c r="AF5" s="4">
-        <v>10.24956551177281</v>
+        <v>10.26043697566172</v>
       </c>
       <c r="AG5" s="4">
-        <v>0.02369241343345562</v>
+        <v>0.02369241432993786</v>
       </c>
       <c r="AH5" s="4">
-        <v>47097.48694254774</v>
+        <v>47290.59764244102</v>
       </c>
       <c r="AI5" s="4">
-        <v>236.2837301764788</v>
+        <v>236.6335313630173</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-3.042656711581104</v>
+        <v>-3.583007132901161</v>
       </c>
       <c r="AK5" s="4">
         <v>1.114055567528818</v>
       </c>
       <c r="AL5" s="4">
-        <v>1.001611461637547</v>
+        <v>1.002623459617004</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.002316814754060446</v>
+        <v>0.002316701521823447</v>
       </c>
       <c r="AN5" s="4">
-        <v>1.001611461637547</v>
+        <v>1.002623459617004</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.002316814754060447</v>
+        <v>0.002316701521823447</v>
       </c>
       <c r="AP5" s="4" t="s">
         <v>125</v>
@@ -3100,10 +3100,10 @@
         <v>126</v>
       </c>
       <c r="AS5" s="4">
-        <v>2.126677083342835E-05</v>
+        <v>2.120132773955892E-05</v>
       </c>
       <c r="AT5" s="4">
-        <v>9.471040884815358E-08</v>
+        <v>9.413324231000063E-08</v>
       </c>
       <c r="AU5" s="4">
         <v>0.75</v>
@@ -3147,19 +3147,19 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>5.848636375990949</v>
+        <v>5.73688258602763</v>
       </c>
       <c r="D6">
-        <v>2.278032896353791</v>
+        <v>2.322408706039819</v>
       </c>
       <c r="E6">
-        <v>7.502572401482168</v>
+        <v>7.502573418054824</v>
       </c>
       <c r="F6">
-        <v>0.02586661088812609</v>
+        <v>0.0258666073832901</v>
       </c>
       <c r="G6">
-        <v>1034.462185288763</v>
+        <v>1034.462325454817</v>
       </c>
       <c r="H6">
         <v>0.2675803082534502</v>
@@ -3168,58 +3168,58 @@
         <v>0.3</v>
       </c>
       <c r="J6">
-        <v>193.142751825832</v>
+        <v>189.4517208163983</v>
       </c>
       <c r="K6">
-        <v>4.399855423515416</v>
+        <v>4.399843257982285</v>
       </c>
       <c r="L6">
-        <v>2.671086532379311</v>
+        <v>2.620041058880085</v>
       </c>
       <c r="M6">
-        <v>0.06084822989767646</v>
+        <v>0.06084806165324896</v>
       </c>
       <c r="N6">
         <v>0.005</v>
       </c>
       <c r="O6">
-        <v>3.441328576938804</v>
+        <v>3.441329043288853</v>
       </c>
       <c r="P6">
-        <v>0.0008901550723786472</v>
+        <v>0.0008901550723946611</v>
       </c>
       <c r="Q6">
-        <v>2.671086532379311</v>
+        <v>2.620041058880085</v>
       </c>
       <c r="R6">
-        <v>0.06084822989767646</v>
+        <v>0.06084806165324896</v>
       </c>
       <c r="S6">
-        <v>1.001999427764148</v>
+        <v>1.001440140168575</v>
       </c>
       <c r="T6">
         <v>0.001654444665158535</v>
       </c>
       <c r="U6">
-        <v>1.003943203970439</v>
+        <v>1.003619748335958</v>
       </c>
       <c r="V6">
-        <v>0.001657654118263651</v>
+        <v>0.00165804552052674</v>
       </c>
       <c r="W6">
         <v>0.003</v>
       </c>
       <c r="X6">
-        <v>2.403915829349573</v>
+        <v>2.39694470957454</v>
       </c>
       <c r="Y6">
-        <v>0.01049318193093879</v>
+        <v>0.01043551771987159</v>
       </c>
       <c r="Z6">
-        <v>0.0005869812340490259</v>
+        <v>0.000585279046127846</v>
       </c>
       <c r="AA6">
-        <v>2.562194900388801E-06</v>
+        <v>2.548114619640433E-06</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
@@ -3228,43 +3228,43 @@
         <v>0.85</v>
       </c>
       <c r="AD6">
-        <v>55.89457137378204</v>
+        <v>55.97238355680559</v>
       </c>
       <c r="AE6">
-        <v>0.2461979398063276</v>
+        <v>0.2461979722211669</v>
       </c>
       <c r="AF6">
-        <v>2.548210776847624</v>
+        <v>2.551758202625785</v>
       </c>
       <c r="AG6">
-        <v>0.01122406394812142</v>
+        <v>0.01122406542590076</v>
       </c>
       <c r="AH6">
-        <v>4341.213362597537</v>
+        <v>4359.900152769846</v>
       </c>
       <c r="AI6">
-        <v>26.92070135724824</v>
+        <v>26.98275507298142</v>
       </c>
       <c r="AJ6">
-        <v>3.943203970439457</v>
+        <v>3.619748335957684</v>
       </c>
       <c r="AK6">
-        <v>1.657654118263651</v>
+        <v>1.65804552052674</v>
       </c>
       <c r="AL6">
-        <v>0.9924038872741849</v>
+        <v>0.9937853020262534</v>
       </c>
       <c r="AM6">
-        <v>0.004378756733664354</v>
+        <v>0.004378777677250769</v>
       </c>
       <c r="AN6">
-        <v>0.9911973643741525</v>
+        <v>0.9924465873509145</v>
       </c>
       <c r="AO6">
-        <v>0.004373433225422818</v>
+        <v>0.004372879085347034</v>
       </c>
       <c r="AP6">
-        <v>498.9566</v>
+        <v>524.2474</v>
       </c>
       <c r="AQ6" t="s">
         <v>126</v>
@@ -3273,10 +3273,10 @@
         <v>126</v>
       </c>
       <c r="AS6">
-        <v>0.000228600578774683</v>
+        <v>0.0002279376286621842</v>
       </c>
       <c r="AT6">
-        <v>9.996005038736628E-07</v>
+        <v>9.941162566549384E-07</v>
       </c>
       <c r="AU6">
         <v>0.75</v>
@@ -3285,34 +3285,34 @@
         <v>0.375</v>
       </c>
       <c r="AW6">
-        <v>464.5269</v>
+        <v>478.1797</v>
       </c>
       <c r="AX6">
-        <v>38.9269965232</v>
+        <v>45.5096899786</v>
       </c>
       <c r="AY6">
-        <v>37.33528689017063</v>
+        <v>42.37518575336064</v>
       </c>
       <c r="AZ6">
-        <v>8.379922997613271</v>
+        <v>9.517277705138884</v>
       </c>
       <c r="BA6" t="s">
         <v>26</v>
       </c>
       <c r="BC6">
-        <v>14.65652986581661</v>
+        <v>13.98358006908092</v>
       </c>
       <c r="BD6">
-        <v>6.368860864493905</v>
+        <v>6.652995257658999</v>
       </c>
       <c r="BE6">
-        <v>464468.9</v>
+        <v>478121.7</v>
       </c>
       <c r="BF6">
-        <v>18667.64344508532</v>
+        <v>21187.59287668032</v>
       </c>
       <c r="BG6">
-        <v>4018.635615092541</v>
+        <v>4430.885057789011</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="4" customFormat="1">
@@ -3320,19 +3320,19 @@
         <v>9186</v>
       </c>
       <c r="C7" s="4">
-        <v>2.061978795939123</v>
+        <v>2.060119946887088</v>
       </c>
       <c r="D7" s="4">
-        <v>0.406824831641942</v>
+        <v>0.4071919102451975</v>
       </c>
       <c r="E7" s="4">
-        <v>2.699483392961258</v>
+        <v>2.699478350561817</v>
       </c>
       <c r="F7" s="4">
-        <v>0.009400005428079162</v>
+        <v>0.009400022986501923</v>
       </c>
       <c r="G7" s="4">
-        <v>372.2074697048911</v>
+        <v>372.2067744538139</v>
       </c>
       <c r="H7" s="4">
         <v>0.03498752235597587</v>
@@ -3341,40 +3341,40 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>754.1969181383311</v>
+        <v>753.5170186994569</v>
       </c>
       <c r="K7" s="4">
         <v>3.068260342464981</v>
       </c>
       <c r="L7" s="4">
-        <v>10.43023987054866</v>
+        <v>10.42083713491721</v>
       </c>
       <c r="M7" s="4">
-        <v>0.04243280579321028</v>
+        <v>0.04243280579321029</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>13.71416560182397</v>
+        <v>13.71413998495923</v>
       </c>
       <c r="P7" s="4">
         <v>0.001289132310987219</v>
       </c>
       <c r="Q7" s="4">
-        <v>10.43023987054866</v>
+        <v>10.42083713491721</v>
       </c>
       <c r="R7" s="4">
-        <v>0.04243280579321028</v>
+        <v>0.04243280579321029</v>
       </c>
       <c r="S7" s="4">
-        <v>0.9991703735015264</v>
+        <v>0.9992395131532408</v>
       </c>
       <c r="T7" s="4">
         <v>0.0009839394015774066</v>
       </c>
       <c r="U7" s="4">
-        <v>0.9991703735015264</v>
+        <v>0.9992395131532408</v>
       </c>
       <c r="V7" s="4">
         <v>0.0009839394015774066</v>
@@ -3383,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.8902630718431014</v>
+        <v>0.8893107359285929</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.004058455763105146</v>
+        <v>0.004049777550891609</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002173818692645871</v>
+        <v>0.0002171493306276255</v>
       </c>
       <c r="AA7" s="4">
-        <v>9.909820231956295E-07</v>
+        <v>9.888630023662609E-07</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
@@ -3401,40 +3401,40 @@
         <v>0.85</v>
       </c>
       <c r="AD7" s="4">
-        <v>224.6372145180074</v>
+        <v>224.4687551531487</v>
       </c>
       <c r="AE7" s="4">
-        <v>0.7340745259255383</v>
+        <v>0.734074506235452</v>
       </c>
       <c r="AF7" s="4">
-        <v>10.24111925088165</v>
+        <v>10.23343925694945</v>
       </c>
       <c r="AG7" s="4">
-        <v>0.03346615909197546</v>
+        <v>0.03346615819431243</v>
       </c>
       <c r="AH7" s="4">
-        <v>47111.19324499249</v>
+        <v>47126.27585529182</v>
       </c>
       <c r="AI7" s="4">
-        <v>264.2452814512864</v>
+        <v>264.2105267220917</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.8296264984736235</v>
+        <v>-0.760486846759223</v>
       </c>
       <c r="AK7" s="4">
         <v>0.9839394015774066</v>
       </c>
       <c r="AL7" s="4">
-        <v>1.00082301396418</v>
+        <v>1.000074347383193</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.003271864688411535</v>
+        <v>0.003271868689528417</v>
       </c>
       <c r="AN7" s="4">
-        <v>1.00082301396418</v>
+        <v>1.000074347383193</v>
       </c>
       <c r="AO7" s="4">
-        <v>0.003271864688411535</v>
+        <v>0.003271868689528417</v>
       </c>
       <c r="AP7" s="4" t="s">
         <v>125</v>
@@ -3446,10 +3446,10 @@
         <v>126</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.124384769368071E-05</v>
+        <v>2.122116227588339E-05</v>
       </c>
       <c r="AT7" s="4">
-        <v>9.686523650792309E-08</v>
+        <v>9.665833382527448E-08</v>
       </c>
       <c r="AU7" s="4">
         <v>0.75</v>
@@ -3493,19 +3493,19 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>19.48673627441504</v>
+        <v>18.74110099785223</v>
       </c>
       <c r="D8">
-        <v>3.53187696124833</v>
+        <v>3.672396563329767</v>
       </c>
       <c r="E8">
-        <v>24.41842748353419</v>
+        <v>24.41778435892999</v>
       </c>
       <c r="F8">
-        <v>0.03321230717941123</v>
+        <v>0.0332131819373989</v>
       </c>
       <c r="G8">
-        <v>3366.837199857178</v>
+        <v>3366.748525193626</v>
       </c>
       <c r="H8">
         <v>1.118204313047253</v>
@@ -3514,58 +3514,58 @@
         <v>0.3</v>
       </c>
       <c r="J8">
-        <v>1119.525916474238</v>
+        <v>1076.686971165671</v>
       </c>
       <c r="K8">
-        <v>39.54027791915783</v>
+        <v>39.54021532690746</v>
       </c>
       <c r="L8">
-        <v>15.48259290020116</v>
+        <v>14.89014752602408</v>
       </c>
       <c r="M8">
-        <v>0.5468261316460744</v>
+        <v>0.5468252660204405</v>
       </c>
       <c r="N8">
         <v>0.005</v>
       </c>
       <c r="O8">
-        <v>19.48505518707597</v>
+        <v>19.48454197647454</v>
       </c>
       <c r="P8">
-        <v>0.006471436382809471</v>
+        <v>0.006471436376315348</v>
       </c>
       <c r="Q8">
-        <v>15.48259290020116</v>
+        <v>14.89014752602408</v>
       </c>
       <c r="R8">
-        <v>0.5468261316460744</v>
+        <v>0.5468252660204405</v>
       </c>
       <c r="S8">
-        <v>0.9989004531168754</v>
+        <v>0.9992012553107414</v>
       </c>
       <c r="T8">
         <v>0.0007405051472630446</v>
       </c>
       <c r="U8">
-        <v>1.000293033212134</v>
+        <v>1.000514755030759</v>
       </c>
       <c r="V8">
-        <v>0.0007415374951064136</v>
+        <v>0.0007414785780893493</v>
       </c>
       <c r="W8">
         <v>0.003</v>
       </c>
       <c r="X8">
-        <v>-0.1684097998518263</v>
+        <v>-0.1696180753722577</v>
       </c>
       <c r="Y8">
-        <v>-0.002513809942419502</v>
+        <v>-0.002520802614030055</v>
       </c>
       <c r="Z8">
-        <v>-4.112181921515997E-05</v>
+        <v>-4.141685244693746E-05</v>
       </c>
       <c r="AA8">
-        <v>-6.138148616315539E-07</v>
+        <v>-6.155223120177734E-07</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
@@ -3574,55 +3574,55 @@
         <v>0.85</v>
       </c>
       <c r="AD8">
-        <v>311.284822247689</v>
+        <v>310.7365653285712</v>
       </c>
       <c r="AE8">
-        <v>1.179123335820613</v>
+        <v>1.179123277776925</v>
       </c>
       <c r="AF8">
-        <v>14.19134844806639</v>
+        <v>14.16635363809756</v>
       </c>
       <c r="AG8">
-        <v>0.05375575333564456</v>
+        <v>0.05375575068945641</v>
       </c>
       <c r="AH8">
-        <v>-345105.0736304634</v>
+        <v>-342043.2215665649</v>
       </c>
       <c r="AI8">
-        <v>-5314.573897381179</v>
+        <v>-5246.405187588982</v>
       </c>
       <c r="AJ8">
-        <v>0.2930332121344748</v>
+        <v>0.5147550307593729</v>
       </c>
       <c r="AK8">
-        <v>0.7415374951064135</v>
+        <v>0.7414785780893494</v>
       </c>
       <c r="AL8">
-        <v>0.9761156436940633</v>
+        <v>0.9744221045432203</v>
       </c>
       <c r="AM8">
-        <v>0.003711637356584457</v>
+        <v>0.00371168585043302</v>
       </c>
       <c r="AN8">
-        <v>0.9758281626907349</v>
+        <v>0.9732220416313586</v>
       </c>
       <c r="AO8">
-        <v>0.003710544222550436</v>
+        <v>0.003707114672799816</v>
       </c>
       <c r="AP8">
-        <v>414.7646</v>
+        <v>404.9719</v>
       </c>
       <c r="AQ8">
-        <v>19.593</v>
+        <v>17.5533</v>
       </c>
       <c r="AR8">
-        <v>4.723884343070744</v>
+        <v>4.334448883984296</v>
       </c>
       <c r="AS8">
-        <v>-2.828459267276036E-06</v>
+        <v>-2.848827408654226E-06</v>
       </c>
       <c r="AT8">
-        <v>-4.223013653144794E-08</v>
+        <v>-4.234881617781374E-08</v>
       </c>
       <c r="AU8">
         <v>0.75</v>
@@ -3631,34 +3631,34 @@
         <v>0.375</v>
       </c>
       <c r="AW8">
-        <v>404.7431</v>
+        <v>392.5668</v>
       </c>
       <c r="AX8">
-        <v>17.3735530645</v>
+        <v>15.4711221581</v>
       </c>
       <c r="AY8">
-        <v>17.05684292745836</v>
+        <v>15.22732118483986</v>
       </c>
       <c r="AZ8">
-        <v>4.292489004630345</v>
+        <v>3.941016448181558</v>
       </c>
       <c r="BA8" t="s">
         <v>27</v>
       </c>
       <c r="BC8">
-        <v>0.9198507035440622</v>
+        <v>1.561188494939421</v>
       </c>
       <c r="BD8">
-        <v>2.328173589529482</v>
+        <v>2.249848914858602</v>
       </c>
       <c r="BE8">
-        <v>404685.1</v>
+        <v>392508.8</v>
       </c>
       <c r="BF8">
-        <v>8528.421463729179</v>
+        <v>7613.660592419928</v>
       </c>
       <c r="BG8">
-        <v>2107.119667692711</v>
+        <v>1939.456060069249</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="4" customFormat="1">
@@ -3666,19 +3666,19 @@
         <v>9186</v>
       </c>
       <c r="C9" s="4">
-        <v>2.051160749312588</v>
+        <v>2.053786140768191</v>
       </c>
       <c r="D9" s="4">
-        <v>0.4328449026523639</v>
+        <v>0.4322915892929702</v>
       </c>
       <c r="E9" s="4">
-        <v>2.699309545259597</v>
+        <v>2.699349606342518</v>
       </c>
       <c r="F9" s="4">
-        <v>0.00682883386831321</v>
+        <v>0.006828732521500181</v>
       </c>
       <c r="G9" s="4">
-        <v>372.1834994099385</v>
+        <v>372.1890230721128</v>
       </c>
       <c r="H9" s="4">
         <v>0.02541579285997918</v>
@@ -3687,58 +3687,58 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>750.2400697739938</v>
+        <v>751.2003425705045</v>
       </c>
       <c r="K9" s="4">
         <v>3.24737589967227</v>
       </c>
       <c r="L9" s="4">
-        <v>10.37551825000253</v>
+        <v>10.38879843634099</v>
       </c>
       <c r="M9" s="4">
-        <v>0.0449099018689017</v>
+        <v>0.04490990186890168</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>13.71328240462547</v>
+        <v>13.71348592665002</v>
       </c>
       <c r="P9" s="4">
         <v>0.0009364572733045003</v>
       </c>
       <c r="Q9" s="4">
-        <v>10.37551825000253</v>
+        <v>10.38879843634099</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0449099018689017</v>
+        <v>0.04490990186890168</v>
       </c>
       <c r="S9" s="4">
-        <v>0.9980452822133051</v>
+        <v>0.9981348389721758</v>
       </c>
       <c r="T9" s="4">
-        <v>0.0008357515363213824</v>
+        <v>0.0008357515363213823</v>
       </c>
       <c r="U9" s="4">
-        <v>0.9980452822133051</v>
+        <v>0.9981348389721758</v>
       </c>
       <c r="V9" s="4">
-        <v>0.0008357515363213824</v>
+        <v>0.0008357515363213823</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>0.8872830601547772</v>
+        <v>0.8876020328530302</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.004115578106115487</v>
+        <v>0.004118537687057142</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.0002166542186052184</v>
+        <v>0.000216732104438725</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.004929992164682E-06</v>
+        <v>1.005652654103254E-06</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
@@ -3747,40 +3747,40 @@
         <v>0.85</v>
       </c>
       <c r="AD9" s="4">
-        <v>224.3855563522245</v>
+        <v>224.9781858373517</v>
       </c>
       <c r="AE9" s="4">
-        <v>0.7014657773091458</v>
+        <v>0.701465843424813</v>
       </c>
       <c r="AF9" s="4">
-        <v>10.22964625745191</v>
+        <v>10.25666399465898</v>
       </c>
       <c r="AG9" s="4">
-        <v>0.03197953950439271</v>
+        <v>0.03197954251857908</v>
       </c>
       <c r="AH9" s="4">
-        <v>47216.46466571741</v>
+        <v>47324.15634140059</v>
       </c>
       <c r="AI9" s="4">
-        <v>264.1072015513822</v>
+        <v>264.5574770388683</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-1.954717786694871</v>
+        <v>-1.865161027824191</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.8357515363213824</v>
+        <v>0.8357515363213823</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.9997661901894193</v>
+        <v>1.00239181729563</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.003126177451081867</v>
+        <v>0.003126135270744611</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.9997661901894193</v>
+        <v>1.00239181729563</v>
       </c>
       <c r="AO9" s="4">
-        <v>0.003126177451081867</v>
+        <v>0.00312613527074461</v>
       </c>
       <c r="AP9" s="4" t="s">
         <v>125</v>
@@ -3792,10 +3792,10 @@
         <v>126</v>
       </c>
       <c r="AS9" s="4">
-        <v>2.117410096811679E-05</v>
+        <v>2.118139856660703E-05</v>
       </c>
       <c r="AT9" s="4">
-        <v>9.822469726475155E-08</v>
+        <v>9.829386551335134E-08</v>
       </c>
       <c r="AU9" s="4">
         <v>0.75</v>
@@ -3839,19 +3839,19 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26.7749323068</v>
+        <v>26.46578628848677</v>
       </c>
       <c r="D10">
-        <v>3.178157733517896</v>
+        <v>3.215281694173313</v>
       </c>
       <c r="E10">
-        <v>33.45701007655609</v>
+        <v>33.45852367426423</v>
       </c>
       <c r="F10">
-        <v>0.0339668320266534</v>
+        <v>0.03396529543407661</v>
       </c>
       <c r="G10">
-        <v>4613.08600636563</v>
+        <v>4613.294702731226</v>
       </c>
       <c r="H10">
         <v>1.566919175027267</v>
@@ -3860,58 +3860,58 @@
         <v>0.3</v>
       </c>
       <c r="J10">
-        <v>804.3086530864291</v>
+        <v>795.0217464348464</v>
       </c>
       <c r="K10">
-        <v>25.56219765941997</v>
+        <v>25.56218867781659</v>
       </c>
       <c r="L10">
-        <v>11.12326499869185</v>
+        <v>10.99483081697906</v>
       </c>
       <c r="M10">
-        <v>0.3535149067756143</v>
+        <v>0.353514782563654</v>
       </c>
       <c r="N10">
         <v>0.005</v>
       </c>
       <c r="O10">
-        <v>13.9595100688615</v>
+        <v>13.96014161641222</v>
       </c>
       <c r="P10">
-        <v>0.004741603336833952</v>
+        <v>0.004741603343029889</v>
       </c>
       <c r="Q10">
-        <v>11.12326499869185</v>
+        <v>10.99483081697906</v>
       </c>
       <c r="R10">
-        <v>0.3535149067756143</v>
+        <v>0.353514782563654</v>
       </c>
       <c r="S10">
-        <v>1.000348920387785</v>
+        <v>1.000219879710563</v>
       </c>
       <c r="T10">
-        <v>0.0006243579015636579</v>
+        <v>0.0006243579015636577</v>
       </c>
       <c r="U10">
-        <v>1.002756676431743</v>
+        <v>1.002421364011313</v>
       </c>
       <c r="V10">
-        <v>0.0006258606787251504</v>
+        <v>0.0006257321135206724</v>
       </c>
       <c r="W10">
         <v>0.003</v>
       </c>
       <c r="X10">
-        <v>1.031481043076749</v>
+        <v>1.032560493362476</v>
       </c>
       <c r="Y10">
-        <v>0.005753810756232281</v>
+        <v>0.005764714646234756</v>
       </c>
       <c r="Z10">
-        <v>0.0002518640661920288</v>
+        <v>0.0002521276432495425</v>
       </c>
       <c r="AA10">
-        <v>1.404948915824395E-06</v>
+        <v>1.407611396237164E-06</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
@@ -3920,55 +3920,55 @@
         <v>0.85</v>
       </c>
       <c r="AD10">
-        <v>222.4522697910235</v>
+        <v>222.5610375478755</v>
       </c>
       <c r="AE10">
-        <v>0.9576002322677859</v>
+        <v>0.9576002421378259</v>
       </c>
       <c r="AF10">
-        <v>10.14150850938613</v>
+        <v>10.14646718718564</v>
       </c>
       <c r="AG10">
-        <v>0.04365660513716984</v>
+        <v>0.04365660558714096</v>
       </c>
       <c r="AH10">
-        <v>40265.8015600127</v>
+        <v>40243.3745717569</v>
       </c>
       <c r="AI10">
-        <v>283.7158691786237</v>
+        <v>283.656832711852</v>
       </c>
       <c r="AJ10">
-        <v>2.7566764317426</v>
+        <v>2.421364011313321</v>
       </c>
       <c r="AK10">
-        <v>0.6258606787251504</v>
+        <v>0.6257321135206724</v>
       </c>
       <c r="AL10">
-        <v>0.9736696493486855</v>
+        <v>0.9741016541894953</v>
       </c>
       <c r="AM10">
-        <v>0.004204427039919507</v>
+        <v>0.004204248422145936</v>
       </c>
       <c r="AN10">
-        <v>0.9741299288023223</v>
+        <v>0.9731465374137482</v>
       </c>
       <c r="AO10">
-        <v>0.00420641458403376</v>
+        <v>0.004200126112959693</v>
       </c>
       <c r="AP10">
-        <v>395.2508</v>
+        <v>397.7362</v>
       </c>
       <c r="AQ10">
-        <v>18.0622</v>
+        <v>18.5615</v>
       </c>
       <c r="AR10">
-        <v>4.56980732233812</v>
+        <v>4.666786679210994</v>
       </c>
       <c r="AS10">
-        <v>2.418105716578161E-05</v>
+        <v>2.420526768828991E-05</v>
       </c>
       <c r="AT10">
-        <v>1.351366864526164E-07</v>
+        <v>1.353862092196792E-07</v>
       </c>
       <c r="AU10">
         <v>0.75</v>
@@ -3977,34 +3977,34 @@
         <v>0.375</v>
       </c>
       <c r="AW10">
-        <v>384.7107</v>
+        <v>382.7414</v>
       </c>
       <c r="AX10">
-        <v>15.5079585644</v>
+        <v>15.6920625477</v>
       </c>
       <c r="AY10">
-        <v>15.73476583625402</v>
+        <v>15.44634142461242</v>
       </c>
       <c r="AZ10">
-        <v>4.03107024691541</v>
+        <v>4.0999125121296</v>
       </c>
       <c r="BA10" t="s">
         <v>28</v>
       </c>
       <c r="BC10">
-        <v>8.177067697177234</v>
+        <v>7.14257275472135</v>
       </c>
       <c r="BD10">
-        <v>1.890755719931019</v>
+        <v>1.872778622070147</v>
       </c>
       <c r="BE10">
-        <v>384652.7</v>
+        <v>382683.4</v>
       </c>
       <c r="BF10">
-        <v>7867.382918127009</v>
+        <v>7723.17071230621</v>
       </c>
       <c r="BG10">
-        <v>2045.012763649935</v>
+        <v>2017.856106579066</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="4" customFormat="1">
@@ -4012,34 +4012,34 @@
         <v>9186</v>
       </c>
       <c r="C11" s="4">
-        <v>2.060044850781017</v>
+        <v>2.057099993786945</v>
       </c>
       <c r="D11" s="4">
-        <v>0.4814502484650409</v>
+        <v>0.4821394721954245</v>
       </c>
       <c r="E11" s="4">
-        <v>2.699463977054997</v>
+        <v>2.699247965118998</v>
       </c>
       <c r="F11" s="4">
-        <v>0.007366368758302179</v>
+        <v>0.007366958264563671</v>
       </c>
       <c r="G11" s="4">
-        <v>372.20479262032</v>
+        <v>372.1750086785726</v>
       </c>
       <c r="H11" s="4">
-        <v>0.02741797756048667</v>
+        <v>0.02741797756048666</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>753.4895512725976</v>
+        <v>752.4124295904246</v>
       </c>
       <c r="K11" s="4">
-        <v>3.627677316760043</v>
+        <v>3.627677316760044</v>
       </c>
       <c r="L11" s="4">
-        <v>10.42045727145731</v>
+        <v>10.40556111205299</v>
       </c>
       <c r="M11" s="4">
         <v>0.05016931742462463</v>
@@ -4048,25 +4048,25 @@
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>13.71406696333838</v>
+        <v>13.71296955949067</v>
       </c>
       <c r="P11" s="4">
         <v>0.001010228744279998</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.42045727145731</v>
+        <v>10.40556111205299</v>
       </c>
       <c r="R11" s="4">
         <v>0.05016931742462463</v>
       </c>
       <c r="S11" s="4">
-        <v>0.9971524440137087</v>
+        <v>0.9974728278637717</v>
       </c>
       <c r="T11" s="4">
         <v>0.001049182169557438</v>
       </c>
       <c r="U11" s="4">
-        <v>0.9971524440137087</v>
+        <v>0.9974728278637717</v>
       </c>
       <c r="V11" s="4">
         <v>0.001049182169557438</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>0.8879708075687468</v>
+        <v>0.8866003117400937</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.004083548755152479</v>
+        <v>0.004070953368742462</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.0002168221507852212</v>
+        <v>0.0002164875070664436</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.971091576227579E-07</v>
+        <v>9.940336524956602E-07</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
@@ -4093,40 +4093,40 @@
         <v>0.85</v>
       </c>
       <c r="AD11" s="4">
-        <v>224.291243953271</v>
+        <v>224.3366590343894</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.6444418107606008</v>
+        <v>0.6444418154306463</v>
       </c>
       <c r="AF11" s="4">
-        <v>10.22534659354007</v>
+        <v>10.22741704861814</v>
       </c>
       <c r="AG11" s="4">
-        <v>0.02937984006084782</v>
+        <v>0.0293798402737533</v>
       </c>
       <c r="AH11" s="4">
-        <v>47160.06439613751</v>
+        <v>47242.52769689465</v>
       </c>
       <c r="AI11" s="4">
-        <v>255.7272381588362</v>
+        <v>255.8755126776899</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-2.847555986291272</v>
+        <v>-2.527172136228328</v>
       </c>
       <c r="AK11" s="4">
         <v>1.049182169557438</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.9992888035233749</v>
+        <v>0.9995711281376151</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.002872136626067437</v>
+        <v>0.002872367027651197</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.9992888035233749</v>
+        <v>0.9995711281376151</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.002872136626067436</v>
+        <v>0.002872367027651197</v>
       </c>
       <c r="AP11" s="4" t="s">
         <v>125</v>
@@ -4138,10 +4138,10 @@
         <v>126</v>
       </c>
       <c r="AS11" s="4">
-        <v>2.118930108172665E-05</v>
+        <v>2.115829056715183E-05</v>
       </c>
       <c r="AT11" s="4">
-        <v>9.745663188152993E-08</v>
+        <v>9.716385016702405E-08</v>
       </c>
       <c r="AU11" s="4">
         <v>0.75</v>
@@ -4185,19 +4185,19 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>25.3375528244668</v>
+        <v>24.88698370481256</v>
       </c>
       <c r="D12">
-        <v>2.537669234336503</v>
+        <v>2.583612744665059</v>
       </c>
       <c r="E12">
-        <v>31.72087915327379</v>
+        <v>31.71906999615733</v>
       </c>
       <c r="F12">
-        <v>0.02674313040086092</v>
+        <v>0.02674465574585643</v>
       </c>
       <c r="G12">
-        <v>4373.706538532544</v>
+        <v>4373.457090140168</v>
       </c>
       <c r="H12">
         <v>1.169666042950738</v>
@@ -4206,58 +4206,58 @@
         <v>0.3</v>
       </c>
       <c r="J12">
-        <v>739.9701117433956</v>
+        <v>726.8110471017789</v>
       </c>
       <c r="K12">
-        <v>18.77799386899759</v>
+        <v>18.77798284255512</v>
       </c>
       <c r="L12">
-        <v>10.2334888633219</v>
+        <v>10.05150429485812</v>
       </c>
       <c r="M12">
-        <v>0.2596920984837722</v>
+        <v>0.2596919459925101</v>
       </c>
       <c r="N12">
         <v>0.005</v>
       </c>
       <c r="O12">
-        <v>12.86718314361638</v>
+        <v>12.86644925854644</v>
       </c>
       <c r="P12">
-        <v>0.003441087567014923</v>
+        <v>0.003441087560913542</v>
       </c>
       <c r="Q12">
-        <v>10.2334888633219</v>
+        <v>10.05150429485812</v>
       </c>
       <c r="R12">
-        <v>0.2596920984837722</v>
+        <v>0.2596919459925101</v>
       </c>
       <c r="S12">
-        <v>0.9998404099959565</v>
+        <v>1.000100077247656</v>
       </c>
       <c r="T12">
         <v>0.0006159983574768764</v>
       </c>
       <c r="U12">
-        <v>1.002535588329896</v>
+        <v>1.002623220199646</v>
       </c>
       <c r="V12">
-        <v>0.000617658847901364</v>
+        <v>0.0006175524538612927</v>
       </c>
       <c r="W12">
         <v>0.003</v>
       </c>
       <c r="X12">
-        <v>28.16568996843262</v>
+        <v>28.16125710608711</v>
       </c>
       <c r="Y12">
-        <v>0.07611778189860542</v>
+        <v>0.07609392536320704</v>
       </c>
       <c r="Z12">
-        <v>0.006877416943498438</v>
+        <v>0.006876334539955781</v>
       </c>
       <c r="AA12">
-        <v>1.858622045182297E-05</v>
+        <v>1.858039523181431E-05</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
@@ -4266,55 +4266,55 @@
         <v>0.85</v>
       </c>
       <c r="AD12">
-        <v>206.1509119433592</v>
+        <v>206.1118610115352</v>
       </c>
       <c r="AE12">
-        <v>0.5376018073769666</v>
+        <v>0.5376018050839069</v>
       </c>
       <c r="AF12">
-        <v>9.398336234803626</v>
+        <v>9.396555918703621</v>
       </c>
       <c r="AG12">
-        <v>0.02450904775796033</v>
+        <v>0.02450904765342067</v>
       </c>
       <c r="AH12">
-        <v>1366.550306898048</v>
+        <v>1366.506510714943</v>
       </c>
       <c r="AI12">
-        <v>5.132149664103471</v>
+        <v>5.132039369641115</v>
       </c>
       <c r="AJ12">
-        <v>2.535588329896088</v>
+        <v>2.623220199645671</v>
       </c>
       <c r="AK12">
-        <v>0.617658847901364</v>
+        <v>0.6175524538612926</v>
       </c>
       <c r="AL12">
-        <v>0.9789189717556491</v>
+        <v>0.9787893619056096</v>
       </c>
       <c r="AM12">
-        <v>0.002566220216011621</v>
+        <v>0.002566363042908214</v>
       </c>
       <c r="AN12">
-        <v>0.9790552059512321</v>
+        <v>0.9784162515256559</v>
       </c>
       <c r="AO12">
-        <v>0.002566577351746962</v>
+        <v>0.0025653847561314</v>
       </c>
       <c r="AP12">
-        <v>422.5547</v>
+        <v>420.0755</v>
       </c>
       <c r="AQ12">
-        <v>14.2374</v>
+        <v>14.2781</v>
       </c>
       <c r="AR12">
-        <v>3.369362593765966</v>
+        <v>3.398936619726693</v>
       </c>
       <c r="AS12">
-        <v>0.0007163431648394352</v>
+        <v>0.0007162712758635274</v>
       </c>
       <c r="AT12">
-        <v>1.945373155914268E-06</v>
+        <v>1.944878391501988E-06</v>
       </c>
       <c r="AU12">
         <v>0.75</v>
@@ -4323,34 +4323,34 @@
         <v>0.375</v>
       </c>
       <c r="AW12">
-        <v>405.7195</v>
+        <v>402.4051</v>
       </c>
       <c r="AX12">
-        <v>11.8187859365</v>
+        <v>11.7405050166</v>
       </c>
       <c r="AY12">
-        <v>12.00323686531717</v>
+        <v>11.63508045267128</v>
       </c>
       <c r="AZ12">
-        <v>2.913043601922018</v>
+        <v>2.917583553637864</v>
       </c>
       <c r="BA12" t="s">
         <v>29</v>
       </c>
       <c r="BC12">
-        <v>7.981375106807959</v>
+        <v>8.180229292027676</v>
       </c>
       <c r="BD12">
-        <v>1.962424211260793</v>
+        <v>1.944806272615011</v>
       </c>
       <c r="BE12">
-        <v>405661.5</v>
+        <v>402347.1</v>
       </c>
       <c r="BF12">
-        <v>6001.618432658584</v>
+        <v>5817.540226335639</v>
       </c>
       <c r="BG12">
-        <v>1479.253137366723</v>
+        <v>1445.692469189789</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="4" customFormat="1">
@@ -4358,19 +4358,19 @@
         <v>9186</v>
       </c>
       <c r="C13" s="4">
-        <v>2.049710078689774</v>
+        <v>2.048005683746828</v>
       </c>
       <c r="D13" s="4">
-        <v>0.4855358211679444</v>
+        <v>0.4859398946550374</v>
       </c>
       <c r="E13" s="4">
-        <v>2.699597622255987</v>
+        <v>2.699528980303033</v>
       </c>
       <c r="F13" s="4">
-        <v>0.006932752004564243</v>
+        <v>0.00693292828629354</v>
       </c>
       <c r="G13" s="4">
-        <v>372.2232197542778</v>
+        <v>372.2137553331626</v>
       </c>
       <c r="H13" s="4">
         <v>0.02580531272896826</v>
@@ -4379,58 +4379,58 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>749.7094671726894</v>
+        <v>749.0860614345742</v>
       </c>
       <c r="K13" s="4">
         <v>3.640108017810738</v>
       </c>
       <c r="L13" s="4">
-        <v>10.36818022955396</v>
+        <v>10.35955877906956</v>
       </c>
       <c r="M13" s="4">
-        <v>0.05034122901773729</v>
+        <v>0.05034122901773731</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>13.71474592006878</v>
+        <v>13.71439719886068</v>
       </c>
       <c r="P13" s="4">
-        <v>0.0009508093226944613</v>
+        <v>0.0009508093226944609</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.36818022955396</v>
+        <v>10.35955877906956</v>
       </c>
       <c r="R13" s="4">
-        <v>0.05034122901773729</v>
+        <v>0.05034122901773731</v>
       </c>
       <c r="S13" s="4">
-        <v>0.9974708324757982</v>
+        <v>0.997494089117291</v>
       </c>
       <c r="T13" s="4">
-        <v>0.0008901499197111417</v>
+        <v>0.0008901499197111418</v>
       </c>
       <c r="U13" s="4">
-        <v>0.9974708324757982</v>
+        <v>0.997494089117291</v>
       </c>
       <c r="V13" s="4">
-        <v>0.0008901499197111417</v>
+        <v>0.0008901499197111418</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.8904170127489001</v>
+        <v>0.8910975031795663</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.002894809494073096</v>
+        <v>0.00289923583108927</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002174194581109823</v>
+        <v>0.000217585618301732</v>
       </c>
       <c r="AA13" s="4">
-        <v>7.068462333090983E-07</v>
+        <v>7.079270435156577E-07</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
@@ -4439,40 +4439,40 @@
         <v>0.85</v>
       </c>
       <c r="AD13" s="4">
-        <v>224.5591541634425</v>
+        <v>224.723729225271</v>
       </c>
       <c r="AE13" s="4">
-        <v>0.4849885093638318</v>
+        <v>0.4849885220627204</v>
       </c>
       <c r="AF13" s="4">
-        <v>10.23756051106385</v>
+        <v>10.24506342120064</v>
       </c>
       <c r="AG13" s="4">
-        <v>0.02211042889914478</v>
+        <v>0.02211042947808194</v>
       </c>
       <c r="AH13" s="4">
-        <v>47086.68028156921</v>
+        <v>47085.20490078314</v>
       </c>
       <c r="AI13" s="4">
-        <v>183.7824362663229</v>
+        <v>183.8329587987095</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-2.529167524201847</v>
+        <v>-2.505910882709017</v>
       </c>
       <c r="AK13" s="4">
-        <v>0.8901499197111417</v>
+        <v>0.8901499197111418</v>
       </c>
       <c r="AL13" s="4">
-        <v>1.000432899206451</v>
+        <v>1.001191554165284</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.002161783938685935</v>
+        <v>0.002161840651871306</v>
       </c>
       <c r="AN13" s="4">
-        <v>1.000432899206451</v>
+        <v>1.001191554165284</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.002161783938685935</v>
+        <v>0.002161840651871305</v>
       </c>
       <c r="AP13" s="4" t="s">
         <v>125</v>
@@ -4484,10 +4484,10 @@
         <v>126</v>
       </c>
       <c r="AS13" s="4">
-        <v>2.12466220430928E-05</v>
+        <v>2.126340017580834E-05</v>
       </c>
       <c r="AT13" s="4">
-        <v>6.908999373723283E-08</v>
+        <v>6.919737272673649E-08</v>
       </c>
       <c r="AU13" s="4">
         <v>0.75</v>
@@ -4531,19 +4531,19 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>17.09807045289071</v>
+        <v>17.11992933803555</v>
       </c>
       <c r="D14">
-        <v>2.969044156191978</v>
+        <v>2.965253252975106</v>
       </c>
       <c r="E14">
-        <v>19.64405846258551</v>
+        <v>19.64649218141604</v>
       </c>
       <c r="F14">
-        <v>0.02485576683611989</v>
+        <v>0.024852687815843</v>
       </c>
       <c r="G14">
-        <v>2708.542424879752</v>
+        <v>2708.877988465824</v>
       </c>
       <c r="H14">
         <v>0.6732289897854988</v>
@@ -4552,58 +4552,58 @@
         <v>0.3</v>
       </c>
       <c r="J14">
-        <v>449.9812468993482</v>
+        <v>450.5565472804185</v>
       </c>
       <c r="K14">
-        <v>13.36014191502489</v>
+        <v>13.36014267472493</v>
       </c>
       <c r="L14">
-        <v>6.22305956114758</v>
+        <v>6.231015733902825</v>
       </c>
       <c r="M14">
-        <v>0.1847653862365984</v>
+        <v>0.1847653967429442</v>
       </c>
       <c r="N14">
         <v>0.005</v>
       </c>
       <c r="O14">
-        <v>7.180684445861313</v>
+        <v>7.181574108241955</v>
       </c>
       <c r="P14">
-        <v>0.001784814183100816</v>
+        <v>0.001784814193384784</v>
       </c>
       <c r="Q14">
-        <v>6.22305956114758</v>
+        <v>6.231015733902825</v>
       </c>
       <c r="R14">
-        <v>0.1847653862365984</v>
+        <v>0.1847653967429442</v>
       </c>
       <c r="S14">
-        <v>0.999566546157341</v>
+        <v>0.9993542964288743</v>
       </c>
       <c r="T14">
-        <v>0.0006807402287646478</v>
+        <v>0.0006807402287646481</v>
       </c>
       <c r="U14">
-        <v>1.001996424606114</v>
+        <v>1.001712729973921</v>
       </c>
       <c r="V14">
-        <v>0.0006823950620695909</v>
+        <v>0.0006823467466899905</v>
       </c>
       <c r="W14">
         <v>0.003</v>
       </c>
       <c r="X14">
-        <v>0.3598417075934583</v>
+        <v>0.3580219880082354</v>
       </c>
       <c r="Y14">
-        <v>0.002290465307727848</v>
+        <v>0.002271480402933131</v>
       </c>
       <c r="Z14">
-        <v>8.786511033652407E-05</v>
+        <v>8.74207764564787E-05</v>
       </c>
       <c r="AA14">
-        <v>5.592792128834E-07</v>
+        <v>5.546435335852102E-07</v>
       </c>
       <c r="AB14">
         <v>0.05</v>
@@ -4612,55 +4612,55 @@
         <v>0.85</v>
       </c>
       <c r="AD14">
-        <v>115.3855932022352</v>
+        <v>115.20093948019</v>
       </c>
       <c r="AE14">
-        <v>0.4110421607941238</v>
+        <v>0.4110421384244825</v>
       </c>
       <c r="AF14">
-        <v>5.260382267262687</v>
+        <v>5.251963979172523</v>
       </c>
       <c r="AG14">
-        <v>0.01873924494151545</v>
+        <v>0.01873924392169261</v>
       </c>
       <c r="AH14">
-        <v>59868.84039768893</v>
+        <v>60076.83976345309</v>
       </c>
       <c r="AI14">
-        <v>436.698087520305</v>
+        <v>437.2998753640364</v>
       </c>
       <c r="AJ14">
-        <v>1.996424606114156</v>
+        <v>1.712729973920579</v>
       </c>
       <c r="AK14">
-        <v>0.6823950620695909</v>
+        <v>0.6823467466899904</v>
       </c>
       <c r="AL14">
-        <v>0.9818173728874287</v>
+        <v>0.9801247180705144</v>
       </c>
       <c r="AM14">
-        <v>0.003506065992973758</v>
+        <v>0.003505602211917841</v>
       </c>
       <c r="AN14">
-        <v>0.9821545169821904</v>
+        <v>0.9800853014669939</v>
       </c>
       <c r="AO14">
-        <v>0.003507269933215617</v>
+        <v>0.00350546123094885</v>
       </c>
       <c r="AP14">
-        <v>441.18</v>
+        <v>432.7757</v>
       </c>
       <c r="AQ14">
-        <v>23.7555</v>
+        <v>21.4986</v>
       </c>
       <c r="AR14">
-        <v>5.384536923704611</v>
+        <v>4.967607931776207</v>
       </c>
       <c r="AS14">
-        <v>1.639947201859165E-05</v>
+        <v>1.631451857204313E-05</v>
       </c>
       <c r="AT14">
-        <v>1.044655156232544E-07</v>
+        <v>1.035872967868737E-07</v>
       </c>
       <c r="AU14">
         <v>0.75</v>
@@ -4669,34 +4669,34 @@
         <v>0.375</v>
       </c>
       <c r="AW14">
-        <v>424.2927</v>
+        <v>415.719</v>
       </c>
       <c r="AX14">
-        <v>19.4817428239</v>
+        <v>17.5169768967</v>
       </c>
       <c r="AY14">
-        <v>19.15291642950791</v>
+        <v>17.71232715398179</v>
       </c>
       <c r="AZ14">
-        <v>4.591580959064344</v>
+        <v>4.213657998960837</v>
       </c>
       <c r="BA14" t="s">
         <v>30</v>
       </c>
       <c r="BC14">
-        <v>6.622919877331676</v>
+        <v>5.545768381608759</v>
       </c>
       <c r="BD14">
-        <v>2.292954407851651</v>
+        <v>2.226412639016464</v>
       </c>
       <c r="BE14">
-        <v>424234.7</v>
+        <v>415661</v>
       </c>
       <c r="BF14">
-        <v>9576.458214753953</v>
+        <v>8856.163576990895</v>
       </c>
       <c r="BG14">
-        <v>2257.040532338631</v>
+        <v>2130.324468448855</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="4" customFormat="1">
@@ -4704,19 +4704,19 @@
         <v>9186</v>
       </c>
       <c r="C15" s="4">
-        <v>2.065346642606248</v>
+        <v>2.065583347955624</v>
       </c>
       <c r="D15" s="4">
-        <v>0.4501397466717666</v>
+        <v>0.4500881629454989</v>
       </c>
       <c r="E15" s="4">
-        <v>2.69926084063386</v>
+        <v>2.699293296102625</v>
       </c>
       <c r="F15" s="4">
-        <v>0.008384063810247094</v>
+        <v>0.008383963002853724</v>
       </c>
       <c r="G15" s="4">
-        <v>372.1767839674372</v>
+        <v>372.1812589599261</v>
       </c>
       <c r="H15" s="4">
         <v>0.03120353905475541</v>
@@ -4725,58 +4725,58 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>755.428754072876</v>
+        <v>755.5153322885968</v>
       </c>
       <c r="K15" s="4">
         <v>3.400485079869327</v>
       </c>
       <c r="L15" s="4">
-        <v>10.44727566580247</v>
+        <v>10.4484730076847</v>
       </c>
       <c r="M15" s="4">
-        <v>0.04702734021614437</v>
+        <v>0.04702734021614439</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>13.713034970874</v>
+        <v>13.71319985415296</v>
       </c>
       <c r="P15" s="4">
         <v>0.001149709602279575</v>
       </c>
       <c r="Q15" s="4">
-        <v>10.44727566580247</v>
+        <v>10.4484730076847</v>
       </c>
       <c r="R15" s="4">
-        <v>0.04702734021614437</v>
+        <v>0.04702734021614439</v>
       </c>
       <c r="S15" s="4">
-        <v>0.997679093433911</v>
+        <v>0.9977971086992573</v>
       </c>
       <c r="T15" s="4">
-        <v>0.0007914499647809167</v>
+        <v>0.0007914499647809169</v>
       </c>
       <c r="U15" s="4">
-        <v>0.997679093433911</v>
+        <v>0.9977971086992573</v>
       </c>
       <c r="V15" s="4">
-        <v>0.0007914499647809167</v>
+        <v>0.0007914499647809169</v>
       </c>
       <c r="W15" s="4">
         <v>0</v>
       </c>
       <c r="X15" s="4">
-        <v>0.8948545590619507</v>
+        <v>0.8939406259858222</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.003786136847511901</v>
+        <v>0.003778407080398669</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.0002185030053713241</v>
+        <v>0.0002182798438286801</v>
       </c>
       <c r="AA15" s="4">
-        <v>9.244879757842173E-07</v>
+        <v>9.226005435440193E-07</v>
       </c>
       <c r="AB15" s="4">
         <v>0</v>
@@ -4785,40 +4785,40 @@
         <v>0.85</v>
       </c>
       <c r="AD15" s="4">
-        <v>224.1827423889222</v>
+        <v>224.1873052188604</v>
       </c>
       <c r="AE15" s="4">
-        <v>0.5298360634045554</v>
+        <v>0.5298360637907557</v>
       </c>
       <c r="AF15" s="4">
-        <v>10.22040005134853</v>
+        <v>10.22060806890973</v>
       </c>
       <c r="AG15" s="4">
-        <v>0.02415501064855296</v>
+        <v>0.02415501066615967</v>
       </c>
       <c r="AH15" s="4">
-        <v>46774.64291156993</v>
+        <v>46823.41662719673</v>
       </c>
       <c r="AI15" s="4">
-        <v>226.6864575879197</v>
+        <v>226.7451110517479</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-2.320906566088965</v>
+        <v>-2.202891300742693</v>
       </c>
       <c r="AK15" s="4">
-        <v>0.7914499647809167</v>
+        <v>0.7914499647809169</v>
       </c>
       <c r="AL15" s="4">
-        <v>0.9988805609692499</v>
+        <v>0.9988888808814648</v>
       </c>
       <c r="AM15" s="4">
-        <v>0.002362250736037845</v>
+        <v>0.002362222359513692</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.9988805609692499</v>
+        <v>0.9988888808814648</v>
       </c>
       <c r="AO15" s="4">
-        <v>0.002362250736037846</v>
+        <v>0.002362222359513692</v>
       </c>
       <c r="AP15" s="4" t="s">
         <v>125</v>
@@ -4830,10 +4830,10 @@
         <v>126</v>
       </c>
       <c r="AS15" s="4">
-        <v>2.135517234963588E-05</v>
+        <v>2.133310537405922E-05</v>
       </c>
       <c r="AT15" s="4">
-        <v>9.03716438655633E-08</v>
+        <v>9.018609275344029E-08</v>
       </c>
       <c r="AU15" s="4">
         <v>0.75</v>
@@ -4877,79 +4877,79 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>20.7905278955502</v>
+        <v>20.56717153534174</v>
       </c>
       <c r="D16">
-        <v>2.430907481352213</v>
+        <v>2.457306767520724</v>
       </c>
       <c r="E16">
-        <v>26.13750213057232</v>
+        <v>26.13831359394676</v>
       </c>
       <c r="F16">
-        <v>0.0206799264554004</v>
+        <v>0.02067928444753542</v>
       </c>
       <c r="G16">
-        <v>3603.864931265442</v>
+        <v>3603.976816646973</v>
       </c>
       <c r="H16">
-        <v>0.7452766173376595</v>
+        <v>0.7452766173376597</v>
       </c>
       <c r="I16">
         <v>0.3</v>
       </c>
       <c r="J16">
-        <v>652.9595390722278</v>
+        <v>645.9444097648344</v>
       </c>
       <c r="K16">
-        <v>15.87284228550971</v>
+        <v>15.87283569557307</v>
       </c>
       <c r="L16">
-        <v>9.030167658464325</v>
+        <v>8.933151243202859</v>
       </c>
       <c r="M16">
-        <v>0.2195150211882572</v>
+        <v>0.2195149300520856</v>
       </c>
       <c r="N16">
         <v>0.005</v>
       </c>
       <c r="O16">
-        <v>11.40180901630338</v>
+        <v>11.40216300912091</v>
       </c>
       <c r="P16">
-        <v>0.002357885719156751</v>
+        <v>0.002357885721827777</v>
       </c>
       <c r="Q16">
-        <v>9.030167658464325</v>
+        <v>8.933151243202859</v>
       </c>
       <c r="R16">
-        <v>0.2195150211882572</v>
+        <v>0.2195149300520856</v>
       </c>
       <c r="S16">
-        <v>0.9998317875054962</v>
+        <v>0.9998574311519741</v>
       </c>
       <c r="T16">
-        <v>0.0005199805778160234</v>
+        <v>0.0005199805778160235</v>
       </c>
       <c r="U16">
-        <v>1.002518642744754</v>
+        <v>1.002698465868034</v>
       </c>
       <c r="V16">
-        <v>0.0005213779254071647</v>
+        <v>0.0005214580713338243</v>
       </c>
       <c r="W16">
         <v>0.003</v>
       </c>
       <c r="X16">
-        <v>17.38576577443245</v>
+        <v>17.38770470481672</v>
       </c>
       <c r="Y16">
-        <v>0.03835645103775055</v>
+        <v>0.03836494628929124</v>
       </c>
       <c r="Z16">
-        <v>0.004245206144311998</v>
+        <v>0.004245679586741138</v>
       </c>
       <c r="AA16">
-        <v>9.365767590112177E-06</v>
+        <v>9.367841936132127E-06</v>
       </c>
       <c r="AB16">
         <v>0.05</v>
@@ -4958,55 +4958,55 @@
         <v>0.85</v>
       </c>
       <c r="AD16">
-        <v>183.7137185306933</v>
+        <v>183.6760046016325</v>
       </c>
       <c r="AE16">
-        <v>0.4315973334998244</v>
+        <v>0.4315973311604183</v>
       </c>
       <c r="AF16">
-        <v>8.375433712230778</v>
+        <v>8.37371434954299</v>
       </c>
       <c r="AG16">
-        <v>0.01967634690546753</v>
+        <v>0.01967634679881496</v>
       </c>
       <c r="AH16">
-        <v>1972.915667111414</v>
+        <v>1972.290696569124</v>
       </c>
       <c r="AI16">
-        <v>6.358327687534185</v>
+        <v>6.357334532176222</v>
       </c>
       <c r="AJ16">
-        <v>2.518642744754107</v>
+        <v>2.698465868033573</v>
       </c>
       <c r="AK16">
-        <v>0.5213779254071647</v>
+        <v>0.5214580713338243</v>
       </c>
       <c r="AL16">
-        <v>0.984493364021611</v>
+        <v>0.9842607025012421</v>
       </c>
       <c r="AM16">
-        <v>0.002321806707598686</v>
+        <v>0.002321730393690571</v>
       </c>
       <c r="AN16">
-        <v>0.9852732129710471</v>
+        <v>0.9845915147220022</v>
       </c>
       <c r="AO16">
-        <v>0.002323645885583917</v>
+        <v>0.00232251073246219</v>
       </c>
       <c r="AP16">
-        <v>456.6012</v>
+        <v>454.7034</v>
       </c>
       <c r="AQ16">
-        <v>17.8115</v>
+        <v>17.4221</v>
       </c>
       <c r="AR16">
-        <v>3.90088768930086</v>
+        <v>3.831530619740252</v>
       </c>
       <c r="AS16">
-        <v>0.0004990042810410786</v>
+        <v>0.0004990444381314589</v>
       </c>
       <c r="AT16">
-        <v>1.105728398810393E-06</v>
+        <v>1.105937603382329E-06</v>
       </c>
       <c r="AU16">
         <v>0.75</v>
@@ -5015,34 +5015,34 @@
         <v>0.375</v>
       </c>
       <c r="AW16">
-        <v>437.7909</v>
+        <v>432.406</v>
       </c>
       <c r="AX16">
-        <v>14.5977755793</v>
+        <v>13.6931576438</v>
       </c>
       <c r="AY16">
-        <v>14.49338830297536</v>
+        <v>13.78076683895438</v>
       </c>
       <c r="AZ16">
-        <v>3.334417316417495</v>
+        <v>3.166736271883368</v>
       </c>
       <c r="BA16" t="s">
         <v>31</v>
       </c>
       <c r="BC16">
-        <v>8.680234841236745</v>
+        <v>9.159508245909548</v>
       </c>
       <c r="BD16">
-        <v>1.832214385124141</v>
+        <v>1.80515289220322</v>
       </c>
       <c r="BE16">
-        <v>437732.9</v>
+        <v>432348</v>
       </c>
       <c r="BF16">
-        <v>7246.69415148768</v>
+        <v>6890.383419477191</v>
       </c>
       <c r="BG16">
-        <v>1655.286610911209</v>
+        <v>1593.498568354091</v>
       </c>
     </row>
     <row r="17" spans="1:59" s="4" customFormat="1">
@@ -5050,19 +5050,19 @@
         <v>9186</v>
       </c>
       <c r="C17" s="4">
-        <v>2.052985398839601</v>
+        <v>2.051668836958891</v>
       </c>
       <c r="D17" s="4">
-        <v>0.3974768072012285</v>
+        <v>0.3977318692284916</v>
       </c>
       <c r="E17" s="4">
-        <v>2.699247062586395</v>
+        <v>2.699291895192637</v>
       </c>
       <c r="F17" s="4">
-        <v>0.006324550632621455</v>
+        <v>0.006324445588002652</v>
       </c>
       <c r="G17" s="4">
-        <v>372.1748842364748</v>
+        <v>372.181065801056</v>
       </c>
       <c r="H17" s="4">
         <v>0.02353838899543613</v>
@@ -5071,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>750.9074602693112</v>
+        <v>750.4259097728051</v>
       </c>
       <c r="K17" s="4">
         <v>2.984682998114292</v>
       </c>
       <c r="L17" s="4">
-        <v>10.38474799197849</v>
+        <v>10.37808834239952</v>
       </c>
       <c r="M17" s="4">
         <v>0.0412769647544098</v>
@@ -5086,25 +5086,25 @@
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <v>13.71296497436093</v>
+        <v>13.71319273712027</v>
       </c>
       <c r="P17" s="4">
         <v>0.0008672834130371031</v>
       </c>
       <c r="Q17" s="4">
-        <v>10.38474799197849</v>
+        <v>10.37808834239952</v>
       </c>
       <c r="R17" s="4">
         <v>0.0412769647544098</v>
       </c>
       <c r="S17" s="4">
-        <v>0.9969606965416613</v>
+        <v>0.9965361134751678</v>
       </c>
       <c r="T17" s="4">
         <v>0.001018388305285391</v>
       </c>
       <c r="U17" s="4">
-        <v>0.9969606965416613</v>
+        <v>0.9965361134751678</v>
       </c>
       <c r="V17" s="4">
         <v>0.001018388305285391</v>
@@ -5113,16 +5113,16 @@
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <v>0.8884792469557553</v>
+        <v>0.8894925105453537</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.003978702478775142</v>
+        <v>0.003987782653041559</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.000216946300048345</v>
+        <v>0.0002171937158292878</v>
       </c>
       <c r="AA17" s="4">
-        <v>9.715080962453027E-07</v>
+        <v>9.737252670094401E-07</v>
       </c>
       <c r="AB17" s="4">
         <v>0</v>
@@ -5131,40 +5131,40 @@
         <v>0.85</v>
       </c>
       <c r="AD17" s="4">
-        <v>224.3287962799042</v>
+        <v>224.5351238116349</v>
       </c>
       <c r="AE17" s="4">
-        <v>0.7610961389745549</v>
+        <v>0.7610961640055035</v>
       </c>
       <c r="AF17" s="4">
-        <v>10.22705858883891</v>
+        <v>10.23646497709798</v>
       </c>
       <c r="AG17" s="4">
-        <v>0.03469806344130567</v>
+        <v>0.03469806458245644</v>
       </c>
       <c r="AH17" s="4">
-        <v>47140.9680024959</v>
+        <v>47130.57621401784</v>
       </c>
       <c r="AI17" s="4">
-        <v>264.8479589144039</v>
+        <v>264.8928283657278</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-3.039303458338694</v>
+        <v>-3.463886524832205</v>
       </c>
       <c r="AK17" s="4">
         <v>1.018388305285391</v>
       </c>
       <c r="AL17" s="4">
-        <v>0.9995364284725223</v>
+        <v>1.000439140504433</v>
       </c>
       <c r="AM17" s="4">
-        <v>0.003391786945811586</v>
+        <v>0.003391731787599699</v>
       </c>
       <c r="AN17" s="4">
-        <v>0.9995364284725223</v>
+        <v>1.000439140504433</v>
       </c>
       <c r="AO17" s="4">
-        <v>0.003391786945811587</v>
+        <v>0.0033917317875997</v>
       </c>
       <c r="AP17" s="4" t="s">
         <v>125</v>
@@ -5176,10 +5176,10 @@
         <v>126</v>
       </c>
       <c r="AS17" s="4">
-        <v>2.12031375431154E-05</v>
+        <v>2.122696603498933E-05</v>
       </c>
       <c r="AT17" s="4">
-        <v>9.495932446859984E-08</v>
+        <v>9.517443744401181E-08</v>
       </c>
       <c r="AU17" s="4">
         <v>0.75</v>
@@ -5236,7 +5236,7 @@
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
@@ -5366,31 +5366,31 @@
         <v>9186</v>
       </c>
       <c r="C3" s="4">
-        <v>13.71600703906943</v>
+        <v>13.71523930037968</v>
       </c>
       <c r="D3" s="4">
         <v>0.001537435798429116</v>
       </c>
       <c r="E3" s="4">
-        <v>0.8883770317103723</v>
+        <v>0.8905816135662882</v>
       </c>
       <c r="F3" s="4">
-        <v>0.003544855145221509</v>
+        <v>0.003562470684003865</v>
       </c>
       <c r="G3" s="4">
-        <v>1.000667855004778</v>
+        <v>0.9998560822461793</v>
       </c>
       <c r="H3" s="4">
-        <v>0.003723465027889132</v>
+        <v>0.003723670601000376</v>
       </c>
       <c r="I3" s="4">
-        <v>47210.23011323402</v>
+        <v>47052.52653700281</v>
       </c>
       <c r="J3" s="4">
-        <v>257.5243435537484</v>
+        <v>257.1085613729377</v>
       </c>
       <c r="K3" s="4">
-        <v>-1.535785738414397</v>
+        <v>-2.046579556390093</v>
       </c>
       <c r="L3" s="4">
         <v>1.297592116384946</v>
@@ -5408,7 +5408,7 @@
         <v>126</v>
       </c>
       <c r="Q3" s="4">
-        <v>-1.535785738414397</v>
+        <v>-2.046579556390093</v>
       </c>
       <c r="R3" s="4">
         <v>1.297592116384946</v>
@@ -5422,52 +5422,52 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>15.0413474329494</v>
+        <v>15.03690631139007</v>
       </c>
       <c r="D4">
-        <v>0.01978904016177587</v>
+        <v>0.01978903999151855</v>
       </c>
       <c r="E4">
-        <v>0.005529071023814666</v>
+        <v>0.005660272088261397</v>
       </c>
       <c r="F4">
-        <v>0.0001619980484625463</v>
+        <v>0.0001659232090856783</v>
       </c>
       <c r="G4">
-        <v>0.9754657320938003</v>
+        <v>0.9738301850808498</v>
       </c>
       <c r="H4">
-        <v>0.007539261750370366</v>
+        <v>0.007540389817617558</v>
       </c>
       <c r="I4">
-        <v>172.1629959530784</v>
+        <v>167.7946240138874</v>
       </c>
       <c r="J4">
-        <v>5.211892219597146</v>
+        <v>5.082577214765961</v>
       </c>
       <c r="K4">
-        <v>3.046216285864878</v>
+        <v>3.827447745538448</v>
       </c>
       <c r="L4">
-        <v>1.46808182698224</v>
+        <v>1.468855587836767</v>
       </c>
       <c r="M4">
-        <v>405.3622</v>
+        <v>397.3046</v>
       </c>
       <c r="N4" t="s">
         <v>126</v>
       </c>
       <c r="O4">
-        <v>388.2673</v>
+        <v>378.6177</v>
       </c>
       <c r="P4">
-        <v>30.5029479563</v>
+        <v>27.776555387</v>
       </c>
       <c r="Q4">
-        <v>3.046216285864878</v>
+        <v>3.827447745538448</v>
       </c>
       <c r="R4">
-        <v>1.46808182698224</v>
+        <v>1.468855587836767</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="4" customFormat="1">
@@ -5475,31 +5475,31 @@
         <v>9186</v>
       </c>
       <c r="C5" s="4">
-        <v>13.71467181412706</v>
+        <v>13.71536104497248</v>
       </c>
       <c r="D5" s="4">
         <v>0.001155277868178238</v>
       </c>
       <c r="E5" s="4">
-        <v>0.891256605307554</v>
+        <v>0.8885586414037057</v>
       </c>
       <c r="F5" s="4">
-        <v>0.003968452788320161</v>
+        <v>0.003944462981395974</v>
       </c>
       <c r="G5" s="4">
-        <v>1.001611461637547</v>
+        <v>1.002623459617004</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002316814754060447</v>
+        <v>0.002316701521823447</v>
       </c>
       <c r="I5" s="4">
-        <v>47097.48694254774</v>
+        <v>47290.59764244102</v>
       </c>
       <c r="J5" s="4">
-        <v>236.2837301764788</v>
+        <v>236.6335313630173</v>
       </c>
       <c r="K5" s="4">
-        <v>-3.042656711581104</v>
+        <v>-3.583007132901161</v>
       </c>
       <c r="L5" s="4">
         <v>1.114055567528818</v>
@@ -5517,7 +5517,7 @@
         <v>126</v>
       </c>
       <c r="Q5" s="4">
-        <v>-3.042656711581104</v>
+        <v>-3.583007132901161</v>
       </c>
       <c r="R5" s="4">
         <v>1.114055567528818</v>
@@ -5531,52 +5531,52 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>3.441328576938804</v>
+        <v>3.441329043288853</v>
       </c>
       <c r="D6">
-        <v>0.0008901550723786472</v>
+        <v>0.0008901550723946611</v>
       </c>
       <c r="E6">
-        <v>2.403915829349573</v>
+        <v>2.39694470957454</v>
       </c>
       <c r="F6">
-        <v>0.01049318193093879</v>
+        <v>0.01043551771987159</v>
       </c>
       <c r="G6">
-        <v>0.9911973643741525</v>
+        <v>0.9924465873509145</v>
       </c>
       <c r="H6">
-        <v>0.004373433225422818</v>
+        <v>0.004372879085347034</v>
       </c>
       <c r="I6">
-        <v>0.09216164272666869</v>
+        <v>0.09235425811625793</v>
       </c>
       <c r="J6">
-        <v>0.000571512121890626</v>
+        <v>0.0005715663752333282</v>
       </c>
       <c r="K6">
-        <v>3.943203970439457</v>
+        <v>3.619748335957684</v>
       </c>
       <c r="L6">
-        <v>1.657654118263651</v>
+        <v>1.65804552052674</v>
       </c>
       <c r="M6">
-        <v>498.9566</v>
+        <v>524.2474</v>
       </c>
       <c r="N6" t="s">
         <v>126</v>
       </c>
       <c r="O6">
-        <v>464.5269</v>
+        <v>478.1797</v>
       </c>
       <c r="P6">
-        <v>38.9269965232</v>
+        <v>45.5096899786</v>
       </c>
       <c r="Q6">
-        <v>3.943203970439457</v>
+        <v>3.619748335957684</v>
       </c>
       <c r="R6">
-        <v>1.657654118263651</v>
+        <v>1.65804552052674</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1">
@@ -5584,31 +5584,31 @@
         <v>9186</v>
       </c>
       <c r="C7" s="4">
-        <v>13.71416560182397</v>
+        <v>13.71413998495923</v>
       </c>
       <c r="D7" s="4">
         <v>0.001289132310987219</v>
       </c>
       <c r="E7" s="4">
-        <v>0.8902630718431014</v>
+        <v>0.8893107359285929</v>
       </c>
       <c r="F7" s="4">
-        <v>0.004058455763105146</v>
+        <v>0.004049777550891609</v>
       </c>
       <c r="G7" s="4">
-        <v>1.00082301396418</v>
+        <v>1.000074347383193</v>
       </c>
       <c r="H7" s="4">
-        <v>0.003271864688411535</v>
+        <v>0.003271868689528417</v>
       </c>
       <c r="I7" s="4">
-        <v>47111.19324499249</v>
+        <v>47126.27585529182</v>
       </c>
       <c r="J7" s="4">
-        <v>264.2452814512864</v>
+        <v>264.2105267220917</v>
       </c>
       <c r="K7" s="4">
-        <v>-0.8296264984736235</v>
+        <v>-0.760486846759223</v>
       </c>
       <c r="L7" s="4">
         <v>0.9839394015774066</v>
@@ -5626,7 +5626,7 @@
         <v>126</v>
       </c>
       <c r="Q7" s="4">
-        <v>-0.8296264984736235</v>
+        <v>-0.760486846759223</v>
       </c>
       <c r="R7" s="4">
         <v>0.9839394015774066</v>
@@ -5640,52 +5640,52 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>19.48505518707597</v>
+        <v>19.48454197647454</v>
       </c>
       <c r="D8">
-        <v>0.006471436382809471</v>
+        <v>0.006471436376315348</v>
       </c>
       <c r="E8">
-        <v>-0.1684097998518263</v>
+        <v>-0.1696180753722577</v>
       </c>
       <c r="F8">
-        <v>-0.002513809942419502</v>
+        <v>-0.002520802614030055</v>
       </c>
       <c r="G8">
-        <v>0.9758281626907349</v>
+        <v>0.9732220416313586</v>
       </c>
       <c r="H8">
-        <v>0.003710544222550436</v>
+        <v>0.003707114672799816</v>
       </c>
       <c r="I8">
-        <v>-7.317155567609624</v>
+        <v>-7.242809029274999</v>
       </c>
       <c r="J8">
-        <v>-0.112683257807841</v>
+        <v>-0.1110933018636352</v>
       </c>
       <c r="K8">
-        <v>0.2930332121344748</v>
+        <v>0.5147550307593729</v>
       </c>
       <c r="L8">
-        <v>0.7415374951064135</v>
+        <v>0.7414785780893494</v>
       </c>
       <c r="M8">
-        <v>414.7646</v>
+        <v>404.9719</v>
       </c>
       <c r="N8">
-        <v>19.593</v>
+        <v>17.5533</v>
       </c>
       <c r="O8">
-        <v>404.7431</v>
+        <v>392.5668</v>
       </c>
       <c r="P8">
-        <v>17.3735530645</v>
+        <v>15.4711221581</v>
       </c>
       <c r="Q8">
-        <v>0.2930332121344748</v>
+        <v>0.5147550307593729</v>
       </c>
       <c r="R8">
-        <v>0.7415374951064135</v>
+        <v>0.7414785780893494</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="4" customFormat="1">
@@ -5693,34 +5693,34 @@
         <v>9186</v>
       </c>
       <c r="C9" s="4">
-        <v>13.71328240462547</v>
+        <v>13.71348592665002</v>
       </c>
       <c r="D9" s="4">
         <v>0.0009364572733045003</v>
       </c>
       <c r="E9" s="4">
-        <v>0.8872830601547772</v>
+        <v>0.8876020328530302</v>
       </c>
       <c r="F9" s="4">
-        <v>0.004115578106115487</v>
+        <v>0.004118537687057142</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9997661901894193</v>
+        <v>1.00239181729563</v>
       </c>
       <c r="H9" s="4">
-        <v>0.003126177451081867</v>
+        <v>0.00312613527074461</v>
       </c>
       <c r="I9" s="4">
-        <v>47216.46466571741</v>
+        <v>47324.15634140059</v>
       </c>
       <c r="J9" s="4">
-        <v>264.1072015513822</v>
+        <v>264.5574770388683</v>
       </c>
       <c r="K9" s="4">
-        <v>-1.954717786694871</v>
+        <v>-1.865161027824191</v>
       </c>
       <c r="L9" s="4">
-        <v>0.8357515363213824</v>
+        <v>0.8357515363213823</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>125</v>
@@ -5735,10 +5735,10 @@
         <v>126</v>
       </c>
       <c r="Q9" s="4">
-        <v>-1.954717786694871</v>
+        <v>-1.865161027824191</v>
       </c>
       <c r="R9" s="4">
-        <v>0.8357515363213824</v>
+        <v>0.8357515363213823</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5749,52 +5749,52 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>13.9595100688615</v>
+        <v>13.96014161641222</v>
       </c>
       <c r="D10">
-        <v>0.004741603336833952</v>
+        <v>0.004741603343029889</v>
       </c>
       <c r="E10">
-        <v>1.031481043076749</v>
+        <v>1.032560493362476</v>
       </c>
       <c r="F10">
-        <v>0.005753810756232281</v>
+        <v>0.005764714646234756</v>
       </c>
       <c r="G10">
-        <v>0.9741299288023223</v>
+        <v>0.9731465374137482</v>
       </c>
       <c r="H10">
-        <v>0.00420641458403376</v>
+        <v>0.004200126112959693</v>
       </c>
       <c r="I10">
-        <v>0.8533011747787898</v>
+        <v>0.8511110436199741</v>
       </c>
       <c r="J10">
-        <v>0.006012424317759655</v>
+        <v>0.005999085948640937</v>
       </c>
       <c r="K10">
-        <v>2.7566764317426</v>
+        <v>2.421364011313321</v>
       </c>
       <c r="L10">
-        <v>0.6258606787251504</v>
+        <v>0.6257321135206724</v>
       </c>
       <c r="M10">
-        <v>395.2508</v>
+        <v>397.7362</v>
       </c>
       <c r="N10">
-        <v>18.0622</v>
+        <v>18.5615</v>
       </c>
       <c r="O10">
-        <v>384.7107</v>
+        <v>382.7414</v>
       </c>
       <c r="P10">
-        <v>15.5079585644</v>
+        <v>15.6920625477</v>
       </c>
       <c r="Q10">
-        <v>2.7566764317426</v>
+        <v>2.421364011313321</v>
       </c>
       <c r="R10">
-        <v>0.6258606787251504</v>
+        <v>0.6257321135206724</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1">
@@ -5802,31 +5802,31 @@
         <v>9186</v>
       </c>
       <c r="C11" s="4">
-        <v>13.71406696333838</v>
+        <v>13.71296955949067</v>
       </c>
       <c r="D11" s="4">
         <v>0.001010228744279998</v>
       </c>
       <c r="E11" s="4">
-        <v>0.8879708075687468</v>
+        <v>0.8866003117400937</v>
       </c>
       <c r="F11" s="4">
-        <v>0.004083548755152479</v>
+        <v>0.004070953368742462</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9992888035233749</v>
+        <v>0.9995711281376151</v>
       </c>
       <c r="H11" s="4">
-        <v>0.002872136626067436</v>
+        <v>0.002872367027651197</v>
       </c>
       <c r="I11" s="4">
-        <v>47160.06439613751</v>
+        <v>47242.52769689465</v>
       </c>
       <c r="J11" s="4">
-        <v>255.7272381588362</v>
+        <v>255.8755126776899</v>
       </c>
       <c r="K11" s="4">
-        <v>-2.847555986291272</v>
+        <v>-2.527172136228328</v>
       </c>
       <c r="L11" s="4">
         <v>1.049182169557438</v>
@@ -5844,7 +5844,7 @@
         <v>126</v>
       </c>
       <c r="Q11" s="4">
-        <v>-2.847555986291272</v>
+        <v>-2.527172136228328</v>
       </c>
       <c r="R11" s="4">
         <v>1.049182169557438</v>
@@ -5858,52 +5858,52 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>12.86718314361638</v>
+        <v>12.86644925854644</v>
       </c>
       <c r="D12">
-        <v>0.003441087567014923</v>
+        <v>0.003441087560913542</v>
       </c>
       <c r="E12">
-        <v>28.16568996843262</v>
+        <v>28.16125710608711</v>
       </c>
       <c r="F12">
-        <v>0.07611778189860542</v>
+        <v>0.07609392536320704</v>
       </c>
       <c r="G12">
-        <v>0.9790552059512321</v>
+        <v>0.9784162515256559</v>
       </c>
       <c r="H12">
-        <v>0.002566577351746962</v>
+        <v>0.0025653847561314</v>
       </c>
       <c r="I12">
-        <v>0.02899941661796822</v>
+        <v>0.02897358969802238</v>
       </c>
       <c r="J12">
-        <v>0.0001089087942857604</v>
+        <v>0.0001088129488181392</v>
       </c>
       <c r="K12">
-        <v>2.535588329896088</v>
+        <v>2.623220199645671</v>
       </c>
       <c r="L12">
-        <v>0.617658847901364</v>
+        <v>0.6175524538612926</v>
       </c>
       <c r="M12">
-        <v>422.5547</v>
+        <v>420.0755</v>
       </c>
       <c r="N12">
-        <v>14.2374</v>
+        <v>14.2781</v>
       </c>
       <c r="O12">
-        <v>405.7195</v>
+        <v>402.4051</v>
       </c>
       <c r="P12">
-        <v>11.8187859365</v>
+        <v>11.7405050166</v>
       </c>
       <c r="Q12">
-        <v>2.535588329896088</v>
+        <v>2.623220199645671</v>
       </c>
       <c r="R12">
-        <v>0.617658847901364</v>
+        <v>0.6175524538612926</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1">
@@ -5911,34 +5911,34 @@
         <v>9186</v>
       </c>
       <c r="C13" s="4">
-        <v>13.71474592006878</v>
+        <v>13.71439719886068</v>
       </c>
       <c r="D13" s="4">
-        <v>0.0009508093226944613</v>
+        <v>0.0009508093226944609</v>
       </c>
       <c r="E13" s="4">
-        <v>0.8904170127489001</v>
+        <v>0.8910975031795663</v>
       </c>
       <c r="F13" s="4">
-        <v>0.002894809494073096</v>
+        <v>0.00289923583108927</v>
       </c>
       <c r="G13" s="4">
-        <v>1.000432899206451</v>
+        <v>1.001191554165284</v>
       </c>
       <c r="H13" s="4">
-        <v>0.002161783938685935</v>
+        <v>0.002161840651871305</v>
       </c>
       <c r="I13" s="4">
-        <v>47086.68028156921</v>
+        <v>47085.20490078314</v>
       </c>
       <c r="J13" s="4">
-        <v>183.7824362663229</v>
+        <v>183.8329587987095</v>
       </c>
       <c r="K13" s="4">
-        <v>-2.529167524201847</v>
+        <v>-2.505910882709017</v>
       </c>
       <c r="L13" s="4">
-        <v>0.8901499197111417</v>
+        <v>0.8901499197111418</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>125</v>
@@ -5953,10 +5953,10 @@
         <v>126</v>
       </c>
       <c r="Q13" s="4">
-        <v>-2.529167524201847</v>
+        <v>-2.505910882709017</v>
       </c>
       <c r="R13" s="4">
-        <v>0.8901499197111417</v>
+        <v>0.8901499197111418</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5967,52 +5967,52 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>7.180684445861313</v>
+        <v>7.181574108241955</v>
       </c>
       <c r="D14">
-        <v>0.001784814183100816</v>
+        <v>0.001784814193384784</v>
       </c>
       <c r="E14">
-        <v>0.3598417075934583</v>
+        <v>0.3580219880082354</v>
       </c>
       <c r="F14">
-        <v>0.002290465307727848</v>
+        <v>0.002271480402933131</v>
       </c>
       <c r="G14">
-        <v>0.9821545169821904</v>
+        <v>0.9800853014669939</v>
       </c>
       <c r="H14">
-        <v>0.003507269933215617</v>
+        <v>0.00350546123094885</v>
       </c>
       <c r="I14">
-        <v>1.275687117141879</v>
+        <v>1.279474424945175</v>
       </c>
       <c r="J14">
-        <v>0.009305176459567018</v>
+        <v>0.009313306238527712</v>
       </c>
       <c r="K14">
-        <v>1.996424606114156</v>
+        <v>1.712729973920579</v>
       </c>
       <c r="L14">
-        <v>0.6823950620695909</v>
+        <v>0.6823467466899904</v>
       </c>
       <c r="M14">
-        <v>441.18</v>
+        <v>432.7757</v>
       </c>
       <c r="N14">
-        <v>23.7555</v>
+        <v>21.4986</v>
       </c>
       <c r="O14">
-        <v>424.2927</v>
+        <v>415.719</v>
       </c>
       <c r="P14">
-        <v>19.4817428239</v>
+        <v>17.5169768967</v>
       </c>
       <c r="Q14">
-        <v>1.996424606114156</v>
+        <v>1.712729973920579</v>
       </c>
       <c r="R14">
-        <v>0.6823950620695909</v>
+        <v>0.6823467466899904</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1">
@@ -6020,34 +6020,34 @@
         <v>9186</v>
       </c>
       <c r="C15" s="4">
-        <v>13.713034970874</v>
+        <v>13.71319985415296</v>
       </c>
       <c r="D15" s="4">
         <v>0.001149709602279575</v>
       </c>
       <c r="E15" s="4">
-        <v>0.8948545590619507</v>
+        <v>0.8939406259858222</v>
       </c>
       <c r="F15" s="4">
-        <v>0.003786136847511901</v>
+        <v>0.003778407080398669</v>
       </c>
       <c r="G15" s="4">
-        <v>0.9988805609692499</v>
+        <v>0.9988888808814648</v>
       </c>
       <c r="H15" s="4">
-        <v>0.002362250736037846</v>
+        <v>0.002362222359513692</v>
       </c>
       <c r="I15" s="4">
-        <v>46774.64291156993</v>
+        <v>46823.41662719673</v>
       </c>
       <c r="J15" s="4">
-        <v>226.6864575879197</v>
+        <v>226.7451110517479</v>
       </c>
       <c r="K15" s="4">
-        <v>-2.320906566088965</v>
+        <v>-2.202891300742693</v>
       </c>
       <c r="L15" s="4">
-        <v>0.7914499647809167</v>
+        <v>0.7914499647809169</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>125</v>
@@ -6062,10 +6062,10 @@
         <v>126</v>
       </c>
       <c r="Q15" s="4">
-        <v>-2.320906566088965</v>
+        <v>-2.202891300742693</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7914499647809167</v>
+        <v>0.7914499647809169</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6076,52 +6076,52 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>11.40180901630338</v>
+        <v>11.40216300912091</v>
       </c>
       <c r="D16">
-        <v>0.002357885719156751</v>
+        <v>0.002357885721827777</v>
       </c>
       <c r="E16">
-        <v>17.38576577443245</v>
+        <v>17.38770470481672</v>
       </c>
       <c r="F16">
-        <v>0.03835645103775055</v>
+        <v>0.03836494628929124</v>
       </c>
       <c r="G16">
-        <v>0.9852732129710471</v>
+        <v>0.9845915147220022</v>
       </c>
       <c r="H16">
-        <v>0.002323645885583917</v>
+        <v>0.00232251073246219</v>
       </c>
       <c r="I16">
-        <v>0.04201464799961023</v>
+        <v>0.04198418048932442</v>
       </c>
       <c r="J16">
-        <v>0.0001354051286181197</v>
+        <v>0.0001353286718302719</v>
       </c>
       <c r="K16">
-        <v>2.518642744754107</v>
+        <v>2.698465868033573</v>
       </c>
       <c r="L16">
-        <v>0.5213779254071647</v>
+        <v>0.5214580713338243</v>
       </c>
       <c r="M16">
-        <v>456.6012</v>
+        <v>454.7034</v>
       </c>
       <c r="N16">
-        <v>17.8115</v>
+        <v>17.4221</v>
       </c>
       <c r="O16">
-        <v>437.7909</v>
+        <v>432.406</v>
       </c>
       <c r="P16">
-        <v>14.5977755793</v>
+        <v>13.6931576438</v>
       </c>
       <c r="Q16">
-        <v>2.518642744754107</v>
+        <v>2.698465868033573</v>
       </c>
       <c r="R16">
-        <v>0.5213779254071647</v>
+        <v>0.5214580713338243</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1">
@@ -6129,31 +6129,31 @@
         <v>9186</v>
       </c>
       <c r="C17" s="4">
-        <v>13.71296497436093</v>
+        <v>13.71319273712027</v>
       </c>
       <c r="D17" s="4">
         <v>0.0008672834130371031</v>
       </c>
       <c r="E17" s="4">
-        <v>0.8884792469557553</v>
+        <v>0.8894925105453537</v>
       </c>
       <c r="F17" s="4">
-        <v>0.003978702478775142</v>
+        <v>0.003987782653041559</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9995364284725223</v>
+        <v>1.000439140504433</v>
       </c>
       <c r="H17" s="4">
-        <v>0.003391786945811587</v>
+        <v>0.0033917317875997</v>
       </c>
       <c r="I17" s="4">
-        <v>47140.9680024959</v>
+        <v>47130.57621401784</v>
       </c>
       <c r="J17" s="4">
-        <v>264.8479589144039</v>
+        <v>264.8928283657278</v>
       </c>
       <c r="K17" s="4">
-        <v>-3.039303458338694</v>
+        <v>-3.463886524832205</v>
       </c>
       <c r="L17" s="4">
         <v>1.018388305285391</v>
@@ -6171,7 +6171,7 @@
         <v>126</v>
       </c>
       <c r="Q17" s="4">
-        <v>-3.039303458338694</v>
+        <v>-3.463886524832205</v>
       </c>
       <c r="R17" s="4">
         <v>1.018388305285391</v>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="143">
   <si>
     <t>Lab. #</t>
   </si>
@@ -30,15 +30,15 @@
     <t>Mess. Dat.</t>
   </si>
   <si>
-    <t>Tiefe (cm)</t>
-  </si>
-  <si>
     <t>Einwaage (g)</t>
   </si>
   <si>
     <t>TriSp13 (g)</t>
   </si>
   <si>
+    <t>Tiefe</t>
+  </si>
+  <si>
     <t>Ratio 233/236</t>
   </si>
   <si>
@@ -330,9 +330,6 @@
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>Tiefe</t>
-  </si>
-  <si>
     <t>d234U (initial)</t>
   </si>
   <si>
@@ -405,7 +402,7 @@
     <t>Taylor 1. Ord.</t>
   </si>
   <si>
-    <t>(cm)</t>
+    <t>cm</t>
   </si>
   <si>
     <t>(a BP)</t>
@@ -929,9 +926,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
@@ -1082,10 +1079,10 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E3" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F3" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G3" s="4">
         <v>10.34617</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1159,10 +1156,10 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
+      <c r="E4">
+        <v>0.011411</v>
+      </c>
       <c r="F4">
-        <v>0.011411</v>
-      </c>
-      <c r="G4">
         <v>0.009849</v>
       </c>
       <c r="H4" t="s">
@@ -1233,10 +1230,10 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F5" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G5" s="4">
         <v>10.34617</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1310,10 +1307,10 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
+      <c r="E6">
+        <v>0.010943</v>
+      </c>
       <c r="F6">
-        <v>0.010943</v>
-      </c>
-      <c r="G6">
         <v>0.009334</v>
       </c>
       <c r="H6" t="s">
@@ -1384,10 +1381,10 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E7" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F7" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G7" s="4">
         <v>10.34617</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1461,10 +1458,10 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
+      <c r="E8">
+        <v>0.006735</v>
+      </c>
       <c r="F8">
-        <v>0.006735</v>
-      </c>
-      <c r="G8">
         <v>0.009993</v>
       </c>
       <c r="H8" t="s">
@@ -1535,10 +1532,10 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E9" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F9" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G9" s="4">
         <v>10.34617</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1612,10 +1609,10 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
+      <c r="E10">
+        <v>0.0124</v>
+      </c>
       <c r="F10">
-        <v>0.0124</v>
-      </c>
-      <c r="G10">
         <v>0.00962</v>
       </c>
       <c r="H10" t="s">
@@ -1686,10 +1683,10 @@
       <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E11" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F11" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G11" s="4">
         <v>10.34617</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1763,10 +1760,10 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
+      <c r="E12">
+        <v>0.0125</v>
+      </c>
       <c r="F12">
-        <v>0.0125</v>
-      </c>
-      <c r="G12">
         <v>0.009428000000000001</v>
       </c>
       <c r="H12" t="s">
@@ -1837,10 +1834,10 @@
       <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E13" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F13" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G13" s="4">
         <v>10.34617</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1914,10 +1911,10 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
+      <c r="E14">
+        <v>0.01497</v>
+      </c>
       <c r="F14">
-        <v>0.01497</v>
-      </c>
-      <c r="G14">
         <v>0.010175</v>
       </c>
       <c r="H14" t="s">
@@ -1988,10 +1985,10 @@
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E15" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F15" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G15" s="4">
         <v>10.34617</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2065,10 +2062,10 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
+      <c r="E16">
+        <v>0.012018</v>
+      </c>
       <c r="F16">
-        <v>0.012018</v>
-      </c>
-      <c r="G16">
         <v>0.009748</v>
       </c>
       <c r="H16" t="s">
@@ -2139,10 +2136,10 @@
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E17" s="4">
+        <v>1.0953</v>
+      </c>
       <c r="F17" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G17" s="4">
         <v>10.34617</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2288,61 +2285,61 @@
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>73</v>
@@ -2351,13 +2348,13 @@
         <v>74</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>78</v>
@@ -2366,46 +2363,46 @@
         <v>79</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>94</v>
@@ -2414,46 +2411,46 @@
         <v>95</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="BD1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BE1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="3" customFormat="1">
@@ -2461,163 +2458,163 @@
         <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AO2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="AQ2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AU2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="BB2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BC2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="BG2" s="3" t="s">
         <v>51</v>
@@ -2649,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>748.1857733049716</v>
+        <v>748.1857733049717</v>
       </c>
       <c r="K3" s="4">
-        <v>3.297010990930299</v>
+        <v>3.2970109909303</v>
       </c>
       <c r="L3" s="4">
-        <v>10.34710815653514</v>
+        <v>10.34710815653515</v>
       </c>
       <c r="M3" s="4">
-        <v>0.04559633520662432</v>
+        <v>0.04559633520662433</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
@@ -2670,10 +2667,10 @@
         <v>0.001537435798429116</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.34710815653514</v>
+        <v>10.34710815653515</v>
       </c>
       <c r="R3" s="4">
-        <v>0.04559633520662432</v>
+        <v>0.04559633520662433</v>
       </c>
       <c r="S3" s="4">
         <v>0.9979534204436099</v>
@@ -2691,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <v>0.8905816135662882</v>
+        <v>0.8905816135662884</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.003562470684003865</v>
+        <v>0.003562470684003866</v>
       </c>
       <c r="Z3" s="4">
         <v>0.000217459649863845</v>
       </c>
       <c r="AA3" s="4">
-        <v>8.69873817057004E-07</v>
+        <v>8.698738170570043E-07</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
@@ -2712,7 +2709,7 @@
         <v>224.4377544158947</v>
       </c>
       <c r="AE3" s="4">
-        <v>0.8354738423200543</v>
+        <v>0.8354738423200544</v>
       </c>
       <c r="AF3" s="4">
         <v>10.2320259459459</v>
@@ -2721,10 +2718,10 @@
         <v>0.03808891268773317</v>
       </c>
       <c r="AH3" s="4">
-        <v>47052.52653700281</v>
+        <v>47052.5265370028</v>
       </c>
       <c r="AI3" s="4">
-        <v>257.1085613729377</v>
+        <v>257.1085613729376</v>
       </c>
       <c r="AJ3" s="4">
         <v>-2.046579556390093</v>
@@ -2733,31 +2730,31 @@
         <v>1.297592116384946</v>
       </c>
       <c r="AL3" s="4">
-        <v>0.9998560822461793</v>
+        <v>0.9998560822461795</v>
       </c>
       <c r="AM3" s="4">
         <v>0.003723670601000376</v>
       </c>
       <c r="AN3" s="4">
-        <v>0.9998560822461793</v>
+        <v>0.9998560822461795</v>
       </c>
       <c r="AO3" s="4">
         <v>0.003723670601000376</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS3" s="4">
         <v>2.124978520462398E-05</v>
       </c>
       <c r="AT3" s="4">
-        <v>8.503595166371856E-08</v>
+        <v>8.503595166371861E-08</v>
       </c>
       <c r="AU3" s="4">
         <v>0.75</v>
@@ -2766,31 +2763,31 @@
         <v>0.375</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -2912,19 +2909,19 @@
         <v>0.007549738173726313</v>
       </c>
       <c r="AN4">
-        <v>0.9738301850808498</v>
+        <v>0.9738301850808496</v>
       </c>
       <c r="AO4">
-        <v>0.007540389817617558</v>
+        <v>0.007540389817617557</v>
       </c>
       <c r="AP4">
         <v>397.3046</v>
       </c>
       <c r="AQ4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS4">
         <v>1.231864737557985E-07</v>
@@ -2942,13 +2939,13 @@
         <v>378.6177</v>
       </c>
       <c r="AX4">
-        <v>27.776555387</v>
+        <v>27.7695114754</v>
       </c>
       <c r="AY4">
-        <v>26.94013232986835</v>
+        <v>26.94013232986834</v>
       </c>
       <c r="AZ4">
-        <v>7.336306619315472</v>
+        <v>7.33444619081464</v>
       </c>
       <c r="BA4" t="s">
         <v>25</v>
@@ -2957,7 +2954,7 @@
         <v>11.15943581643624</v>
       </c>
       <c r="BD4">
-        <v>4.371332342713034</v>
+        <v>4.371287823590726</v>
       </c>
       <c r="BE4">
         <v>378559.7</v>
@@ -2966,7 +2963,7 @@
         <v>13470.06616493417</v>
       </c>
       <c r="BG4">
-        <v>3557.695840668351</v>
+        <v>3557.69584066835</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="4" customFormat="1">
@@ -3037,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.8885586414037057</v>
+        <v>0.8885586414037059</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.003944462981395974</v>
+        <v>0.003944462981395975</v>
       </c>
       <c r="Z5" s="4">
         <v>0.0002169656863556631</v>
       </c>
       <c r="AA5" s="4">
-        <v>9.631475945257893E-07</v>
+        <v>9.631475945257896E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
@@ -3058,16 +3055,16 @@
         <v>225.0609455359863</v>
       </c>
       <c r="AE5" s="4">
-        <v>0.5196890915829907</v>
+        <v>0.5196890915829908</v>
       </c>
       <c r="AF5" s="4">
         <v>10.26043697566172</v>
       </c>
       <c r="AG5" s="4">
-        <v>0.02369241432993786</v>
+        <v>0.02369241432993787</v>
       </c>
       <c r="AH5" s="4">
-        <v>47290.59764244102</v>
+        <v>47290.59764244103</v>
       </c>
       <c r="AI5" s="4">
         <v>236.6335313630173</v>
@@ -3079,31 +3076,31 @@
         <v>1.114055567528818</v>
       </c>
       <c r="AL5" s="4">
-        <v>1.002623459617004</v>
+        <v>1.002623459617005</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.002316701521823447</v>
+        <v>0.002316701521823448</v>
       </c>
       <c r="AN5" s="4">
-        <v>1.002623459617004</v>
+        <v>1.002623459617005</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.002316701521823447</v>
+        <v>0.002316701521823448</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS5" s="4">
         <v>2.120132773955892E-05</v>
       </c>
       <c r="AT5" s="4">
-        <v>9.413324231000063E-08</v>
+        <v>9.413324231000064E-08</v>
       </c>
       <c r="AU5" s="4">
         <v>0.75</v>
@@ -3112,31 +3109,31 @@
         <v>0.375</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:59">
@@ -3171,28 +3168,28 @@
         <v>189.4517208163983</v>
       </c>
       <c r="K6">
-        <v>4.399843257982285</v>
+        <v>4.399843257982286</v>
       </c>
       <c r="L6">
-        <v>2.620041058880085</v>
+        <v>2.620041058880086</v>
       </c>
       <c r="M6">
-        <v>0.06084806165324896</v>
+        <v>0.06084806165324897</v>
       </c>
       <c r="N6">
         <v>0.005</v>
       </c>
       <c r="O6">
-        <v>3.441329043288853</v>
+        <v>3.441329043288854</v>
       </c>
       <c r="P6">
-        <v>0.0008901550723946611</v>
+        <v>0.0008901550723946612</v>
       </c>
       <c r="Q6">
-        <v>2.620041058880085</v>
+        <v>2.620041058880086</v>
       </c>
       <c r="R6">
-        <v>0.06084806165324896</v>
+        <v>0.06084806165324897</v>
       </c>
       <c r="S6">
         <v>1.001440140168575</v>
@@ -3216,10 +3213,10 @@
         <v>0.01043551771987159</v>
       </c>
       <c r="Z6">
-        <v>0.000585279046127846</v>
+        <v>0.0005852790461278461</v>
       </c>
       <c r="AA6">
-        <v>2.548114619640433E-06</v>
+        <v>2.548114619640434E-06</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
@@ -3228,7 +3225,7 @@
         <v>0.85</v>
       </c>
       <c r="AD6">
-        <v>55.97238355680559</v>
+        <v>55.9723835568056</v>
       </c>
       <c r="AE6">
         <v>0.2461979722211669</v>
@@ -3255,22 +3252,22 @@
         <v>0.9937853020262534</v>
       </c>
       <c r="AM6">
-        <v>0.004378777677250769</v>
+        <v>0.004378777677250768</v>
       </c>
       <c r="AN6">
-        <v>0.9924465873509145</v>
+        <v>0.9924465873509143</v>
       </c>
       <c r="AO6">
-        <v>0.004372879085347034</v>
+        <v>0.004372879085347033</v>
       </c>
       <c r="AP6">
         <v>524.2474</v>
       </c>
       <c r="AQ6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS6">
         <v>0.0002279376286621842</v>
@@ -3288,13 +3285,13 @@
         <v>478.1797</v>
       </c>
       <c r="AX6">
-        <v>45.5096899786</v>
+        <v>43.7967841768</v>
       </c>
       <c r="AY6">
-        <v>42.37518575336064</v>
+        <v>42.37518575336063</v>
       </c>
       <c r="AZ6">
-        <v>9.517277705138884</v>
+        <v>9.159063878454063</v>
       </c>
       <c r="BA6" t="s">
         <v>26</v>
@@ -3303,7 +3300,7 @@
         <v>13.98358006908092</v>
       </c>
       <c r="BD6">
-        <v>6.652995257658999</v>
+        <v>6.635013597763908</v>
       </c>
       <c r="BE6">
         <v>478121.7</v>
@@ -3312,7 +3309,7 @@
         <v>21187.59287668032</v>
       </c>
       <c r="BG6">
-        <v>4430.885057789011</v>
+        <v>4430.88505778901</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="4" customFormat="1">
@@ -3341,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>753.5170186994569</v>
+        <v>753.517018699457</v>
       </c>
       <c r="K7" s="4">
         <v>3.068260342464981</v>
@@ -3404,19 +3401,19 @@
         <v>224.4687551531487</v>
       </c>
       <c r="AE7" s="4">
-        <v>0.734074506235452</v>
+        <v>0.7340745062354521</v>
       </c>
       <c r="AF7" s="4">
         <v>10.23343925694945</v>
       </c>
       <c r="AG7" s="4">
-        <v>0.03346615819431243</v>
+        <v>0.03346615819431244</v>
       </c>
       <c r="AH7" s="4">
-        <v>47126.27585529182</v>
+        <v>47126.27585529183</v>
       </c>
       <c r="AI7" s="4">
-        <v>264.2105267220917</v>
+        <v>264.2105267220918</v>
       </c>
       <c r="AJ7" s="4">
         <v>-0.760486846759223</v>
@@ -3428,7 +3425,7 @@
         <v>1.000074347383193</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.003271868689528417</v>
+        <v>0.003271868689528416</v>
       </c>
       <c r="AN7" s="4">
         <v>1.000074347383193</v>
@@ -3437,19 +3434,19 @@
         <v>0.003271868689528417</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS7" s="4">
         <v>2.122116227588339E-05</v>
       </c>
       <c r="AT7" s="4">
-        <v>9.665833382527448E-08</v>
+        <v>9.665833382527447E-08</v>
       </c>
       <c r="AU7" s="4">
         <v>0.75</v>
@@ -3458,31 +3455,31 @@
         <v>0.375</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -3613,10 +3610,10 @@
         <v>404.9719</v>
       </c>
       <c r="AQ8">
-        <v>17.5533</v>
+        <v>17.6166</v>
       </c>
       <c r="AR8">
-        <v>4.334448883984296</v>
+        <v>4.350079598115326</v>
       </c>
       <c r="AS8">
         <v>-2.848827408654226E-06</v>
@@ -3634,13 +3631,13 @@
         <v>392.5668</v>
       </c>
       <c r="AX8">
-        <v>15.4711221581</v>
+        <v>15.4603560565</v>
       </c>
       <c r="AY8">
         <v>15.22732118483986</v>
       </c>
       <c r="AZ8">
-        <v>3.941016448181558</v>
+        <v>3.938273959107087</v>
       </c>
       <c r="BA8" t="s">
         <v>27</v>
@@ -3649,7 +3646,7 @@
         <v>1.561188494939421</v>
       </c>
       <c r="BD8">
-        <v>2.249848914858602</v>
+        <v>2.249847473994108</v>
       </c>
       <c r="BE8">
         <v>392508.8</v>
@@ -3687,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>751.2003425705045</v>
+        <v>751.2003425705046</v>
       </c>
       <c r="K9" s="4">
-        <v>3.24737589967227</v>
+        <v>3.247375899672271</v>
       </c>
       <c r="L9" s="4">
         <v>10.38879843634099</v>
       </c>
       <c r="M9" s="4">
-        <v>0.04490990186890168</v>
+        <v>0.0449099018689017</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
@@ -3705,13 +3702,13 @@
         <v>13.71348592665002</v>
       </c>
       <c r="P9" s="4">
-        <v>0.0009364572733045003</v>
+        <v>0.0009364572733045004</v>
       </c>
       <c r="Q9" s="4">
         <v>10.38879843634099</v>
       </c>
       <c r="R9" s="4">
-        <v>0.04490990186890168</v>
+        <v>0.0449099018689017</v>
       </c>
       <c r="S9" s="4">
         <v>0.9981348389721758</v>
@@ -3750,19 +3747,19 @@
         <v>224.9781858373517</v>
       </c>
       <c r="AE9" s="4">
-        <v>0.701465843424813</v>
+        <v>0.7014658434248132</v>
       </c>
       <c r="AF9" s="4">
         <v>10.25666399465898</v>
       </c>
       <c r="AG9" s="4">
-        <v>0.03197954251857908</v>
+        <v>0.03197954251857909</v>
       </c>
       <c r="AH9" s="4">
-        <v>47324.15634140059</v>
+        <v>47324.1563414006</v>
       </c>
       <c r="AI9" s="4">
-        <v>264.5574770388683</v>
+        <v>264.5574770388684</v>
       </c>
       <c r="AJ9" s="4">
         <v>-1.865161027824191</v>
@@ -3780,22 +3777,22 @@
         <v>1.00239181729563</v>
       </c>
       <c r="AO9" s="4">
-        <v>0.00312613527074461</v>
+        <v>0.003126135270744611</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS9" s="4">
         <v>2.118139856660703E-05</v>
       </c>
       <c r="AT9" s="4">
-        <v>9.829386551335134E-08</v>
+        <v>9.829386551335133E-08</v>
       </c>
       <c r="AU9" s="4">
         <v>0.75</v>
@@ -3804,31 +3801,31 @@
         <v>0.375</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -3959,10 +3956,10 @@
         <v>397.7362</v>
       </c>
       <c r="AQ10">
-        <v>18.5615</v>
+        <v>18.7193</v>
       </c>
       <c r="AR10">
-        <v>4.666786679210994</v>
+        <v>4.706461217259078</v>
       </c>
       <c r="AS10">
         <v>2.420526768828991E-05</v>
@@ -3980,13 +3977,13 @@
         <v>382.7414</v>
       </c>
       <c r="AX10">
-        <v>15.6920625477</v>
+        <v>15.5550792921</v>
       </c>
       <c r="AY10">
         <v>15.44634142461242</v>
       </c>
       <c r="AZ10">
-        <v>4.0999125121296</v>
+        <v>4.064122483771026</v>
       </c>
       <c r="BA10" t="s">
         <v>28</v>
@@ -3995,7 +3992,7 @@
         <v>7.14257275472135</v>
       </c>
       <c r="BD10">
-        <v>1.872778622070147</v>
+        <v>1.872312863114833</v>
       </c>
       <c r="BE10">
         <v>382683.4</v>
@@ -4033,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>752.4124295904246</v>
+        <v>752.4124295904247</v>
       </c>
       <c r="K11" s="4">
         <v>3.627677316760044</v>
@@ -4042,7 +4039,7 @@
         <v>10.40556111205299</v>
       </c>
       <c r="M11" s="4">
-        <v>0.05016931742462463</v>
+        <v>0.05016931742462465</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
@@ -4057,7 +4054,7 @@
         <v>10.40556111205299</v>
       </c>
       <c r="R11" s="4">
-        <v>0.05016931742462463</v>
+        <v>0.05016931742462465</v>
       </c>
       <c r="S11" s="4">
         <v>0.9974728278637717</v>
@@ -4096,16 +4093,16 @@
         <v>224.3366590343894</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.6444418154306463</v>
+        <v>0.6444418154306465</v>
       </c>
       <c r="AF11" s="4">
         <v>10.22741704861814</v>
       </c>
       <c r="AG11" s="4">
-        <v>0.0293798402737533</v>
+        <v>0.02937984027375331</v>
       </c>
       <c r="AH11" s="4">
-        <v>47242.52769689465</v>
+        <v>47242.52769689466</v>
       </c>
       <c r="AI11" s="4">
         <v>255.8755126776899</v>
@@ -4129,19 +4126,19 @@
         <v>0.002872367027651197</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS11" s="4">
         <v>2.115829056715183E-05</v>
       </c>
       <c r="AT11" s="4">
-        <v>9.716385016702405E-08</v>
+        <v>9.716385016702404E-08</v>
       </c>
       <c r="AU11" s="4">
         <v>0.75</v>
@@ -4150,31 +4147,31 @@
         <v>0.375</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -4305,10 +4302,10 @@
         <v>420.0755</v>
       </c>
       <c r="AQ12">
-        <v>14.2781</v>
+        <v>14.0009</v>
       </c>
       <c r="AR12">
-        <v>3.398936619726693</v>
+        <v>3.332948481880043</v>
       </c>
       <c r="AS12">
         <v>0.0007162712758635274</v>
@@ -4326,13 +4323,13 @@
         <v>402.4051</v>
       </c>
       <c r="AX12">
-        <v>11.7405050166</v>
+        <v>11.7539290985</v>
       </c>
       <c r="AY12">
         <v>11.63508045267128</v>
       </c>
       <c r="AZ12">
-        <v>2.917583553637864</v>
+        <v>2.920919515806335</v>
       </c>
       <c r="BA12" t="s">
         <v>29</v>
@@ -4341,7 +4338,7 @@
         <v>8.180229292027676</v>
       </c>
       <c r="BD12">
-        <v>1.944806272615011</v>
+        <v>1.944849614308049</v>
       </c>
       <c r="BE12">
         <v>402347.1</v>
@@ -4397,7 +4394,7 @@
         <v>13.71439719886068</v>
       </c>
       <c r="P13" s="4">
-        <v>0.0009508093226944609</v>
+        <v>0.0009508093226944613</v>
       </c>
       <c r="Q13" s="4">
         <v>10.35955877906956</v>
@@ -4421,16 +4418,16 @@
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.8910975031795663</v>
+        <v>0.8910975031795665</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.00289923583108927</v>
+        <v>0.002899235831089271</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.000217585618301732</v>
+        <v>0.0002175856183017321</v>
       </c>
       <c r="AA13" s="4">
-        <v>7.079270435156577E-07</v>
+        <v>7.07927043515658E-07</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>0.85</v>
       </c>
       <c r="AD13" s="4">
-        <v>224.723729225271</v>
+        <v>224.7237292252711</v>
       </c>
       <c r="AE13" s="4">
         <v>0.4849885220627204</v>
@@ -4451,7 +4448,7 @@
         <v>0.02211042947808194</v>
       </c>
       <c r="AH13" s="4">
-        <v>47085.20490078314</v>
+        <v>47085.20490078312</v>
       </c>
       <c r="AI13" s="4">
         <v>183.8329587987095</v>
@@ -4466,7 +4463,7 @@
         <v>1.001191554165284</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.002161840651871306</v>
+        <v>0.002161840651871305</v>
       </c>
       <c r="AN13" s="4">
         <v>1.001191554165284</v>
@@ -4475,19 +4472,19 @@
         <v>0.002161840651871305</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS13" s="4">
-        <v>2.126340017580834E-05</v>
+        <v>2.126340017580835E-05</v>
       </c>
       <c r="AT13" s="4">
-        <v>6.919737272673649E-08</v>
+        <v>6.919737272673651E-08</v>
       </c>
       <c r="AU13" s="4">
         <v>0.75</v>
@@ -4496,31 +4493,31 @@
         <v>0.375</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:59">
@@ -4552,31 +4549,31 @@
         <v>0.3</v>
       </c>
       <c r="J14">
-        <v>450.5565472804185</v>
+        <v>450.5565472804184</v>
       </c>
       <c r="K14">
         <v>13.36014267472493</v>
       </c>
       <c r="L14">
-        <v>6.231015733902825</v>
+        <v>6.231015733902823</v>
       </c>
       <c r="M14">
-        <v>0.1847653967429442</v>
+        <v>0.1847653967429441</v>
       </c>
       <c r="N14">
         <v>0.005</v>
       </c>
       <c r="O14">
-        <v>7.181574108241955</v>
+        <v>7.181574108241954</v>
       </c>
       <c r="P14">
         <v>0.001784814193384784</v>
       </c>
       <c r="Q14">
-        <v>6.231015733902825</v>
+        <v>6.231015733902823</v>
       </c>
       <c r="R14">
-        <v>0.1847653967429442</v>
+        <v>0.1847653967429441</v>
       </c>
       <c r="S14">
         <v>0.9993542964288743</v>
@@ -4624,10 +4621,10 @@
         <v>0.01873924392169261</v>
       </c>
       <c r="AH14">
-        <v>60076.83976345309</v>
+        <v>60076.83976345308</v>
       </c>
       <c r="AI14">
-        <v>437.2998753640364</v>
+        <v>437.2998753640363</v>
       </c>
       <c r="AJ14">
         <v>1.712729973920579</v>
@@ -4636,25 +4633,25 @@
         <v>0.6823467466899904</v>
       </c>
       <c r="AL14">
-        <v>0.9801247180705144</v>
+        <v>0.9801247180705143</v>
       </c>
       <c r="AM14">
         <v>0.003505602211917841</v>
       </c>
       <c r="AN14">
-        <v>0.9800853014669939</v>
+        <v>0.9800853014669938</v>
       </c>
       <c r="AO14">
-        <v>0.00350546123094885</v>
+        <v>0.003505461230948849</v>
       </c>
       <c r="AP14">
         <v>432.7757</v>
       </c>
       <c r="AQ14">
-        <v>21.4986</v>
+        <v>21.9775</v>
       </c>
       <c r="AR14">
-        <v>4.967607931776207</v>
+        <v>5.07826571593553</v>
       </c>
       <c r="AS14">
         <v>1.631451857204313E-05</v>
@@ -4672,13 +4669,13 @@
         <v>415.719</v>
       </c>
       <c r="AX14">
-        <v>17.5169768967</v>
+        <v>17.8925037114</v>
       </c>
       <c r="AY14">
         <v>17.71232715398179</v>
       </c>
       <c r="AZ14">
-        <v>4.213657998960837</v>
+        <v>4.303989885331197</v>
       </c>
       <c r="BA14" t="s">
         <v>30</v>
@@ -4687,13 +4684,13 @@
         <v>5.545768381608759</v>
       </c>
       <c r="BD14">
-        <v>2.226412639016464</v>
+        <v>2.227146161265094</v>
       </c>
       <c r="BE14">
         <v>415661</v>
       </c>
       <c r="BF14">
-        <v>8856.163576990895</v>
+        <v>8856.163576990893</v>
       </c>
       <c r="BG14">
         <v>2130.324468448855</v>
@@ -4725,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>755.5153322885968</v>
+        <v>755.5153322885969</v>
       </c>
       <c r="K15" s="4">
         <v>3.400485079869327</v>
@@ -4740,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>13.71319985415296</v>
+        <v>13.71319985415297</v>
       </c>
       <c r="P15" s="4">
-        <v>0.001149709602279575</v>
+        <v>0.001149709602279576</v>
       </c>
       <c r="Q15" s="4">
         <v>10.4484730076847</v>
@@ -4788,7 +4785,7 @@
         <v>224.1873052188604</v>
       </c>
       <c r="AE15" s="4">
-        <v>0.5298360637907557</v>
+        <v>0.5298360637907558</v>
       </c>
       <c r="AF15" s="4">
         <v>10.22060806890973</v>
@@ -4797,7 +4794,7 @@
         <v>0.02415501066615967</v>
       </c>
       <c r="AH15" s="4">
-        <v>46823.41662719673</v>
+        <v>46823.41662719674</v>
       </c>
       <c r="AI15" s="4">
         <v>226.7451110517479</v>
@@ -4809,31 +4806,31 @@
         <v>0.7914499647809169</v>
       </c>
       <c r="AL15" s="4">
-        <v>0.9988888808814648</v>
+        <v>0.9988888808814645</v>
       </c>
       <c r="AM15" s="4">
         <v>0.002362222359513692</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.9988888808814648</v>
+        <v>0.9988888808814645</v>
       </c>
       <c r="AO15" s="4">
         <v>0.002362222359513692</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS15" s="4">
         <v>2.133310537405922E-05</v>
       </c>
       <c r="AT15" s="4">
-        <v>9.018609275344029E-08</v>
+        <v>9.018609275344027E-08</v>
       </c>
       <c r="AU15" s="4">
         <v>0.75</v>
@@ -4842,31 +4839,31 @@
         <v>0.375</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:59">
@@ -4898,10 +4895,10 @@
         <v>0.3</v>
       </c>
       <c r="J16">
-        <v>645.9444097648344</v>
+        <v>645.9444097648345</v>
       </c>
       <c r="K16">
-        <v>15.87283569557307</v>
+        <v>15.87283569557308</v>
       </c>
       <c r="L16">
         <v>8.933151243202859</v>
@@ -4940,16 +4937,16 @@
         <v>0.003</v>
       </c>
       <c r="X16">
-        <v>17.38770470481672</v>
+        <v>17.38770470481673</v>
       </c>
       <c r="Y16">
-        <v>0.03836494628929124</v>
+        <v>0.03836494628929125</v>
       </c>
       <c r="Z16">
-        <v>0.004245679586741138</v>
+        <v>0.00424567958674114</v>
       </c>
       <c r="AA16">
-        <v>9.367841936132127E-06</v>
+        <v>9.367841936132132E-06</v>
       </c>
       <c r="AB16">
         <v>0.05</v>
@@ -4970,10 +4967,10 @@
         <v>0.01967634679881496</v>
       </c>
       <c r="AH16">
-        <v>1972.290696569124</v>
+        <v>1972.290696569123</v>
       </c>
       <c r="AI16">
-        <v>6.357334532176222</v>
+        <v>6.357334532176221</v>
       </c>
       <c r="AJ16">
         <v>2.698465868033573</v>
@@ -4982,10 +4979,10 @@
         <v>0.5214580713338243</v>
       </c>
       <c r="AL16">
-        <v>0.9842607025012421</v>
+        <v>0.9842607025012419</v>
       </c>
       <c r="AM16">
-        <v>0.002321730393690571</v>
+        <v>0.00232173039369057</v>
       </c>
       <c r="AN16">
         <v>0.9845915147220022</v>
@@ -4997,10 +4994,10 @@
         <v>454.7034</v>
       </c>
       <c r="AQ16">
-        <v>17.4221</v>
+        <v>17.8032</v>
       </c>
       <c r="AR16">
-        <v>3.831530619740252</v>
+        <v>3.915343496441857</v>
       </c>
       <c r="AS16">
         <v>0.0004990444381314589</v>
@@ -5018,13 +5015,13 @@
         <v>432.406</v>
       </c>
       <c r="AX16">
-        <v>13.6931576438</v>
+        <v>13.9484281894</v>
       </c>
       <c r="AY16">
         <v>13.78076683895438</v>
       </c>
       <c r="AZ16">
-        <v>3.166736271883368</v>
+        <v>3.225771194062987</v>
       </c>
       <c r="BA16" t="s">
         <v>31</v>
@@ -5033,7 +5030,7 @@
         <v>9.159508245909548</v>
       </c>
       <c r="BD16">
-        <v>1.80515289220322</v>
+        <v>1.806462203862902</v>
       </c>
       <c r="BE16">
         <v>432348</v>
@@ -5089,7 +5086,7 @@
         <v>13.71319273712027</v>
       </c>
       <c r="P17" s="4">
-        <v>0.0008672834130371031</v>
+        <v>0.0008672834130371032</v>
       </c>
       <c r="Q17" s="4">
         <v>10.37808834239952</v>
@@ -5134,7 +5131,7 @@
         <v>224.5351238116349</v>
       </c>
       <c r="AE17" s="4">
-        <v>0.7610961640055035</v>
+        <v>0.7610961640055036</v>
       </c>
       <c r="AF17" s="4">
         <v>10.23646497709798</v>
@@ -5155,31 +5152,31 @@
         <v>1.018388305285391</v>
       </c>
       <c r="AL17" s="4">
-        <v>1.000439140504433</v>
+        <v>1.000439140504432</v>
       </c>
       <c r="AM17" s="4">
+        <v>0.003391731787599698</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>1.000439140504432</v>
+      </c>
+      <c r="AO17" s="4">
         <v>0.003391731787599699</v>
       </c>
-      <c r="AN17" s="4">
-        <v>1.000439140504433</v>
-      </c>
-      <c r="AO17" s="4">
-        <v>0.0033917317875997</v>
-      </c>
       <c r="AP17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS17" s="4">
-        <v>2.122696603498933E-05</v>
+        <v>2.122696603498932E-05</v>
       </c>
       <c r="AT17" s="4">
-        <v>9.517443744401181E-08</v>
+        <v>9.517443744401179E-08</v>
       </c>
       <c r="AU17" s="4">
         <v>0.75</v>
@@ -5188,31 +5185,31 @@
         <v>0.375</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5257,108 +5254,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1">
@@ -5372,22 +5369,22 @@
         <v>0.001537435798429116</v>
       </c>
       <c r="E3" s="4">
-        <v>0.8905816135662882</v>
+        <v>0.8905816135662884</v>
       </c>
       <c r="F3" s="4">
-        <v>0.003562470684003865</v>
+        <v>0.003562470684003866</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9998560822461793</v>
+        <v>0.9998560822461795</v>
       </c>
       <c r="H3" s="4">
         <v>0.003723670601000376</v>
       </c>
       <c r="I3" s="4">
-        <v>47052.52653700281</v>
+        <v>47052.5265370028</v>
       </c>
       <c r="J3" s="4">
-        <v>257.1085613729377</v>
+        <v>257.1085613729376</v>
       </c>
       <c r="K3" s="4">
         <v>-2.046579556390093</v>
@@ -5396,16 +5393,16 @@
         <v>1.297592116384946</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="4">
         <v>-2.046579556390093</v>
@@ -5434,10 +5431,10 @@
         <v>0.0001659232090856783</v>
       </c>
       <c r="G4">
-        <v>0.9738301850808498</v>
+        <v>0.9738301850808496</v>
       </c>
       <c r="H4">
-        <v>0.007540389817617558</v>
+        <v>0.007540389817617557</v>
       </c>
       <c r="I4">
         <v>167.7946240138874</v>
@@ -5455,13 +5452,13 @@
         <v>397.3046</v>
       </c>
       <c r="N4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4">
         <v>378.6177</v>
       </c>
       <c r="P4">
-        <v>27.776555387</v>
+        <v>27.7695114754</v>
       </c>
       <c r="Q4">
         <v>3.827447745538448</v>
@@ -5481,19 +5478,19 @@
         <v>0.001155277868178238</v>
       </c>
       <c r="E5" s="4">
-        <v>0.8885586414037057</v>
+        <v>0.8885586414037059</v>
       </c>
       <c r="F5" s="4">
-        <v>0.003944462981395974</v>
+        <v>0.003944462981395975</v>
       </c>
       <c r="G5" s="4">
-        <v>1.002623459617004</v>
+        <v>1.002623459617005</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002316701521823447</v>
+        <v>0.002316701521823448</v>
       </c>
       <c r="I5" s="4">
-        <v>47290.59764244102</v>
+        <v>47290.59764244103</v>
       </c>
       <c r="J5" s="4">
         <v>236.6335313630173</v>
@@ -5505,16 +5502,16 @@
         <v>1.114055567528818</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="4">
         <v>-3.583007132901161</v>
@@ -5531,10 +5528,10 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>3.441329043288853</v>
+        <v>3.441329043288854</v>
       </c>
       <c r="D6">
-        <v>0.0008901550723946611</v>
+        <v>0.0008901550723946612</v>
       </c>
       <c r="E6">
         <v>2.39694470957454</v>
@@ -5543,16 +5540,16 @@
         <v>0.01043551771987159</v>
       </c>
       <c r="G6">
-        <v>0.9924465873509145</v>
+        <v>0.9924465873509143</v>
       </c>
       <c r="H6">
-        <v>0.004372879085347034</v>
+        <v>0.004372879085347033</v>
       </c>
       <c r="I6">
-        <v>0.09235425811625793</v>
+        <v>0.09235425811625791</v>
       </c>
       <c r="J6">
-        <v>0.0005715663752333282</v>
+        <v>0.000571566375233328</v>
       </c>
       <c r="K6">
         <v>3.619748335957684</v>
@@ -5564,13 +5561,13 @@
         <v>524.2474</v>
       </c>
       <c r="N6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6">
         <v>478.1797</v>
       </c>
       <c r="P6">
-        <v>45.5096899786</v>
+        <v>43.7967841768</v>
       </c>
       <c r="Q6">
         <v>3.619748335957684</v>
@@ -5602,7 +5599,7 @@
         <v>0.003271868689528417</v>
       </c>
       <c r="I7" s="4">
-        <v>47126.27585529182</v>
+        <v>47126.27585529183</v>
       </c>
       <c r="J7" s="4">
         <v>264.2105267220917</v>
@@ -5614,16 +5611,16 @@
         <v>0.9839394015774066</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="4">
         <v>-0.760486846759223</v>
@@ -5658,7 +5655,7 @@
         <v>0.003707114672799816</v>
       </c>
       <c r="I8">
-        <v>-7.242809029274999</v>
+        <v>-7.242809029274997</v>
       </c>
       <c r="J8">
         <v>-0.1110933018636352</v>
@@ -5673,13 +5670,13 @@
         <v>404.9719</v>
       </c>
       <c r="N8">
-        <v>17.5533</v>
+        <v>17.6166</v>
       </c>
       <c r="O8">
         <v>392.5668</v>
       </c>
       <c r="P8">
-        <v>15.4711221581</v>
+        <v>15.4603560565</v>
       </c>
       <c r="Q8">
         <v>0.5147550307593729</v>
@@ -5696,7 +5693,7 @@
         <v>13.71348592665002</v>
       </c>
       <c r="D9" s="4">
-        <v>0.0009364572733045003</v>
+        <v>0.0009364572733045004</v>
       </c>
       <c r="E9" s="4">
         <v>0.8876020328530302</v>
@@ -5708,13 +5705,13 @@
         <v>1.00239181729563</v>
       </c>
       <c r="H9" s="4">
-        <v>0.00312613527074461</v>
+        <v>0.003126135270744611</v>
       </c>
       <c r="I9" s="4">
-        <v>47324.15634140059</v>
+        <v>47324.1563414006</v>
       </c>
       <c r="J9" s="4">
-        <v>264.5574770388683</v>
+        <v>264.5574770388684</v>
       </c>
       <c r="K9" s="4">
         <v>-1.865161027824191</v>
@@ -5723,16 +5720,16 @@
         <v>0.8357515363213823</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="4">
         <v>-1.865161027824191</v>
@@ -5767,10 +5764,10 @@
         <v>0.004200126112959693</v>
       </c>
       <c r="I10">
-        <v>0.8511110436199741</v>
+        <v>0.8511110436199738</v>
       </c>
       <c r="J10">
-        <v>0.005999085948640937</v>
+        <v>0.005999085948640934</v>
       </c>
       <c r="K10">
         <v>2.421364011313321</v>
@@ -5782,13 +5779,13 @@
         <v>397.7362</v>
       </c>
       <c r="N10">
-        <v>18.5615</v>
+        <v>18.7193</v>
       </c>
       <c r="O10">
         <v>382.7414</v>
       </c>
       <c r="P10">
-        <v>15.6920625477</v>
+        <v>15.5550792921</v>
       </c>
       <c r="Q10">
         <v>2.421364011313321</v>
@@ -5820,7 +5817,7 @@
         <v>0.002872367027651197</v>
       </c>
       <c r="I11" s="4">
-        <v>47242.52769689465</v>
+        <v>47242.52769689466</v>
       </c>
       <c r="J11" s="4">
         <v>255.8755126776899</v>
@@ -5832,16 +5829,16 @@
         <v>1.049182169557438</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="4">
         <v>-2.527172136228328</v>
@@ -5876,7 +5873,7 @@
         <v>0.0025653847561314</v>
       </c>
       <c r="I12">
-        <v>0.02897358969802238</v>
+        <v>0.02897358969802239</v>
       </c>
       <c r="J12">
         <v>0.0001088129488181392</v>
@@ -5891,13 +5888,13 @@
         <v>420.0755</v>
       </c>
       <c r="N12">
-        <v>14.2781</v>
+        <v>14.0009</v>
       </c>
       <c r="O12">
         <v>402.4051</v>
       </c>
       <c r="P12">
-        <v>11.7405050166</v>
+        <v>11.7539290985</v>
       </c>
       <c r="Q12">
         <v>2.623220199645671</v>
@@ -5914,13 +5911,13 @@
         <v>13.71439719886068</v>
       </c>
       <c r="D13" s="4">
-        <v>0.0009508093226944609</v>
+        <v>0.0009508093226944613</v>
       </c>
       <c r="E13" s="4">
-        <v>0.8910975031795663</v>
+        <v>0.8910975031795665</v>
       </c>
       <c r="F13" s="4">
-        <v>0.00289923583108927</v>
+        <v>0.002899235831089271</v>
       </c>
       <c r="G13" s="4">
         <v>1.001191554165284</v>
@@ -5929,7 +5926,7 @@
         <v>0.002161840651871305</v>
       </c>
       <c r="I13" s="4">
-        <v>47085.20490078314</v>
+        <v>47085.20490078312</v>
       </c>
       <c r="J13" s="4">
         <v>183.8329587987095</v>
@@ -5941,16 +5938,16 @@
         <v>0.8901499197111418</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="4">
         <v>-2.505910882709017</v>
@@ -5967,7 +5964,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>7.181574108241955</v>
+        <v>7.181574108241954</v>
       </c>
       <c r="D14">
         <v>0.001784814193384784</v>
@@ -5979,10 +5976,10 @@
         <v>0.002271480402933131</v>
       </c>
       <c r="G14">
-        <v>0.9800853014669939</v>
+        <v>0.9800853014669938</v>
       </c>
       <c r="H14">
-        <v>0.00350546123094885</v>
+        <v>0.003505461230948849</v>
       </c>
       <c r="I14">
         <v>1.279474424945175</v>
@@ -6000,13 +5997,13 @@
         <v>432.7757</v>
       </c>
       <c r="N14">
-        <v>21.4986</v>
+        <v>21.9775</v>
       </c>
       <c r="O14">
         <v>415.719</v>
       </c>
       <c r="P14">
-        <v>17.5169768967</v>
+        <v>17.8925037114</v>
       </c>
       <c r="Q14">
         <v>1.712729973920579</v>
@@ -6020,10 +6017,10 @@
         <v>9186</v>
       </c>
       <c r="C15" s="4">
-        <v>13.71319985415296</v>
+        <v>13.71319985415297</v>
       </c>
       <c r="D15" s="4">
-        <v>0.001149709602279575</v>
+        <v>0.001149709602279576</v>
       </c>
       <c r="E15" s="4">
         <v>0.8939406259858222</v>
@@ -6032,13 +6029,13 @@
         <v>0.003778407080398669</v>
       </c>
       <c r="G15" s="4">
-        <v>0.9988888808814648</v>
+        <v>0.9988888808814645</v>
       </c>
       <c r="H15" s="4">
         <v>0.002362222359513692</v>
       </c>
       <c r="I15" s="4">
-        <v>46823.41662719673</v>
+        <v>46823.41662719674</v>
       </c>
       <c r="J15" s="4">
         <v>226.7451110517479</v>
@@ -6050,16 +6047,16 @@
         <v>0.7914499647809169</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="4">
         <v>-2.202891300742693</v>
@@ -6082,10 +6079,10 @@
         <v>0.002357885721827777</v>
       </c>
       <c r="E16">
-        <v>17.38770470481672</v>
+        <v>17.38770470481673</v>
       </c>
       <c r="F16">
-        <v>0.03836494628929124</v>
+        <v>0.03836494628929125</v>
       </c>
       <c r="G16">
         <v>0.9845915147220022</v>
@@ -6094,7 +6091,7 @@
         <v>0.00232251073246219</v>
       </c>
       <c r="I16">
-        <v>0.04198418048932442</v>
+        <v>0.04198418048932441</v>
       </c>
       <c r="J16">
         <v>0.0001353286718302719</v>
@@ -6109,13 +6106,13 @@
         <v>454.7034</v>
       </c>
       <c r="N16">
-        <v>17.4221</v>
+        <v>17.8032</v>
       </c>
       <c r="O16">
         <v>432.406</v>
       </c>
       <c r="P16">
-        <v>13.6931576438</v>
+        <v>13.9484281894</v>
       </c>
       <c r="Q16">
         <v>2.698465868033573</v>
@@ -6132,7 +6129,7 @@
         <v>13.71319273712027</v>
       </c>
       <c r="D17" s="4">
-        <v>0.0008672834130371031</v>
+        <v>0.0008672834130371032</v>
       </c>
       <c r="E17" s="4">
         <v>0.8894925105453537</v>
@@ -6141,10 +6138,10 @@
         <v>0.003987782653041559</v>
       </c>
       <c r="G17" s="4">
-        <v>1.000439140504433</v>
+        <v>1.000439140504432</v>
       </c>
       <c r="H17" s="4">
-        <v>0.0033917317875997</v>
+        <v>0.003391731787599699</v>
       </c>
       <c r="I17" s="4">
         <v>47130.57621401784</v>
@@ -6159,16 +6156,16 @@
         <v>1.018388305285391</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="4">
         <v>-3.463886524832205</v>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
   <si>
     <t>Lab. #</t>
   </si>
@@ -30,15 +30,15 @@
     <t>Mess. Dat.</t>
   </si>
   <si>
+    <t>Tiefe</t>
+  </si>
+  <si>
     <t>Einwaage (g)</t>
   </si>
   <si>
     <t>TriSp13 (g)</t>
   </si>
   <si>
-    <t>Tiefe</t>
-  </si>
-  <si>
     <t>Ratio 233/236</t>
   </si>
   <si>
@@ -255,9 +255,6 @@
     <t>Ch. Bl. 230</t>
   </si>
   <si>
-    <t>Sp. Bl. 230</t>
-  </si>
-  <si>
     <t>230Th1</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
   </si>
   <si>
     <t>(ng/g)</t>
-  </si>
-  <si>
-    <t>(fg/g)</t>
   </si>
   <si>
     <t>(dpmg/g)</t>
@@ -926,9 +920,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
@@ -1079,10 +1073,10 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>10.34617</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1156,10 +1150,10 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.011411</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.009849</v>
       </c>
       <c r="H4" t="s">
@@ -1230,10 +1224,10 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>10.34617</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1307,10 +1301,10 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.010943</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.009334</v>
       </c>
       <c r="H6" t="s">
@@ -1381,10 +1375,10 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>10.34617</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1458,10 +1452,10 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.006735</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.009993</v>
       </c>
       <c r="H8" t="s">
@@ -1532,10 +1526,10 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>10.34617</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1609,10 +1603,10 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.0124</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.00962</v>
       </c>
       <c r="H10" t="s">
@@ -1683,10 +1677,10 @@
       <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>10.34617</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1760,10 +1754,10 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.0125</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.009428000000000001</v>
       </c>
       <c r="H12" t="s">
@@ -1834,10 +1828,10 @@
       <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>10.34617</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1911,10 +1905,10 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.01497</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.010175</v>
       </c>
       <c r="H14" t="s">
@@ -1985,10 +1979,10 @@
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>10.34617</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2062,10 +2056,10 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.012018</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.009748</v>
       </c>
       <c r="H16" t="s">
@@ -2136,10 +2130,10 @@
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>1.0953</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>10.34617</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2207,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2216,65 +2210,64 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
     <col min="20" max="20" width="22.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
     <col min="22" max="22" width="22.7109375" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" customWidth="1"/>
     <col min="25" max="25" width="23.7109375" customWidth="1"/>
     <col min="26" max="26" width="23.7109375" customWidth="1"/>
     <col min="27" max="27" width="23.7109375" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <col min="30" max="30" width="19.7109375" customWidth="1"/>
-    <col min="31" max="31" width="20.7109375" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" customWidth="1"/>
-    <col min="33" max="33" width="21.7109375" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" customWidth="1"/>
     <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="19.7109375" customWidth="1"/>
     <col min="37" max="37" width="19.7109375" customWidth="1"/>
-    <col min="38" max="38" width="19.7109375" customWidth="1"/>
-    <col min="39" max="39" width="22.7109375" customWidth="1"/>
-    <col min="40" max="40" width="19.7109375" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" customWidth="1"/>
-    <col min="42" max="42" width="16.7109375" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" customWidth="1"/>
+    <col min="39" max="39" width="19.7109375" customWidth="1"/>
+    <col min="40" max="40" width="22.7109375" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" customWidth="1"/>
+    <col min="44" max="44" width="24.7109375" customWidth="1"/>
     <col min="45" max="45" width="23.7109375" customWidth="1"/>
-    <col min="46" max="46" width="23.7109375" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
-    <col min="48" max="48" width="9.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" customWidth="1"/>
+    <col min="47" max="47" width="9.7109375" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" customWidth="1"/>
+    <col min="49" max="49" width="14.7109375" customWidth="1"/>
+    <col min="50" max="50" width="19.7109375" customWidth="1"/>
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" customWidth="1"/>
-    <col min="53" max="53" width="12.7109375" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" customWidth="1"/>
+    <col min="52" max="52" width="12.7109375" customWidth="1"/>
+    <col min="53" max="53" width="6.7109375" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
-    <col min="56" max="56" width="19.7109375" customWidth="1"/>
-    <col min="57" max="57" width="13.7109375" customWidth="1"/>
+    <col min="56" max="56" width="13.7109375" customWidth="1"/>
+    <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
-    <col min="59" max="59" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1">
+    <row r="1" spans="1:58" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,61 +2278,61 @@
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>73</v>
@@ -2348,100 +2341,100 @@
         <v>74</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="BC1" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>106</v>
@@ -2449,178 +2442,172 @@
       <c r="BF1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="2" spans="1:59" s="3" customFormat="1">
+    <row r="2" spans="1:58" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:59" s="4" customFormat="1">
+    <row r="3" spans="1:58" s="4" customFormat="1">
       <c r="A3" s="4">
         <v>9186</v>
       </c>
@@ -2628,19 +2615,19 @@
         <v>2.045544290722234</v>
       </c>
       <c r="D3" s="4">
-        <v>0.4406674262685277</v>
+        <v>0.009014047379108481</v>
       </c>
       <c r="E3" s="4">
         <v>2.699694738769988</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01120968992780575</v>
+        <v>0.000302627409213401</v>
       </c>
       <c r="G3" s="4">
         <v>372.2366102763448</v>
       </c>
       <c r="H3" s="4">
-        <v>0.04172656980975295</v>
+        <v>0.02272014481244184</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -2652,145 +2639,142 @@
         <v>3.2970109909303</v>
       </c>
       <c r="L3" s="4">
-        <v>10.34710815653515</v>
+        <v>10.3297776769491</v>
       </c>
       <c r="M3" s="4">
-        <v>0.04559633520662433</v>
+        <v>0.0455199654282725</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>13.71523930037968</v>
+        <v>13.71516838027368</v>
       </c>
       <c r="P3" s="4">
-        <v>0.001537435798429116</v>
+        <v>0.001537427848505137</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.34710815653515</v>
+        <v>10.23341192818252</v>
       </c>
       <c r="R3" s="4">
-        <v>0.04559633520662433</v>
+        <v>0.001147133746184348</v>
       </c>
       <c r="S3" s="4">
-        <v>0.9979534204436099</v>
+        <v>0.9964562961104956</v>
       </c>
       <c r="T3" s="4">
-        <v>0.001297592116384946</v>
+        <v>0.001295645475698015</v>
       </c>
       <c r="U3" s="4">
-        <v>0.9979534204436099</v>
+        <v>0.9964562961104956</v>
       </c>
       <c r="V3" s="4">
-        <v>0.001297592116384946</v>
+        <v>0.001295645475698015</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <v>0.8905816135662884</v>
+        <v>0.88822180581298</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.003562470684003866</v>
+        <v>0.003553031070819644</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.000217459649863845</v>
+        <v>0.0002168487455345857</v>
       </c>
       <c r="AA3" s="4">
-        <v>8.698738170570043E-07</v>
+        <v>8.674301008039792E-07</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>0.85</v>
+        <v>223.8510610161616</v>
       </c>
       <c r="AD3" s="4">
-        <v>224.4377544158947</v>
+        <v>0.8332898648951577</v>
       </c>
       <c r="AE3" s="4">
-        <v>0.8354738423200544</v>
+        <v>10.21807105041648</v>
       </c>
       <c r="AF3" s="4">
-        <v>10.2320259459459</v>
+        <v>0.03803696532166954</v>
       </c>
       <c r="AG3" s="4">
-        <v>0.03808891268773317</v>
+        <v>47120.72936011878</v>
       </c>
       <c r="AH3" s="4">
-        <v>47052.5265370028</v>
+        <v>257.4812412484622</v>
       </c>
       <c r="AI3" s="4">
-        <v>257.1085613729376</v>
+        <v>-3.543703889504424</v>
       </c>
       <c r="AJ3" s="4">
-        <v>-2.046579556390093</v>
+        <v>1.295645475698016</v>
       </c>
       <c r="AK3" s="4">
-        <v>1.297592116384946</v>
+        <v>0.9985009029369966</v>
       </c>
       <c r="AL3" s="4">
-        <v>0.9998560822461795</v>
+        <v>0.003718623633299432</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.003723670601000376</v>
+        <v>0.9985009029369966</v>
       </c>
       <c r="AN3" s="4">
-        <v>0.9998560822461795</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>0.003723670601000376</v>
+        <v>0.003718623633299432</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>2.119026841257025E-05</v>
       </c>
       <c r="AS3" s="4">
-        <v>2.124978520462398E-05</v>
+        <v>8.479778139500641E-08</v>
       </c>
       <c r="AT3" s="4">
-        <v>8.503595166371861E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV3" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV3" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:58">
       <c r="A4">
         <v>9715</v>
       </c>
@@ -2801,19 +2785,19 @@
         <v>34.97014251891885</v>
       </c>
       <c r="D4">
-        <v>132.7473513582583</v>
+        <v>46.42193796007287</v>
       </c>
       <c r="E4">
         <v>32.39369657979356</v>
       </c>
       <c r="F4">
-        <v>0.1316031341934269</v>
+        <v>0.04263111998011725</v>
       </c>
       <c r="G4">
         <v>4466.475278118516</v>
       </c>
       <c r="H4">
-        <v>5.878021453978547</v>
+        <v>0.2700757870701769</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -2825,31 +2809,31 @@
         <v>1551.443504821226</v>
       </c>
       <c r="L4">
-        <v>16.16291331864172</v>
+        <v>16.13584188621035</v>
       </c>
       <c r="M4">
-        <v>21.45583933282805</v>
+        <v>21.41990272330066</v>
       </c>
       <c r="N4">
         <v>0.005</v>
       </c>
       <c r="O4">
-        <v>15.03690631139007</v>
+        <v>15.03682855481277</v>
       </c>
       <c r="P4">
-        <v>0.01978903999151855</v>
+        <v>0.01978893766142577</v>
       </c>
       <c r="Q4">
-        <v>16.16291331864172</v>
+        <v>11.21955315664787</v>
       </c>
       <c r="R4">
-        <v>21.45583933282805</v>
+        <v>0.01476528359664616</v>
       </c>
       <c r="S4">
-        <v>1.001001880926452</v>
+        <v>0.9995001833093805</v>
       </c>
       <c r="T4">
-        <v>0.001464721062903879</v>
+        <v>0.001462523696273757</v>
       </c>
       <c r="U4">
         <v>1.003827447745538</v>
@@ -2861,112 +2845,109 @@
         <v>0.003</v>
       </c>
       <c r="X4">
-        <v>0.005660272088261397</v>
+        <v>0.0049486466181361</v>
       </c>
       <c r="Y4">
-        <v>0.0001659232090856783</v>
+        <v>0.0001450628723687977</v>
       </c>
       <c r="Z4">
-        <v>1.382108913655223E-06</v>
+        <v>1.208152968339455E-06</v>
       </c>
       <c r="AA4">
-        <v>4.051465065348725E-08</v>
+        <v>3.541536775042976E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
       </c>
       <c r="AC4">
-        <v>0.85</v>
+        <v>239.3226831956149</v>
       </c>
       <c r="AD4">
-        <v>239.9577883215322</v>
+        <v>1.826119446990713</v>
       </c>
       <c r="AE4">
-        <v>1.8309655309717</v>
+        <v>10.92430015639976</v>
       </c>
       <c r="AF4">
-        <v>10.93957797977251</v>
+        <v>0.08335639854104236</v>
       </c>
       <c r="AG4">
-        <v>0.08347297391114994</v>
+        <v>9042149.829267612</v>
       </c>
       <c r="AH4">
-        <v>7915134.524992632</v>
+        <v>273890.924484755</v>
       </c>
       <c r="AI4">
-        <v>239753.1066621384</v>
+        <v>3.827447745538448</v>
       </c>
       <c r="AJ4">
-        <v>3.827447745538448</v>
+        <v>1.468855587836767</v>
       </c>
       <c r="AK4">
-        <v>1.468855587836767</v>
+        <v>0.9736840677943434</v>
       </c>
       <c r="AL4">
-        <v>0.9750375114366199</v>
+        <v>0.007539258428062961</v>
       </c>
       <c r="AM4">
-        <v>0.007549738173726313</v>
+        <v>0.9737983268471276</v>
       </c>
       <c r="AN4">
-        <v>0.9738301850808496</v>
+        <v>0.00754014313857141</v>
       </c>
       <c r="AO4">
-        <v>0.007540389817617557</v>
+        <v>377.9962</v>
       </c>
       <c r="AP4">
-        <v>397.3046</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>125</v>
+        <v>29.9726</v>
+      </c>
+      <c r="AQ4">
+        <v>7.929338972190727</v>
+      </c>
+      <c r="AR4">
+        <v>1.076828062108333E-07</v>
       </c>
       <c r="AS4">
-        <v>1.231864737557985E-07</v>
+        <v>3.159755112191272E-09</v>
       </c>
       <c r="AT4">
-        <v>3.6146818967608E-09</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>0.375</v>
+        <v>377.9962</v>
       </c>
       <c r="AW4">
-        <v>378.6177</v>
+        <v>29.324445198</v>
       </c>
       <c r="AX4">
-        <v>27.7695114754</v>
+        <v>26.87803666683755</v>
       </c>
       <c r="AY4">
-        <v>26.94013232986834</v>
-      </c>
-      <c r="AZ4">
-        <v>7.33444619081464</v>
-      </c>
-      <c r="BA4" t="s">
+        <v>7.757867724067068</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>25</v>
       </c>
+      <c r="BB4">
+        <v>11.12201138325179</v>
+      </c>
       <c r="BC4">
-        <v>11.15943581643624</v>
+        <v>4.366392472785887</v>
       </c>
       <c r="BD4">
-        <v>4.371287823590726</v>
+        <v>377938.2</v>
       </c>
       <c r="BE4">
-        <v>378559.7</v>
+        <v>13439.01833341878</v>
       </c>
       <c r="BF4">
-        <v>13470.06616493417</v>
-      </c>
-      <c r="BG4">
-        <v>3557.69584066835</v>
+        <v>7.110663193661088</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="4" customFormat="1">
+    <row r="5" spans="1:58" s="4" customFormat="1">
       <c r="A5" s="4">
         <v>9186</v>
       </c>
@@ -2974,19 +2955,19 @@
         <v>2.064165395369796</v>
       </c>
       <c r="D5" s="4">
-        <v>0.4555356390590248</v>
+        <v>0.009403009025033047</v>
       </c>
       <c r="E5" s="4">
         <v>2.699718702860548</v>
       </c>
       <c r="F5" s="4">
-        <v>0.008423240659798149</v>
+        <v>0.0002274038034795249</v>
       </c>
       <c r="G5" s="4">
         <v>372.2399144691153</v>
       </c>
       <c r="H5" s="4">
-        <v>0.03135466382756037</v>
+        <v>0.02420109081864815</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -2998,145 +2979,142 @@
         <v>3.439279027443602</v>
       </c>
       <c r="L5" s="4">
-        <v>10.44130048698547</v>
+        <v>10.42381224368077</v>
       </c>
       <c r="M5" s="4">
-        <v>0.04756384489946232</v>
+        <v>0.04748417971856409</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>13.71536104497248</v>
+        <v>13.71529012423695</v>
       </c>
       <c r="P5" s="4">
-        <v>0.001155277868178238</v>
+        <v>0.001155271894354007</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.44130048698547</v>
+        <v>10.23350276601195</v>
       </c>
       <c r="R5" s="4">
-        <v>0.04756384489946232</v>
+        <v>0.0008619925659082869</v>
       </c>
       <c r="S5" s="4">
-        <v>0.9964169928670988</v>
+        <v>0.9949221734743392</v>
       </c>
       <c r="T5" s="4">
-        <v>0.001114055567528818</v>
+        <v>0.001112384267381515</v>
       </c>
       <c r="U5" s="4">
-        <v>0.9964169928670988</v>
+        <v>0.9949221734743392</v>
       </c>
       <c r="V5" s="4">
-        <v>0.001114055567528818</v>
+        <v>0.001112384267381515</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.8885586414037059</v>
+        <v>0.8862041939961774</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.003944462981395975</v>
+        <v>0.003934011188787253</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002169656863556631</v>
+        <v>0.0002163561697065819</v>
       </c>
       <c r="AA5" s="4">
-        <v>9.631475945257896E-07</v>
+        <v>9.604418464222685E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>0.85</v>
+        <v>224.4726008431942</v>
       </c>
       <c r="AD5" s="4">
-        <v>225.0609455359863</v>
+        <v>0.5183305425988183</v>
       </c>
       <c r="AE5" s="4">
-        <v>0.5196890915829908</v>
+        <v>10.2464423169383</v>
       </c>
       <c r="AF5" s="4">
-        <v>10.26043697566172</v>
+        <v>0.02366009920986377</v>
       </c>
       <c r="AG5" s="4">
-        <v>0.02369241432993787</v>
+        <v>47359.14085941868</v>
       </c>
       <c r="AH5" s="4">
-        <v>47290.59764244103</v>
+        <v>236.9765091280065</v>
       </c>
       <c r="AI5" s="4">
-        <v>236.6335313630173</v>
+        <v>-5.0778265256608</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-3.583007132901161</v>
+        <v>1.112384267381515</v>
       </c>
       <c r="AK5" s="4">
-        <v>1.114055567528818</v>
+        <v>1.001264430295493</v>
       </c>
       <c r="AL5" s="4">
-        <v>1.002623459617005</v>
+        <v>0.002313561294784922</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.002316701521823448</v>
+        <v>1.001264430295493</v>
       </c>
       <c r="AN5" s="4">
-        <v>1.002623459617005</v>
-      </c>
-      <c r="AO5" s="4">
-        <v>0.002316701521823448</v>
+        <v>0.002313561294784921</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>2.114194666807102E-05</v>
       </c>
       <c r="AS5" s="4">
-        <v>2.120132773955892E-05</v>
+        <v>9.386959218111891E-08</v>
       </c>
       <c r="AT5" s="4">
-        <v>9.413324231000064E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV5" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV5" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:58">
       <c r="A6">
         <v>9716</v>
       </c>
@@ -3147,19 +3125,19 @@
         <v>5.73688258602763</v>
       </c>
       <c r="D6">
-        <v>2.322408706039819</v>
+        <v>0.133233860633188</v>
       </c>
       <c r="E6">
         <v>7.502573418054824</v>
       </c>
       <c r="F6">
-        <v>0.0258666073832901</v>
+        <v>0.001940661209691329</v>
       </c>
       <c r="G6">
         <v>1034.462325454817</v>
       </c>
       <c r="H6">
-        <v>0.2675803082534502</v>
+        <v>0.05988122703877927</v>
       </c>
       <c r="I6">
         <v>0.3</v>
@@ -3171,31 +3149,31 @@
         <v>4.399843257982286</v>
       </c>
       <c r="L6">
-        <v>2.620041058880086</v>
+        <v>2.615652724729269</v>
       </c>
       <c r="M6">
-        <v>0.06084806165324897</v>
+        <v>0.06074614659888028</v>
       </c>
       <c r="N6">
         <v>0.005</v>
       </c>
       <c r="O6">
-        <v>3.441329043288854</v>
+        <v>3.4413112461641</v>
       </c>
       <c r="P6">
-        <v>0.0008901550723946612</v>
+        <v>0.0008901504688822756</v>
       </c>
       <c r="Q6">
-        <v>2.620041058880086</v>
+        <v>2.567693999713159</v>
       </c>
       <c r="R6">
-        <v>0.06084806165324897</v>
+        <v>0.0006641753257101008</v>
       </c>
       <c r="S6">
-        <v>1.001440140168575</v>
+        <v>0.9999377850773551</v>
       </c>
       <c r="T6">
-        <v>0.001654444665158535</v>
+        <v>0.001651962676204683</v>
       </c>
       <c r="U6">
         <v>1.003619748335958</v>
@@ -3207,112 +3185,109 @@
         <v>0.003</v>
       </c>
       <c r="X6">
-        <v>2.39694470957454</v>
+        <v>2.389867014669805</v>
       </c>
       <c r="Y6">
-        <v>0.01043551771987159</v>
+        <v>0.01040470373809755</v>
       </c>
       <c r="Z6">
-        <v>0.0005852790461278461</v>
+        <v>0.000583457488584502</v>
       </c>
       <c r="AA6">
-        <v>2.548114619640434E-06</v>
+        <v>2.540184150512213E-06</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.85</v>
+        <v>55.82478240955</v>
       </c>
       <c r="AD6">
-        <v>55.9723835568056</v>
+        <v>0.2455487394952644</v>
       </c>
       <c r="AE6">
-        <v>0.2461979722211669</v>
+        <v>2.548219295657655</v>
       </c>
       <c r="AF6">
-        <v>2.551758202625785</v>
+        <v>0.01120849932590524</v>
       </c>
       <c r="AG6">
-        <v>0.01122406542590076</v>
+        <v>4367.446378723781</v>
       </c>
       <c r="AH6">
-        <v>4359.900152769846</v>
+        <v>27.02945751099736</v>
       </c>
       <c r="AI6">
-        <v>26.98275507298142</v>
+        <v>3.619748335957684</v>
       </c>
       <c r="AJ6">
-        <v>3.619748335957684</v>
+        <v>1.65804552052674</v>
       </c>
       <c r="AK6">
-        <v>1.65804552052674</v>
+        <v>0.9924154887390476</v>
       </c>
       <c r="AL6">
-        <v>0.9937853020262534</v>
+        <v>0.004372742059867629</v>
       </c>
       <c r="AM6">
-        <v>0.004378777677250768</v>
+        <v>0.9924237766663235</v>
       </c>
       <c r="AN6">
-        <v>0.9924465873509143</v>
+        <v>0.004372778577806536</v>
       </c>
       <c r="AO6">
-        <v>0.004372879085347033</v>
-      </c>
-      <c r="AP6">
-        <v>524.2474</v>
+        <v>477.3818</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>123</v>
       </c>
       <c r="AQ6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR6">
+        <v>0.0002272301483937264</v>
       </c>
       <c r="AS6">
-        <v>0.0002279376286621842</v>
+        <v>9.910306860966042E-07</v>
       </c>
       <c r="AT6">
-        <v>9.941162566549384E-07</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV6">
-        <v>0.375</v>
-      </c>
-      <c r="AW6">
-        <v>478.1797</v>
+        <v>477.3634</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>123</v>
       </c>
       <c r="AX6">
-        <v>43.7967841768</v>
-      </c>
-      <c r="AY6">
-        <v>42.37518575336063</v>
-      </c>
-      <c r="AZ6">
-        <v>9.159063878454063</v>
-      </c>
-      <c r="BA6" t="s">
+        <v>42.24973933617349</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>26</v>
       </c>
-      <c r="BC6">
-        <v>13.98358006908092</v>
+      <c r="BB6">
+        <v>13.92314634046818</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>123</v>
       </c>
       <c r="BD6">
-        <v>6.635013597763908</v>
+        <v>477305.4</v>
       </c>
       <c r="BE6">
-        <v>478121.7</v>
+        <v>21124.86966808675</v>
       </c>
       <c r="BF6">
-        <v>21187.59287668032</v>
-      </c>
-      <c r="BG6">
-        <v>4430.88505778901</v>
+        <v>8.850644883158928</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="4" customFormat="1">
+    <row r="7" spans="1:58" s="4" customFormat="1">
       <c r="A7" s="4">
         <v>9186</v>
       </c>
@@ -3320,19 +3295,19 @@
         <v>2.060119946887088</v>
       </c>
       <c r="D7" s="4">
-        <v>0.4071919102451975</v>
+        <v>0.00838864176507188</v>
       </c>
       <c r="E7" s="4">
         <v>2.699478350561817</v>
       </c>
       <c r="F7" s="4">
-        <v>0.009400022986501923</v>
+        <v>0.0002537515854684538</v>
       </c>
       <c r="G7" s="4">
         <v>372.2067744538139</v>
       </c>
       <c r="H7" s="4">
-        <v>0.03498752235597587</v>
+        <v>0.02034139837846067</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -3344,145 +3319,142 @@
         <v>3.068260342464981</v>
       </c>
       <c r="L7" s="4">
-        <v>10.42083713491721</v>
+        <v>10.40338316589475</v>
       </c>
       <c r="M7" s="4">
-        <v>0.04243280579321029</v>
+        <v>0.04236173464333414</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>13.71413998495923</v>
+        <v>13.71406907053767</v>
       </c>
       <c r="P7" s="4">
-        <v>0.001289132310987219</v>
+        <v>0.001289125645015292</v>
       </c>
       <c r="Q7" s="4">
-        <v>10.42083713491721</v>
+        <v>10.23259169112431</v>
       </c>
       <c r="R7" s="4">
-        <v>0.04243280579321029</v>
+        <v>0.0009618659710805705</v>
       </c>
       <c r="S7" s="4">
-        <v>0.9992395131532408</v>
+        <v>0.9977404594307874</v>
       </c>
       <c r="T7" s="4">
-        <v>0.0009839394015774066</v>
+        <v>0.0009824633009997295</v>
       </c>
       <c r="U7" s="4">
-        <v>0.9992395131532408</v>
+        <v>0.9977404594307874</v>
       </c>
       <c r="V7" s="4">
-        <v>0.0009839394015774066</v>
+        <v>0.0009824633009997295</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.8893107359285929</v>
+        <v>0.8869542956677829</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.004049777550891609</v>
+        <v>0.00403904670228864</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002171493306276255</v>
+        <v>0.0002165392980709685</v>
       </c>
       <c r="AA7" s="4">
-        <v>9.888630023662609E-07</v>
+        <v>9.860850125664605E-07</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.85</v>
+        <v>223.8819796095908</v>
       </c>
       <c r="AD7" s="4">
-        <v>224.4687551531487</v>
+        <v>0.7321555889807345</v>
       </c>
       <c r="AE7" s="4">
-        <v>0.7340745062354521</v>
+        <v>10.21948238339388</v>
       </c>
       <c r="AF7" s="4">
-        <v>10.23343925694945</v>
+        <v>0.03342051538288015</v>
       </c>
       <c r="AG7" s="4">
-        <v>0.03346615819431244</v>
+        <v>47194.58534517163</v>
       </c>
       <c r="AH7" s="4">
-        <v>47126.27585529183</v>
+        <v>264.5934996172274</v>
       </c>
       <c r="AI7" s="4">
-        <v>264.2105267220918</v>
+        <v>-2.259540569212626</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.760486846759223</v>
+        <v>0.9824633009997296</v>
       </c>
       <c r="AK7" s="4">
-        <v>0.9839394015774066</v>
+        <v>0.9987188673088759</v>
       </c>
       <c r="AL7" s="4">
-        <v>1.000074347383193</v>
+        <v>0.003267434066416601</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.003271868689528416</v>
+        <v>0.9987188673088759</v>
       </c>
       <c r="AN7" s="4">
-        <v>1.000074347383193</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>0.003271868689528417</v>
+        <v>0.003267434066416601</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>2.116172565145871E-05</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.122116227588339E-05</v>
+        <v>9.638761137329939E-08</v>
       </c>
       <c r="AT7" s="4">
-        <v>9.665833382527447E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV7" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV7" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:58">
       <c r="A8">
         <v>9717</v>
       </c>
@@ -3493,19 +3465,19 @@
         <v>18.74110099785223</v>
       </c>
       <c r="D8">
-        <v>3.672396563329767</v>
+        <v>0.6882475489752859</v>
       </c>
       <c r="E8">
         <v>24.41778435892999</v>
       </c>
       <c r="F8">
-        <v>0.0332131819373989</v>
+        <v>0.00810992314421315</v>
       </c>
       <c r="G8">
         <v>3366.748525193626</v>
       </c>
       <c r="H8">
-        <v>1.118204313047253</v>
+        <v>0.1322766714581415</v>
       </c>
       <c r="I8">
         <v>0.3</v>
@@ -3517,31 +3489,31 @@
         <v>39.54021532690746</v>
       </c>
       <c r="L8">
-        <v>14.89014752602408</v>
+        <v>14.86520786232007</v>
       </c>
       <c r="M8">
-        <v>0.5468252660204405</v>
+        <v>0.5459093826676686</v>
       </c>
       <c r="N8">
         <v>0.005</v>
       </c>
       <c r="O8">
-        <v>19.48454197647454</v>
+        <v>19.48444122005298</v>
       </c>
       <c r="P8">
-        <v>0.006471436376315348</v>
+        <v>0.006471402911901741</v>
       </c>
       <c r="Q8">
-        <v>14.89014752602408</v>
+        <v>14.53808715043152</v>
       </c>
       <c r="R8">
-        <v>0.5468252660204405</v>
+        <v>0.004828561335490431</v>
       </c>
       <c r="S8">
-        <v>0.9992012553107414</v>
+        <v>0.9977022589824969</v>
       </c>
       <c r="T8">
-        <v>0.0007405051472630446</v>
+        <v>0.0007393942454393191</v>
       </c>
       <c r="U8">
         <v>1.000514755030759</v>
@@ -3553,112 +3525,109 @@
         <v>0.003</v>
       </c>
       <c r="X8">
-        <v>-0.1696180753722577</v>
+        <v>-0.1703489160406153</v>
       </c>
       <c r="Y8">
-        <v>-0.002520802614030055</v>
+        <v>-0.002531664104252674</v>
       </c>
       <c r="Z8">
-        <v>-4.141685244693746E-05</v>
+        <v>-4.158865331252834E-05</v>
       </c>
       <c r="AA8">
-        <v>-6.155223120177734E-07</v>
+        <v>-6.180755544721737E-07</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
       </c>
       <c r="AC8">
-        <v>0.85</v>
+        <v>309.9144330770169</v>
       </c>
       <c r="AD8">
-        <v>310.7365653285712</v>
+        <v>1.176003608631474</v>
       </c>
       <c r="AE8">
-        <v>1.179123277776925</v>
+        <v>14.14658336822388</v>
       </c>
       <c r="AF8">
-        <v>14.16635363809756</v>
+        <v>0.05368073027661466</v>
       </c>
       <c r="AG8">
-        <v>0.05375575068945641</v>
+        <v>-340154.879791751</v>
       </c>
       <c r="AH8">
-        <v>-342043.2215665649</v>
+        <v>-5217.440994005637</v>
       </c>
       <c r="AI8">
-        <v>-5246.405187588982</v>
+        <v>0.5147550307593729</v>
       </c>
       <c r="AJ8">
-        <v>0.5147550307593729</v>
+        <v>0.7414785780893494</v>
       </c>
       <c r="AK8">
-        <v>0.7414785780893494</v>
+        <v>0.9730704749423648</v>
       </c>
       <c r="AL8">
-        <v>0.9744221045432203</v>
+        <v>0.003706537337851941</v>
       </c>
       <c r="AM8">
-        <v>0.00371168585043302</v>
+        <v>0.9731911592080549</v>
       </c>
       <c r="AN8">
-        <v>0.9732220416313586</v>
+        <v>0.003706997038098111</v>
       </c>
       <c r="AO8">
-        <v>0.003707114672799816</v>
+        <v>391.899</v>
       </c>
       <c r="AP8">
-        <v>404.9719</v>
+        <v>15.6894</v>
       </c>
       <c r="AQ8">
-        <v>17.6166</v>
+        <v>4.00342945503816</v>
       </c>
       <c r="AR8">
-        <v>4.350079598115326</v>
+        <v>-2.860668868070028E-06</v>
       </c>
       <c r="AS8">
-        <v>-2.848827408654226E-06</v>
+        <v>-4.252484361512126E-08</v>
       </c>
       <c r="AT8">
-        <v>-4.234881617781374E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV8">
-        <v>0.375</v>
+        <v>391.8992</v>
       </c>
       <c r="AW8">
-        <v>392.5668</v>
+        <v>15.6928341199</v>
       </c>
       <c r="AX8">
-        <v>15.4603560565</v>
+        <v>15.18795753431959</v>
       </c>
       <c r="AY8">
-        <v>15.22732118483986</v>
-      </c>
-      <c r="AZ8">
-        <v>3.938273959107087</v>
-      </c>
-      <c r="BA8" t="s">
+        <v>4.004303688269841</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>27</v>
       </c>
+      <c r="BB8">
+        <v>1.555658449874069</v>
+      </c>
       <c r="BC8">
-        <v>1.561188494939421</v>
+        <v>2.241906101582567</v>
       </c>
       <c r="BD8">
-        <v>2.249847473994108</v>
+        <v>391841.2</v>
       </c>
       <c r="BE8">
-        <v>392508.8</v>
+        <v>7593.978767159794</v>
       </c>
       <c r="BF8">
-        <v>7613.660592419928</v>
-      </c>
-      <c r="BG8">
-        <v>1939.456060069249</v>
+        <v>3.875475513683006</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="4" customFormat="1">
+    <row r="9" spans="1:58" s="4" customFormat="1">
       <c r="A9" s="4">
         <v>9186</v>
       </c>
@@ -3666,19 +3635,19 @@
         <v>2.053786140768191</v>
       </c>
       <c r="D9" s="4">
-        <v>0.4322915892929702</v>
+        <v>0.00887834474860557</v>
       </c>
       <c r="E9" s="4">
         <v>2.699349606342518</v>
       </c>
       <c r="F9" s="4">
-        <v>0.006828732521500181</v>
+        <v>0.0001843313644372987</v>
       </c>
       <c r="G9" s="4">
         <v>372.1890230721128</v>
       </c>
       <c r="H9" s="4">
-        <v>0.02541579285997918</v>
+        <v>0.01738125519613917</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -3690,145 +3659,142 @@
         <v>3.247375899672271</v>
       </c>
       <c r="L9" s="4">
-        <v>10.38879843634099</v>
+        <v>10.3713981292696</v>
       </c>
       <c r="M9" s="4">
-        <v>0.0449099018689017</v>
+        <v>0.04483468180492095</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>13.71348592665002</v>
+        <v>13.71341501561053</v>
       </c>
       <c r="P9" s="4">
-        <v>0.0009364572733045004</v>
+        <v>0.0009364524309792854</v>
       </c>
       <c r="Q9" s="4">
-        <v>10.38879843634099</v>
+        <v>10.23210367571629</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0449099018689017</v>
+        <v>0.0006987229913372538</v>
       </c>
       <c r="S9" s="4">
-        <v>0.9981348389721758</v>
+        <v>0.9966374424759645</v>
       </c>
       <c r="T9" s="4">
-        <v>0.0008357515363213823</v>
+        <v>0.0008344977463790538</v>
       </c>
       <c r="U9" s="4">
-        <v>0.9981348389721758</v>
+        <v>0.9966374424759645</v>
       </c>
       <c r="V9" s="4">
-        <v>0.0008357515363213823</v>
+        <v>0.0008344977463790538</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>0.8876020328530302</v>
+        <v>0.8852501202073254</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.004118537687057142</v>
+        <v>0.00410762464212318</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.000216732104438725</v>
+        <v>0.0002161232439858824</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.005652654103254E-06</v>
+        <v>1.002827497525896E-06</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.85</v>
+        <v>224.3900604360603</v>
       </c>
       <c r="AD9" s="4">
-        <v>224.9781858373517</v>
+        <v>0.6996321106159143</v>
       </c>
       <c r="AE9" s="4">
-        <v>0.7014658434248132</v>
+        <v>10.24267461648249</v>
       </c>
       <c r="AF9" s="4">
-        <v>10.25666399465898</v>
+        <v>0.03193592464102781</v>
       </c>
       <c r="AG9" s="4">
-        <v>0.03197954251857909</v>
+        <v>47392.74882044415</v>
       </c>
       <c r="AH9" s="4">
-        <v>47324.1563414006</v>
+        <v>264.9409313802134</v>
       </c>
       <c r="AI9" s="4">
-        <v>264.5574770388684</v>
+        <v>-3.36255752403547</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-1.865161027824191</v>
+        <v>0.8344977463790538</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.8357515363213823</v>
+        <v>1.001033115095509</v>
       </c>
       <c r="AL9" s="4">
-        <v>1.00239181729563</v>
+        <v>0.003121897918845936</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.003126135270744611</v>
+        <v>1.001033115095509</v>
       </c>
       <c r="AN9" s="4">
-        <v>1.00239181729563</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>0.003126135270744611</v>
+        <v>0.003121897918845936</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>2.112207331311592E-05</v>
       </c>
       <c r="AS9" s="4">
-        <v>2.118139856660703E-05</v>
+        <v>9.801856223392607E-08</v>
       </c>
       <c r="AT9" s="4">
-        <v>9.829386551335133E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV9" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV9" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:58">
       <c r="A10">
         <v>9718</v>
       </c>
@@ -3839,19 +3805,19 @@
         <v>26.46578628848677</v>
       </c>
       <c r="D10">
-        <v>3.215281694173313</v>
+        <v>0.8509495817527457</v>
       </c>
       <c r="E10">
         <v>33.45852367426423</v>
       </c>
       <c r="F10">
-        <v>0.03396529543407661</v>
+        <v>0.01136428641384431</v>
       </c>
       <c r="G10">
         <v>4613.294702731226</v>
       </c>
       <c r="H10">
-        <v>1.566919175027267</v>
+        <v>0.1520136745410205</v>
       </c>
       <c r="I10">
         <v>0.3</v>
@@ -3863,31 +3829,31 @@
         <v>25.56218867781659</v>
       </c>
       <c r="L10">
-        <v>10.99483081697906</v>
+        <v>10.97641545993988</v>
       </c>
       <c r="M10">
-        <v>0.353514782563654</v>
+        <v>0.3529226769598564</v>
       </c>
       <c r="N10">
         <v>0.005</v>
       </c>
       <c r="O10">
-        <v>13.96014161641222</v>
+        <v>13.96006942785624</v>
       </c>
       <c r="P10">
-        <v>0.004741603343029889</v>
+        <v>0.00474157882397358</v>
       </c>
       <c r="Q10">
-        <v>10.99483081697906</v>
+        <v>10.41614197072144</v>
       </c>
       <c r="R10">
-        <v>0.353514782563654</v>
+        <v>0.003537873393188386</v>
       </c>
       <c r="S10">
-        <v>1.000219879710563</v>
+        <v>0.9987193552474932</v>
       </c>
       <c r="T10">
-        <v>0.0006243579015636577</v>
+        <v>0.0006234212432108183</v>
       </c>
       <c r="U10">
         <v>1.002421364011313</v>
@@ -3899,112 +3865,109 @@
         <v>0.003</v>
       </c>
       <c r="X10">
-        <v>1.032560493362476</v>
+        <v>1.02918341321303</v>
       </c>
       <c r="Y10">
-        <v>0.005764714646234756</v>
+        <v>0.005745860638625362</v>
       </c>
       <c r="Z10">
-        <v>0.0002521276432495425</v>
+        <v>0.0002512628384257885</v>
       </c>
       <c r="AA10">
-        <v>1.407611396237164E-06</v>
+        <v>1.40278325002619E-06</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>0.85</v>
+        <v>221.9719561606385</v>
       </c>
       <c r="AD10">
-        <v>222.5610375478755</v>
+        <v>0.9550656364167517</v>
       </c>
       <c r="AE10">
-        <v>0.9576002421378259</v>
+        <v>10.13229604073926</v>
       </c>
       <c r="AF10">
-        <v>10.14646718718564</v>
+        <v>0.04359563223161594</v>
       </c>
       <c r="AG10">
-        <v>0.04365660558714096</v>
+        <v>40325.48587057323</v>
       </c>
       <c r="AH10">
-        <v>40243.3745717569</v>
+        <v>284.2355970724442</v>
       </c>
       <c r="AI10">
-        <v>283.656832711852</v>
+        <v>2.421364011313321</v>
       </c>
       <c r="AJ10">
-        <v>2.421364011313321</v>
+        <v>0.6257321135206724</v>
       </c>
       <c r="AK10">
-        <v>0.6257321135206724</v>
+        <v>0.9727494180878065</v>
       </c>
       <c r="AL10">
-        <v>0.9741016541894953</v>
+        <v>0.004198412135478684</v>
       </c>
       <c r="AM10">
-        <v>0.004204248422145936</v>
+        <v>0.973114595768268</v>
       </c>
       <c r="AN10">
-        <v>0.9731465374137482</v>
+        <v>0.004199988251975643</v>
       </c>
       <c r="AO10">
-        <v>0.004200126112959693</v>
+        <v>382.1054</v>
       </c>
       <c r="AP10">
-        <v>397.7362</v>
+        <v>16.1166</v>
       </c>
       <c r="AQ10">
-        <v>18.7193</v>
+        <v>4.217841464684875</v>
       </c>
       <c r="AR10">
-        <v>4.706461217259078</v>
+        <v>2.412244755611617E-05</v>
       </c>
       <c r="AS10">
-        <v>2.420526768828991E-05</v>
+        <v>1.349229751878779E-07</v>
       </c>
       <c r="AT10">
-        <v>1.353862092196792E-07</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV10">
-        <v>0.375</v>
+        <v>382.1034</v>
       </c>
       <c r="AW10">
-        <v>382.7414</v>
+        <v>15.8210024599</v>
       </c>
       <c r="AX10">
-        <v>15.5550792921</v>
+        <v>15.40939381408343</v>
       </c>
       <c r="AY10">
-        <v>15.44634142461242</v>
-      </c>
-      <c r="AZ10">
-        <v>4.064122483771026</v>
-      </c>
-      <c r="BA10" t="s">
+        <v>4.140502926668541</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>28</v>
       </c>
+      <c r="BB10">
+        <v>7.118163405083836</v>
+      </c>
       <c r="BC10">
-        <v>7.14257275472135</v>
+        <v>1.866737675788412</v>
       </c>
       <c r="BD10">
-        <v>1.872312863114833</v>
+        <v>382045.4</v>
       </c>
       <c r="BE10">
-        <v>382683.4</v>
+        <v>7704.696907041713</v>
       </c>
       <c r="BF10">
-        <v>7723.17071230621</v>
-      </c>
-      <c r="BG10">
-        <v>2017.856106579066</v>
+        <v>4.032781130469769</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="4" customFormat="1">
+    <row r="11" spans="1:58" s="4" customFormat="1">
       <c r="A11" s="4">
         <v>9186</v>
       </c>
@@ -4012,19 +3975,19 @@
         <v>2.057099993786945</v>
       </c>
       <c r="D11" s="4">
-        <v>0.4821394721954245</v>
+        <v>0.009918091052576489</v>
       </c>
       <c r="E11" s="4">
         <v>2.699247965118998</v>
       </c>
       <c r="F11" s="4">
-        <v>0.007366958264563671</v>
+        <v>0.0001988524710474008</v>
       </c>
       <c r="G11" s="4">
         <v>372.1750086785726</v>
       </c>
       <c r="H11" s="4">
-        <v>0.02741797756048666</v>
+        <v>0.02000914210059544</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -4036,145 +3999,142 @@
         <v>3.627677316760044</v>
       </c>
       <c r="L11" s="4">
-        <v>10.40556111205299</v>
+        <v>10.38813272900087</v>
       </c>
       <c r="M11" s="4">
-        <v>0.05016931742462465</v>
+        <v>0.05008528831056497</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>13.71296955949067</v>
+        <v>13.71289865112127</v>
       </c>
       <c r="P11" s="4">
-        <v>0.001010228744279998</v>
+        <v>0.001010223520490018</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.40556111205299</v>
+        <v>10.23171839641259</v>
       </c>
       <c r="R11" s="4">
-        <v>0.05016931742462465</v>
+        <v>0.0007537664240113988</v>
       </c>
       <c r="S11" s="4">
-        <v>0.9974728278637717</v>
+        <v>0.9959764245130508</v>
       </c>
       <c r="T11" s="4">
-        <v>0.001049182169557438</v>
+        <v>0.001047608192131502</v>
       </c>
       <c r="U11" s="4">
-        <v>0.9974728278637717</v>
+        <v>0.9959764245130508</v>
       </c>
       <c r="V11" s="4">
-        <v>0.001049182169557438</v>
+        <v>0.001047608192131502</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>0.8866003117400937</v>
+        <v>0.8842510533926733</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.004070953368742462</v>
+        <v>0.004060166409774777</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.0002164875070664436</v>
+        <v>0.0002158793337553018</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.940336524956602E-07</v>
+        <v>9.912411369088874E-07</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <v>0.85</v>
+        <v>223.7502335109088</v>
       </c>
       <c r="AD11" s="4">
-        <v>224.3366590343894</v>
+        <v>0.6427572172441823</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.6444418154306465</v>
+        <v>10.21346860355814</v>
       </c>
       <c r="AF11" s="4">
-        <v>10.22741704861814</v>
+        <v>0.02933977120392053</v>
       </c>
       <c r="AG11" s="4">
-        <v>0.02937984027375331</v>
+        <v>47311.00669013115</v>
       </c>
       <c r="AH11" s="4">
-        <v>47242.52769689466</v>
+        <v>256.2464093751415</v>
       </c>
       <c r="AI11" s="4">
-        <v>255.8755126776899</v>
+        <v>-4.023575486949205</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-2.527172136228328</v>
+        <v>1.047608192131502</v>
       </c>
       <c r="AK11" s="4">
-        <v>1.049182169557438</v>
+        <v>0.9982163511399174</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.9995711281376151</v>
+        <v>0.002868473941237969</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.002872367027651197</v>
+        <v>0.9982163511399174</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.9995711281376151</v>
-      </c>
-      <c r="AO11" s="4">
-        <v>0.002872367027651197</v>
+        <v>0.002868473941237969</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>2.109903003497367E-05</v>
       </c>
       <c r="AS11" s="4">
-        <v>2.115829056715183E-05</v>
+        <v>9.689171185551434E-08</v>
       </c>
       <c r="AT11" s="4">
-        <v>9.716385016702404E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV11" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV11" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:58">
       <c r="A12">
         <v>9719</v>
       </c>
@@ -4185,19 +4145,19 @@
         <v>24.88698370481256</v>
       </c>
       <c r="D12">
-        <v>2.583612744665059</v>
+        <v>0.6429832827602537</v>
       </c>
       <c r="E12">
         <v>31.71906999615733</v>
       </c>
       <c r="F12">
-        <v>0.02674465574585643</v>
+        <v>0.008483156076259516</v>
       </c>
       <c r="G12">
         <v>4373.457090140168</v>
       </c>
       <c r="H12">
-        <v>1.169666042950738</v>
+        <v>0.134221098557268</v>
       </c>
       <c r="I12">
         <v>0.3</v>
@@ -4209,31 +4169,31 @@
         <v>18.77798284255512</v>
       </c>
       <c r="L12">
-        <v>10.05150429485812</v>
+        <v>10.03466892526927</v>
       </c>
       <c r="M12">
-        <v>0.2596919459925101</v>
+        <v>0.2592569852382011</v>
       </c>
       <c r="N12">
         <v>0.005</v>
       </c>
       <c r="O12">
-        <v>12.86644925854644</v>
+        <v>12.86638272537895</v>
       </c>
       <c r="P12">
-        <v>0.003441087560913542</v>
+        <v>0.003441069766846942</v>
       </c>
       <c r="Q12">
-        <v>10.05150429485812</v>
+        <v>9.600100472979193</v>
       </c>
       <c r="R12">
-        <v>0.2596919459925101</v>
+        <v>0.002567513822754621</v>
       </c>
       <c r="S12">
-        <v>1.000100077247656</v>
+        <v>0.9985997325115947</v>
       </c>
       <c r="T12">
-        <v>0.0006159983574768764</v>
+        <v>0.0006150742400669406</v>
       </c>
       <c r="U12">
         <v>1.002623220199646</v>
@@ -4245,112 +4205,109 @@
         <v>0.003</v>
       </c>
       <c r="X12">
-        <v>28.16125710608711</v>
+        <v>28.08600122195284</v>
       </c>
       <c r="Y12">
-        <v>0.07609392536320704</v>
+        <v>0.07589057806202364</v>
       </c>
       <c r="Z12">
-        <v>0.006876334539955781</v>
+        <v>0.006856861757057207</v>
       </c>
       <c r="AA12">
-        <v>1.858039523181431E-05</v>
+        <v>1.852777824518917E-05</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
       </c>
       <c r="AC12">
-        <v>0.85</v>
+        <v>205.5663474314863</v>
       </c>
       <c r="AD12">
-        <v>206.1118610115352</v>
+        <v>0.5361789413831339</v>
       </c>
       <c r="AE12">
-        <v>0.5376018050839069</v>
+        <v>9.383433494102919</v>
       </c>
       <c r="AF12">
-        <v>9.396555918703621</v>
+        <v>0.02447482041818155</v>
       </c>
       <c r="AG12">
-        <v>0.02450904765342067</v>
+        <v>1368.47348343363</v>
       </c>
       <c r="AH12">
-        <v>1366.506510714943</v>
+        <v>5.139426514416613</v>
       </c>
       <c r="AI12">
-        <v>5.132039369641115</v>
+        <v>2.623220199645671</v>
       </c>
       <c r="AJ12">
-        <v>2.623220199645671</v>
+        <v>0.6175524538612926</v>
       </c>
       <c r="AK12">
-        <v>0.6175524538612926</v>
+        <v>0.9774307592419357</v>
       </c>
       <c r="AL12">
-        <v>0.9787893619056096</v>
+        <v>0.002562800818182701</v>
       </c>
       <c r="AM12">
-        <v>0.002566363042908214</v>
+        <v>0.9783842580929544</v>
       </c>
       <c r="AN12">
-        <v>0.9784162515256559</v>
+        <v>0.002565300870091669</v>
       </c>
       <c r="AO12">
-        <v>0.0025653847561314</v>
+        <v>401.7789</v>
       </c>
       <c r="AP12">
-        <v>420.0755</v>
+        <v>11.9421</v>
       </c>
       <c r="AQ12">
-        <v>14.0009</v>
+        <v>2.972306410316718</v>
       </c>
       <c r="AR12">
-        <v>3.332948481880043</v>
+        <v>0.0007142489577433893</v>
       </c>
       <c r="AS12">
-        <v>0.0007162712758635274</v>
+        <v>1.939387227825408E-06</v>
       </c>
       <c r="AT12">
-        <v>1.944878391501988E-06</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV12">
-        <v>0.375</v>
+        <v>401.721</v>
       </c>
       <c r="AW12">
-        <v>402.4051</v>
+        <v>11.6402731624</v>
       </c>
       <c r="AX12">
-        <v>11.7539290985</v>
+        <v>11.60461605344168</v>
       </c>
       <c r="AY12">
-        <v>11.63508045267128</v>
-      </c>
-      <c r="AZ12">
-        <v>2.920919515806335</v>
-      </c>
-      <c r="BA12" t="s">
+        <v>2.897601360745393</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>29</v>
       </c>
+      <c r="BB12">
+        <v>8.150533719485544</v>
+      </c>
       <c r="BC12">
-        <v>8.180229292027676</v>
+        <v>1.93736976415661</v>
       </c>
       <c r="BD12">
-        <v>1.944849614308049</v>
+        <v>401663</v>
       </c>
       <c r="BE12">
-        <v>402347.1</v>
+        <v>5802.30802672084</v>
       </c>
       <c r="BF12">
-        <v>5817.540226335639</v>
-      </c>
-      <c r="BG12">
-        <v>1445.692469189789</v>
+        <v>2.88872527287388</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="4" customFormat="1">
+    <row r="13" spans="1:58" s="4" customFormat="1">
       <c r="A13" s="4">
         <v>9186</v>
       </c>
@@ -4358,19 +4315,19 @@
         <v>2.048005683746828</v>
       </c>
       <c r="D13" s="4">
-        <v>0.4859398946550374</v>
+        <v>0.009952076662128514</v>
       </c>
       <c r="E13" s="4">
         <v>2.699528980303033</v>
       </c>
       <c r="F13" s="4">
-        <v>0.00693292828629354</v>
+        <v>0.0001871564082721205</v>
       </c>
       <c r="G13" s="4">
         <v>372.2137553331626</v>
       </c>
       <c r="H13" s="4">
-        <v>0.02580531272896826</v>
+        <v>0.01636234858562065</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -4382,145 +4339,142 @@
         <v>3.640108017810738</v>
       </c>
       <c r="L13" s="4">
-        <v>10.35955877906956</v>
+        <v>10.34220744580572</v>
       </c>
       <c r="M13" s="4">
-        <v>0.05034122901773731</v>
+        <v>0.05025691196715374</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>13.71439719886068</v>
+        <v>13.7143262831091</v>
       </c>
       <c r="P13" s="4">
-        <v>0.0009508093226944613</v>
+        <v>0.0009508044061562604</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.35955877906956</v>
+        <v>10.23278360726588</v>
       </c>
       <c r="R13" s="4">
-        <v>0.05034122901773731</v>
+        <v>0.0007094315491833445</v>
       </c>
       <c r="S13" s="4">
-        <v>0.997494089117291</v>
+        <v>0.9959976538705523</v>
       </c>
       <c r="T13" s="4">
-        <v>0.0008901499197111418</v>
+        <v>0.0008888145216077643</v>
       </c>
       <c r="U13" s="4">
-        <v>0.997494089117291</v>
+        <v>0.9959976538705523</v>
       </c>
       <c r="V13" s="4">
-        <v>0.0008901499197111418</v>
+        <v>0.0008888145216077643</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.8910975031795665</v>
+        <v>0.8887363284540563</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.002899235831089271</v>
+        <v>0.002891553616356051</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002175856183017321</v>
+        <v>0.0002169743600922743</v>
       </c>
       <c r="AA13" s="4">
-        <v>7.07927043515658E-07</v>
+        <v>7.059382805614536E-07</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>0.85</v>
+        <v>224.1362780672796</v>
       </c>
       <c r="AD13" s="4">
-        <v>224.7237292252711</v>
+        <v>0.4837207117167436</v>
       </c>
       <c r="AE13" s="4">
-        <v>0.4849885220627204</v>
+        <v>10.23109027882614</v>
       </c>
       <c r="AF13" s="4">
-        <v>10.24506342120064</v>
+        <v>0.02208027327832438</v>
       </c>
       <c r="AG13" s="4">
-        <v>0.02211042947808194</v>
+        <v>47153.45294474006</v>
       </c>
       <c r="AH13" s="4">
-        <v>47085.20490078312</v>
+        <v>184.0994170180008</v>
       </c>
       <c r="AI13" s="4">
-        <v>183.8329587987095</v>
+        <v>-4.00234612944772</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-2.505910882709017</v>
+        <v>0.8888145216077643</v>
       </c>
       <c r="AK13" s="4">
-        <v>0.8901499197111418</v>
+        <v>0.9998345192760125</v>
       </c>
       <c r="AL13" s="4">
-        <v>1.001191554165284</v>
+        <v>0.002158910450175706</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.002161840651871305</v>
+        <v>0.9998345192760125</v>
       </c>
       <c r="AN13" s="4">
-        <v>1.001191554165284</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>0.002161840651871305</v>
+        <v>0.002158910450175707</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>2.120384525069109E-05</v>
       </c>
       <c r="AS13" s="4">
-        <v>2.126340017580835E-05</v>
+        <v>6.900356344332097E-08</v>
       </c>
       <c r="AT13" s="4">
-        <v>6.919737272673651E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV13" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV13" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:58">
       <c r="A14">
         <v>9720</v>
       </c>
@@ -4531,19 +4485,19 @@
         <v>17.11992933803555</v>
       </c>
       <c r="D14">
-        <v>2.965253252975106</v>
+        <v>0.5076492616031387</v>
       </c>
       <c r="E14">
         <v>19.64649218141604</v>
       </c>
       <c r="F14">
-        <v>0.024852687815843</v>
+        <v>0.004882681368611331</v>
       </c>
       <c r="G14">
         <v>2708.877988465824</v>
       </c>
       <c r="H14">
-        <v>0.6732289897854988</v>
+        <v>0.0999961963763993</v>
       </c>
       <c r="I14">
         <v>0.3</v>
@@ -4555,31 +4509,31 @@
         <v>13.36014267472493</v>
       </c>
       <c r="L14">
-        <v>6.231015733902823</v>
+        <v>6.220579340531549</v>
       </c>
       <c r="M14">
-        <v>0.1847653967429441</v>
+        <v>0.1844559312490092</v>
       </c>
       <c r="N14">
         <v>0.005</v>
       </c>
       <c r="O14">
-        <v>7.181574108241954</v>
+        <v>7.181536971326349</v>
       </c>
       <c r="P14">
-        <v>0.001784814193384784</v>
+        <v>0.001784804963863084</v>
       </c>
       <c r="Q14">
-        <v>6.231015733902823</v>
+        <v>5.35841952992402</v>
       </c>
       <c r="R14">
-        <v>0.1847653967429441</v>
+        <v>0.001331711277635179</v>
       </c>
       <c r="S14">
-        <v>0.9993542964288743</v>
+        <v>0.9978550705091705</v>
       </c>
       <c r="T14">
-        <v>0.0006807402287646481</v>
+        <v>0.000679718985948966</v>
       </c>
       <c r="U14">
         <v>1.001712729973921</v>
@@ -4591,112 +4545,109 @@
         <v>0.003</v>
       </c>
       <c r="X14">
-        <v>0.3580219880082354</v>
+        <v>0.3565423140418347</v>
       </c>
       <c r="Y14">
-        <v>0.002271480402933131</v>
+        <v>0.002262092570537395</v>
       </c>
       <c r="Z14">
-        <v>8.74207764564787E-05</v>
+        <v>8.704554765935279E-05</v>
       </c>
       <c r="AA14">
-        <v>5.546435335852102E-07</v>
+        <v>5.522628841060277E-07</v>
       </c>
       <c r="AB14">
         <v>0.05</v>
       </c>
       <c r="AC14">
-        <v>0.85</v>
+        <v>114.8962545556195</v>
       </c>
       <c r="AD14">
-        <v>115.20093948019</v>
+        <v>0.4099550088966659</v>
       </c>
       <c r="AE14">
-        <v>0.4110421384244825</v>
+        <v>5.244639391685962</v>
       </c>
       <c r="AF14">
-        <v>5.251963979172523</v>
+        <v>0.01871310946378681</v>
       </c>
       <c r="AG14">
-        <v>0.01873924392169261</v>
+        <v>60251.66746276931</v>
       </c>
       <c r="AH14">
-        <v>60076.83976345308</v>
+        <v>438.5724478132896</v>
       </c>
       <c r="AI14">
-        <v>437.2998753640363</v>
+        <v>1.712729973920579</v>
       </c>
       <c r="AJ14">
-        <v>1.712729973920579</v>
+        <v>0.6823467466899904</v>
       </c>
       <c r="AK14">
-        <v>0.6823467466899904</v>
+        <v>0.9787661011604907</v>
       </c>
       <c r="AL14">
-        <v>0.9801247180705143</v>
+        <v>0.003500742860493358</v>
       </c>
       <c r="AM14">
-        <v>0.003505602211917841</v>
+        <v>0.9800550835068594</v>
       </c>
       <c r="AN14">
-        <v>0.9800853014669938</v>
+        <v>0.003505353150675049</v>
       </c>
       <c r="AO14">
-        <v>0.003505461230948849</v>
+        <v>415.0041</v>
       </c>
       <c r="AP14">
-        <v>432.7757</v>
+        <v>18.3257</v>
       </c>
       <c r="AQ14">
-        <v>21.9775</v>
+        <v>4.415787699446825</v>
       </c>
       <c r="AR14">
-        <v>5.07826571593553</v>
+        <v>1.624463093515693E-05</v>
       </c>
       <c r="AS14">
-        <v>1.631451857204313E-05</v>
+        <v>1.03143552685453E-07</v>
       </c>
       <c r="AT14">
-        <v>1.035872967868737E-07</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV14">
-        <v>0.375</v>
+        <v>415.0028</v>
       </c>
       <c r="AW14">
-        <v>415.719</v>
+        <v>18.2902661738</v>
       </c>
       <c r="AX14">
-        <v>17.8925037114</v>
+        <v>17.66418967999461</v>
       </c>
       <c r="AY14">
-        <v>17.71232715398179</v>
-      </c>
-      <c r="AZ14">
-        <v>4.303989885331197</v>
-      </c>
-      <c r="BA14" t="s">
+        <v>4.407263318175203</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>30</v>
       </c>
+      <c r="BB14">
+        <v>5.524823909136777</v>
+      </c>
       <c r="BC14">
-        <v>5.545768381608759</v>
+        <v>2.219470553656438</v>
       </c>
       <c r="BD14">
-        <v>2.227146161265094</v>
+        <v>414944.8</v>
       </c>
       <c r="BE14">
-        <v>415661</v>
+        <v>8832.094839997306</v>
       </c>
       <c r="BF14">
-        <v>8856.163576990893</v>
-      </c>
-      <c r="BG14">
-        <v>2130.324468448855</v>
+        <v>4.256402530294882</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="4" customFormat="1">
+    <row r="15" spans="1:58" s="4" customFormat="1">
       <c r="A15" s="4">
         <v>9186</v>
       </c>
@@ -4704,19 +4655,19 @@
         <v>2.065583347955624</v>
       </c>
       <c r="D15" s="4">
-        <v>0.4500881629454989</v>
+        <v>0.009296946144921598</v>
       </c>
       <c r="E15" s="4">
         <v>2.699293296102625</v>
       </c>
       <c r="F15" s="4">
-        <v>0.008383963002853724</v>
+        <v>0.0002263077512837549</v>
       </c>
       <c r="G15" s="4">
         <v>372.1812589599261</v>
       </c>
       <c r="H15" s="4">
-        <v>0.03120353905475541</v>
+        <v>0.0185705080547935</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -4728,145 +4679,142 @@
         <v>3.400485079869327</v>
       </c>
       <c r="L15" s="4">
-        <v>10.4484730076847</v>
+        <v>10.43097275105013</v>
       </c>
       <c r="M15" s="4">
-        <v>0.04702734021614439</v>
+        <v>0.04694857363254711</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>13.71319985415297</v>
+        <v>13.71312894459273</v>
       </c>
       <c r="P15" s="4">
-        <v>0.001149709602279576</v>
+        <v>0.00114970365724828</v>
       </c>
       <c r="Q15" s="4">
-        <v>10.4484730076847</v>
+        <v>10.23189022718364</v>
       </c>
       <c r="R15" s="4">
-        <v>0.04702734021614439</v>
+        <v>0.0008578378911396822</v>
       </c>
       <c r="S15" s="4">
-        <v>0.9977971086992573</v>
+        <v>0.9963002188641779</v>
       </c>
       <c r="T15" s="4">
-        <v>0.0007914499647809169</v>
+        <v>0.0007902626358170166</v>
       </c>
       <c r="U15" s="4">
-        <v>0.9977971086992573</v>
+        <v>0.9963002188641779</v>
       </c>
       <c r="V15" s="4">
-        <v>0.0007914499647809169</v>
+        <v>0.0007902626358170166</v>
       </c>
       <c r="W15" s="4">
         <v>0</v>
       </c>
       <c r="X15" s="4">
-        <v>0.8939406259858222</v>
+        <v>0.8915719177303811</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.003778407080398669</v>
+        <v>0.003768395292385469</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.0002182798438286801</v>
+        <v>0.0002176666353476195</v>
       </c>
       <c r="AA15" s="4">
-        <v>9.226005435440193E-07</v>
+        <v>9.200087033263935E-07</v>
       </c>
       <c r="AB15" s="4">
         <v>0</v>
       </c>
       <c r="AC15" s="4">
-        <v>0.85</v>
+        <v>223.6012754438282</v>
       </c>
       <c r="AD15" s="4">
-        <v>224.1873052188604</v>
+        <v>0.5284510624903292</v>
       </c>
       <c r="AE15" s="4">
-        <v>0.5298360637907558</v>
+        <v>10.20666915348606</v>
       </c>
       <c r="AF15" s="4">
-        <v>10.22060806890973</v>
+        <v>0.0241220679441158</v>
       </c>
       <c r="AG15" s="4">
-        <v>0.02415501066615967</v>
+        <v>46891.28922852936</v>
       </c>
       <c r="AH15" s="4">
-        <v>46823.41662719674</v>
+        <v>227.0737880607126</v>
       </c>
       <c r="AI15" s="4">
-        <v>226.7451110517479</v>
+        <v>-3.699781135822144</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-2.202891300742693</v>
+        <v>0.7902626358170166</v>
       </c>
       <c r="AK15" s="4">
-        <v>0.7914499647809169</v>
+        <v>0.9975350523571319</v>
       </c>
       <c r="AL15" s="4">
-        <v>0.9988888808814645</v>
+        <v>0.002359020758142072</v>
       </c>
       <c r="AM15" s="4">
-        <v>0.002362222359513692</v>
+        <v>0.9975350523571319</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.9988888808814645</v>
-      </c>
-      <c r="AO15" s="4">
-        <v>0.002362222359513692</v>
+        <v>0.002359020758142072</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>2.127335521733142E-05</v>
       </c>
       <c r="AS15" s="4">
-        <v>2.133310537405922E-05</v>
+        <v>8.993349787415758E-08</v>
       </c>
       <c r="AT15" s="4">
-        <v>9.018609275344027E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU15" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV15" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV15" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB15" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:58">
       <c r="A16">
         <v>9721</v>
       </c>
@@ -4877,19 +4825,19 @@
         <v>20.56717153534174</v>
       </c>
       <c r="D16">
-        <v>2.457306767520724</v>
+        <v>0.5053984980255487</v>
       </c>
       <c r="E16">
         <v>26.13831359394676</v>
       </c>
       <c r="F16">
-        <v>0.02067928444753542</v>
+        <v>0.005405216217881068</v>
       </c>
       <c r="G16">
         <v>3603.976816646973</v>
       </c>
       <c r="H16">
-        <v>0.7452766173376597</v>
+        <v>0.1057514612116475</v>
       </c>
       <c r="I16">
         <v>0.3</v>
@@ -4901,148 +4849,145 @@
         <v>15.87283569557308</v>
       </c>
       <c r="L16">
-        <v>8.933151243202859</v>
+        <v>8.918189014827812</v>
       </c>
       <c r="M16">
-        <v>0.2195149300520856</v>
+        <v>0.2191472622016536</v>
       </c>
       <c r="N16">
         <v>0.005</v>
       </c>
       <c r="O16">
-        <v>11.40216300912091</v>
+        <v>11.40210404754559</v>
       </c>
       <c r="P16">
-        <v>0.002357885721827777</v>
+        <v>0.002357873528995901</v>
       </c>
       <c r="Q16">
-        <v>8.933151243202859</v>
+        <v>8.507546122026023</v>
       </c>
       <c r="R16">
-        <v>0.2195149300520856</v>
+        <v>0.00175929966207903</v>
       </c>
       <c r="S16">
-        <v>0.9998574311519741</v>
+        <v>0.9983574504322753</v>
       </c>
       <c r="T16">
-        <v>0.0005199805778160235</v>
+        <v>0.0005192005057607072</v>
       </c>
       <c r="U16">
-        <v>1.002698465868034</v>
+        <v>1.002698465868033</v>
       </c>
       <c r="V16">
-        <v>0.0005214580713338243</v>
+        <v>0.0005214580713338241</v>
       </c>
       <c r="W16">
         <v>0.003</v>
       </c>
       <c r="X16">
-        <v>17.38770470481673</v>
+        <v>17.34097040435906</v>
       </c>
       <c r="Y16">
-        <v>0.03836494628929125</v>
+        <v>0.03826182980799804</v>
       </c>
       <c r="Z16">
-        <v>0.00424567958674114</v>
+        <v>0.004233590814735532</v>
       </c>
       <c r="AA16">
-        <v>9.367841936132132E-06</v>
+        <v>9.341168772734656E-06</v>
       </c>
       <c r="AB16">
         <v>0.05</v>
       </c>
       <c r="AC16">
-        <v>0.85</v>
+        <v>183.1899879500531</v>
       </c>
       <c r="AD16">
-        <v>183.6760046016325</v>
+        <v>0.4304553012574043</v>
       </c>
       <c r="AE16">
-        <v>0.4315973311604183</v>
+        <v>8.362025643753537</v>
       </c>
       <c r="AF16">
-        <v>8.37371434954299</v>
+        <v>0.01964888096714909</v>
       </c>
       <c r="AG16">
-        <v>0.01967634679881496</v>
+        <v>1975.161514109602</v>
       </c>
       <c r="AH16">
-        <v>1972.290696569123</v>
+        <v>6.366588111031208</v>
       </c>
       <c r="AI16">
-        <v>6.357334532176221</v>
+        <v>2.698465868033351</v>
       </c>
       <c r="AJ16">
-        <v>2.698465868033573</v>
+        <v>0.521458071333824</v>
       </c>
       <c r="AK16">
-        <v>0.5214580713338243</v>
+        <v>0.9828951290789087</v>
       </c>
       <c r="AL16">
-        <v>0.9842607025012419</v>
+        <v>0.002318509201062042</v>
       </c>
       <c r="AM16">
-        <v>0.00232173039369057</v>
+        <v>0.9845599176079867</v>
       </c>
       <c r="AN16">
-        <v>0.9845915147220022</v>
+        <v>0.002322436199383935</v>
       </c>
       <c r="AO16">
-        <v>0.00232251073246219</v>
+        <v>431.6856</v>
       </c>
       <c r="AP16">
-        <v>454.7034</v>
+        <v>14.0751</v>
       </c>
       <c r="AQ16">
-        <v>17.8032</v>
+        <v>3.260497917929159</v>
       </c>
       <c r="AR16">
-        <v>3.915343496441857</v>
+        <v>0.0004976277241418383</v>
       </c>
       <c r="AS16">
-        <v>0.0004990444381314589</v>
+        <v>1.10279800867965E-06</v>
       </c>
       <c r="AT16">
-        <v>1.105937603382329E-06</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AV16">
-        <v>0.375</v>
+        <v>431.6452</v>
       </c>
       <c r="AW16">
-        <v>432.406</v>
+        <v>14.0198597819</v>
       </c>
       <c r="AX16">
-        <v>13.9484281894</v>
+        <v>13.74048435635092</v>
       </c>
       <c r="AY16">
-        <v>13.78076683895438</v>
-      </c>
-      <c r="AZ16">
-        <v>3.225771194062987</v>
-      </c>
-      <c r="BA16" t="s">
+        <v>3.248005487353966</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>31</v>
       </c>
+      <c r="BB16">
+        <v>9.123121977598503</v>
+      </c>
       <c r="BC16">
-        <v>9.159508245909548</v>
+        <v>1.799546218509708</v>
       </c>
       <c r="BD16">
-        <v>1.806462203862902</v>
+        <v>431587.2</v>
       </c>
       <c r="BE16">
-        <v>432348</v>
+        <v>6870.242178175462</v>
       </c>
       <c r="BF16">
-        <v>6890.383419477191</v>
-      </c>
-      <c r="BG16">
-        <v>1593.498568354091</v>
+        <v>3.183282092874176</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="4" customFormat="1">
+    <row r="17" spans="1:58" s="4" customFormat="1">
       <c r="A17" s="4">
         <v>9186</v>
       </c>
@@ -5050,19 +4995,19 @@
         <v>2.051668836958891</v>
       </c>
       <c r="D17" s="4">
-        <v>0.3977318692284916</v>
+        <v>0.008160140815615053</v>
       </c>
       <c r="E17" s="4">
         <v>2.699291895192637</v>
       </c>
       <c r="F17" s="4">
-        <v>0.006324445588002652</v>
+        <v>0.000170715247172824</v>
       </c>
       <c r="G17" s="4">
         <v>372.181065801056</v>
       </c>
       <c r="H17" s="4">
-        <v>0.02353838899543613</v>
+        <v>0.01479950927888165</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -5074,142 +5019,139 @@
         <v>2.984682998114292</v>
       </c>
       <c r="L17" s="4">
-        <v>10.37808834239952</v>
+        <v>10.36070597377641</v>
       </c>
       <c r="M17" s="4">
-        <v>0.0412769647544098</v>
+        <v>0.0412078295347689</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <v>13.71319273712027</v>
+        <v>13.71312182759684</v>
       </c>
       <c r="P17" s="4">
-        <v>0.0008672834130371032</v>
+        <v>0.0008672789284028769</v>
       </c>
       <c r="Q17" s="4">
-        <v>10.37808834239952</v>
+        <v>10.23188491692068</v>
       </c>
       <c r="R17" s="4">
-        <v>0.0412769647544098</v>
+        <v>0.0006471099941976987</v>
       </c>
       <c r="S17" s="4">
-        <v>0.9965361134751678</v>
+        <v>0.9950411153783151</v>
       </c>
       <c r="T17" s="4">
-        <v>0.001018388305285391</v>
+        <v>0.001016860524648371</v>
       </c>
       <c r="U17" s="4">
-        <v>0.9965361134751678</v>
+        <v>0.9950411153783151</v>
       </c>
       <c r="V17" s="4">
-        <v>0.001018388305285391</v>
+        <v>0.001016860524648371</v>
       </c>
       <c r="W17" s="4">
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <v>0.8894925105453537</v>
+        <v>0.8871355886294732</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.003987782653041559</v>
+        <v>0.003977216074661984</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.0002171937158292878</v>
+        <v>0.0002165835585823177</v>
       </c>
       <c r="AA17" s="4">
-        <v>9.737252670094401E-07</v>
+        <v>9.709898032969876E-07</v>
       </c>
       <c r="AB17" s="4">
         <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <v>0.85</v>
+        <v>223.9481724085347</v>
       </c>
       <c r="AD17" s="4">
-        <v>224.5351238116349</v>
+        <v>0.7591066024002913</v>
       </c>
       <c r="AE17" s="4">
-        <v>0.7610961640055036</v>
+        <v>10.22250386883855</v>
       </c>
       <c r="AF17" s="4">
-        <v>10.23646497709798</v>
+        <v>0.03465074126946586</v>
       </c>
       <c r="AG17" s="4">
-        <v>0.03469806458245644</v>
+        <v>47198.89143825869</v>
       </c>
       <c r="AH17" s="4">
-        <v>47130.57621401784</v>
+        <v>265.2767874518086</v>
       </c>
       <c r="AI17" s="4">
-        <v>264.8928283657278</v>
+        <v>-4.958884621684923</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-3.463886524832205</v>
+        <v>1.016860524648371</v>
       </c>
       <c r="AK17" s="4">
-        <v>1.018388305285391</v>
+        <v>0.9990831554343805</v>
       </c>
       <c r="AL17" s="4">
-        <v>1.000439140504432</v>
+        <v>0.003387134668715198</v>
       </c>
       <c r="AM17" s="4">
-        <v>0.003391731787599698</v>
+        <v>0.9990831554343805</v>
       </c>
       <c r="AN17" s="4">
-        <v>1.000439140504432</v>
-      </c>
-      <c r="AO17" s="4">
-        <v>0.003391731787599699</v>
+        <v>0.003387134668715199</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>2.116751315528863E-05</v>
       </c>
       <c r="AS17" s="4">
-        <v>2.122696603498932E-05</v>
+        <v>9.490787111651059E-08</v>
       </c>
       <c r="AT17" s="4">
-        <v>9.517443744401179E-08</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AV17" s="4">
         <v>0.375</v>
       </c>
+      <c r="AV17" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="AW17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="BB17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD17" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BF17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5228,20 +5170,20 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
@@ -5254,108 +5196,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1">
@@ -5363,52 +5305,52 @@
         <v>9186</v>
       </c>
       <c r="C3" s="4">
-        <v>13.71523930037968</v>
+        <v>13715.16838027368</v>
       </c>
       <c r="D3" s="4">
-        <v>0.001537435798429116</v>
+        <v>1.537427848505137</v>
       </c>
       <c r="E3" s="4">
-        <v>0.8905816135662884</v>
+        <v>0.88822180581298</v>
       </c>
       <c r="F3" s="4">
-        <v>0.003562470684003866</v>
+        <v>0.003553031070819644</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9998560822461795</v>
+        <v>0.9985009029369966</v>
       </c>
       <c r="H3" s="4">
-        <v>0.003723670601000376</v>
+        <v>0.003718623633299432</v>
       </c>
       <c r="I3" s="4">
-        <v>47052.5265370028</v>
+        <v>47120.72936011878</v>
       </c>
       <c r="J3" s="4">
-        <v>257.1085613729376</v>
+        <v>257.4812412484622</v>
       </c>
       <c r="K3" s="4">
-        <v>-2.046579556390093</v>
+        <v>-3.543703889504424</v>
       </c>
       <c r="L3" s="4">
-        <v>1.297592116384946</v>
+        <v>1.295645475698016</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>-2.046579556390093</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1.297592116384946</v>
+        <v>123</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5419,28 +5361,28 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>15.03690631139007</v>
+        <v>15036.82855481277</v>
       </c>
       <c r="D4">
-        <v>0.01978903999151855</v>
+        <v>19.78893766142577</v>
       </c>
       <c r="E4">
-        <v>0.005660272088261397</v>
+        <v>0.0049486466181361</v>
       </c>
       <c r="F4">
-        <v>0.0001659232090856783</v>
+        <v>0.0001450628723687977</v>
       </c>
       <c r="G4">
-        <v>0.9738301850808496</v>
+        <v>0.9737983268471276</v>
       </c>
       <c r="H4">
-        <v>0.007540389817617557</v>
+        <v>0.00754014313857141</v>
       </c>
       <c r="I4">
-        <v>167.7946240138874</v>
+        <v>9042149.829267612</v>
       </c>
       <c r="J4">
-        <v>5.082577214765961</v>
+        <v>273890.924484755</v>
       </c>
       <c r="K4">
         <v>3.827447745538448</v>
@@ -5449,22 +5391,22 @@
         <v>1.468855587836767</v>
       </c>
       <c r="M4">
-        <v>397.3046</v>
-      </c>
-      <c r="N4" t="s">
-        <v>125</v>
+        <v>377.9962</v>
+      </c>
+      <c r="N4">
+        <v>29.9726</v>
       </c>
       <c r="O4">
-        <v>378.6177</v>
+        <v>377.9962</v>
       </c>
       <c r="P4">
-        <v>27.7695114754</v>
+        <v>29.324445198</v>
       </c>
       <c r="Q4">
-        <v>3.827447745538448</v>
+        <v>11.12201138325179</v>
       </c>
       <c r="R4">
-        <v>1.468855587836767</v>
+        <v>4.366392472785887</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="4" customFormat="1">
@@ -5472,52 +5414,52 @@
         <v>9186</v>
       </c>
       <c r="C5" s="4">
-        <v>13.71536104497248</v>
+        <v>13715.29012423695</v>
       </c>
       <c r="D5" s="4">
-        <v>0.001155277868178238</v>
+        <v>1.155271894354007</v>
       </c>
       <c r="E5" s="4">
-        <v>0.8885586414037059</v>
+        <v>0.8862041939961774</v>
       </c>
       <c r="F5" s="4">
-        <v>0.003944462981395975</v>
+        <v>0.003934011188787253</v>
       </c>
       <c r="G5" s="4">
-        <v>1.002623459617005</v>
+        <v>1.001264430295493</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002316701521823448</v>
+        <v>0.002313561294784921</v>
       </c>
       <c r="I5" s="4">
-        <v>47290.59764244103</v>
+        <v>47359.14085941868</v>
       </c>
       <c r="J5" s="4">
-        <v>236.6335313630173</v>
+        <v>236.9765091280065</v>
       </c>
       <c r="K5" s="4">
-        <v>-3.583007132901161</v>
+        <v>-5.0778265256608</v>
       </c>
       <c r="L5" s="4">
-        <v>1.114055567528818</v>
+        <v>1.112384267381515</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>-3.583007132901161</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1.114055567528818</v>
+        <v>123</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5528,28 +5470,28 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>3.441329043288854</v>
+        <v>3441.311246164099</v>
       </c>
       <c r="D6">
-        <v>0.0008901550723946612</v>
+        <v>0.8901504688822756</v>
       </c>
       <c r="E6">
-        <v>2.39694470957454</v>
+        <v>2.389867014669805</v>
       </c>
       <c r="F6">
-        <v>0.01043551771987159</v>
+        <v>0.01040470373809755</v>
       </c>
       <c r="G6">
-        <v>0.9924465873509143</v>
+        <v>0.9924237766663235</v>
       </c>
       <c r="H6">
-        <v>0.004372879085347033</v>
+        <v>0.004372778577806536</v>
       </c>
       <c r="I6">
-        <v>0.09235425811625791</v>
+        <v>4367.446378723781</v>
       </c>
       <c r="J6">
-        <v>0.000571566375233328</v>
+        <v>27.02945751099736</v>
       </c>
       <c r="K6">
         <v>3.619748335957684</v>
@@ -5558,22 +5500,22 @@
         <v>1.65804552052674</v>
       </c>
       <c r="M6">
-        <v>524.2474</v>
+        <v>477.3818</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O6">
-        <v>478.1797</v>
-      </c>
-      <c r="P6">
-        <v>43.7967841768</v>
+        <v>477.3634</v>
+      </c>
+      <c r="P6" t="s">
+        <v>123</v>
       </c>
       <c r="Q6">
-        <v>3.619748335957684</v>
-      </c>
-      <c r="R6">
-        <v>1.65804552052674</v>
+        <v>13.92314634046818</v>
+      </c>
+      <c r="R6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1">
@@ -5581,52 +5523,52 @@
         <v>9186</v>
       </c>
       <c r="C7" s="4">
-        <v>13.71413998495923</v>
+        <v>13714.06907053767</v>
       </c>
       <c r="D7" s="4">
-        <v>0.001289132310987219</v>
+        <v>1.289125645015291</v>
       </c>
       <c r="E7" s="4">
-        <v>0.8893107359285929</v>
+        <v>0.8869542956677829</v>
       </c>
       <c r="F7" s="4">
-        <v>0.004049777550891609</v>
+        <v>0.00403904670228864</v>
       </c>
       <c r="G7" s="4">
-        <v>1.000074347383193</v>
+        <v>0.9987188673088759</v>
       </c>
       <c r="H7" s="4">
-        <v>0.003271868689528417</v>
+        <v>0.003267434066416601</v>
       </c>
       <c r="I7" s="4">
-        <v>47126.27585529183</v>
+        <v>47194.58534517163</v>
       </c>
       <c r="J7" s="4">
-        <v>264.2105267220917</v>
+        <v>264.5934996172274</v>
       </c>
       <c r="K7" s="4">
-        <v>-0.760486846759223</v>
+        <v>-2.259540569212626</v>
       </c>
       <c r="L7" s="4">
-        <v>0.9839394015774066</v>
+        <v>0.9824633009997296</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>-0.760486846759223</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.9839394015774066</v>
+        <v>123</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5637,28 +5579,28 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>19.48454197647454</v>
+        <v>19484.44122005298</v>
       </c>
       <c r="D8">
-        <v>0.006471436376315348</v>
+        <v>6.471402911901741</v>
       </c>
       <c r="E8">
-        <v>-0.1696180753722577</v>
+        <v>-0.1703489160406153</v>
       </c>
       <c r="F8">
-        <v>-0.002520802614030055</v>
+        <v>-0.002531664104252674</v>
       </c>
       <c r="G8">
-        <v>0.9732220416313586</v>
+        <v>0.9731911592080549</v>
       </c>
       <c r="H8">
-        <v>0.003707114672799816</v>
+        <v>0.003706997038098111</v>
       </c>
       <c r="I8">
-        <v>-7.242809029274997</v>
+        <v>-340154.879791751</v>
       </c>
       <c r="J8">
-        <v>-0.1110933018636352</v>
+        <v>-5217.440994005637</v>
       </c>
       <c r="K8">
         <v>0.5147550307593729</v>
@@ -5667,22 +5609,22 @@
         <v>0.7414785780893494</v>
       </c>
       <c r="M8">
-        <v>404.9719</v>
+        <v>391.899</v>
       </c>
       <c r="N8">
-        <v>17.6166</v>
+        <v>15.6894</v>
       </c>
       <c r="O8">
-        <v>392.5668</v>
+        <v>391.8992</v>
       </c>
       <c r="P8">
-        <v>15.4603560565</v>
+        <v>15.6928341199</v>
       </c>
       <c r="Q8">
-        <v>0.5147550307593729</v>
+        <v>1.555658449874069</v>
       </c>
       <c r="R8">
-        <v>0.7414785780893494</v>
+        <v>2.241906101582567</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="4" customFormat="1">
@@ -5690,52 +5632,52 @@
         <v>9186</v>
       </c>
       <c r="C9" s="4">
-        <v>13.71348592665002</v>
+        <v>13713.41501561053</v>
       </c>
       <c r="D9" s="4">
-        <v>0.0009364572733045004</v>
+        <v>0.9364524309792854</v>
       </c>
       <c r="E9" s="4">
-        <v>0.8876020328530302</v>
+        <v>0.8852501202073254</v>
       </c>
       <c r="F9" s="4">
-        <v>0.004118537687057142</v>
+        <v>0.00410762464212318</v>
       </c>
       <c r="G9" s="4">
-        <v>1.00239181729563</v>
+        <v>1.001033115095509</v>
       </c>
       <c r="H9" s="4">
-        <v>0.003126135270744611</v>
+        <v>0.003121897918845936</v>
       </c>
       <c r="I9" s="4">
-        <v>47324.1563414006</v>
+        <v>47392.74882044415</v>
       </c>
       <c r="J9" s="4">
-        <v>264.5574770388684</v>
+        <v>264.9409313802134</v>
       </c>
       <c r="K9" s="4">
-        <v>-1.865161027824191</v>
+        <v>-3.36255752403547</v>
       </c>
       <c r="L9" s="4">
-        <v>0.8357515363213823</v>
+        <v>0.8344977463790538</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>-1.865161027824191</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.8357515363213823</v>
+        <v>123</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5746,28 +5688,28 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>13.96014161641222</v>
+        <v>13960.06942785624</v>
       </c>
       <c r="D10">
-        <v>0.004741603343029889</v>
+        <v>4.74157882397358</v>
       </c>
       <c r="E10">
-        <v>1.032560493362476</v>
+        <v>1.02918341321303</v>
       </c>
       <c r="F10">
-        <v>0.005764714646234756</v>
+        <v>0.005745860638625362</v>
       </c>
       <c r="G10">
-        <v>0.9731465374137482</v>
+        <v>0.973114595768268</v>
       </c>
       <c r="H10">
-        <v>0.004200126112959693</v>
+        <v>0.004199988251975643</v>
       </c>
       <c r="I10">
-        <v>0.8511110436199738</v>
+        <v>40325.48587057323</v>
       </c>
       <c r="J10">
-        <v>0.005999085948640934</v>
+        <v>284.2355970724442</v>
       </c>
       <c r="K10">
         <v>2.421364011313321</v>
@@ -5776,22 +5718,22 @@
         <v>0.6257321135206724</v>
       </c>
       <c r="M10">
-        <v>397.7362</v>
+        <v>382.1054</v>
       </c>
       <c r="N10">
-        <v>18.7193</v>
+        <v>16.1166</v>
       </c>
       <c r="O10">
-        <v>382.7414</v>
+        <v>382.1034</v>
       </c>
       <c r="P10">
-        <v>15.5550792921</v>
+        <v>15.8210024599</v>
       </c>
       <c r="Q10">
-        <v>2.421364011313321</v>
+        <v>7.118163405083836</v>
       </c>
       <c r="R10">
-        <v>0.6257321135206724</v>
+        <v>1.866737675788412</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1">
@@ -5799,52 +5741,52 @@
         <v>9186</v>
       </c>
       <c r="C11" s="4">
-        <v>13.71296955949067</v>
+        <v>13712.89865112127</v>
       </c>
       <c r="D11" s="4">
-        <v>0.001010228744279998</v>
+        <v>1.010223520490018</v>
       </c>
       <c r="E11" s="4">
-        <v>0.8866003117400937</v>
+        <v>0.8842510533926733</v>
       </c>
       <c r="F11" s="4">
-        <v>0.004070953368742462</v>
+        <v>0.004060166409774777</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9995711281376151</v>
+        <v>0.9982163511399174</v>
       </c>
       <c r="H11" s="4">
-        <v>0.002872367027651197</v>
+        <v>0.002868473941237969</v>
       </c>
       <c r="I11" s="4">
-        <v>47242.52769689466</v>
+        <v>47311.00669013115</v>
       </c>
       <c r="J11" s="4">
-        <v>255.8755126776899</v>
+        <v>256.2464093751415</v>
       </c>
       <c r="K11" s="4">
-        <v>-2.527172136228328</v>
+        <v>-4.023575486949205</v>
       </c>
       <c r="L11" s="4">
-        <v>1.049182169557438</v>
+        <v>1.047608192131502</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>-2.527172136228328</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1.049182169557438</v>
+        <v>123</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5855,28 +5797,28 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>12.86644925854644</v>
+        <v>12866.38272537896</v>
       </c>
       <c r="D12">
-        <v>0.003441087560913542</v>
+        <v>3.441069766846943</v>
       </c>
       <c r="E12">
-        <v>28.16125710608711</v>
+        <v>28.08600122195284</v>
       </c>
       <c r="F12">
-        <v>0.07609392536320704</v>
+        <v>0.07589057806202364</v>
       </c>
       <c r="G12">
-        <v>0.9784162515256559</v>
+        <v>0.9783842580929544</v>
       </c>
       <c r="H12">
-        <v>0.0025653847561314</v>
+        <v>0.002565300870091669</v>
       </c>
       <c r="I12">
-        <v>0.02897358969802239</v>
+        <v>1368.47348343363</v>
       </c>
       <c r="J12">
-        <v>0.0001088129488181392</v>
+        <v>5.139426514416613</v>
       </c>
       <c r="K12">
         <v>2.623220199645671</v>
@@ -5885,22 +5827,22 @@
         <v>0.6175524538612926</v>
       </c>
       <c r="M12">
-        <v>420.0755</v>
+        <v>401.7789</v>
       </c>
       <c r="N12">
-        <v>14.0009</v>
+        <v>11.9421</v>
       </c>
       <c r="O12">
-        <v>402.4051</v>
+        <v>401.721</v>
       </c>
       <c r="P12">
-        <v>11.7539290985</v>
+        <v>11.6402731624</v>
       </c>
       <c r="Q12">
-        <v>2.623220199645671</v>
+        <v>8.150533719485544</v>
       </c>
       <c r="R12">
-        <v>0.6175524538612926</v>
+        <v>1.93736976415661</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1">
@@ -5908,52 +5850,52 @@
         <v>9186</v>
       </c>
       <c r="C13" s="4">
-        <v>13.71439719886068</v>
+        <v>13714.3262831091</v>
       </c>
       <c r="D13" s="4">
-        <v>0.0009508093226944613</v>
+        <v>0.9508044061562604</v>
       </c>
       <c r="E13" s="4">
-        <v>0.8910975031795665</v>
+        <v>0.8887363284540563</v>
       </c>
       <c r="F13" s="4">
-        <v>0.002899235831089271</v>
+        <v>0.002891553616356051</v>
       </c>
       <c r="G13" s="4">
-        <v>1.001191554165284</v>
+        <v>0.9998345192760125</v>
       </c>
       <c r="H13" s="4">
-        <v>0.002161840651871305</v>
+        <v>0.002158910450175707</v>
       </c>
       <c r="I13" s="4">
-        <v>47085.20490078312</v>
+        <v>47153.45294474006</v>
       </c>
       <c r="J13" s="4">
-        <v>183.8329587987095</v>
+        <v>184.0994170180008</v>
       </c>
       <c r="K13" s="4">
-        <v>-2.505910882709017</v>
+        <v>-4.00234612944772</v>
       </c>
       <c r="L13" s="4">
-        <v>0.8901499197111418</v>
+        <v>0.8888145216077643</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>-2.505910882709017</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.8901499197111418</v>
+        <v>123</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5964,28 +5906,28 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>7.181574108241954</v>
+        <v>7181.536971326349</v>
       </c>
       <c r="D14">
-        <v>0.001784814193384784</v>
+        <v>1.784804963863084</v>
       </c>
       <c r="E14">
-        <v>0.3580219880082354</v>
+        <v>0.3565423140418347</v>
       </c>
       <c r="F14">
-        <v>0.002271480402933131</v>
+        <v>0.002262092570537395</v>
       </c>
       <c r="G14">
-        <v>0.9800853014669938</v>
+        <v>0.9800550835068594</v>
       </c>
       <c r="H14">
-        <v>0.003505461230948849</v>
+        <v>0.003505353150675049</v>
       </c>
       <c r="I14">
-        <v>1.279474424945175</v>
+        <v>60251.66746276931</v>
       </c>
       <c r="J14">
-        <v>0.009313306238527712</v>
+        <v>438.5724478132896</v>
       </c>
       <c r="K14">
         <v>1.712729973920579</v>
@@ -5994,22 +5936,22 @@
         <v>0.6823467466899904</v>
       </c>
       <c r="M14">
-        <v>432.7757</v>
+        <v>415.0041</v>
       </c>
       <c r="N14">
-        <v>21.9775</v>
+        <v>18.3257</v>
       </c>
       <c r="O14">
-        <v>415.719</v>
+        <v>415.0028</v>
       </c>
       <c r="P14">
-        <v>17.8925037114</v>
+        <v>18.2902661738</v>
       </c>
       <c r="Q14">
-        <v>1.712729973920579</v>
+        <v>5.524823909136777</v>
       </c>
       <c r="R14">
-        <v>0.6823467466899904</v>
+        <v>2.219470553656438</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1">
@@ -6017,52 +5959,52 @@
         <v>9186</v>
       </c>
       <c r="C15" s="4">
-        <v>13.71319985415297</v>
+        <v>13713.12894459273</v>
       </c>
       <c r="D15" s="4">
-        <v>0.001149709602279576</v>
+        <v>1.14970365724828</v>
       </c>
       <c r="E15" s="4">
-        <v>0.8939406259858222</v>
+        <v>0.8915719177303811</v>
       </c>
       <c r="F15" s="4">
-        <v>0.003778407080398669</v>
+        <v>0.003768395292385469</v>
       </c>
       <c r="G15" s="4">
-        <v>0.9988888808814645</v>
+        <v>0.9975350523571319</v>
       </c>
       <c r="H15" s="4">
-        <v>0.002362222359513692</v>
+        <v>0.002359020758142072</v>
       </c>
       <c r="I15" s="4">
-        <v>46823.41662719674</v>
+        <v>46891.28922852936</v>
       </c>
       <c r="J15" s="4">
-        <v>226.7451110517479</v>
+        <v>227.0737880607126</v>
       </c>
       <c r="K15" s="4">
-        <v>-2.202891300742693</v>
+        <v>-3.699781135822144</v>
       </c>
       <c r="L15" s="4">
-        <v>0.7914499647809169</v>
+        <v>0.7902626358170166</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>-2.202891300742693</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.7914499647809169</v>
+        <v>123</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6073,52 +6015,52 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>11.40216300912091</v>
+        <v>11402.10404754559</v>
       </c>
       <c r="D16">
-        <v>0.002357885721827777</v>
+        <v>2.357873528995901</v>
       </c>
       <c r="E16">
-        <v>17.38770470481673</v>
+        <v>17.34097040435906</v>
       </c>
       <c r="F16">
-        <v>0.03836494628929125</v>
+        <v>0.03826182980799804</v>
       </c>
       <c r="G16">
-        <v>0.9845915147220022</v>
+        <v>0.9845599176079867</v>
       </c>
       <c r="H16">
-        <v>0.00232251073246219</v>
+        <v>0.002322436199383935</v>
       </c>
       <c r="I16">
-        <v>0.04198418048932441</v>
+        <v>1975.161514109602</v>
       </c>
       <c r="J16">
-        <v>0.0001353286718302719</v>
+        <v>6.366588111031208</v>
       </c>
       <c r="K16">
-        <v>2.698465868033573</v>
+        <v>2.698465868033351</v>
       </c>
       <c r="L16">
-        <v>0.5214580713338243</v>
+        <v>0.521458071333824</v>
       </c>
       <c r="M16">
-        <v>454.7034</v>
+        <v>431.6856</v>
       </c>
       <c r="N16">
-        <v>17.8032</v>
+        <v>14.0751</v>
       </c>
       <c r="O16">
-        <v>432.406</v>
+        <v>431.6452</v>
       </c>
       <c r="P16">
-        <v>13.9484281894</v>
+        <v>14.0198597819</v>
       </c>
       <c r="Q16">
-        <v>2.698465868033573</v>
+        <v>9.123121977598503</v>
       </c>
       <c r="R16">
-        <v>0.5214580713338243</v>
+        <v>1.799546218509708</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1">
@@ -6126,52 +6068,52 @@
         <v>9186</v>
       </c>
       <c r="C17" s="4">
-        <v>13.71319273712027</v>
+        <v>13713.12182759684</v>
       </c>
       <c r="D17" s="4">
-        <v>0.0008672834130371032</v>
+        <v>0.8672789284028769</v>
       </c>
       <c r="E17" s="4">
-        <v>0.8894925105453537</v>
+        <v>0.8871355886294732</v>
       </c>
       <c r="F17" s="4">
-        <v>0.003987782653041559</v>
+        <v>0.003977216074661984</v>
       </c>
       <c r="G17" s="4">
-        <v>1.000439140504432</v>
+        <v>0.9990831554343805</v>
       </c>
       <c r="H17" s="4">
-        <v>0.003391731787599699</v>
+        <v>0.003387134668715199</v>
       </c>
       <c r="I17" s="4">
-        <v>47130.57621401784</v>
+        <v>47198.89143825869</v>
       </c>
       <c r="J17" s="4">
-        <v>264.8928283657278</v>
+        <v>265.2767874518086</v>
       </c>
       <c r="K17" s="4">
-        <v>-3.463886524832205</v>
+        <v>-4.958884621684923</v>
       </c>
       <c r="L17" s="4">
-        <v>1.018388305285391</v>
+        <v>1.016860524648371</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>-3.463886524832205</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1.018388305285391</v>
+        <v>123</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="127">
   <si>
     <t>Lab. #</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Error (%) 230/232</t>
   </si>
   <si>
+    <t>Hu1-13</t>
+  </si>
+  <si>
     <t>WM-1 (20)</t>
   </si>
   <si>
@@ -121,51 +124,6 @@
   </si>
   <si>
     <t>09.11.2018</t>
-  </si>
-  <si>
-    <t>007I9186.exp</t>
-  </si>
-  <si>
-    <t>010I9715.exp</t>
-  </si>
-  <si>
-    <t>013I9186.exp</t>
-  </si>
-  <si>
-    <t>016I9716.exp</t>
-  </si>
-  <si>
-    <t>019I9186.exp</t>
-  </si>
-  <si>
-    <t>022I9717.exp</t>
-  </si>
-  <si>
-    <t>025I9186.exp</t>
-  </si>
-  <si>
-    <t>028I9718.exp</t>
-  </si>
-  <si>
-    <t>031I9186.exp</t>
-  </si>
-  <si>
-    <t>034I9719.exp</t>
-  </si>
-  <si>
-    <t>037I9186.exp</t>
-  </si>
-  <si>
-    <t>040I9720.exp</t>
-  </si>
-  <si>
-    <t>043I9186.exp</t>
-  </si>
-  <si>
-    <t>046I9721.exp</t>
-  </si>
-  <si>
-    <t>049I9186.exp</t>
   </si>
   <si>
     <t>gem.</t>
@@ -568,27 +526,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,15 +547,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -910,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -923,28 +863,27 @@
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,189 +905,182 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1">
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>51</v>
+    <row r="2" spans="1:25" s="2" customFormat="1">
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:25" s="3" customFormat="1">
+      <c r="A3" s="3">
         <v>9186</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.01000133335800107</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
         <v>0.4506409409315248</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
         <v>0.00717799145314555</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
         <v>0.006103683567173748</v>
       </c>
-      <c r="M3" s="4">
+      <c r="L3" s="3">
         <v>2.699694738769988</v>
       </c>
-      <c r="N3" s="4">
+      <c r="M3" s="3">
         <v>0.01120968992780575</v>
       </c>
-      <c r="O3" s="4">
+      <c r="N3" s="3">
         <v>2.045544290722234</v>
       </c>
-      <c r="P3" s="4">
+      <c r="O3" s="3">
         <v>0.4406674262685277</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="P3" s="3">
         <v>0.007552282583021711</v>
       </c>
-      <c r="R3" s="4">
+      <c r="Q3" s="3">
         <v>0.1300253187977594</v>
       </c>
-      <c r="S3" s="4">
+      <c r="R3" s="3">
         <v>5.477391796564943E-05</v>
       </c>
-      <c r="T3" s="4">
+      <c r="S3" s="3">
         <v>0.1300253187977592</v>
       </c>
-      <c r="U3" s="4">
+      <c r="T3" s="3">
         <v>1.305966114169593</v>
       </c>
-      <c r="V3" s="4">
+      <c r="U3" s="3">
         <v>0.3722519165700965</v>
       </c>
-      <c r="W3" s="4">
+      <c r="V3" s="3">
         <v>0.1946590676346031</v>
       </c>
-      <c r="X3" s="4">
+      <c r="W3" s="3">
         <v>0.4000161950052096</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="X3" s="3">
         <v>0.2546811624431466</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Y3" s="3">
         <v>0.3650882176111481</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>9715</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>0.011411</v>
@@ -1156,150 +1088,144 @@
       <c r="G4">
         <v>0.009849</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
+      <c r="H4">
+        <v>0.006314133240824234</v>
       </c>
       <c r="I4">
-        <v>0.006314133240824234</v>
+        <v>15.38855656855631</v>
       </c>
       <c r="J4">
-        <v>15.38855656855631</v>
+        <v>0.007175141914796956</v>
       </c>
       <c r="K4">
-        <v>0.007175141914796956</v>
+        <v>0.00604673193632777</v>
       </c>
       <c r="L4">
-        <v>0.00604673193632777</v>
+        <v>32.39369657979356</v>
       </c>
       <c r="M4">
-        <v>32.39369657979356</v>
+        <v>0.1316031341934269</v>
       </c>
       <c r="N4">
-        <v>0.1316031341934269</v>
+        <v>34.97014251891885</v>
       </c>
       <c r="O4">
-        <v>34.97014251891885</v>
+        <v>132.7473513582583</v>
       </c>
       <c r="P4">
-        <v>132.7473513582583</v>
+        <v>0.00757535263272339</v>
       </c>
       <c r="Q4">
-        <v>0.00757535263272339</v>
+        <v>0.1463255055573167</v>
       </c>
       <c r="R4">
-        <v>0.1463255055573167</v>
+        <v>5.494123652079249E-05</v>
       </c>
       <c r="S4">
-        <v>5.494123652079249E-05</v>
+        <v>0.1463255055573166</v>
       </c>
       <c r="T4">
-        <v>0.1463255055573166</v>
+        <v>15.28067913104173</v>
       </c>
       <c r="U4">
-        <v>15.28067913104173</v>
+        <v>0.7630365089539382</v>
       </c>
       <c r="V4">
-        <v>0.7630365089539382</v>
+        <v>0.0589822979282273</v>
       </c>
       <c r="W4">
-        <v>0.0589822979282273</v>
+        <v>2.931364543937377</v>
       </c>
       <c r="X4">
-        <v>2.931364543937377</v>
+        <v>0.9018582759042776</v>
       </c>
       <c r="Y4">
-        <v>0.9018582759042776</v>
-      </c>
-      <c r="Z4">
         <v>2.847271297654479</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:25" s="3" customFormat="1">
+      <c r="A5" s="3">
         <v>9186</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.009859724104468644</v>
       </c>
-      <c r="J5" s="4">
+      <c r="I5" s="3">
         <v>0.4243881439755509</v>
       </c>
-      <c r="K5" s="4">
+      <c r="J5" s="3">
         <v>0.007177055373651661</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="3">
         <v>0.006501476568724097</v>
       </c>
-      <c r="M5" s="4">
+      <c r="L5" s="3">
         <v>2.699718702860548</v>
       </c>
-      <c r="N5" s="4">
+      <c r="M5" s="3">
         <v>0.008423240659798149</v>
       </c>
-      <c r="O5" s="4">
+      <c r="N5" s="3">
         <v>2.064165395369796</v>
       </c>
-      <c r="P5" s="4">
+      <c r="O5" s="3">
         <v>0.4555356390590248</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="3">
         <v>0.007540655251536639</v>
       </c>
-      <c r="R5" s="4">
+      <c r="Q5" s="3">
         <v>0.1118061590181456</v>
       </c>
-      <c r="S5" s="4">
+      <c r="R5" s="3">
         <v>5.468958922213095E-05</v>
       </c>
-      <c r="T5" s="4">
+      <c r="S5" s="3">
         <v>0.1118061590181461</v>
       </c>
-      <c r="U5" s="4">
+      <c r="T5" s="3">
         <v>1.309592230342671</v>
       </c>
-      <c r="V5" s="4">
+      <c r="U5" s="3">
         <v>0.230910383116601</v>
       </c>
-      <c r="W5" s="4">
+      <c r="V5" s="3">
         <v>0.1951022458973197</v>
       </c>
-      <c r="X5" s="4">
+      <c r="W5" s="3">
         <v>0.4439170131939391</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="X5" s="3">
         <v>0.2544523546619117</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Y5" s="3">
         <v>0.2769718350353481</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>9716</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>0.010943</v>
@@ -1307,150 +1233,144 @@
       <c r="G6">
         <v>0.009334</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
+      <c r="H6">
+        <v>0.009882492370345322</v>
       </c>
       <c r="I6">
-        <v>0.009882492370345322</v>
+        <v>2.21990038083948</v>
       </c>
       <c r="J6">
-        <v>2.21990038083948</v>
+        <v>0.007173997915120665</v>
       </c>
       <c r="K6">
-        <v>0.007173997915120665</v>
+        <v>0.005788632951176021</v>
       </c>
       <c r="L6">
-        <v>0.005788632951176021</v>
+        <v>7.502573418054824</v>
       </c>
       <c r="M6">
-        <v>7.502573418054824</v>
+        <v>0.0258666073832901</v>
       </c>
       <c r="N6">
-        <v>0.0258666073832901</v>
+        <v>5.73688258602763</v>
       </c>
       <c r="O6">
-        <v>5.73688258602763</v>
+        <v>2.322408706039819</v>
       </c>
       <c r="P6">
-        <v>2.322408706039819</v>
+        <v>0.007578669278143239</v>
       </c>
       <c r="Q6">
-        <v>0.007578669278143239</v>
+        <v>0.1652065459329437</v>
       </c>
       <c r="R6">
-        <v>0.1652065459329437</v>
+        <v>5.496529092582182E-05</v>
       </c>
       <c r="S6">
-        <v>5.496529092582182E-05</v>
+        <v>0.1652065459329439</v>
       </c>
       <c r="T6">
-        <v>0.1652065459329439</v>
+        <v>3.607035859658489</v>
       </c>
       <c r="U6">
-        <v>3.607035859658489</v>
+        <v>0.4398561515096172</v>
       </c>
       <c r="V6">
-        <v>0.4398561515096172</v>
+        <v>0.005860629943994579</v>
       </c>
       <c r="W6">
-        <v>0.005860629943994579</v>
+        <v>0.4353674775303392</v>
       </c>
       <c r="X6">
-        <v>0.4353674775303392</v>
+        <v>0.02107339427257118</v>
       </c>
       <c r="Y6">
-        <v>0.02107339427257118</v>
-      </c>
-      <c r="Z6">
         <v>0.2154673192723945</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:25" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>9186</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.00990981077345649</v>
       </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
         <v>0.3945489797634017</v>
       </c>
-      <c r="K7" s="4">
+      <c r="J7" s="3">
         <v>0.007177484057560762</v>
       </c>
-      <c r="L7" s="4">
+      <c r="K7" s="3">
         <v>0.005465080104549463</v>
       </c>
-      <c r="M7" s="4">
+      <c r="L7" s="3">
         <v>2.699478350561817</v>
       </c>
-      <c r="N7" s="4">
+      <c r="M7" s="3">
         <v>0.009400022986501923</v>
       </c>
-      <c r="O7" s="4">
+      <c r="N7" s="3">
         <v>2.060119946887088</v>
       </c>
-      <c r="P7" s="4">
+      <c r="O7" s="3">
         <v>0.4071919102451975</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="P7" s="3">
         <v>0.007562015437654122</v>
       </c>
-      <c r="R7" s="4">
+      <c r="Q7" s="3">
         <v>0.09846882440351487</v>
       </c>
-      <c r="S7" s="4">
+      <c r="R7" s="3">
         <v>5.484450676782241E-05</v>
       </c>
-      <c r="T7" s="4">
+      <c r="S7" s="3">
         <v>0.09846882440351537</v>
       </c>
-      <c r="U7" s="4">
+      <c r="T7" s="3">
         <v>1.306146495871305</v>
       </c>
-      <c r="V7" s="4">
+      <c r="U7" s="3">
         <v>0.3270274768239409</v>
       </c>
-      <c r="W7" s="4">
+      <c r="V7" s="3">
         <v>0.1949372469548754</v>
       </c>
-      <c r="X7" s="4">
+      <c r="W7" s="3">
         <v>0.4553838593506854</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="X7" s="3">
         <v>0.2542352498259605</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Y7" s="3">
         <v>0.2907207498660413</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>9717</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>0.006735</v>
@@ -1458,150 +1378,144 @@
       <c r="G8">
         <v>0.009993</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
+      <c r="H8">
+        <v>0.009695338289446138</v>
       </c>
       <c r="I8">
-        <v>0.009695338289446138</v>
+        <v>3.577267232778834</v>
       </c>
       <c r="J8">
-        <v>3.577267232778834</v>
+        <v>0.007174498837758559</v>
       </c>
       <c r="K8">
-        <v>0.007174498837758559</v>
+        <v>0.00392891451405727</v>
       </c>
       <c r="L8">
-        <v>0.00392891451405727</v>
+        <v>24.41778435892999</v>
       </c>
       <c r="M8">
-        <v>24.41778435892999</v>
+        <v>0.0332131819373989</v>
       </c>
       <c r="N8">
-        <v>0.0332131819373989</v>
+        <v>18.74110099785223</v>
       </c>
       <c r="O8">
-        <v>18.74110099785223</v>
+        <v>3.672396563329767</v>
       </c>
       <c r="P8">
-        <v>3.672396563329767</v>
+        <v>0.007561725911077375</v>
       </c>
       <c r="Q8">
-        <v>0.007561725911077375</v>
+        <v>0.07410970946316117</v>
       </c>
       <c r="R8">
-        <v>0.07410970946316117</v>
+        <v>5.48424069384279E-05</v>
       </c>
       <c r="S8">
-        <v>5.48424069384279E-05</v>
+        <v>0.07410970946316066</v>
       </c>
       <c r="T8">
-        <v>0.07410970946316066</v>
+        <v>11.51100365806201</v>
       </c>
       <c r="U8">
-        <v>11.51100365806201</v>
+        <v>0.37946074242345</v>
       </c>
       <c r="V8">
-        <v>0.37946074242345</v>
+        <v>0.09872799592855958</v>
       </c>
       <c r="W8">
-        <v>0.09872799592855958</v>
+        <v>1.486163905879544</v>
       </c>
       <c r="X8">
-        <v>1.486163905879544</v>
+        <v>1.133871896585667</v>
       </c>
       <c r="Y8">
-        <v>1.133871896585667</v>
-      </c>
-      <c r="Z8">
         <v>1.401243062331488</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="4" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:25" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>9186</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G9" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.009942642374867586</v>
       </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
         <v>0.3787404522242763</v>
       </c>
-      <c r="K9" s="4">
+      <c r="J9" s="3">
         <v>0.007175964846226958</v>
       </c>
-      <c r="L9" s="4">
+      <c r="K9" s="3">
         <v>0.004670007474339591</v>
       </c>
-      <c r="M9" s="4">
+      <c r="L9" s="3">
         <v>2.699349606342518</v>
       </c>
-      <c r="N9" s="4">
+      <c r="M9" s="3">
         <v>0.006828732521500181</v>
       </c>
-      <c r="O9" s="4">
+      <c r="N9" s="3">
         <v>2.053786140768191</v>
       </c>
-      <c r="P9" s="4">
+      <c r="O9" s="3">
         <v>0.4322915892929702</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="3">
         <v>0.007553655516833508</v>
       </c>
-      <c r="R9" s="4">
+      <c r="Q9" s="3">
         <v>0.08373132603827226</v>
       </c>
-      <c r="S9" s="4">
+      <c r="R9" s="3">
         <v>5.478387534782535E-05</v>
       </c>
-      <c r="T9" s="4">
+      <c r="S9" s="3">
         <v>0.08373132603827285</v>
       </c>
-      <c r="U9" s="4">
+      <c r="T9" s="3">
         <v>1.309110682592674</v>
       </c>
-      <c r="V9" s="4">
+      <c r="U9" s="3">
         <v>0.3117928259639976</v>
       </c>
-      <c r="W9" s="4">
+      <c r="V9" s="3">
         <v>0.1953125163448551</v>
       </c>
-      <c r="X9" s="4">
+      <c r="W9" s="3">
         <v>0.4640072391248222</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="X9" s="3">
         <v>0.2555664552922462</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Y9" s="3">
         <v>0.25524959425655</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>9718</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>0.0124</v>
@@ -1609,150 +1523,144 @@
       <c r="G10">
         <v>0.00962</v>
       </c>
-      <c r="H10" t="s">
-        <v>42</v>
+      <c r="H10">
+        <v>0.009501002438922376</v>
       </c>
       <c r="I10">
-        <v>0.009501002438922376</v>
+        <v>2.944146282696039</v>
       </c>
       <c r="J10">
-        <v>2.944146282696039</v>
+        <v>0.0071752783125933</v>
       </c>
       <c r="K10">
-        <v>0.0071752783125933</v>
+        <v>0.003295121693635208</v>
       </c>
       <c r="L10">
-        <v>0.003295121693635208</v>
+        <v>33.45852367426423</v>
       </c>
       <c r="M10">
-        <v>33.45852367426423</v>
+        <v>0.03396529543407661</v>
       </c>
       <c r="N10">
-        <v>0.03396529543407661</v>
+        <v>26.46578628848677</v>
       </c>
       <c r="O10">
-        <v>26.46578628848677</v>
+        <v>3.215281694173313</v>
       </c>
       <c r="P10">
-        <v>3.215281694173313</v>
+        <v>0.007569434626890977</v>
       </c>
       <c r="Q10">
-        <v>0.007569434626890977</v>
+        <v>0.06242206481082272</v>
       </c>
       <c r="R10">
-        <v>0.06242206481082272</v>
+        <v>5.489831540887415E-05</v>
       </c>
       <c r="S10">
-        <v>5.489831540887415E-05</v>
+        <v>0.06242206481082245</v>
       </c>
       <c r="T10">
-        <v>0.06242206481082245</v>
+        <v>15.76782841539394</v>
       </c>
       <c r="U10">
-        <v>15.76782841539394</v>
+        <v>0.4302640986438764</v>
       </c>
       <c r="V10">
-        <v>0.4302640986438764</v>
+        <v>0.01117163554071872</v>
       </c>
       <c r="W10">
-        <v>0.01117163554071872</v>
+        <v>0.5582931637702198</v>
       </c>
       <c r="X10">
-        <v>0.5582931637702198</v>
+        <v>0.1766722212465853</v>
       </c>
       <c r="Y10">
-        <v>0.1766722212465853</v>
-      </c>
-      <c r="Z10">
         <v>0.3515975603853564</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:25" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>9186</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.009900252643082731</v>
       </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
         <v>0.4862413975664865</v>
       </c>
-      <c r="K11" s="4">
+      <c r="J11" s="3">
         <v>0.007175743706411997</v>
       </c>
-      <c r="L11" s="4">
+      <c r="K11" s="3">
         <v>0.005376272354137635</v>
       </c>
-      <c r="M11" s="4">
+      <c r="L11" s="3">
         <v>2.699247965118998</v>
       </c>
-      <c r="N11" s="4">
+      <c r="M11" s="3">
         <v>0.007366958264563671</v>
       </c>
-      <c r="O11" s="4">
+      <c r="N11" s="3">
         <v>2.057099993786945</v>
       </c>
-      <c r="P11" s="4">
+      <c r="O11" s="3">
         <v>0.4821394721954245</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="P11" s="3">
         <v>0.007548645568612128</v>
       </c>
-      <c r="R11" s="4">
+      <c r="Q11" s="3">
         <v>0.1051840351184704</v>
       </c>
-      <c r="S11" s="4">
+      <c r="R11" s="3">
         <v>5.474754004258839E-05</v>
       </c>
-      <c r="T11" s="4">
+      <c r="S11" s="3">
         <v>0.1051840351184713</v>
       </c>
-      <c r="U11" s="4">
+      <c r="T11" s="3">
         <v>1.305377877935024</v>
       </c>
-      <c r="V11" s="4">
+      <c r="U11" s="3">
         <v>0.287265495619179</v>
       </c>
-      <c r="W11" s="4">
+      <c r="V11" s="3">
         <v>0.1955331892553568</v>
       </c>
-      <c r="X11" s="4">
+      <c r="W11" s="3">
         <v>0.4591644413876385</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="X11" s="3">
         <v>0.2551270533060435</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Y11" s="3">
         <v>0.2919022298194994</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>9719</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>0.0125</v>
@@ -1760,150 +1668,144 @@
       <c r="G12">
         <v>0.009428000000000001</v>
       </c>
-      <c r="H12" t="s">
-        <v>44</v>
+      <c r="H12">
+        <v>0.009610709267804031</v>
       </c>
       <c r="I12">
-        <v>0.009610709267804031</v>
+        <v>2.503900820748269</v>
       </c>
       <c r="J12">
-        <v>2.503900820748269</v>
+        <v>0.007173593772190717</v>
       </c>
       <c r="K12">
-        <v>0.007173593772190717</v>
+        <v>0.003068993150975816</v>
       </c>
       <c r="L12">
-        <v>0.003068993150975816</v>
+        <v>31.71906999615733</v>
       </c>
       <c r="M12">
-        <v>31.71906999615733</v>
+        <v>0.02674465574585643</v>
       </c>
       <c r="N12">
-        <v>0.02674465574585643</v>
+        <v>24.88698370481256</v>
       </c>
       <c r="O12">
-        <v>24.88698370481256</v>
+        <v>2.583612744665059</v>
       </c>
       <c r="P12">
-        <v>2.583612744665059</v>
+        <v>0.00756852798933107</v>
       </c>
       <c r="Q12">
-        <v>0.00756852798933107</v>
+        <v>0.06159367162255841</v>
       </c>
       <c r="R12">
-        <v>0.06159367162255841</v>
+        <v>5.489173990129945E-05</v>
       </c>
       <c r="S12">
-        <v>5.489173990129945E-05</v>
+        <v>0.06159367162255863</v>
       </c>
       <c r="T12">
-        <v>0.06159367162255863</v>
+        <v>15.02000864866997</v>
       </c>
       <c r="U12">
-        <v>15.02000864866997</v>
+        <v>0.2608301154749262</v>
       </c>
       <c r="V12">
-        <v>0.2608301154749262</v>
+        <v>0.0004873868849594435</v>
       </c>
       <c r="W12">
-        <v>0.0004873868849594435</v>
+        <v>0.2702078429118109</v>
       </c>
       <c r="X12">
-        <v>0.2702078429118109</v>
+        <v>0.007330486930141442</v>
       </c>
       <c r="Y12">
-        <v>0.007330486930141442</v>
-      </c>
-      <c r="Z12">
         <v>0.06275040895976827</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="4" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:25" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>9186</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G13" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H13" s="3">
         <v>0.009915310322743721</v>
       </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3">
         <v>0.4794685296448291</v>
       </c>
-      <c r="K13" s="4">
+      <c r="J13" s="3">
         <v>0.007175344537425666</v>
       </c>
-      <c r="L13" s="4">
+      <c r="K13" s="3">
         <v>0.004395954838094303</v>
       </c>
-      <c r="M13" s="4">
+      <c r="L13" s="3">
         <v>2.699528980303033</v>
       </c>
-      <c r="N13" s="4">
+      <c r="M13" s="3">
         <v>0.00693292828629354</v>
       </c>
-      <c r="O13" s="4">
+      <c r="N13" s="3">
         <v>2.048005683746828</v>
       </c>
-      <c r="P13" s="4">
+      <c r="O13" s="3">
         <v>0.4859398946550374</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="P13" s="3">
         <v>0.007548806468902021</v>
       </c>
-      <c r="R13" s="4">
+      <c r="Q13" s="3">
         <v>0.08923861599008324</v>
       </c>
-      <c r="S13" s="4">
+      <c r="R13" s="3">
         <v>5.474870699300137E-05</v>
       </c>
-      <c r="T13" s="4">
+      <c r="S13" s="3">
         <v>0.08923861599008161</v>
       </c>
-      <c r="U13" s="4">
+      <c r="T13" s="3">
         <v>1.307630094685265</v>
       </c>
-      <c r="V13" s="4">
+      <c r="U13" s="3">
         <v>0.2158154475874466</v>
       </c>
-      <c r="W13" s="4">
+      <c r="V13" s="3">
         <v>0.1945463722328488</v>
       </c>
-      <c r="X13" s="4">
+      <c r="W13" s="3">
         <v>0.3253556227847539</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="X13" s="3">
         <v>0.2542119999036979</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Y13" s="3">
         <v>0.2210895087876128</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>9720</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>0.01497</v>
@@ -1911,150 +1813,144 @@
       <c r="G14">
         <v>0.010175</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
+      <c r="H14">
+        <v>0.008660796286496011</v>
       </c>
       <c r="I14">
-        <v>0.008660796286496011</v>
+        <v>2.994343626665726</v>
       </c>
       <c r="J14">
-        <v>2.994343626665726</v>
+        <v>0.007174118780785095</v>
       </c>
       <c r="K14">
-        <v>0.007174118780785095</v>
+        <v>0.003691424892600358</v>
       </c>
       <c r="L14">
-        <v>0.003691424892600358</v>
+        <v>19.64649218141604</v>
       </c>
       <c r="M14">
-        <v>19.64649218141604</v>
+        <v>0.024852687815843</v>
       </c>
       <c r="N14">
-        <v>0.024852687815843</v>
+        <v>17.11992933803555</v>
       </c>
       <c r="O14">
-        <v>17.11992933803555</v>
+        <v>2.965253252975106</v>
       </c>
       <c r="P14">
-        <v>2.965253252975106</v>
+        <v>0.00756288409115601</v>
       </c>
       <c r="Q14">
-        <v>0.00756288409115601</v>
+        <v>0.06811800691678958</v>
       </c>
       <c r="R14">
-        <v>0.06811800691678958</v>
+        <v>5.485080679104452E-05</v>
       </c>
       <c r="S14">
-        <v>5.485080679104452E-05</v>
+        <v>0.06811800691678893</v>
       </c>
       <c r="T14">
-        <v>0.06811800691678893</v>
+        <v>9.315907172679495</v>
       </c>
       <c r="U14">
-        <v>9.315907172679495</v>
+        <v>0.3568045020111711</v>
       </c>
       <c r="V14">
-        <v>0.3568045020111711</v>
+        <v>0.02233836201713205</v>
       </c>
       <c r="W14">
-        <v>0.02233836201713205</v>
+        <v>0.6344527651974496</v>
       </c>
       <c r="X14">
-        <v>0.6344527651974496</v>
+        <v>0.2082698513425592</v>
       </c>
       <c r="Y14">
-        <v>0.2082698513425592</v>
-      </c>
-      <c r="Z14">
         <v>0.5073976123417954</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="4" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:25" s="3" customFormat="1">
+      <c r="A15" s="3">
         <v>9186</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G15" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.0098836395373202</v>
       </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3">
         <v>0.4585468207690044</v>
       </c>
-      <c r="K15" s="4">
+      <c r="J15" s="3">
         <v>0.007175724036267457</v>
       </c>
-      <c r="L15" s="4">
+      <c r="K15" s="3">
         <v>0.004989640828957764</v>
       </c>
-      <c r="M15" s="4">
+      <c r="L15" s="3">
         <v>2.699293296102625</v>
       </c>
-      <c r="N15" s="4">
+      <c r="M15" s="3">
         <v>0.008383963002853724</v>
       </c>
-      <c r="O15" s="4">
+      <c r="N15" s="3">
         <v>2.065583347955624</v>
       </c>
-      <c r="P15" s="4">
+      <c r="O15" s="3">
         <v>0.4500881629454989</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="P15" s="3">
         <v>0.007551099651594036</v>
       </c>
-      <c r="R15" s="4">
+      <c r="Q15" s="3">
         <v>0.07931972921956675</v>
       </c>
-      <c r="S15" s="4">
+      <c r="R15" s="3">
         <v>5.476533860063415E-05</v>
       </c>
-      <c r="T15" s="4">
+      <c r="S15" s="3">
         <v>0.07931972921956673</v>
       </c>
-      <c r="U15" s="4">
+      <c r="T15" s="3">
         <v>1.304508843912329</v>
       </c>
-      <c r="V15" s="4">
+      <c r="U15" s="3">
         <v>0.2363363363833242</v>
       </c>
-      <c r="W15" s="4">
+      <c r="V15" s="3">
         <v>0.1939276295426846</v>
       </c>
-      <c r="X15" s="4">
+      <c r="W15" s="3">
         <v>0.4226686840898305</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="X15" s="3">
         <v>0.2532553014898574</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Y15" s="3">
         <v>0.3810546999630308</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>9721</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>0.012018</v>
@@ -2062,135 +1958,129 @@
       <c r="G16">
         <v>0.009748</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
+      <c r="H16">
+        <v>0.009562542639302308</v>
       </c>
       <c r="I16">
-        <v>0.009562542639302308</v>
+        <v>2.334199438921583</v>
       </c>
       <c r="J16">
-        <v>2.334199438921583</v>
+        <v>0.007172705358310005</v>
       </c>
       <c r="K16">
-        <v>0.007172705358310005</v>
+        <v>0.002934299153179218</v>
       </c>
       <c r="L16">
-        <v>0.002934299153179218</v>
+        <v>26.13831359394676</v>
       </c>
       <c r="M16">
-        <v>26.13831359394676</v>
+        <v>0.02067928444753542</v>
       </c>
       <c r="N16">
-        <v>0.02067928444753542</v>
+        <v>20.56717153534174</v>
       </c>
       <c r="O16">
-        <v>20.56717153534174</v>
+        <v>2.457306767520724</v>
       </c>
       <c r="P16">
-        <v>2.457306767520724</v>
+        <v>0.007566691699335247</v>
       </c>
       <c r="Q16">
-        <v>0.007566691699335247</v>
+        <v>0.05200547214185662</v>
       </c>
       <c r="R16">
-        <v>0.05200547214185662</v>
+        <v>5.487842196774934E-05</v>
       </c>
       <c r="S16">
-        <v>5.487842196774934E-05</v>
+        <v>0.05200547214185666</v>
       </c>
       <c r="T16">
-        <v>0.05200547214185666</v>
+        <v>12.44650878844356</v>
       </c>
       <c r="U16">
-        <v>12.44650878844356</v>
+        <v>0.2349775258322351</v>
       </c>
       <c r="V16">
-        <v>0.2349775258322351</v>
+        <v>0.0008440191775448218</v>
       </c>
       <c r="W16">
-        <v>0.0008440191775448218</v>
+        <v>0.2206441099650343</v>
       </c>
       <c r="X16">
-        <v>0.2206441099650343</v>
+        <v>0.01050848119283961</v>
       </c>
       <c r="Y16">
-        <v>0.01050848119283961</v>
-      </c>
-      <c r="Z16">
         <v>0.05844979694891361</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="4" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:25" s="3" customFormat="1">
+      <c r="A17" s="3">
         <v>9186</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.0953</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10.34617</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.10995</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10.34908</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.009903412313649067</v>
       </c>
-      <c r="J17" s="4">
+      <c r="I17" s="3">
         <v>0.394481809472249</v>
       </c>
-      <c r="K17" s="4">
+      <c r="J17" s="3">
         <v>0.007175176480282673</v>
       </c>
-      <c r="L17" s="4">
+      <c r="K17" s="3">
         <v>0.003976427238991387</v>
       </c>
-      <c r="M17" s="4">
+      <c r="L17" s="3">
         <v>2.699291895192637</v>
       </c>
-      <c r="N17" s="4">
+      <c r="M17" s="3">
         <v>0.006324445588002652</v>
       </c>
-      <c r="O17" s="4">
+      <c r="N17" s="3">
         <v>2.051668836958891</v>
       </c>
-      <c r="P17" s="4">
+      <c r="O17" s="3">
         <v>0.3977318692284916</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="P17" s="3">
         <v>0.007541556728975534</v>
       </c>
-      <c r="R17" s="4">
+      <c r="Q17" s="3">
         <v>0.1021928148428072</v>
       </c>
-      <c r="S17" s="4">
+      <c r="R17" s="3">
         <v>5.46961273052526E-05</v>
       </c>
-      <c r="T17" s="4">
+      <c r="S17" s="3">
         <v>0.1021928148428077</v>
       </c>
-      <c r="U17" s="4">
+      <c r="T17" s="3">
         <v>1.306532670285804</v>
       </c>
-      <c r="V17" s="4">
+      <c r="U17" s="3">
         <v>0.3389653035504574</v>
       </c>
-      <c r="W17" s="4">
+      <c r="V17" s="3">
         <v>0.1948974100333302</v>
       </c>
-      <c r="X17" s="4">
+      <c r="W17" s="3">
         <v>0.448321105098077</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="X17" s="3">
         <v>0.2543404327212342</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Y17" s="3">
         <v>0.2858146698835508</v>
       </c>
     </row>
@@ -2219,7 +2109,7 @@
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" customWidth="1"/>
@@ -2275,503 +2165,509 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" s="2" customFormat="1">
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="AN2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="AP2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1">
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="3" spans="1:58" s="3" customFormat="1">
+      <c r="A3" s="3">
+        <v>9186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.045544290722234</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.009014047379108481</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.699694738769988</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.000302627409213401</v>
+      </c>
+      <c r="G3" s="3">
+        <v>372.2366102763448</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.02272014481244184</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>738.5182841845976</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.254409515438758</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10.19630412416199</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.04493179095845638</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>13.53795137638079</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.001517562371869396</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10.10118354051485</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.001132311353930265</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.9964562961104956</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.001295645475698015</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.9964562961104956</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.001295645475698015</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.8767448772872677</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.003507121498027622</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.0002140467905081463</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>8.562218269214588E-07</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>220.9586273797955</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.8225227252482666</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>10.08604088593641</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.03754548050394181</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>47120.7293601188</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>257.4812412484623</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>-3.543703889504424</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1.295645475698016</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0.9985009029369968</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0.003718623633299433</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0.9985009029369968</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.003718623633299434</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="AP3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>2.119026841257025E-05</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>8.479778139500641E-08</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="AV3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="AW3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" s="4" customFormat="1">
-      <c r="A3" s="4">
-        <v>9186</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.045544290722234</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.009014047379108481</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.699694738769988</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.000302627409213401</v>
-      </c>
-      <c r="G3" s="4">
-        <v>372.2366102763448</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.02272014481244184</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>748.1857733049717</v>
-      </c>
-      <c r="K3" s="4">
-        <v>3.2970109909303</v>
-      </c>
-      <c r="L3" s="4">
-        <v>10.3297776769491</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.0455199654282725</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>13.71516838027368</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.001537427848505137</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>10.23341192818252</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.001147133746184348</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0.9964562961104956</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0.001295645475698015</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0.9964562961104956</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0.001295645475698015</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0.88822180581298</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0.003553031070819644</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0.0002168487455345857</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>8.674301008039792E-07</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>223.8510610161616</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0.8332898648951577</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>10.21807105041648</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0.03803696532166954</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>47120.72936011878</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>257.4812412484622</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>-3.543703889504424</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>1.295645475698016</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>0.9985009029369966</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>0.003718623633299432</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>0.9985009029369966</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>0.003718623633299432</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>2.119026841257025E-05</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>8.479778139500641E-08</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AU3" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>123</v>
+      <c r="BE3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:58">
@@ -2779,7 +2675,7 @@
         <v>9715</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>34.97014251891885</v>
@@ -2898,11 +2794,11 @@
       <c r="AO4">
         <v>377.9962</v>
       </c>
-      <c r="AP4">
-        <v>29.9726</v>
-      </c>
-      <c r="AQ4">
-        <v>7.929338972190727</v>
+      <c r="AP4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>109</v>
       </c>
       <c r="AR4">
         <v>1.076828062108333E-07</v>
@@ -2920,22 +2816,22 @@
         <v>377.9962</v>
       </c>
       <c r="AW4">
-        <v>29.324445198</v>
+        <v>29.6112849037</v>
       </c>
       <c r="AX4">
         <v>26.87803666683755</v>
       </c>
       <c r="AY4">
-        <v>7.757867724067068</v>
+        <v>7.833752006951393</v>
       </c>
       <c r="AZ4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB4">
         <v>11.12201138325179</v>
       </c>
       <c r="BC4">
-        <v>4.366392472785887</v>
+        <v>4.368299116375624</v>
       </c>
       <c r="BD4">
         <v>377938.2</v>
@@ -2947,171 +2843,177 @@
         <v>7.110663193661088</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:58" s="3" customFormat="1">
+      <c r="A5" s="3">
         <v>9186</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
         <v>2.064165395369796</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.009403009025033047</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2.699718702860548</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.0002274038034795249</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>372.2399144691153</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.02420109081864815</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>754.9966967563577</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3.439279027443602</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10.42381224368077</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.04748417971856409</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="J5" s="3">
+        <v>745.2412020487147</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.394839272283771</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10.28912364754046</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.04687062516139666</v>
+      </c>
+      <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
-        <v>13.71529012423695</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.001155271894354007</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>10.23350276601195</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.0008619925659082869</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="O5" s="3">
+        <v>13.53807154726089</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.001140344347121444</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10.10127320460674</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.0008508545517277302</v>
+      </c>
+      <c r="S5" s="3">
         <v>0.9949221734743392</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>0.001112384267381515</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>0.9949221734743392</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>0.001112384267381515</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="4">
-        <v>0.8862041939961774</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0.003934011188787253</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0.0002163561697065819</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>9.604418464222685E-07</v>
-      </c>
-      <c r="AB5" s="4">
+      <c r="X5" s="3">
+        <v>0.874753335520156</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.003883178879855433</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.0002135605793714104</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>9.480317453052365E-07</v>
+      </c>
+      <c r="AB5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="4">
-        <v>224.4726008431942</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0.5183305425988183</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>10.2464423169383</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0.02366009920986377</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>47359.14085941868</v>
-      </c>
-      <c r="AH5" s="4">
+      <c r="AC5" s="3">
+        <v>221.572136140574</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.5116330684418363</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>10.11404556046969</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.02335438135226814</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>47359.14085941869</v>
+      </c>
+      <c r="AH5" s="3">
         <v>236.9765091280065</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="3">
         <v>-5.0778265256608</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="3">
         <v>1.112384267381515</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="3">
         <v>1.001264430295493</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="3">
         <v>0.002313561294784922</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="3">
         <v>1.001264430295493</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="3">
         <v>0.002313561294784921</v>
       </c>
-      <c r="AO5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR5" s="4">
-        <v>2.114194666807102E-05</v>
-      </c>
-      <c r="AS5" s="4">
-        <v>9.386959218111891E-08</v>
-      </c>
-      <c r="AT5" s="4">
+      <c r="AO5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>2.114194666807101E-05</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>9.386959218111887E-08</v>
+      </c>
+      <c r="AT5" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>123</v>
+      <c r="AV5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58">
@@ -3119,7 +3021,7 @@
         <v>9716</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>5.73688258602763</v>
@@ -3239,10 +3141,10 @@
         <v>477.3818</v>
       </c>
       <c r="AP6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AQ6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AR6">
         <v>0.0002272301483937264</v>
@@ -3260,22 +3162,22 @@
         <v>477.3634</v>
       </c>
       <c r="AW6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AX6">
         <v>42.24973933617349</v>
       </c>
       <c r="AY6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AZ6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6">
         <v>13.92314634046818</v>
       </c>
       <c r="BC6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="BD6">
         <v>477305.4</v>
@@ -3287,171 +3189,177 @@
         <v>8.850644883158928</v>
       </c>
     </row>
-    <row r="7" spans="1:58" s="4" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:58" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>9186</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
         <v>2.060119946887088</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.00838864176507188</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2.699478350561817</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.0002537515854684538</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>372.2067744538139</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.02034139837846067</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <v>753.517018699457</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3.068260342464981</v>
-      </c>
-      <c r="L7" s="4">
-        <v>10.40338316589475</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.04236173464333414</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="J7" s="3">
+        <v>743.7806432694414</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.028614609362856</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10.26895853880367</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.041814368436442</v>
+      </c>
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="4">
-        <v>13.71406907053767</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.001289125645015292</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>10.23259169112431</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.0009618659710805705</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="O7" s="3">
+        <v>13.53686627109144</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.001272468541134621</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>10.10037390193781</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.0009494374685047949</v>
+      </c>
+      <c r="S7" s="3">
         <v>0.9977404594307874</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>0.0009824633009997295</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>0.9977404594307874</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0.0009824633009997295</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>0</v>
       </c>
-      <c r="X7" s="4">
-        <v>0.8869542956677829</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0.00403904670228864</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>0.0002165392980709685</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>9.860850125664605E-07</v>
-      </c>
-      <c r="AB7" s="4">
+      <c r="X7" s="3">
+        <v>0.8754937449468563</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.003986857204112841</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.0002137413414899614</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>9.733435699049141E-07</v>
+      </c>
+      <c r="AB7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="4">
-        <v>223.8819796095908</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0.7321555889807345</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>10.21948238339388</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>0.03342051538288015</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>47194.58534517163</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>264.5934996172274</v>
-      </c>
-      <c r="AI7" s="4">
+      <c r="AC7" s="3">
+        <v>220.9891464666097</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.7226952297445169</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>10.08743398273946</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.03298868083003362</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>47194.58534517162</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>264.5934996172273</v>
+      </c>
+      <c r="AI7" s="3">
         <v>-2.259540569212626</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="3">
         <v>0.9824633009997296</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="3">
         <v>0.9987188673088759</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="3">
         <v>0.003267434066416601</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="3">
         <v>0.9987188673088759</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="3">
         <v>0.003267434066416601</v>
       </c>
-      <c r="AO7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR7" s="4">
+      <c r="AO7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR7" s="3">
         <v>2.116172565145871E-05</v>
       </c>
-      <c r="AS7" s="4">
-        <v>9.638761137329939E-08</v>
-      </c>
-      <c r="AT7" s="4">
+      <c r="AS7" s="3">
+        <v>9.638761137329943E-08</v>
+      </c>
+      <c r="AT7" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AU7" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>123</v>
+      <c r="AV7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:58">
@@ -3459,7 +3367,7 @@
         <v>9717</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>18.74110099785223</v>
@@ -3570,19 +3478,19 @@
         <v>0.003706537337851941</v>
       </c>
       <c r="AM8">
-        <v>0.9731911592080549</v>
+        <v>0.9731911592080551</v>
       </c>
       <c r="AN8">
-        <v>0.003706997038098111</v>
+        <v>0.003706997038098112</v>
       </c>
       <c r="AO8">
         <v>391.899</v>
       </c>
       <c r="AP8">
-        <v>15.6894</v>
+        <v>15.5788</v>
       </c>
       <c r="AQ8">
-        <v>4.00342945503816</v>
+        <v>3.975207897953299</v>
       </c>
       <c r="AR8">
         <v>-2.860668868070028E-06</v>
@@ -3600,198 +3508,204 @@
         <v>391.8992</v>
       </c>
       <c r="AW8">
-        <v>15.6928341199</v>
+        <v>15.5026190881</v>
       </c>
       <c r="AX8">
         <v>15.18795753431959</v>
       </c>
       <c r="AY8">
-        <v>4.004303688269841</v>
+        <v>3.955766964591915</v>
       </c>
       <c r="AZ8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB8">
         <v>1.555658449874069</v>
       </c>
       <c r="BC8">
-        <v>2.241906101582567</v>
+        <v>2.241880595005544</v>
       </c>
       <c r="BD8">
         <v>391841.2</v>
       </c>
       <c r="BE8">
-        <v>7593.978767159794</v>
+        <v>7593.978767159795</v>
       </c>
       <c r="BF8">
         <v>3.875475513683006</v>
       </c>
     </row>
-    <row r="9" spans="1:58" s="4" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:58" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>9186</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
         <v>2.053786140768191</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.00887834474860557</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2.699349606342518</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0001843313644372987</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>372.1890230721128</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.01738125519613917</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <v>751.2003425705046</v>
-      </c>
-      <c r="K9" s="4">
-        <v>3.247375899672271</v>
-      </c>
-      <c r="L9" s="4">
-        <v>10.3713981292696</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.04483468180492095</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="J9" s="3">
+        <v>741.4939014724038</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3.205415771185505</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10.23738678856357</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.04425536205034999</v>
+      </c>
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="4">
-        <v>13.71341501561053</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0.0009364524309792854</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>10.23210367571629</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.0006987229913372538</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="O9" s="3">
+        <v>13.53622066736602</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.0009243523028944523</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>10.09989219229477</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.0006896946227716909</v>
+      </c>
+      <c r="S9" s="3">
         <v>0.9966374424759645</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>0.0008344977463790538</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.9966374424759645</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0.0008344977463790538</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="4">
-        <v>0.8852501202073254</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0.00410762464212318</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0.0002161232439858824</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>1.002827497525896E-06</v>
-      </c>
-      <c r="AB9" s="4">
+      <c r="X9" s="3">
+        <v>0.8738115895492107</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.004054549031820016</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.0002133306633402172</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>9.898697211716112E-07</v>
+      </c>
+      <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="4">
-        <v>224.3900604360603</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0.6996321106159143</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>10.24267461648249</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>0.03193592464102781</v>
-      </c>
-      <c r="AG9" s="4">
+      <c r="AC9" s="3">
+        <v>221.4906622579804</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.6905919951005306</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>10.11032654338165</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.03152327284379779</v>
+      </c>
+      <c r="AG9" s="3">
         <v>47392.74882044415</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="3">
         <v>264.9409313802134</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="3">
         <v>-3.36255752403547</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="3">
         <v>0.8344977463790538</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="3">
         <v>1.001033115095509</v>
       </c>
-      <c r="AL9" s="4">
-        <v>0.003121897918845936</v>
-      </c>
-      <c r="AM9" s="4">
+      <c r="AL9" s="3">
+        <v>0.003121897918845934</v>
+      </c>
+      <c r="AM9" s="3">
         <v>1.001033115095509</v>
       </c>
-      <c r="AN9" s="4">
-        <v>0.003121897918845936</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR9" s="4">
+      <c r="AN9" s="3">
+        <v>0.003121897918845934</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR9" s="3">
         <v>2.112207331311592E-05</v>
       </c>
-      <c r="AS9" s="4">
-        <v>9.801856223392607E-08</v>
-      </c>
-      <c r="AT9" s="4">
+      <c r="AS9" s="3">
+        <v>9.801856223392604E-08</v>
+      </c>
+      <c r="AT9" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="AU9" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>123</v>
+      <c r="AV9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:58">
@@ -3799,7 +3713,7 @@
         <v>9718</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>26.46578628848677</v>
@@ -3910,19 +3824,19 @@
         <v>0.004198412135478684</v>
       </c>
       <c r="AM10">
-        <v>0.973114595768268</v>
+        <v>0.9731145957682682</v>
       </c>
       <c r="AN10">
-        <v>0.004199988251975643</v>
+        <v>0.004199988251975644</v>
       </c>
       <c r="AO10">
         <v>382.1054</v>
       </c>
       <c r="AP10">
-        <v>16.1166</v>
+        <v>15.6964</v>
       </c>
       <c r="AQ10">
-        <v>4.217841464684875</v>
+        <v>4.107871807098251</v>
       </c>
       <c r="AR10">
         <v>2.412244755611617E-05</v>
@@ -3940,198 +3854,204 @@
         <v>382.1034</v>
       </c>
       <c r="AW10">
-        <v>15.8210024599</v>
+        <v>15.4488074363</v>
       </c>
       <c r="AX10">
         <v>15.40939381408343</v>
       </c>
       <c r="AY10">
-        <v>4.140502926668541</v>
+        <v>4.043096040574357</v>
       </c>
       <c r="AZ10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB10">
         <v>7.118163405083836</v>
       </c>
       <c r="BC10">
-        <v>1.866737675788412</v>
+        <v>1.865479337799864</v>
       </c>
       <c r="BD10">
         <v>382045.4</v>
       </c>
       <c r="BE10">
-        <v>7704.696907041713</v>
+        <v>7704.696907041714</v>
       </c>
       <c r="BF10">
-        <v>4.032781130469769</v>
+        <v>4.03278113046977</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:58" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>9186</v>
       </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
         <v>2.057099993786945</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.009918091052576489</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2.699247965118998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.0001988524710474008</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>372.1750086785726</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.02000914210059544</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
-        <v>752.4124295904247</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3.627677316760044</v>
-      </c>
-      <c r="L11" s="4">
-        <v>10.38813272900087</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.05008528831056497</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="J11" s="3">
+        <v>742.6903268231288</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3.580803221791506</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10.25390515648904</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.04943812420091567</v>
+      </c>
+      <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="4">
-        <v>13.71289865112127</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.001010223520490018</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>10.23171839641259</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0.0007537664240113988</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="O11" s="3">
+        <v>13.53571097494706</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.0009971701783363144</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>10.09951189127803</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.0007440268259550972</v>
+      </c>
+      <c r="S11" s="3">
         <v>0.9959764245130508</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>0.001047608192131502</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>0.9959764245130508</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>0.001047608192131502</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>0</v>
       </c>
-      <c r="X11" s="4">
-        <v>0.8842510533926733</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0.004060166409774777</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0.0002158793337553018</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>9.912411369088874E-07</v>
-      </c>
-      <c r="AB11" s="4">
+      <c r="X11" s="3">
+        <v>0.8728254319182209</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0.004007704018756541</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.0002130899047326488</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>9.784330707191178E-07</v>
+      </c>
+      <c r="AB11" s="3">
         <v>0</v>
       </c>
-      <c r="AC11" s="4">
-        <v>223.7502335109088</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>0.6427572172441823</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>10.21346860355814</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>0.02933977120392053</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>47311.00669013115</v>
-      </c>
-      <c r="AH11" s="4">
+      <c r="AC11" s="3">
+        <v>220.8591026910954</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.6344519959656467</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>10.08149790840576</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.02896066493241896</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>47311.00669013116</v>
+      </c>
+      <c r="AH11" s="3">
         <v>256.2464093751415</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AI11" s="3">
         <v>-4.023575486949205</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AJ11" s="3">
         <v>1.047608192131502</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AK11" s="3">
         <v>0.9982163511399174</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AL11" s="3">
         <v>0.002868473941237969</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AM11" s="3">
         <v>0.9982163511399174</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AN11" s="3">
         <v>0.002868473941237969</v>
       </c>
-      <c r="AO11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR11" s="4">
+      <c r="AO11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR11" s="3">
         <v>2.109903003497367E-05</v>
       </c>
-      <c r="AS11" s="4">
-        <v>9.689171185551434E-08</v>
-      </c>
-      <c r="AT11" s="4">
+      <c r="AS11" s="3">
+        <v>9.689171185551433E-08</v>
+      </c>
+      <c r="AT11" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="AU11" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>123</v>
+      <c r="AV11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:58">
@@ -4139,7 +4059,7 @@
         <v>9719</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>24.88698370481256</v>
@@ -4250,19 +4170,19 @@
         <v>0.002562800818182701</v>
       </c>
       <c r="AM12">
-        <v>0.9783842580929544</v>
+        <v>0.9783842580929543</v>
       </c>
       <c r="AN12">
-        <v>0.002565300870091669</v>
+        <v>0.002565300870091668</v>
       </c>
       <c r="AO12">
         <v>401.7789</v>
       </c>
       <c r="AP12">
-        <v>11.9421</v>
+        <v>11.9044</v>
       </c>
       <c r="AQ12">
-        <v>2.972306410316718</v>
+        <v>2.962923140065344</v>
       </c>
       <c r="AR12">
         <v>0.0007142489577433893</v>
@@ -4280,22 +4200,22 @@
         <v>401.721</v>
       </c>
       <c r="AW12">
-        <v>11.6402731624</v>
+        <v>11.8853853779</v>
       </c>
       <c r="AX12">
         <v>11.60461605344168</v>
       </c>
       <c r="AY12">
-        <v>2.897601360745393</v>
+        <v>2.958616895283045</v>
       </c>
       <c r="AZ12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB12">
         <v>8.150533719485544</v>
       </c>
       <c r="BC12">
-        <v>1.93736976415661</v>
+        <v>1.938156956012374</v>
       </c>
       <c r="BD12">
         <v>401663</v>
@@ -4307,171 +4227,177 @@
         <v>2.88872527287388</v>
       </c>
     </row>
-    <row r="13" spans="1:58" s="4" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:58" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>9186</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
         <v>2.048005683746828</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.009952076662128514</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2.699528980303033</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.0001871564082721205</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>372.2137553331626</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.01636234858562065</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
-        <v>749.0860614345742</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3.640108017810738</v>
-      </c>
-      <c r="L13" s="4">
-        <v>10.34220744580572</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.05025691196715374</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="J13" s="3">
+        <v>739.4069394737897</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3.59307330275097</v>
+      </c>
+      <c r="L13" s="3">
+        <v>10.20857328497248</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.04960753026677753</v>
+      </c>
+      <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="4">
-        <v>13.7143262831091</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0.0009508044061562604</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>10.23278360726588</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.0007094315491833445</v>
-      </c>
-      <c r="S13" s="4">
+      <c r="O13" s="3">
+        <v>13.5371201601571</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.0009385188327330771</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>10.10056333828455</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.0007002648127549248</v>
+      </c>
+      <c r="S13" s="3">
         <v>0.9959976538705523</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>0.0008888145216077643</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.9959976538705523</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0.0008888145216077643</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>0</v>
       </c>
-      <c r="X13" s="4">
-        <v>0.8887363284540563</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0.002891553616356051</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0.0002169743600922743</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>7.059382805614536E-07</v>
-      </c>
-      <c r="AB13" s="4">
+      <c r="X13" s="3">
+        <v>0.8772527516570022</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.00285419115355003</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.0002141707819697894</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>6.96816681500786E-07</v>
+      </c>
+      <c r="AB13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="4">
-        <v>224.1362780672796</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>0.4837207117167436</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>10.23109027882614</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>0.02208027327832438</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>47153.45294474006</v>
-      </c>
-      <c r="AH13" s="4">
+      <c r="AC13" s="3">
+        <v>221.2401590724945</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.4774704395454829</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>10.09889188975065</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0.02179496873323772</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>47153.45294474007</v>
+      </c>
+      <c r="AH13" s="3">
         <v>184.0994170180008</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI13" s="3">
         <v>-4.00234612944772</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="3">
         <v>0.8888145216077643</v>
       </c>
-      <c r="AK13" s="4">
-        <v>0.9998345192760125</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>0.002158910450175706</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>0.9998345192760125</v>
-      </c>
-      <c r="AN13" s="4">
+      <c r="AK13" s="3">
+        <v>0.9998345192760126</v>
+      </c>
+      <c r="AL13" s="3">
         <v>0.002158910450175707</v>
       </c>
-      <c r="AO13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR13" s="4">
+      <c r="AM13" s="3">
+        <v>0.9998345192760126</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0.002158910450175707</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR13" s="3">
         <v>2.120384525069109E-05</v>
       </c>
-      <c r="AS13" s="4">
-        <v>6.900356344332097E-08</v>
-      </c>
-      <c r="AT13" s="4">
+      <c r="AS13" s="3">
+        <v>6.900356344332095E-08</v>
+      </c>
+      <c r="AT13" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AU13" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF13" s="4" t="s">
-        <v>123</v>
+      <c r="AV13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:58">
@@ -4479,7 +4405,7 @@
         <v>9720</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>17.11992933803555</v>
@@ -4599,10 +4525,10 @@
         <v>415.0041</v>
       </c>
       <c r="AP14">
-        <v>18.3257</v>
+        <v>18.4401</v>
       </c>
       <c r="AQ14">
-        <v>4.415787699446825</v>
+        <v>4.443353692168342</v>
       </c>
       <c r="AR14">
         <v>1.624463093515693E-05</v>
@@ -4620,22 +4546,22 @@
         <v>415.0028</v>
       </c>
       <c r="AW14">
-        <v>18.2902661738</v>
+        <v>18.1093046309</v>
       </c>
       <c r="AX14">
         <v>17.66418967999461</v>
       </c>
       <c r="AY14">
-        <v>4.407263318175203</v>
+        <v>4.363658421316676</v>
       </c>
       <c r="AZ14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB14">
         <v>5.524823909136777</v>
       </c>
       <c r="BC14">
-        <v>2.219470553656438</v>
+        <v>2.219109802415591</v>
       </c>
       <c r="BD14">
         <v>414944.8</v>
@@ -4647,171 +4573,177 @@
         <v>4.256402530294882</v>
       </c>
     </row>
-    <row r="15" spans="1:58" s="4" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:58" s="3" customFormat="1">
+      <c r="A15" s="3">
         <v>9186</v>
       </c>
-      <c r="C15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
         <v>2.065583347955624</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.009296946144921598</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>2.699293296102625</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.0002263077512837549</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>372.1812589599261</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.0185705080547935</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="4">
-        <v>755.5153322885969</v>
-      </c>
-      <c r="K15" s="4">
-        <v>3.400485079869327</v>
-      </c>
-      <c r="L15" s="4">
-        <v>10.43097275105013</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.04694857363254711</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="J15" s="3">
+        <v>745.753136165952</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.356546590677778</v>
+      </c>
+      <c r="L15" s="3">
+        <v>10.29619163226429</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.04634193977100651</v>
+      </c>
+      <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="4">
-        <v>13.71312894459273</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0.00114970365724828</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>10.23189022718364</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.0008578378911396822</v>
-      </c>
-      <c r="S15" s="4">
+      <c r="O15" s="3">
+        <v>13.53593829274095</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.001134848058552511</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>10.09968150178218</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.0008467535605154791</v>
+      </c>
+      <c r="S15" s="3">
         <v>0.9963002188641779</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>0.0007902626358170166</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>0.9963002188641779</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>0.0007902626358170166</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="4">
-        <v>0.8915719177303811</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0.003768395292385469</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0.0002176666353476195</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>9.200087033263935E-07</v>
-      </c>
-      <c r="AB15" s="4">
+      <c r="X15" s="3">
+        <v>0.8800517015992784</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.003719702946459832</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.0002148541121693235</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>9.081210486189682E-07</v>
+      </c>
+      <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="4">
-        <v>223.6012754438282</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>0.5284510624903292</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>10.20666915348606</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>0.0241220679441158</v>
-      </c>
-      <c r="AG15" s="4">
+      <c r="AC15" s="3">
+        <v>220.7120693471843</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.5216228186509573</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>10.07478631567064</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.02381038087690448</v>
+      </c>
+      <c r="AG15" s="3">
         <v>46891.28922852936</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AH15" s="3">
         <v>227.0737880607126</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AI15" s="3">
         <v>-3.699781135822144</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AJ15" s="3">
         <v>0.7902626358170166</v>
       </c>
-      <c r="AK15" s="4">
-        <v>0.9975350523571319</v>
-      </c>
-      <c r="AL15" s="4">
+      <c r="AK15" s="3">
+        <v>0.9975350523571318</v>
+      </c>
+      <c r="AL15" s="3">
         <v>0.002359020758142072</v>
       </c>
-      <c r="AM15" s="4">
-        <v>0.9975350523571319</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>0.002359020758142072</v>
-      </c>
-      <c r="AO15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR15" s="4">
+      <c r="AM15" s="3">
+        <v>0.9975350523571318</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0.002359020758142071</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR15" s="3">
         <v>2.127335521733142E-05</v>
       </c>
-      <c r="AS15" s="4">
-        <v>8.993349787415758E-08</v>
-      </c>
-      <c r="AT15" s="4">
+      <c r="AS15" s="3">
+        <v>8.993349787415757E-08</v>
+      </c>
+      <c r="AT15" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU15" s="4">
+      <c r="AU15" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF15" s="4" t="s">
-        <v>123</v>
+      <c r="AV15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:58">
@@ -4819,7 +4751,7 @@
         <v>9721</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>20.56717153534174</v>
@@ -4930,7 +4862,7 @@
         <v>0.002318509201062042</v>
       </c>
       <c r="AM16">
-        <v>0.9845599176079867</v>
+        <v>0.9845599176079866</v>
       </c>
       <c r="AN16">
         <v>0.002322436199383935</v>
@@ -4939,10 +4871,10 @@
         <v>431.6856</v>
       </c>
       <c r="AP16">
-        <v>14.0751</v>
+        <v>13.922</v>
       </c>
       <c r="AQ16">
-        <v>3.260497917929159</v>
+        <v>3.225032292019933</v>
       </c>
       <c r="AR16">
         <v>0.0004976277241418383</v>
@@ -4960,198 +4892,204 @@
         <v>431.6452</v>
       </c>
       <c r="AW16">
-        <v>14.0198597819</v>
+        <v>14.2254519071</v>
       </c>
       <c r="AX16">
         <v>13.74048435635092</v>
       </c>
       <c r="AY16">
-        <v>3.248005487353966</v>
+        <v>3.295635375326774</v>
       </c>
       <c r="AZ16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB16">
         <v>9.123121977598503</v>
       </c>
       <c r="BC16">
-        <v>1.799546218509708</v>
+        <v>1.800615397212429</v>
       </c>
       <c r="BD16">
         <v>431587.2</v>
       </c>
       <c r="BE16">
-        <v>6870.242178175462</v>
+        <v>6870.242178175461</v>
       </c>
       <c r="BF16">
         <v>3.183282092874176</v>
       </c>
     </row>
-    <row r="17" spans="1:58" s="4" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:58" s="3" customFormat="1">
+      <c r="A17" s="3">
         <v>9186</v>
       </c>
-      <c r="C17" s="4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
         <v>2.051668836958891</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.008160140815615053</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2.699291895192637</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.000170715247172824</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>372.181065801056</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.01479950927888165</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="4">
-        <v>750.4259097728051</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2.984682998114292</v>
-      </c>
-      <c r="L17" s="4">
-        <v>10.36070597377641</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.0412078295347689</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="J17" s="3">
+        <v>740.7294753079676</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.946117188068778</v>
+      </c>
+      <c r="L17" s="3">
+        <v>10.22683278899447</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.04067537321453998</v>
+      </c>
+      <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="4">
-        <v>13.71312182759684</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.0008672789284028769</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>10.23188491692068</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0.0006471099941976987</v>
-      </c>
-      <c r="S17" s="4">
+      <c r="O17" s="3">
+        <v>13.53593126770548</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.0008560726078554706</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>10.0996762601344</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.0006387485296366214</v>
+      </c>
+      <c r="S17" s="3">
         <v>0.9950411153783151</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>0.001016860524648371</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>0.9950411153783151</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>0.001016860524648371</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>0</v>
       </c>
-      <c r="X17" s="4">
-        <v>0.8871355886294732</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0.003977216074661984</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0.0002165835585823177</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>9.709898032969876E-07</v>
-      </c>
-      <c r="AB17" s="4">
+      <c r="X17" s="3">
+        <v>0.8756726953783925</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.003925825504962527</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.0002137850301005512</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>9.584434094810474E-07</v>
+      </c>
+      <c r="AB17" s="3">
         <v>0</v>
       </c>
-      <c r="AC17" s="4">
-        <v>223.9481724085347</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>0.7591066024002913</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>10.22250386883855</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>0.03465074126946586</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>47198.89143825869</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>265.2767874518086</v>
-      </c>
-      <c r="AI17" s="4">
+      <c r="AC17" s="3">
+        <v>221.054483972408</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.7492980026089698</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>10.09041642684078</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0.03420301067074608</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>47198.8914382587</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>265.2767874518087</v>
+      </c>
+      <c r="AI17" s="3">
         <v>-4.958884621684923</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AJ17" s="3">
         <v>1.016860524648371</v>
       </c>
-      <c r="AK17" s="4">
-        <v>0.9990831554343805</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>0.003387134668715198</v>
-      </c>
-      <c r="AM17" s="4">
-        <v>0.9990831554343805</v>
-      </c>
-      <c r="AN17" s="4">
-        <v>0.003387134668715199</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR17" s="4">
+      <c r="AK17" s="3">
+        <v>0.9990831554343809</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0.0033871346687152</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0.9990831554343809</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0.0033871346687152</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR17" s="3">
         <v>2.116751315528863E-05</v>
       </c>
-      <c r="AS17" s="4">
-        <v>9.490787111651059E-08</v>
-      </c>
-      <c r="AT17" s="4">
+      <c r="AS17" s="3">
+        <v>9.490787111651057E-08</v>
+      </c>
+      <c r="AT17" s="3">
         <v>0.75</v>
       </c>
-      <c r="AU17" s="4">
+      <c r="AU17" s="3">
         <v>0.375</v>
       </c>
-      <c r="AV17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF17" s="4" t="s">
-        <v>123</v>
+      <c r="AV17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF17" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5196,161 +5134,164 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1">
-      <c r="C2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1">
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1">
+      <c r="A3" s="3">
+        <v>9186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13537.95137638079</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.517562371869396</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.8767448772872677</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.003507121498027622</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.9985009029369968</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.003718623633299434</v>
+      </c>
+      <c r="I3" s="3">
+        <v>47120.7293601188</v>
+      </c>
+      <c r="J3" s="3">
+        <v>257.4812412484623</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-3.543703889504424</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.295645475698016</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1">
-      <c r="A3" s="4">
-        <v>9186</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13715.16838027368</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.537427848505137</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.88822180581298</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.003553031070819644</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.9985009029369966</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.003718623633299432</v>
-      </c>
-      <c r="I3" s="4">
-        <v>47120.72936011878</v>
-      </c>
-      <c r="J3" s="4">
-        <v>257.4812412484622</v>
-      </c>
-      <c r="K3" s="4">
-        <v>-3.543703889504424</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1.295645475698016</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>123</v>
+      <c r="P3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5358,7 +5299,7 @@
         <v>9715</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>15036.82855481277</v>
@@ -5393,73 +5334,76 @@
       <c r="M4">
         <v>377.9962</v>
       </c>
-      <c r="N4">
-        <v>29.9726</v>
+      <c r="N4" t="s">
+        <v>109</v>
       </c>
       <c r="O4">
         <v>377.9962</v>
       </c>
       <c r="P4">
-        <v>29.324445198</v>
+        <v>29.6112849037</v>
       </c>
       <c r="Q4">
         <v>11.12201138325179</v>
       </c>
       <c r="R4">
-        <v>4.366392472785887</v>
+        <v>4.368299116375624</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:19" s="3" customFormat="1">
+      <c r="A5" s="3">
         <v>9186</v>
       </c>
-      <c r="C5" s="4">
-        <v>13715.29012423695</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.155271894354007</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.8862041939961774</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.003934011188787253</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13538.07154726089</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.140344347121444</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.874753335520156</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.003883178879855433</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.001264430295493</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.002313561294784921</v>
       </c>
-      <c r="I5" s="4">
-        <v>47359.14085941868</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="3">
+        <v>47359.14085941869</v>
+      </c>
+      <c r="J5" s="3">
         <v>236.9765091280065</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>-5.0778265256608</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>1.112384267381515</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>123</v>
+      <c r="M5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5467,7 +5411,7 @@
         <v>9716</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3441.311246164099</v>
@@ -5503,72 +5447,75 @@
         <v>477.3818</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O6">
         <v>477.3634</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>13.92314634046818</v>
       </c>
       <c r="R6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:19" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>9186</v>
       </c>
-      <c r="C7" s="4">
-        <v>13714.06907053767</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.289125645015291</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.8869542956677829</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.00403904670228864</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13536.86627109144</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.272468541134621</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.8754937449468563</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.003986857204112841</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.9987188673088759</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.003267434066416601</v>
       </c>
-      <c r="I7" s="4">
-        <v>47194.58534517163</v>
-      </c>
-      <c r="J7" s="4">
-        <v>264.5934996172274</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="I7" s="3">
+        <v>47194.58534517162</v>
+      </c>
+      <c r="J7" s="3">
+        <v>264.5934996172273</v>
+      </c>
+      <c r="K7" s="3">
         <v>-2.259540569212626</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>0.9824633009997296</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>123</v>
+      <c r="M7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5576,7 +5523,7 @@
         <v>9717</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>19484.44122005298</v>
@@ -5591,10 +5538,10 @@
         <v>-0.002531664104252674</v>
       </c>
       <c r="G8">
-        <v>0.9731911592080549</v>
+        <v>0.9731911592080551</v>
       </c>
       <c r="H8">
-        <v>0.003706997038098111</v>
+        <v>0.003706997038098112</v>
       </c>
       <c r="I8">
         <v>-340154.879791751</v>
@@ -5612,72 +5559,75 @@
         <v>391.899</v>
       </c>
       <c r="N8">
-        <v>15.6894</v>
+        <v>15.5788</v>
       </c>
       <c r="O8">
         <v>391.8992</v>
       </c>
       <c r="P8">
-        <v>15.6928341199</v>
+        <v>15.5026190881</v>
       </c>
       <c r="Q8">
         <v>1.555658449874069</v>
       </c>
       <c r="R8">
-        <v>2.241906101582567</v>
+        <v>2.241880595005544</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:19" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>9186</v>
       </c>
-      <c r="C9" s="4">
-        <v>13713.41501561053</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.9364524309792854</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.8852501202073254</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.00410762464212318</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>13536.22066736602</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9243523028944522</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.8738115895492107</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.004054549031820016</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.001033115095509</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.003121897918845936</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="3">
+        <v>0.003121897918845934</v>
+      </c>
+      <c r="I9" s="3">
         <v>47392.74882044415</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>264.9409313802134</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>-3.36255752403547</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.8344977463790538</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>123</v>
+      <c r="M9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5685,7 +5635,7 @@
         <v>9718</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>13960.06942785624</v>
@@ -5700,10 +5650,10 @@
         <v>0.005745860638625362</v>
       </c>
       <c r="G10">
-        <v>0.973114595768268</v>
+        <v>0.9731145957682682</v>
       </c>
       <c r="H10">
-        <v>0.004199988251975643</v>
+        <v>0.004199988251975644</v>
       </c>
       <c r="I10">
         <v>40325.48587057323</v>
@@ -5721,72 +5671,75 @@
         <v>382.1054</v>
       </c>
       <c r="N10">
-        <v>16.1166</v>
+        <v>15.6964</v>
       </c>
       <c r="O10">
         <v>382.1034</v>
       </c>
       <c r="P10">
-        <v>15.8210024599</v>
+        <v>15.4488074363</v>
       </c>
       <c r="Q10">
         <v>7.118163405083836</v>
       </c>
       <c r="R10">
-        <v>1.866737675788412</v>
+        <v>1.865479337799864</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:19" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>9186</v>
       </c>
-      <c r="C11" s="4">
-        <v>13712.89865112127</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.010223520490018</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.8842510533926733</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.004060166409774777</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13535.71097494706</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.9971701783363144</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.8728254319182209</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.004007704018756541</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.9982163511399174</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.002868473941237969</v>
       </c>
-      <c r="I11" s="4">
-        <v>47311.00669013115</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
+        <v>47311.00669013116</v>
+      </c>
+      <c r="J11" s="3">
         <v>256.2464093751415</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>-4.023575486949205</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>1.047608192131502</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>123</v>
+      <c r="M11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5794,7 +5747,7 @@
         <v>9719</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>12866.38272537896</v>
@@ -5809,10 +5762,10 @@
         <v>0.07589057806202364</v>
       </c>
       <c r="G12">
-        <v>0.9783842580929544</v>
+        <v>0.9783842580929543</v>
       </c>
       <c r="H12">
-        <v>0.002565300870091669</v>
+        <v>0.002565300870091668</v>
       </c>
       <c r="I12">
         <v>1368.47348343363</v>
@@ -5830,72 +5783,75 @@
         <v>401.7789</v>
       </c>
       <c r="N12">
-        <v>11.9421</v>
+        <v>11.9044</v>
       </c>
       <c r="O12">
         <v>401.721</v>
       </c>
       <c r="P12">
-        <v>11.6402731624</v>
+        <v>11.8853853779</v>
       </c>
       <c r="Q12">
         <v>8.150533719485544</v>
       </c>
       <c r="R12">
-        <v>1.93736976415661</v>
+        <v>1.938156956012374</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="4" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:19" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>9186</v>
       </c>
-      <c r="C13" s="4">
-        <v>13714.3262831091</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.9508044061562604</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.8887363284540563</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.002891553616356051</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.9998345192760125</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13537.1201601571</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.9385188327330771</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.8772527516570022</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.00285419115355003</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.9998345192760126</v>
+      </c>
+      <c r="H13" s="3">
         <v>0.002158910450175707</v>
       </c>
-      <c r="I13" s="4">
-        <v>47153.45294474006</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3">
+        <v>47153.45294474007</v>
+      </c>
+      <c r="J13" s="3">
         <v>184.0994170180008</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>-4.00234612944772</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.8888145216077643</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>123</v>
+      <c r="M13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5903,7 +5859,7 @@
         <v>9720</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>7181.536971326349</v>
@@ -5939,72 +5895,75 @@
         <v>415.0041</v>
       </c>
       <c r="N14">
-        <v>18.3257</v>
+        <v>18.4401</v>
       </c>
       <c r="O14">
         <v>415.0028</v>
       </c>
       <c r="P14">
-        <v>18.2902661738</v>
+        <v>18.1093046309</v>
       </c>
       <c r="Q14">
         <v>5.524823909136777</v>
       </c>
       <c r="R14">
-        <v>2.219470553656438</v>
+        <v>2.219109802415591</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="4" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:19" s="3" customFormat="1">
+      <c r="A15" s="3">
         <v>9186</v>
       </c>
-      <c r="C15" s="4">
-        <v>13713.12894459273</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.14970365724828</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.8915719177303811</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.003768395292385469</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.9975350523571319</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.002359020758142072</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>13535.93829274095</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.134848058552511</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.8800517015992784</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.003719702946459832</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.9975350523571318</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.002359020758142071</v>
+      </c>
+      <c r="I15" s="3">
         <v>46891.28922852936</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>227.0737880607126</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>-3.699781135822144</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.7902626358170166</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>123</v>
+      <c r="M15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6012,7 +5971,7 @@
         <v>9721</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>11402.10404754559</v>
@@ -6027,7 +5986,7 @@
         <v>0.03826182980799804</v>
       </c>
       <c r="G16">
-        <v>0.9845599176079867</v>
+        <v>0.9845599176079866</v>
       </c>
       <c r="H16">
         <v>0.002322436199383935</v>
@@ -6048,72 +6007,75 @@
         <v>431.6856</v>
       </c>
       <c r="N16">
-        <v>14.0751</v>
+        <v>13.922</v>
       </c>
       <c r="O16">
         <v>431.6452</v>
       </c>
       <c r="P16">
-        <v>14.0198597819</v>
+        <v>14.2254519071</v>
       </c>
       <c r="Q16">
         <v>9.123121977598503</v>
       </c>
       <c r="R16">
-        <v>1.799546218509708</v>
+        <v>1.800615397212429</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="4" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:18" s="3" customFormat="1">
+      <c r="A17" s="3">
         <v>9186</v>
       </c>
-      <c r="C17" s="4">
-        <v>13713.12182759684</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.8672789284028769</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.8871355886294732</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.003977216074661984</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.9990831554343805</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.003387134668715199</v>
-      </c>
-      <c r="I17" s="4">
-        <v>47198.89143825869</v>
-      </c>
-      <c r="J17" s="4">
-        <v>265.2767874518086</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>13535.93126770548</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.8560726078554707</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.8756726953783925</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.003925825504962527</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.9990831554343809</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0033871346687152</v>
+      </c>
+      <c r="I17" s="3">
+        <v>47198.8914382587</v>
+      </c>
+      <c r="J17" s="3">
+        <v>265.2767874518087</v>
+      </c>
+      <c r="K17" s="3">
         <v>-4.958884621684923</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>1.016860524648371</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>123</v>
+      <c r="M17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Calc" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Constants" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="165">
   <si>
     <t>Lab. #</t>
   </si>
@@ -490,6 +491,120 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>R34_33</t>
+  </si>
+  <si>
+    <t>R35_33</t>
+  </si>
+  <si>
+    <t>R30_29</t>
+  </si>
+  <si>
+    <t>mf48</t>
+  </si>
+  <si>
+    <t>mf36</t>
+  </si>
+  <si>
+    <t>mf56</t>
+  </si>
+  <si>
+    <t>mf68</t>
+  </si>
+  <si>
+    <t>mf92</t>
+  </si>
+  <si>
+    <t>mf38</t>
+  </si>
+  <si>
+    <t>mf35</t>
+  </si>
+  <si>
+    <t>mf43</t>
+  </si>
+  <si>
+    <t>mf45</t>
+  </si>
+  <si>
+    <t>mf09</t>
+  </si>
+  <si>
+    <t>mf29</t>
+  </si>
+  <si>
+    <t>mf34</t>
+  </si>
+  <si>
+    <t>mf58</t>
+  </si>
+  <si>
+    <t>mf02</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NR85</t>
+  </si>
+  <si>
+    <t>cps</t>
+  </si>
+  <si>
+    <t>slope229Correction</t>
+  </si>
+  <si>
+    <t>lambda232</t>
+  </si>
+  <si>
+    <t>lambda234</t>
+  </si>
+  <si>
+    <t>lambda238</t>
+  </si>
+  <si>
+    <t>lambda230</t>
+  </si>
+  <si>
+    <t>trisp236</t>
+  </si>
+  <si>
+    <t>trisp233</t>
+  </si>
+  <si>
+    <t>trisp229</t>
+  </si>
+  <si>
+    <t>blank234</t>
+  </si>
+  <si>
+    <t>blank234S</t>
+  </si>
+  <si>
+    <t>blank238</t>
+  </si>
+  <si>
+    <t>blank238S</t>
+  </si>
+  <si>
+    <t>blank232</t>
+  </si>
+  <si>
+    <t>blank232S</t>
+  </si>
+  <si>
+    <t>chBlank230</t>
+  </si>
+  <si>
+    <t>chBlank230S</t>
+  </si>
+  <si>
+    <t>a230232_init</t>
+  </si>
+  <si>
+    <t>a230232_init_err</t>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +640,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDB310"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -543,11 +670,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,6 +711,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2794,11 +2955,11 @@
       <c r="AO4">
         <v>377.9962</v>
       </c>
-      <c r="AP4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>109</v>
+      <c r="AP4">
+        <v>30.0101</v>
+      </c>
+      <c r="AQ4">
+        <v>7.939259706843614</v>
       </c>
       <c r="AR4">
         <v>1.076828062108333E-07</v>
@@ -2816,13 +2977,13 @@
         <v>377.9962</v>
       </c>
       <c r="AW4">
-        <v>29.6112849037</v>
+        <v>31.4543342655</v>
       </c>
       <c r="AX4">
         <v>26.87803666683755</v>
       </c>
       <c r="AY4">
-        <v>7.833752006951393</v>
+        <v>8.321336104833858</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2831,7 +2992,7 @@
         <v>11.12201138325179</v>
       </c>
       <c r="BC4">
-        <v>4.368299116375624</v>
+        <v>4.380971579467825</v>
       </c>
       <c r="BD4">
         <v>377938.2</v>
@@ -3487,10 +3648,10 @@
         <v>391.899</v>
       </c>
       <c r="AP8">
-        <v>15.5788</v>
+        <v>15.9049</v>
       </c>
       <c r="AQ8">
-        <v>3.975207897953299</v>
+        <v>4.058418112830092</v>
       </c>
       <c r="AR8">
         <v>-2.860668868070028E-06</v>
@@ -3508,13 +3669,13 @@
         <v>391.8992</v>
       </c>
       <c r="AW8">
-        <v>15.5026190881</v>
+        <v>15.5893796277</v>
       </c>
       <c r="AX8">
         <v>15.18795753431959</v>
       </c>
       <c r="AY8">
-        <v>3.955766964591915</v>
+        <v>3.977905448059092</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3523,7 +3684,7 @@
         <v>1.555658449874069</v>
       </c>
       <c r="BC8">
-        <v>2.241880595005544</v>
+        <v>2.241892190473486</v>
       </c>
       <c r="BD8">
         <v>391841.2</v>
@@ -3833,10 +3994,10 @@
         <v>382.1054</v>
       </c>
       <c r="AP10">
-        <v>15.6964</v>
+        <v>15.8984</v>
       </c>
       <c r="AQ10">
-        <v>4.107871807098251</v>
+        <v>4.160736801939989</v>
       </c>
       <c r="AR10">
         <v>2.412244755611617E-05</v>
@@ -3854,13 +4015,13 @@
         <v>382.1034</v>
       </c>
       <c r="AW10">
-        <v>15.4488074363</v>
+        <v>15.7401368772</v>
       </c>
       <c r="AX10">
         <v>15.40939381408343</v>
       </c>
       <c r="AY10">
-        <v>4.043096040574357</v>
+        <v>4.119339654449554</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -3869,7 +4030,7 @@
         <v>7.118163405083836</v>
       </c>
       <c r="BC10">
-        <v>1.865479337799864</v>
+        <v>1.866461806351067</v>
       </c>
       <c r="BD10">
         <v>382045.4</v>
@@ -4179,10 +4340,10 @@
         <v>401.7789</v>
       </c>
       <c r="AP12">
-        <v>11.9044</v>
+        <v>12.0357</v>
       </c>
       <c r="AQ12">
-        <v>2.962923140065344</v>
+        <v>2.99560280542358</v>
       </c>
       <c r="AR12">
         <v>0.0007142489577433893</v>
@@ -4200,13 +4361,13 @@
         <v>401.721</v>
       </c>
       <c r="AW12">
-        <v>11.8853853779</v>
+        <v>11.5139317475</v>
       </c>
       <c r="AX12">
         <v>11.60461605344168</v>
       </c>
       <c r="AY12">
-        <v>2.958616895283045</v>
+        <v>2.866151320817184</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4215,7 +4376,7 @@
         <v>8.150533719485544</v>
       </c>
       <c r="BC12">
-        <v>1.938156956012374</v>
+        <v>1.936970295734012</v>
       </c>
       <c r="BD12">
         <v>401663</v>
@@ -4525,10 +4686,10 @@
         <v>415.0041</v>
       </c>
       <c r="AP14">
-        <v>18.4401</v>
+        <v>18.3862</v>
       </c>
       <c r="AQ14">
-        <v>4.443353692168342</v>
+        <v>4.43036586867455</v>
       </c>
       <c r="AR14">
         <v>1.624463093515693E-05</v>
@@ -4546,13 +4707,13 @@
         <v>415.0028</v>
       </c>
       <c r="AW14">
-        <v>18.1093046309</v>
+        <v>18.2554661074</v>
       </c>
       <c r="AX14">
         <v>17.66418967999461</v>
       </c>
       <c r="AY14">
-        <v>4.363658421316676</v>
+        <v>4.398877816583407</v>
       </c>
       <c r="AZ14" t="s">
         <v>31</v>
@@ -4561,7 +4722,7 @@
         <v>5.524823909136777</v>
       </c>
       <c r="BC14">
-        <v>2.219109802415591</v>
+        <v>2.219400904872311</v>
       </c>
       <c r="BD14">
         <v>414944.8</v>
@@ -4871,10 +5032,10 @@
         <v>431.6856</v>
       </c>
       <c r="AP16">
-        <v>13.922</v>
+        <v>13.9222</v>
       </c>
       <c r="AQ16">
-        <v>3.225032292019933</v>
+        <v>3.225078622034184</v>
       </c>
       <c r="AR16">
         <v>0.0004976277241418383</v>
@@ -4892,13 +5053,13 @@
         <v>431.6452</v>
       </c>
       <c r="AW16">
-        <v>14.2254519071</v>
+        <v>14.3116825688</v>
       </c>
       <c r="AX16">
         <v>13.74048435635092</v>
       </c>
       <c r="AY16">
-        <v>3.295635375326774</v>
+        <v>3.315612583853591</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
@@ -4907,7 +5068,7 @@
         <v>9.123121977598503</v>
       </c>
       <c r="BC16">
-        <v>1.800615397212429</v>
+        <v>1.801068280153209</v>
       </c>
       <c r="BD16">
         <v>431587.2</v>
@@ -5334,20 +5495,20 @@
       <c r="M4">
         <v>377.9962</v>
       </c>
-      <c r="N4" t="s">
-        <v>109</v>
+      <c r="N4">
+        <v>30.0101</v>
       </c>
       <c r="O4">
         <v>377.9962</v>
       </c>
       <c r="P4">
-        <v>29.6112849037</v>
+        <v>31.4543342655</v>
       </c>
       <c r="Q4">
         <v>11.12201138325179</v>
       </c>
       <c r="R4">
-        <v>4.368299116375624</v>
+        <v>4.380971579467825</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1">
@@ -5559,19 +5720,19 @@
         <v>391.899</v>
       </c>
       <c r="N8">
-        <v>15.5788</v>
+        <v>15.9049</v>
       </c>
       <c r="O8">
         <v>391.8992</v>
       </c>
       <c r="P8">
-        <v>15.5026190881</v>
+        <v>15.5893796277</v>
       </c>
       <c r="Q8">
         <v>1.555658449874069</v>
       </c>
       <c r="R8">
-        <v>2.241880595005544</v>
+        <v>2.241892190473486</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
@@ -5671,19 +5832,19 @@
         <v>382.1054</v>
       </c>
       <c r="N10">
-        <v>15.6964</v>
+        <v>15.8984</v>
       </c>
       <c r="O10">
         <v>382.1034</v>
       </c>
       <c r="P10">
-        <v>15.4488074363</v>
+        <v>15.7401368772</v>
       </c>
       <c r="Q10">
         <v>7.118163405083836</v>
       </c>
       <c r="R10">
-        <v>1.865479337799864</v>
+        <v>1.866461806351067</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
@@ -5783,19 +5944,19 @@
         <v>401.7789</v>
       </c>
       <c r="N12">
-        <v>11.9044</v>
+        <v>12.0357</v>
       </c>
       <c r="O12">
         <v>401.721</v>
       </c>
       <c r="P12">
-        <v>11.8853853779</v>
+        <v>11.5139317475</v>
       </c>
       <c r="Q12">
         <v>8.150533719485544</v>
       </c>
       <c r="R12">
-        <v>1.938156956012374</v>
+        <v>1.936970295734012</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
@@ -5895,19 +6056,19 @@
         <v>415.0041</v>
       </c>
       <c r="N14">
-        <v>18.4401</v>
+        <v>18.3862</v>
       </c>
       <c r="O14">
         <v>415.0028</v>
       </c>
       <c r="P14">
-        <v>18.1093046309</v>
+        <v>18.2554661074</v>
       </c>
       <c r="Q14">
         <v>5.524823909136777</v>
       </c>
       <c r="R14">
-        <v>2.219109802415591</v>
+        <v>2.219400904872311</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
@@ -6007,19 +6168,19 @@
         <v>431.6856</v>
       </c>
       <c r="N16">
-        <v>13.922</v>
+        <v>13.9222</v>
       </c>
       <c r="O16">
         <v>431.6452</v>
       </c>
       <c r="P16">
-        <v>14.2254519071</v>
+        <v>14.3116825688</v>
       </c>
       <c r="Q16">
         <v>9.123121977598503</v>
       </c>
       <c r="R16">
-        <v>1.800615397212429</v>
+        <v>1.801068280153209</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">
@@ -6076,6 +6237,327 @@
       </c>
       <c r="R17" s="3" t="s">
         <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="5">
+        <v>0.002324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.005066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.8E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.336402435064349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.008202776684838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.334493224630051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.665506775369946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.025840620457897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.673784240557133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.673784240557127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-0.337307116990441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.336402435064353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-0.34318587041139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-1.025840620457897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.337307116990439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.682654750046506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6.02214129E+23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="5">
+        <v>137.881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="5">
+        <v>62500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.4053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4.94752E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.82206E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.55125E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="5">
+        <v>9.1705E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3.86778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.038556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.018067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -2956,10 +2956,10 @@
         <v>377.9962</v>
       </c>
       <c r="AP4">
-        <v>30.0101</v>
+        <v>29.1141</v>
       </c>
       <c r="AQ4">
-        <v>7.939259706843614</v>
+        <v>7.70222028687061</v>
       </c>
       <c r="AR4">
         <v>1.076828062108333E-07</v>
@@ -2977,13 +2977,13 @@
         <v>377.9962</v>
       </c>
       <c r="AW4">
-        <v>31.4543342655</v>
+        <v>29.6897705849</v>
       </c>
       <c r="AX4">
         <v>26.87803666683755</v>
       </c>
       <c r="AY4">
-        <v>8.321336104833858</v>
+        <v>7.854515623411029</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2992,7 +2992,7 @@
         <v>11.12201138325179</v>
       </c>
       <c r="BC4">
-        <v>4.380971579467825</v>
+        <v>4.368823903971476</v>
       </c>
       <c r="BD4">
         <v>377938.2</v>
@@ -3648,10 +3648,10 @@
         <v>391.899</v>
       </c>
       <c r="AP8">
-        <v>15.9049</v>
+        <v>16.1988</v>
       </c>
       <c r="AQ8">
-        <v>4.058418112830092</v>
+        <v>4.13341192501129</v>
       </c>
       <c r="AR8">
         <v>-2.860668868070028E-06</v>
@@ -3669,13 +3669,13 @@
         <v>391.8992</v>
       </c>
       <c r="AW8">
-        <v>15.5893796277</v>
+        <v>15.7358106888</v>
       </c>
       <c r="AX8">
         <v>15.18795753431959</v>
       </c>
       <c r="AY8">
-        <v>3.977905448059092</v>
+        <v>4.015269918591311</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3684,7 +3684,7 @@
         <v>1.555658449874069</v>
       </c>
       <c r="BC8">
-        <v>2.241892190473486</v>
+        <v>2.241911907494027</v>
       </c>
       <c r="BD8">
         <v>391841.2</v>
@@ -3994,10 +3994,10 @@
         <v>382.1054</v>
       </c>
       <c r="AP10">
-        <v>15.8984</v>
+        <v>15.9783</v>
       </c>
       <c r="AQ10">
-        <v>4.160736801939989</v>
+        <v>4.181647262770953</v>
       </c>
       <c r="AR10">
         <v>2.412244755611617E-05</v>
@@ -4015,13 +4015,13 @@
         <v>382.1034</v>
       </c>
       <c r="AW10">
-        <v>15.7401368772</v>
+        <v>15.564272782</v>
       </c>
       <c r="AX10">
         <v>15.40939381408343</v>
       </c>
       <c r="AY10">
-        <v>4.119339654449554</v>
+        <v>4.073314391340145</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -4030,7 +4030,7 @@
         <v>7.118163405083836</v>
       </c>
       <c r="BC10">
-        <v>1.866461806351067</v>
+        <v>1.865866594946743</v>
       </c>
       <c r="BD10">
         <v>382045.4</v>
@@ -4340,10 +4340,10 @@
         <v>401.7789</v>
       </c>
       <c r="AP12">
-        <v>12.0357</v>
+        <v>11.3726</v>
       </c>
       <c r="AQ12">
-        <v>2.99560280542358</v>
+        <v>2.830561784105636</v>
       </c>
       <c r="AR12">
         <v>0.0007142489577433893</v>
@@ -4361,13 +4361,13 @@
         <v>401.721</v>
       </c>
       <c r="AW12">
-        <v>11.5139317475</v>
+        <v>11.9606542028</v>
       </c>
       <c r="AX12">
         <v>11.60461605344168</v>
       </c>
       <c r="AY12">
-        <v>2.866151320817184</v>
+        <v>2.977353487320802</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4376,7 +4376,7 @@
         <v>8.150533719485544</v>
       </c>
       <c r="BC12">
-        <v>1.936970295734012</v>
+        <v>1.938401912866515</v>
       </c>
       <c r="BD12">
         <v>401663</v>
@@ -4686,10 +4686,10 @@
         <v>415.0041</v>
       </c>
       <c r="AP14">
-        <v>18.3862</v>
+        <v>18.4266</v>
       </c>
       <c r="AQ14">
-        <v>4.43036586867455</v>
+        <v>4.440100712258023</v>
       </c>
       <c r="AR14">
         <v>1.624463093515693E-05</v>
@@ -4707,13 +4707,13 @@
         <v>415.0028</v>
       </c>
       <c r="AW14">
-        <v>18.2554661074</v>
+        <v>18.264294678</v>
       </c>
       <c r="AX14">
         <v>17.66418967999461</v>
       </c>
       <c r="AY14">
-        <v>4.398877816583407</v>
+        <v>4.401005168639826</v>
       </c>
       <c r="AZ14" t="s">
         <v>31</v>
@@ -4722,7 +4722,7 @@
         <v>5.524823909136777</v>
       </c>
       <c r="BC14">
-        <v>2.219400904872311</v>
+        <v>2.219418562005929</v>
       </c>
       <c r="BD14">
         <v>414944.8</v>
@@ -5032,10 +5032,10 @@
         <v>431.6856</v>
       </c>
       <c r="AP16">
-        <v>13.9222</v>
+        <v>13.9275</v>
       </c>
       <c r="AQ16">
-        <v>3.225078622034184</v>
+        <v>3.226306367411839</v>
       </c>
       <c r="AR16">
         <v>0.0004976277241418383</v>
@@ -5053,13 +5053,13 @@
         <v>431.6452</v>
       </c>
       <c r="AW16">
-        <v>14.3116825688</v>
+        <v>14.2688349709</v>
       </c>
       <c r="AX16">
         <v>13.74048435635092</v>
       </c>
       <c r="AY16">
-        <v>3.315612583853591</v>
+        <v>3.305686005751946</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
@@ -5068,7 +5068,7 @@
         <v>9.123121977598503</v>
       </c>
       <c r="BC16">
-        <v>1.801068280153209</v>
+        <v>1.800842916945104</v>
       </c>
       <c r="BD16">
         <v>431587.2</v>
@@ -5496,19 +5496,19 @@
         <v>377.9962</v>
       </c>
       <c r="N4">
-        <v>30.0101</v>
+        <v>29.1141</v>
       </c>
       <c r="O4">
         <v>377.9962</v>
       </c>
       <c r="P4">
-        <v>31.4543342655</v>
+        <v>29.6897705849</v>
       </c>
       <c r="Q4">
         <v>11.12201138325179</v>
       </c>
       <c r="R4">
-        <v>4.380971579467825</v>
+        <v>4.368823903971476</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1">
@@ -5720,19 +5720,19 @@
         <v>391.899</v>
       </c>
       <c r="N8">
-        <v>15.9049</v>
+        <v>16.1988</v>
       </c>
       <c r="O8">
         <v>391.8992</v>
       </c>
       <c r="P8">
-        <v>15.5893796277</v>
+        <v>15.7358106888</v>
       </c>
       <c r="Q8">
         <v>1.555658449874069</v>
       </c>
       <c r="R8">
-        <v>2.241892190473486</v>
+        <v>2.241911907494027</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
@@ -5832,19 +5832,19 @@
         <v>382.1054</v>
       </c>
       <c r="N10">
-        <v>15.8984</v>
+        <v>15.9783</v>
       </c>
       <c r="O10">
         <v>382.1034</v>
       </c>
       <c r="P10">
-        <v>15.7401368772</v>
+        <v>15.564272782</v>
       </c>
       <c r="Q10">
         <v>7.118163405083836</v>
       </c>
       <c r="R10">
-        <v>1.866461806351067</v>
+        <v>1.865866594946743</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
@@ -5944,19 +5944,19 @@
         <v>401.7789</v>
       </c>
       <c r="N12">
-        <v>12.0357</v>
+        <v>11.3726</v>
       </c>
       <c r="O12">
         <v>401.721</v>
       </c>
       <c r="P12">
-        <v>11.5139317475</v>
+        <v>11.9606542028</v>
       </c>
       <c r="Q12">
         <v>8.150533719485544</v>
       </c>
       <c r="R12">
-        <v>1.936970295734012</v>
+        <v>1.938401912866515</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
@@ -6056,19 +6056,19 @@
         <v>415.0041</v>
       </c>
       <c r="N14">
-        <v>18.3862</v>
+        <v>18.4266</v>
       </c>
       <c r="O14">
         <v>415.0028</v>
       </c>
       <c r="P14">
-        <v>18.2554661074</v>
+        <v>18.264294678</v>
       </c>
       <c r="Q14">
         <v>5.524823909136777</v>
       </c>
       <c r="R14">
-        <v>2.219400904872311</v>
+        <v>2.219418562005929</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
@@ -6168,19 +6168,19 @@
         <v>431.6856</v>
       </c>
       <c r="N16">
-        <v>13.9222</v>
+        <v>13.9275</v>
       </c>
       <c r="O16">
         <v>431.6452</v>
       </c>
       <c r="P16">
-        <v>14.3116825688</v>
+        <v>14.2688349709</v>
       </c>
       <c r="Q16">
         <v>9.123121977598503</v>
       </c>
       <c r="R16">
-        <v>1.801068280153209</v>
+        <v>1.800842916945104</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -2956,10 +2956,10 @@
         <v>377.9962</v>
       </c>
       <c r="AP4">
-        <v>29.1141</v>
+        <v>29.4379</v>
       </c>
       <c r="AQ4">
-        <v>7.70222028687061</v>
+        <v>7.787882523686745</v>
       </c>
       <c r="AR4">
         <v>1.076828062108333E-07</v>
@@ -2977,13 +2977,13 @@
         <v>377.9962</v>
       </c>
       <c r="AW4">
-        <v>29.6897705849</v>
+        <v>29.4241907818</v>
       </c>
       <c r="AX4">
         <v>26.87803666683755</v>
       </c>
       <c r="AY4">
-        <v>7.854515623411029</v>
+        <v>7.784255709925127</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2992,7 +2992,7 @@
         <v>11.12201138325179</v>
       </c>
       <c r="BC4">
-        <v>4.368823903971476</v>
+        <v>4.367053478150225</v>
       </c>
       <c r="BD4">
         <v>377938.2</v>
@@ -3648,10 +3648,10 @@
         <v>391.899</v>
       </c>
       <c r="AP8">
-        <v>16.1988</v>
+        <v>15.6694</v>
       </c>
       <c r="AQ8">
-        <v>4.13341192501129</v>
+        <v>3.998326099326612</v>
       </c>
       <c r="AR8">
         <v>-2.860668868070028E-06</v>
@@ -3669,13 +3669,13 @@
         <v>391.8992</v>
       </c>
       <c r="AW8">
-        <v>15.7358106888</v>
+        <v>15.8329932016</v>
       </c>
       <c r="AX8">
         <v>15.18795753431959</v>
       </c>
       <c r="AY8">
-        <v>4.015269918591311</v>
+        <v>4.040067752524119</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3684,7 +3684,7 @@
         <v>1.555658449874069</v>
       </c>
       <c r="BC8">
-        <v>2.241911907494027</v>
+        <v>2.241925094840771</v>
       </c>
       <c r="BD8">
         <v>391841.2</v>
@@ -3994,10 +3994,10 @@
         <v>382.1054</v>
       </c>
       <c r="AP10">
-        <v>15.9783</v>
+        <v>15.7856</v>
       </c>
       <c r="AQ10">
-        <v>4.181647262770953</v>
+        <v>4.131216151355098</v>
       </c>
       <c r="AR10">
         <v>2.412244755611617E-05</v>
@@ -4015,13 +4015,13 @@
         <v>382.1034</v>
       </c>
       <c r="AW10">
-        <v>15.564272782</v>
+        <v>15.4690933588</v>
       </c>
       <c r="AX10">
         <v>15.40939381408343</v>
       </c>
       <c r="AY10">
-        <v>4.073314391340145</v>
+        <v>4.048405054443379</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -4030,7 +4030,7 @@
         <v>7.118163405083836</v>
       </c>
       <c r="BC10">
-        <v>1.865866594946743</v>
+        <v>1.86554717139261</v>
       </c>
       <c r="BD10">
         <v>382045.4</v>
@@ -4340,10 +4340,10 @@
         <v>401.7789</v>
       </c>
       <c r="AP12">
-        <v>11.3726</v>
+        <v>11.7409</v>
       </c>
       <c r="AQ12">
-        <v>2.830561784105636</v>
+        <v>2.922229116561372</v>
       </c>
       <c r="AR12">
         <v>0.0007142489577433893</v>
@@ -4361,13 +4361,13 @@
         <v>401.721</v>
       </c>
       <c r="AW12">
-        <v>11.9606542028</v>
+        <v>11.5412628664</v>
       </c>
       <c r="AX12">
         <v>11.60461605344168</v>
       </c>
       <c r="AY12">
-        <v>2.977353487320802</v>
+        <v>2.872954828450591</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4376,7 +4376,7 @@
         <v>8.150533719485544</v>
       </c>
       <c r="BC12">
-        <v>1.938401912866515</v>
+        <v>1.93705634916366</v>
       </c>
       <c r="BD12">
         <v>401663</v>
@@ -4686,10 +4686,10 @@
         <v>415.0041</v>
       </c>
       <c r="AP14">
-        <v>18.4266</v>
+        <v>18.2225</v>
       </c>
       <c r="AQ14">
-        <v>4.440100712258023</v>
+        <v>4.390920475243497</v>
       </c>
       <c r="AR14">
         <v>1.624463093515693E-05</v>
@@ -4707,13 +4707,13 @@
         <v>415.0028</v>
       </c>
       <c r="AW14">
-        <v>18.264294678</v>
+        <v>18.4154485443</v>
       </c>
       <c r="AX14">
         <v>17.66418967999461</v>
       </c>
       <c r="AY14">
-        <v>4.401005168639826</v>
+        <v>4.437427541284059</v>
       </c>
       <c r="AZ14" t="s">
         <v>31</v>
@@ -4722,7 +4722,7 @@
         <v>5.524823909136777</v>
       </c>
       <c r="BC14">
-        <v>2.219418562005929</v>
+        <v>2.219722171956008</v>
       </c>
       <c r="BD14">
         <v>414944.8</v>
@@ -5032,10 +5032,10 @@
         <v>431.6856</v>
       </c>
       <c r="AP16">
-        <v>13.9275</v>
+        <v>13.79</v>
       </c>
       <c r="AQ16">
-        <v>3.226306367411839</v>
+        <v>3.194454482614199</v>
       </c>
       <c r="AR16">
         <v>0.0004976277241418383</v>
@@ -5053,13 +5053,13 @@
         <v>431.6452</v>
       </c>
       <c r="AW16">
-        <v>14.2688349709</v>
+        <v>13.8693552895</v>
       </c>
       <c r="AX16">
         <v>13.74048435635092</v>
       </c>
       <c r="AY16">
-        <v>3.305686005751946</v>
+        <v>3.213137847820386</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
@@ -5068,7 +5068,7 @@
         <v>9.123121977598503</v>
       </c>
       <c r="BC16">
-        <v>1.800842916945104</v>
+        <v>1.798772994170248</v>
       </c>
       <c r="BD16">
         <v>431587.2</v>
@@ -5496,19 +5496,19 @@
         <v>377.9962</v>
       </c>
       <c r="N4">
-        <v>29.1141</v>
+        <v>29.4379</v>
       </c>
       <c r="O4">
         <v>377.9962</v>
       </c>
       <c r="P4">
-        <v>29.6897705849</v>
+        <v>29.4241907818</v>
       </c>
       <c r="Q4">
         <v>11.12201138325179</v>
       </c>
       <c r="R4">
-        <v>4.368823903971476</v>
+        <v>4.367053478150225</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1">
@@ -5720,19 +5720,19 @@
         <v>391.899</v>
       </c>
       <c r="N8">
-        <v>16.1988</v>
+        <v>15.6694</v>
       </c>
       <c r="O8">
         <v>391.8992</v>
       </c>
       <c r="P8">
-        <v>15.7358106888</v>
+        <v>15.8329932016</v>
       </c>
       <c r="Q8">
         <v>1.555658449874069</v>
       </c>
       <c r="R8">
-        <v>2.241911907494027</v>
+        <v>2.241925094840771</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
@@ -5832,19 +5832,19 @@
         <v>382.1054</v>
       </c>
       <c r="N10">
-        <v>15.9783</v>
+        <v>15.7856</v>
       </c>
       <c r="O10">
         <v>382.1034</v>
       </c>
       <c r="P10">
-        <v>15.564272782</v>
+        <v>15.4690933588</v>
       </c>
       <c r="Q10">
         <v>7.118163405083836</v>
       </c>
       <c r="R10">
-        <v>1.865866594946743</v>
+        <v>1.86554717139261</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
@@ -5944,19 +5944,19 @@
         <v>401.7789</v>
       </c>
       <c r="N12">
-        <v>11.3726</v>
+        <v>11.7409</v>
       </c>
       <c r="O12">
         <v>401.721</v>
       </c>
       <c r="P12">
-        <v>11.9606542028</v>
+        <v>11.5412628664</v>
       </c>
       <c r="Q12">
         <v>8.150533719485544</v>
       </c>
       <c r="R12">
-        <v>1.938401912866515</v>
+        <v>1.93705634916366</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
@@ -6056,19 +6056,19 @@
         <v>415.0041</v>
       </c>
       <c r="N14">
-        <v>18.4266</v>
+        <v>18.2225</v>
       </c>
       <c r="O14">
         <v>415.0028</v>
       </c>
       <c r="P14">
-        <v>18.264294678</v>
+        <v>18.4154485443</v>
       </c>
       <c r="Q14">
         <v>5.524823909136777</v>
       </c>
       <c r="R14">
-        <v>2.219418562005929</v>
+        <v>2.219722171956008</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
@@ -6168,19 +6168,19 @@
         <v>431.6856</v>
       </c>
       <c r="N16">
-        <v>13.9275</v>
+        <v>13.79</v>
       </c>
       <c r="O16">
         <v>431.6452</v>
       </c>
       <c r="P16">
-        <v>14.2688349709</v>
+        <v>13.8693552895</v>
       </c>
       <c r="Q16">
         <v>9.123121977598503</v>
       </c>
       <c r="R16">
-        <v>1.800842916945104</v>
+        <v>1.798772994170248</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">

--- a/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Results.xlsx
@@ -1176,10 +1176,10 @@
         <v>10.34908</v>
       </c>
       <c r="H3" s="3">
-        <v>0.01000133335800107</v>
+        <v>0.01000230000030109</v>
       </c>
       <c r="I3" s="3">
-        <v>0.4506409409315248</v>
+        <v>0.4320365356713142</v>
       </c>
       <c r="J3" s="3">
         <v>0.00717799145314555</v>
@@ -1200,16 +1200,16 @@
         <v>0.4406674262685277</v>
       </c>
       <c r="P3" s="3">
-        <v>0.007552282583021711</v>
+        <v>0.007546198356849778</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1300253187977594</v>
+        <v>0.1141431108761355</v>
       </c>
       <c r="R3" s="3">
-        <v>5.477391796564943E-05</v>
+        <v>5.472979131896184E-05</v>
       </c>
       <c r="S3" s="3">
-        <v>0.1300253187977592</v>
+        <v>0.1141431108761355</v>
       </c>
       <c r="T3" s="3">
         <v>1.305966114169593</v>
@@ -1321,16 +1321,16 @@
         <v>10.34908</v>
       </c>
       <c r="H5" s="3">
-        <v>0.009859724104468644</v>
+        <v>0.009858725955514484</v>
       </c>
       <c r="I5" s="3">
-        <v>0.4243881439755509</v>
+        <v>0.452704544934202</v>
       </c>
       <c r="J5" s="3">
-        <v>0.007177055373651661</v>
+        <v>0.007177060046642438</v>
       </c>
       <c r="K5" s="3">
-        <v>0.006501476568724097</v>
+        <v>0.006099549357745674</v>
       </c>
       <c r="L5" s="3">
         <v>2.699718702860548</v>
@@ -1339,10 +1339,10 @@
         <v>0.008423240659798149</v>
       </c>
       <c r="N5" s="3">
-        <v>2.064165395369796</v>
+        <v>2.065385710343613</v>
       </c>
       <c r="O5" s="3">
-        <v>0.4555356390590248</v>
+        <v>0.4821551753572025</v>
       </c>
       <c r="P5" s="3">
         <v>0.007540655251536639</v>
@@ -1363,10 +1363,10 @@
         <v>0.230910383116601</v>
       </c>
       <c r="V5" s="3">
-        <v>0.1951022458973197</v>
+        <v>0.1951177236046016</v>
       </c>
       <c r="W5" s="3">
-        <v>0.4439170131939391</v>
+        <v>0.4863252868335161</v>
       </c>
       <c r="X5" s="3">
         <v>0.2544523546619117</v>
@@ -1401,10 +1401,10 @@
         <v>2.21990038083948</v>
       </c>
       <c r="J6">
-        <v>0.007173997915120665</v>
+        <v>0.007173967396683234</v>
       </c>
       <c r="K6">
-        <v>0.005788632951176021</v>
+        <v>0.005686529708348604</v>
       </c>
       <c r="L6">
         <v>7.502573418054824</v>
@@ -1413,10 +1413,10 @@
         <v>0.0258666073832901</v>
       </c>
       <c r="N6">
-        <v>5.73688258602763</v>
+        <v>5.719299224597668</v>
       </c>
       <c r="O6">
-        <v>2.322408706039819</v>
+        <v>2.244714942757736</v>
       </c>
       <c r="P6">
         <v>0.007578669278143239</v>
@@ -1484,10 +1484,10 @@
         <v>0.009400022986501923</v>
       </c>
       <c r="N7" s="3">
-        <v>2.060119946887088</v>
+        <v>2.058691461260213</v>
       </c>
       <c r="O7" s="3">
-        <v>0.4071919102451975</v>
+        <v>0.4290959512891188</v>
       </c>
       <c r="P7" s="3">
         <v>0.007562015437654122</v>
@@ -1558,10 +1558,10 @@
         <v>0.0332131819373989</v>
       </c>
       <c r="N8">
-        <v>18.74110099785223</v>
+        <v>18.71853147365436</v>
       </c>
       <c r="O8">
-        <v>3.672396563329767</v>
+        <v>3.579091055796329</v>
       </c>
       <c r="P8">
         <v>0.007561725911077375</v>
@@ -1623,10 +1623,10 @@
         <v>0.004670007474339591</v>
       </c>
       <c r="L9" s="3">
-        <v>2.699349606342518</v>
+        <v>2.699364521708428</v>
       </c>
       <c r="M9" s="3">
-        <v>0.006828732521500181</v>
+        <v>0.007298460639385412</v>
       </c>
       <c r="N9" s="3">
         <v>2.053786140768191</v>
@@ -1647,10 +1647,10 @@
         <v>0.08373132603827285</v>
       </c>
       <c r="T9" s="3">
-        <v>1.309110682592674</v>
+        <v>1.309937551905162</v>
       </c>
       <c r="U9" s="3">
-        <v>0.3117928259639976</v>
+        <v>0.3021358378382663</v>
       </c>
       <c r="V9" s="3">
         <v>0.1953125163448551</v>
@@ -1703,10 +1703,10 @@
         <v>0.03396529543407661</v>
       </c>
       <c r="N10">
-        <v>26.46578628848677</v>
+        <v>26.44082220731349</v>
       </c>
       <c r="O10">
-        <v>3.215281694173313</v>
+        <v>3.109065176893555</v>
       </c>
       <c r="P10">
         <v>0.007569434626890977</v>
@@ -1721,10 +1721,10 @@
         <v>0.06242206481082245</v>
       </c>
       <c r="T10">
-        <v>15.76782841539394</v>
+        <v>15.78362856691893</v>
       </c>
       <c r="U10">
-        <v>0.4302640986438764</v>
+        <v>0.4125287645736772</v>
       </c>
       <c r="V10">
         <v>0.01117163554071872</v>
@@ -1768,10 +1768,10 @@
         <v>0.005376272354137635</v>
       </c>
       <c r="L11" s="3">
-        <v>2.699247965118998</v>
+        <v>2.699222237276266</v>
       </c>
       <c r="M11" s="3">
-        <v>0.007366958264563671</v>
+        <v>0.006899427687144034</v>
       </c>
       <c r="N11" s="3">
         <v>2.057099993786945</v>
@@ -1830,10 +1830,10 @@
         <v>0.009428000000000001</v>
       </c>
       <c r="H12">
-        <v>0.009610709267804031</v>
+        <v>0.009617090543235918</v>
       </c>
       <c r="I12">
-        <v>2.503900820748269</v>
+        <v>2.503589336580748</v>
       </c>
       <c r="J12">
         <v>0.007173593772190717</v>
@@ -1842,16 +1842,16 @@
         <v>0.003068993150975816</v>
       </c>
       <c r="L12">
-        <v>31.71906999615733</v>
+        <v>31.71856395076951</v>
       </c>
       <c r="M12">
-        <v>0.02674465574585643</v>
+        <v>0.02748518079900007</v>
       </c>
       <c r="N12">
-        <v>24.88698370481256</v>
+        <v>24.85144455077353</v>
       </c>
       <c r="O12">
-        <v>2.583612744665059</v>
+        <v>2.512834449749025</v>
       </c>
       <c r="P12">
         <v>0.00756852798933107</v>
@@ -1913,10 +1913,10 @@
         <v>0.004395954838094303</v>
       </c>
       <c r="L13" s="3">
-        <v>2.699528980303033</v>
+        <v>2.699528621760853</v>
       </c>
       <c r="M13" s="3">
-        <v>0.00693292828629354</v>
+        <v>0.005804521755796589</v>
       </c>
       <c r="N13" s="3">
         <v>2.048005683746828</v>
@@ -1975,22 +1975,22 @@
         <v>0.010175</v>
       </c>
       <c r="H14">
-        <v>0.008660796286496011</v>
+        <v>0.008631371408935825</v>
       </c>
       <c r="I14">
-        <v>2.994343626665726</v>
+        <v>3.135330266206472</v>
       </c>
       <c r="J14">
-        <v>0.007174118780785095</v>
+        <v>0.007174134149524174</v>
       </c>
       <c r="K14">
-        <v>0.003691424892600358</v>
+        <v>0.003600068728041768</v>
       </c>
       <c r="L14">
-        <v>19.64649218141604</v>
+        <v>19.64684962058278</v>
       </c>
       <c r="M14">
-        <v>0.024852687815843</v>
+        <v>0.02400726085605208</v>
       </c>
       <c r="N14">
         <v>17.11992933803555</v>
@@ -2011,10 +2011,10 @@
         <v>0.06811800691678893</v>
       </c>
       <c r="T14">
-        <v>9.315907172679495</v>
+        <v>9.313940534885369</v>
       </c>
       <c r="U14">
-        <v>0.3568045020111711</v>
+        <v>0.3585394774279018</v>
       </c>
       <c r="V14">
         <v>0.02233836201713205</v>
@@ -2023,10 +2023,10 @@
         <v>0.6344527651974496</v>
       </c>
       <c r="X14">
-        <v>0.2082698513425592</v>
+        <v>0.2083871504702719</v>
       </c>
       <c r="Y14">
-        <v>0.5073976123417954</v>
+        <v>0.3911703826005477</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1">
@@ -2046,16 +2046,16 @@
         <v>10.34908</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0098836395373202</v>
+        <v>0.009885461325426443</v>
       </c>
       <c r="I15" s="3">
-        <v>0.4585468207690044</v>
+        <v>0.4626693404894814</v>
       </c>
       <c r="J15" s="3">
-        <v>0.007175724036267457</v>
+        <v>0.0071757431980022</v>
       </c>
       <c r="K15" s="3">
-        <v>0.004989640828957764</v>
+        <v>0.004814947201412341</v>
       </c>
       <c r="L15" s="3">
         <v>2.699293296102625</v>
@@ -2126,10 +2126,10 @@
         <v>2.334199438921583</v>
       </c>
       <c r="J16">
-        <v>0.007172705358310005</v>
+        <v>0.007172717586218937</v>
       </c>
       <c r="K16">
-        <v>0.002934299153179218</v>
+        <v>0.003021117408196237</v>
       </c>
       <c r="L16">
         <v>26.13831359394676</v>
@@ -2138,10 +2138,10 @@
         <v>0.02067928444753542</v>
       </c>
       <c r="N16">
-        <v>20.56717153534174</v>
+        <v>20.55111579011857</v>
       </c>
       <c r="O16">
-        <v>2.457306767520724</v>
+        <v>2.358604827910589</v>
       </c>
       <c r="P16">
         <v>0.007566691699335247</v>
@@ -2191,10 +2191,10 @@
         <v>10.34908</v>
       </c>
       <c r="H17" s="3">
-        <v>0.009903412313649067</v>
+        <v>0.009899606839474754</v>
       </c>
       <c r="I17" s="3">
-        <v>0.394481809472249</v>
+        <v>0.4168767132109167</v>
       </c>
       <c r="J17" s="3">
         <v>0.007175176480282673</v>
@@ -2203,10 +2203,10 @@
         <v>0.003976427238991387</v>
       </c>
       <c r="L17" s="3">
-        <v>2.699291895192637</v>
+        <v>2.699349154270508</v>
       </c>
       <c r="M17" s="3">
-        <v>0.006324445588002652</v>
+        <v>0.006743728088740613</v>
       </c>
       <c r="N17" s="3">
         <v>2.051668836958891</v>
@@ -2227,10 +2227,10 @@
         <v>0.1021928148428077</v>
       </c>
       <c r="T17" s="3">
-        <v>1.306532670285804</v>
+        <v>1.30672637140562</v>
       </c>
       <c r="U17" s="3">
-        <v>0.3389653035504574</v>
+        <v>0.295091714482106</v>
       </c>
       <c r="V17" s="3">
         <v>0.1948974100333302</v>
@@ -2313,7 +2313,7 @@
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
     <col min="54" max="54" width="19.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" customWidth="1"/>
+    <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
   </cols>
@@ -2714,16 +2714,16 @@
         <v>0.001132311353930265</v>
       </c>
       <c r="S3" s="3">
-        <v>0.9964562961104956</v>
+        <v>0.9956535367580301</v>
       </c>
       <c r="T3" s="3">
-        <v>0.001295645475698015</v>
+        <v>0.001136469920403883</v>
       </c>
       <c r="U3" s="3">
-        <v>0.9964562961104956</v>
+        <v>0.9956535367580301</v>
       </c>
       <c r="V3" s="3">
-        <v>0.001295645475698015</v>
+        <v>0.001136469920403883</v>
       </c>
       <c r="W3" s="3">
         <v>0</v>
@@ -2762,10 +2762,10 @@
         <v>257.4812412484623</v>
       </c>
       <c r="AI3" s="3">
-        <v>-3.543703889504424</v>
+        <v>-4.346463241969856</v>
       </c>
       <c r="AJ3" s="3">
-        <v>1.295645475698016</v>
+        <v>1.136469920403883</v>
       </c>
       <c r="AK3" s="3">
         <v>0.9985009029369968</v>
@@ -2893,10 +2893,10 @@
         <v>0.001462523696273757</v>
       </c>
       <c r="U4">
-        <v>1.003827447745538</v>
+        <v>1.004232271268601</v>
       </c>
       <c r="V4">
-        <v>0.001468855587836767</v>
+        <v>0.001469447947903504</v>
       </c>
       <c r="W4">
         <v>0.003</v>
@@ -2935,10 +2935,10 @@
         <v>273890.924484755</v>
       </c>
       <c r="AI4">
-        <v>3.827447745538448</v>
+        <v>4.232271268601151</v>
       </c>
       <c r="AJ4">
-        <v>1.468855587836767</v>
+        <v>1.469447947903504</v>
       </c>
       <c r="AK4">
         <v>0.9736840677943434</v>
@@ -2953,13 +2953,13 @@
         <v>0.00754014313857141</v>
       </c>
       <c r="AO4">
-        <v>377.9962</v>
+        <v>376.1773</v>
       </c>
       <c r="AP4">
-        <v>29.4379</v>
+        <v>29.6673</v>
       </c>
       <c r="AQ4">
-        <v>7.787882523686745</v>
+        <v>7.886520531674825</v>
       </c>
       <c r="AR4">
         <v>1.076828062108333E-07</v>
@@ -2974,34 +2974,34 @@
         <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>377.9962</v>
+        <v>376.1773</v>
       </c>
       <c r="AW4">
-        <v>29.4241907818</v>
+        <v>29.1557810732</v>
       </c>
       <c r="AX4">
-        <v>26.87803666683755</v>
+        <v>26.40312183489934</v>
       </c>
       <c r="AY4">
-        <v>7.784255709925127</v>
+        <v>7.750542383392086</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
       </c>
       <c r="BB4">
-        <v>11.12201138325179</v>
+        <v>12.23540383790072</v>
       </c>
       <c r="BC4">
-        <v>4.367053478150225</v>
+        <v>4.365798617165606</v>
       </c>
       <c r="BD4">
-        <v>377938.2</v>
+        <v>376119.3</v>
       </c>
       <c r="BE4">
-        <v>13439.01833341878</v>
+        <v>13201.56091744967</v>
       </c>
       <c r="BF4">
-        <v>7.110663193661088</v>
+        <v>7.018797209427399</v>
       </c>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1">
@@ -3012,10 +3012,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="3">
-        <v>2.064165395369796</v>
+        <v>2.065385710343613</v>
       </c>
       <c r="D5" s="3">
-        <v>0.009403009025033047</v>
+        <v>0.00995836409350985</v>
       </c>
       <c r="E5" s="3">
         <v>2.699718702860548</v>
@@ -3027,22 +3027,22 @@
         <v>372.2399144691153</v>
       </c>
       <c r="H5" s="3">
-        <v>0.02420109081864815</v>
+        <v>0.02270495731227397</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>745.2412020487147</v>
+        <v>745.6817815681687</v>
       </c>
       <c r="K5" s="3">
-        <v>3.394839272283771</v>
+        <v>3.595343301526716</v>
       </c>
       <c r="L5" s="3">
-        <v>10.28912364754046</v>
+        <v>10.29520647970241</v>
       </c>
       <c r="M5" s="3">
-        <v>0.04687062516139666</v>
+        <v>0.04963887085559524</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>0.874753335520156</v>
+        <v>0.8746839457393562</v>
       </c>
       <c r="Y5" s="3">
-        <v>0.003883178879855433</v>
+        <v>0.00425380920800364</v>
       </c>
       <c r="Z5" s="3">
-        <v>0.0002135605793714104</v>
+        <v>0.0002135436386851754</v>
       </c>
       <c r="AA5" s="3">
-        <v>9.480317453052365E-07</v>
+        <v>1.038516713350407E-06</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
@@ -3102,10 +3102,10 @@
         <v>0.02335438135226814</v>
       </c>
       <c r="AG5" s="3">
-        <v>47359.14085941869</v>
+        <v>47362.89791980501</v>
       </c>
       <c r="AH5" s="3">
-        <v>236.9765091280065</v>
+        <v>254.9830732132042</v>
       </c>
       <c r="AI5" s="3">
         <v>-5.0778265256608</v>
@@ -3135,10 +3135,10 @@
         <v>109</v>
       </c>
       <c r="AR5" s="3">
-        <v>2.114194666807101E-05</v>
+        <v>2.114026958381719E-05</v>
       </c>
       <c r="AS5" s="3">
-        <v>9.386959218111887E-08</v>
+        <v>1.02825896518716E-07</v>
       </c>
       <c r="AT5" s="3">
         <v>0.75</v>
@@ -3185,10 +3185,10 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>5.73688258602763</v>
+        <v>5.719299224597668</v>
       </c>
       <c r="D6">
-        <v>0.133233860633188</v>
+        <v>0.1283819643155712</v>
       </c>
       <c r="E6">
         <v>7.502573418054824</v>
@@ -3200,22 +3200,22 @@
         <v>1034.462325454817</v>
       </c>
       <c r="H6">
-        <v>0.05988122703877927</v>
+        <v>0.058825007458662</v>
       </c>
       <c r="I6">
         <v>0.3</v>
       </c>
       <c r="J6">
-        <v>189.4517208163983</v>
+        <v>188.8709733329404</v>
       </c>
       <c r="K6">
-        <v>4.399843257982286</v>
+        <v>4.239614960936491</v>
       </c>
       <c r="L6">
-        <v>2.615652724729269</v>
+        <v>2.607634672790017</v>
       </c>
       <c r="M6">
-        <v>0.06074614659888028</v>
+        <v>0.0585339651526493</v>
       </c>
       <c r="N6">
         <v>0.005</v>
@@ -3326,7 +3326,7 @@
         <v>109</v>
       </c>
       <c r="AX6">
-        <v>42.24973933617349</v>
+        <v>42.24973933624914</v>
       </c>
       <c r="AY6" t="s">
         <v>109</v>
@@ -3344,10 +3344,10 @@
         <v>477305.4</v>
       </c>
       <c r="BE6">
-        <v>21124.86966808675</v>
+        <v>21124.86966812457</v>
       </c>
       <c r="BF6">
-        <v>8.850644883158928</v>
+        <v>8.850644883174777</v>
       </c>
     </row>
     <row r="7" spans="1:58" s="3" customFormat="1">
@@ -3358,10 +3358,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>2.060119946887088</v>
+        <v>2.058691461260213</v>
       </c>
       <c r="D7" s="3">
-        <v>0.00838864176507188</v>
+        <v>0.008833761709802372</v>
       </c>
       <c r="E7" s="3">
         <v>2.699478350561817</v>
@@ -3379,16 +3379,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>743.7806432694414</v>
+        <v>743.2649063289474</v>
       </c>
       <c r="K7" s="3">
-        <v>3.028614609362856</v>
+        <v>3.189319620410375</v>
       </c>
       <c r="L7" s="3">
-        <v>10.26895853880367</v>
+        <v>10.26183805065063</v>
       </c>
       <c r="M7" s="3">
-        <v>0.041814368436442</v>
+        <v>0.04403313160318809</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>18.74110099785223</v>
+        <v>18.71853147365436</v>
       </c>
       <c r="D8">
-        <v>0.6882475489752859</v>
+        <v>0.6699532857499838</v>
       </c>
       <c r="E8">
         <v>24.41778435892999</v>
@@ -3552,16 +3552,16 @@
         <v>0.3</v>
       </c>
       <c r="J8">
-        <v>1076.686971165671</v>
+        <v>1075.390285449284</v>
       </c>
       <c r="K8">
-        <v>39.54021532690746</v>
+        <v>38.48919752141794</v>
       </c>
       <c r="L8">
-        <v>14.86520786232007</v>
+        <v>14.84730525624941</v>
       </c>
       <c r="M8">
-        <v>0.5459093826676686</v>
+        <v>0.5313985744532008</v>
       </c>
       <c r="N8">
         <v>0.005</v>
@@ -3639,19 +3639,19 @@
         <v>0.003706537337851941</v>
       </c>
       <c r="AM8">
-        <v>0.9731911592080551</v>
+        <v>0.9728862458098875</v>
       </c>
       <c r="AN8">
-        <v>0.003706997038098112</v>
+        <v>0.0037058355879008</v>
       </c>
       <c r="AO8">
-        <v>391.899</v>
+        <v>390.698</v>
       </c>
       <c r="AP8">
-        <v>15.6694</v>
+        <v>15.1773</v>
       </c>
       <c r="AQ8">
-        <v>3.998326099326612</v>
+        <v>3.884662834209544</v>
       </c>
       <c r="AR8">
         <v>-2.860668868070028E-06</v>
@@ -3666,34 +3666,34 @@
         <v>0.375</v>
       </c>
       <c r="AV8">
-        <v>391.8992</v>
+        <v>390.6982</v>
       </c>
       <c r="AW8">
-        <v>15.8329932016</v>
+        <v>15.026134206</v>
       </c>
       <c r="AX8">
-        <v>15.18795753431959</v>
+        <v>15.01659664284953</v>
       </c>
       <c r="AY8">
-        <v>4.040067752524119</v>
+        <v>3.845969652790825</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
       </c>
       <c r="BB8">
-        <v>1.555658449874069</v>
+        <v>1.550394791013152</v>
       </c>
       <c r="BC8">
-        <v>2.241925094840771</v>
+        <v>2.234232746865819</v>
       </c>
       <c r="BD8">
-        <v>391841.2</v>
+        <v>390640.2</v>
       </c>
       <c r="BE8">
-        <v>7593.978767159795</v>
+        <v>7508.298321424767</v>
       </c>
       <c r="BF8">
-        <v>3.875475513683006</v>
+        <v>3.843528494077918</v>
       </c>
     </row>
     <row r="9" spans="1:58" s="3" customFormat="1">
@@ -3710,16 +3710,16 @@
         <v>0.00887834474860557</v>
       </c>
       <c r="E9" s="3">
-        <v>2.699349606342518</v>
+        <v>2.699364521708428</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0001843313644372987</v>
+        <v>0.0001970120571304239</v>
       </c>
       <c r="G9" s="3">
-        <v>372.1890230721128</v>
+        <v>372.1910796176798</v>
       </c>
       <c r="H9" s="3">
-        <v>0.01738125519613917</v>
+        <v>0.01738135123697087</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>13.53622066736602</v>
+        <v>13.53629546230322</v>
       </c>
       <c r="P9" s="3">
-        <v>0.0009243523028944523</v>
+        <v>0.0009879411963471143</v>
       </c>
       <c r="Q9" s="3">
-        <v>10.09989219229477</v>
+        <v>10.09994799965939</v>
       </c>
       <c r="R9" s="3">
-        <v>0.0006896946227716909</v>
+        <v>0.0007371407293535347</v>
       </c>
       <c r="S9" s="3">
         <v>0.9966374424759645</v>
@@ -3782,22 +3782,22 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>221.4906622579804</v>
+        <v>221.6305616828793</v>
       </c>
       <c r="AD9" s="3">
-        <v>0.6905919951005306</v>
+        <v>0.669625354446223</v>
       </c>
       <c r="AE9" s="3">
-        <v>10.11032654338165</v>
+        <v>10.11671249597459</v>
       </c>
       <c r="AF9" s="3">
-        <v>0.03152327284379779</v>
+        <v>0.03056621406140142</v>
       </c>
       <c r="AG9" s="3">
-        <v>47392.74882044415</v>
+        <v>47422.68334787193</v>
       </c>
       <c r="AH9" s="3">
-        <v>264.9409313802134</v>
+        <v>262.5815784577058</v>
       </c>
       <c r="AI9" s="3">
         <v>-3.36255752403547</v>
@@ -3806,16 +3806,16 @@
         <v>0.8344977463790538</v>
       </c>
       <c r="AK9" s="3">
-        <v>1.001033115095509</v>
+        <v>1.001659859666186</v>
       </c>
       <c r="AL9" s="3">
-        <v>0.003121897918845934</v>
+        <v>0.003027256259922575</v>
       </c>
       <c r="AM9" s="3">
-        <v>1.001033115095509</v>
+        <v>1.001659859666186</v>
       </c>
       <c r="AN9" s="3">
-        <v>0.003121897918845934</v>
+        <v>0.003027256259922575</v>
       </c>
       <c r="AO9" s="3" t="s">
         <v>108</v>
@@ -3827,10 +3827,10 @@
         <v>109</v>
       </c>
       <c r="AR9" s="3">
-        <v>2.112207331311592E-05</v>
+        <v>2.112195660288664E-05</v>
       </c>
       <c r="AS9" s="3">
-        <v>9.801856223392604E-08</v>
+        <v>9.801953082093101E-08</v>
       </c>
       <c r="AT9" s="3">
         <v>0.75</v>
@@ -3877,10 +3877,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>26.46578628848677</v>
+        <v>26.44082220731349</v>
       </c>
       <c r="D10">
-        <v>0.8509495817527457</v>
+        <v>0.8220623957319213</v>
       </c>
       <c r="E10">
         <v>33.45852367426423</v>
@@ -3898,16 +3898,16 @@
         <v>0.3</v>
       </c>
       <c r="J10">
-        <v>795.0217464348464</v>
+        <v>794.2718124950086</v>
       </c>
       <c r="K10">
-        <v>25.56218867781659</v>
+        <v>24.69442833216358</v>
       </c>
       <c r="L10">
-        <v>10.97641545993988</v>
+        <v>10.96606154631666</v>
       </c>
       <c r="M10">
-        <v>0.3529226769598564</v>
+        <v>0.3409420008132461</v>
       </c>
       <c r="N10">
         <v>0.005</v>
@@ -3955,22 +3955,22 @@
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>221.9719561606385</v>
+        <v>222.1943871866192</v>
       </c>
       <c r="AD10">
-        <v>0.9550656364167517</v>
+        <v>0.9166157604130131</v>
       </c>
       <c r="AE10">
-        <v>10.13229604073926</v>
+        <v>10.14244929182045</v>
       </c>
       <c r="AF10">
-        <v>0.04359563223161594</v>
+        <v>0.04184052076105856</v>
       </c>
       <c r="AG10">
-        <v>40325.48587057323</v>
+        <v>40365.89475532834</v>
       </c>
       <c r="AH10">
-        <v>284.2355970724442</v>
+        <v>280.2077133903696</v>
       </c>
       <c r="AI10">
         <v>2.421364011313321</v>
@@ -3979,25 +3979,25 @@
         <v>0.6257321135206724</v>
       </c>
       <c r="AK10">
-        <v>0.9727494180878065</v>
+        <v>0.9737241792911129</v>
       </c>
       <c r="AL10">
-        <v>0.004198412135478684</v>
+        <v>0.004030484483630564</v>
       </c>
       <c r="AM10">
-        <v>0.9731145957682682</v>
+        <v>0.9737798184497762</v>
       </c>
       <c r="AN10">
-        <v>0.004199988251975644</v>
+        <v>0.004030714787828039</v>
       </c>
       <c r="AO10">
-        <v>382.1054</v>
+        <v>384.527</v>
       </c>
       <c r="AP10">
-        <v>15.7856</v>
+        <v>15.5405</v>
       </c>
       <c r="AQ10">
-        <v>4.131216151355098</v>
+        <v>4.041458727215514</v>
       </c>
       <c r="AR10">
         <v>2.412244755611617E-05</v>
@@ -4012,34 +4012,34 @@
         <v>0.375</v>
       </c>
       <c r="AV10">
-        <v>382.1034</v>
+        <v>384.5251</v>
       </c>
       <c r="AW10">
-        <v>15.4690933588</v>
+        <v>15.360451145</v>
       </c>
       <c r="AX10">
-        <v>15.40939381408343</v>
+        <v>15.14461542296642</v>
       </c>
       <c r="AY10">
-        <v>4.048405054443379</v>
+        <v>3.994655003015408</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
       </c>
       <c r="BB10">
-        <v>7.118163405083836</v>
+        <v>7.166976844287677</v>
       </c>
       <c r="BC10">
-        <v>1.86554717139261</v>
+        <v>1.877975566443561</v>
       </c>
       <c r="BD10">
-        <v>382045.4</v>
+        <v>384467.1</v>
       </c>
       <c r="BE10">
-        <v>7704.696907041714</v>
+        <v>7572.307711483209</v>
       </c>
       <c r="BF10">
-        <v>4.03278113046977</v>
+        <v>3.938524539221606</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="3" customFormat="1">
@@ -4056,16 +4056,16 @@
         <v>0.009918091052576489</v>
       </c>
       <c r="E11" s="3">
-        <v>2.699247965118998</v>
+        <v>2.699222237276266</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0001988524710474008</v>
+        <v>0.0001862308863761873</v>
       </c>
       <c r="G11" s="3">
-        <v>372.1750086785726</v>
+        <v>372.1714612978888</v>
       </c>
       <c r="H11" s="3">
-        <v>0.02000914210059544</v>
+        <v>0.02000895138374844</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>13.53571097494706</v>
+        <v>13.53558195951471</v>
       </c>
       <c r="P11" s="3">
-        <v>0.0009971701783363144</v>
+        <v>0.0009338776893308311</v>
       </c>
       <c r="Q11" s="3">
-        <v>10.09951189127803</v>
+        <v>10.09941562792728</v>
       </c>
       <c r="R11" s="3">
-        <v>0.0007440268259550972</v>
+        <v>0.0006968018780729664</v>
       </c>
       <c r="S11" s="3">
         <v>0.9959764245130508</v>
@@ -4152,16 +4152,16 @@
         <v>1.047608192131502</v>
       </c>
       <c r="AK11" s="3">
-        <v>0.9982163511399174</v>
+        <v>0.9982258657152421</v>
       </c>
       <c r="AL11" s="3">
-        <v>0.002868473941237969</v>
+        <v>0.002868385429831455</v>
       </c>
       <c r="AM11" s="3">
-        <v>0.9982163511399174</v>
+        <v>0.9982258657152421</v>
       </c>
       <c r="AN11" s="3">
-        <v>0.002868473941237969</v>
+        <v>0.002868385429831454</v>
       </c>
       <c r="AO11" s="3" t="s">
         <v>108</v>
@@ -4173,10 +4173,10 @@
         <v>109</v>
       </c>
       <c r="AR11" s="3">
-        <v>2.109903003497367E-05</v>
+        <v>2.109923114198851E-05</v>
       </c>
       <c r="AS11" s="3">
-        <v>9.689171185551433E-08</v>
+        <v>9.689110309996051E-08</v>
       </c>
       <c r="AT11" s="3">
         <v>0.75</v>
@@ -4223,52 +4223,52 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>24.88698370481256</v>
+        <v>24.85144455077353</v>
       </c>
       <c r="D12">
-        <v>0.6429832827602537</v>
+        <v>0.6244756599321143</v>
       </c>
       <c r="E12">
-        <v>31.71906999615733</v>
+        <v>31.71856395076951</v>
       </c>
       <c r="F12">
-        <v>0.008483156076259516</v>
+        <v>0.008717904648715458</v>
       </c>
       <c r="G12">
-        <v>4373.457090140168</v>
+        <v>4373.38731609605</v>
       </c>
       <c r="H12">
-        <v>0.134221098557268</v>
+        <v>0.1342189571966328</v>
       </c>
       <c r="I12">
         <v>0.3</v>
       </c>
       <c r="J12">
-        <v>726.8110471017789</v>
+        <v>725.7731108453684</v>
       </c>
       <c r="K12">
-        <v>18.77798284255512</v>
+        <v>18.2374767563376</v>
       </c>
       <c r="L12">
-        <v>10.03466892526927</v>
+        <v>10.02033872660189</v>
       </c>
       <c r="M12">
-        <v>0.2592569852382011</v>
+        <v>0.2517945235035952</v>
       </c>
       <c r="N12">
         <v>0.005</v>
       </c>
       <c r="O12">
-        <v>12.86638272537895</v>
+        <v>12.86617744899301</v>
       </c>
       <c r="P12">
-        <v>0.003441069766846942</v>
+        <v>0.003536292133775905</v>
       </c>
       <c r="Q12">
-        <v>9.600100472979193</v>
+        <v>9.59994730841291</v>
       </c>
       <c r="R12">
-        <v>0.002567513822754621</v>
+        <v>0.002638562874326029</v>
       </c>
       <c r="S12">
         <v>0.9985997325115947</v>
@@ -4325,31 +4325,31 @@
         <v>0.6175524538612926</v>
       </c>
       <c r="AK12">
-        <v>0.9774307592419357</v>
+        <v>0.9774463538856876</v>
       </c>
       <c r="AL12">
-        <v>0.002562800818182701</v>
+        <v>0.002563590132735446</v>
       </c>
       <c r="AM12">
-        <v>0.9783842580929543</v>
+        <v>0.9783951438756596</v>
       </c>
       <c r="AN12">
-        <v>0.002565300870091668</v>
+        <v>0.002566078564603508</v>
       </c>
       <c r="AO12">
-        <v>401.7789</v>
+        <v>401.8258</v>
       </c>
       <c r="AP12">
-        <v>11.7409</v>
+        <v>11.9323</v>
       </c>
       <c r="AQ12">
-        <v>2.922229116561372</v>
+        <v>2.969520623115788</v>
       </c>
       <c r="AR12">
-        <v>0.0007142489577433893</v>
+        <v>0.0007142603533925857</v>
       </c>
       <c r="AS12">
-        <v>1.939387227825408E-06</v>
+        <v>1.939946287723236E-06</v>
       </c>
       <c r="AT12">
         <v>0.75</v>
@@ -4358,34 +4358,34 @@
         <v>0.375</v>
       </c>
       <c r="AV12">
-        <v>401.721</v>
+        <v>401.7679</v>
       </c>
       <c r="AW12">
-        <v>11.5412628664</v>
+        <v>11.6607250848</v>
       </c>
       <c r="AX12">
-        <v>11.60461605344168</v>
+        <v>11.61281467750526</v>
       </c>
       <c r="AY12">
-        <v>2.872954828450591</v>
+        <v>2.902353593903345</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
       </c>
       <c r="BB12">
-        <v>8.150533719485544</v>
+        <v>8.151612551622513</v>
       </c>
       <c r="BC12">
-        <v>1.93705634916366</v>
+        <v>1.937691276964449</v>
       </c>
       <c r="BD12">
-        <v>401663</v>
+        <v>401709.9</v>
       </c>
       <c r="BE12">
-        <v>5802.30802672084</v>
+        <v>5806.40733875263</v>
       </c>
       <c r="BF12">
-        <v>2.88872527287388</v>
+        <v>2.890428697142121</v>
       </c>
     </row>
     <row r="13" spans="1:58" s="3" customFormat="1">
@@ -4402,16 +4402,16 @@
         <v>0.009952076662128514</v>
       </c>
       <c r="E13" s="3">
-        <v>2.699528980303033</v>
+        <v>2.699528621760853</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0001871564082721205</v>
+        <v>0.0001566947261540645</v>
       </c>
       <c r="G13" s="3">
-        <v>372.2137553331626</v>
+        <v>372.2137058970081</v>
       </c>
       <c r="H13" s="3">
-        <v>0.01636234858562065</v>
+        <v>0.01636234641242963</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -4432,16 +4432,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>13.5371201601571</v>
+        <v>13.53711836220323</v>
       </c>
       <c r="P13" s="3">
-        <v>0.0009385188327330771</v>
+        <v>0.0007857649804420215</v>
       </c>
       <c r="Q13" s="3">
-        <v>10.10056333828455</v>
+        <v>10.10056199676237</v>
       </c>
       <c r="R13" s="3">
-        <v>0.0007002648127549248</v>
+        <v>0.0005862893185597944</v>
       </c>
       <c r="S13" s="3">
         <v>0.9959976538705523</v>
@@ -4498,16 +4498,16 @@
         <v>0.8888145216077643</v>
       </c>
       <c r="AK13" s="3">
-        <v>0.9998345192760126</v>
+        <v>0.9998346520706217</v>
       </c>
       <c r="AL13" s="3">
-        <v>0.002158910450175707</v>
+        <v>0.002158577944632939</v>
       </c>
       <c r="AM13" s="3">
-        <v>0.9998345192760126</v>
+        <v>0.9998346520706217</v>
       </c>
       <c r="AN13" s="3">
-        <v>0.002158910450175707</v>
+        <v>0.002158577944632939</v>
       </c>
       <c r="AO13" s="3" t="s">
         <v>108</v>
@@ -4519,10 +4519,10 @@
         <v>109</v>
       </c>
       <c r="AR13" s="3">
-        <v>2.120384525069109E-05</v>
+        <v>2.120384806691346E-05</v>
       </c>
       <c r="AS13" s="3">
-        <v>6.900356344332095E-08</v>
+        <v>6.899888996980891E-08</v>
       </c>
       <c r="AT13" s="3">
         <v>0.75</v>
@@ -4575,16 +4575,16 @@
         <v>0.5076492616031387</v>
       </c>
       <c r="E14">
-        <v>19.64649218141604</v>
+        <v>19.64684962058278</v>
       </c>
       <c r="F14">
-        <v>0.004882681368611331</v>
+        <v>0.004716670438409586</v>
       </c>
       <c r="G14">
-        <v>2708.877988465824</v>
+        <v>2708.927272535574</v>
       </c>
       <c r="H14">
-        <v>0.0999961963763993</v>
+        <v>0.09752324360394798</v>
       </c>
       <c r="I14">
         <v>0.3</v>
@@ -4605,16 +4605,16 @@
         <v>0.005</v>
       </c>
       <c r="O14">
-        <v>7.181536971326349</v>
+        <v>7.181667634955887</v>
       </c>
       <c r="P14">
-        <v>0.001784804963863084</v>
+        <v>0.001724121682938526</v>
       </c>
       <c r="Q14">
-        <v>5.35841952992402</v>
+        <v>5.358517023057755</v>
       </c>
       <c r="R14">
-        <v>0.001331711277635179</v>
+        <v>0.001286433159741432</v>
       </c>
       <c r="S14">
         <v>0.9978550705091705</v>
@@ -4647,22 +4647,22 @@
         <v>0.05</v>
       </c>
       <c r="AC14">
-        <v>114.8962545556195</v>
+        <v>114.8719986371115</v>
       </c>
       <c r="AD14">
-        <v>0.4099550088966659</v>
+        <v>0.4118614636244861</v>
       </c>
       <c r="AE14">
-        <v>5.244639391685962</v>
+        <v>5.243532188094504</v>
       </c>
       <c r="AF14">
-        <v>0.01871310946378681</v>
+        <v>0.01880013290595786</v>
       </c>
       <c r="AG14">
-        <v>60251.66746276931</v>
+        <v>60238.94764399362</v>
       </c>
       <c r="AH14">
-        <v>438.5724478132896</v>
+        <v>438.9931104873692</v>
       </c>
       <c r="AI14">
         <v>1.712729973920579</v>
@@ -4671,31 +4671,31 @@
         <v>0.6823467466899904</v>
       </c>
       <c r="AK14">
-        <v>0.9787661011604907</v>
+        <v>0.9785416684376537</v>
       </c>
       <c r="AL14">
-        <v>0.003500742860493358</v>
+        <v>0.003516314367639354</v>
       </c>
       <c r="AM14">
-        <v>0.9800550835068594</v>
+        <v>0.9798302900744216</v>
       </c>
       <c r="AN14">
-        <v>0.003505353150675049</v>
+        <v>0.003520944930569855</v>
       </c>
       <c r="AO14">
-        <v>415.0041</v>
+        <v>413.9135</v>
       </c>
       <c r="AP14">
-        <v>18.2225</v>
+        <v>18.0169</v>
       </c>
       <c r="AQ14">
-        <v>4.390920475243497</v>
+        <v>4.352817678089746</v>
       </c>
       <c r="AR14">
-        <v>1.624463093515693E-05</v>
+        <v>1.624433537950797E-05</v>
       </c>
       <c r="AS14">
-        <v>1.03143552685453E-07</v>
+        <v>1.031363918779399E-07</v>
       </c>
       <c r="AT14">
         <v>0.75</v>
@@ -4704,34 +4704,34 @@
         <v>0.375</v>
       </c>
       <c r="AV14">
-        <v>415.0028</v>
+        <v>413.9122</v>
       </c>
       <c r="AW14">
-        <v>18.4154485443</v>
+        <v>18.2169532435</v>
       </c>
       <c r="AX14">
-        <v>17.66418967999461</v>
+        <v>17.56094158319926</v>
       </c>
       <c r="AY14">
-        <v>4.437427541284059</v>
+        <v>4.401163638931155</v>
       </c>
       <c r="AZ14" t="s">
         <v>31</v>
       </c>
       <c r="BB14">
-        <v>5.524823909136777</v>
+        <v>5.507846085188723</v>
       </c>
       <c r="BC14">
-        <v>2.219722171956008</v>
+        <v>2.212503978707845</v>
       </c>
       <c r="BD14">
-        <v>414944.8</v>
+        <v>413854.2</v>
       </c>
       <c r="BE14">
-        <v>8832.094839997306</v>
+        <v>8780.47079159963</v>
       </c>
       <c r="BF14">
-        <v>4.256402530294882</v>
+        <v>4.242673103909297</v>
       </c>
     </row>
     <row r="15" spans="1:58" s="3" customFormat="1">
@@ -4757,7 +4757,7 @@
         <v>372.1812589599261</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0185705080547935</v>
+        <v>0.01792033111247218</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -4915,10 +4915,10 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>20.56717153534174</v>
+        <v>20.55111579011857</v>
       </c>
       <c r="D16">
-        <v>0.5053984980255487</v>
+        <v>0.4847196092152319</v>
       </c>
       <c r="E16">
         <v>26.13831359394676</v>
@@ -4930,22 +4930,22 @@
         <v>3603.976816646973</v>
       </c>
       <c r="H16">
-        <v>0.1057514612116475</v>
+        <v>0.1088803709950783</v>
       </c>
       <c r="I16">
         <v>0.3</v>
       </c>
       <c r="J16">
-        <v>645.9444097648345</v>
+        <v>645.4401343156733</v>
       </c>
       <c r="K16">
-        <v>15.87283569557308</v>
+        <v>15.22338216924206</v>
       </c>
       <c r="L16">
-        <v>8.918189014827812</v>
+        <v>8.911226769001123</v>
       </c>
       <c r="M16">
-        <v>0.2191472622016536</v>
+        <v>0.2101806247997213</v>
       </c>
       <c r="N16">
         <v>0.005</v>
@@ -5023,19 +5023,19 @@
         <v>0.002318509201062042</v>
       </c>
       <c r="AM16">
-        <v>0.9845599176079866</v>
+        <v>0.9844973335876147</v>
       </c>
       <c r="AN16">
-        <v>0.002322436199383935</v>
+        <v>0.002322288572620124</v>
       </c>
       <c r="AO16">
-        <v>431.6856</v>
+        <v>431.3318</v>
       </c>
       <c r="AP16">
-        <v>13.79</v>
+        <v>14.0718</v>
       </c>
       <c r="AQ16">
-        <v>3.194454482614199</v>
+        <v>3.262407269763092</v>
       </c>
       <c r="AR16">
         <v>0.0004976277241418383</v>
@@ -5050,34 +5050,34 @@
         <v>0.375</v>
       </c>
       <c r="AV16">
-        <v>431.6452</v>
+        <v>431.2915</v>
       </c>
       <c r="AW16">
-        <v>13.8693552895</v>
+        <v>14.1004283678</v>
       </c>
       <c r="AX16">
-        <v>13.74048435635092</v>
+        <v>13.69513521878144</v>
       </c>
       <c r="AY16">
-        <v>3.213137847820386</v>
+        <v>3.269349933351341</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
       </c>
       <c r="BB16">
-        <v>9.123121977598503</v>
+        <v>9.114020161546508</v>
       </c>
       <c r="BC16">
-        <v>1.798772994170248</v>
+        <v>1.798167675300385</v>
       </c>
       <c r="BD16">
-        <v>431587.2</v>
+        <v>431233.5</v>
       </c>
       <c r="BE16">
-        <v>6870.242178175461</v>
+        <v>6847.567609390721</v>
       </c>
       <c r="BF16">
-        <v>3.183282092874176</v>
+        <v>3.175377956389459</v>
       </c>
     </row>
     <row r="17" spans="1:58" s="3" customFormat="1">
@@ -5094,16 +5094,16 @@
         <v>0.008160140815615053</v>
       </c>
       <c r="E17" s="3">
-        <v>2.699291895192637</v>
+        <v>2.699349154270508</v>
       </c>
       <c r="F17" s="3">
-        <v>0.000170715247172824</v>
+        <v>0.0001820367671297225</v>
       </c>
       <c r="G17" s="3">
-        <v>372.181065801056</v>
+        <v>372.1889607399719</v>
       </c>
       <c r="H17" s="3">
-        <v>0.01479950927888165</v>
+        <v>0.0147998232153832</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -5124,16 +5124,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>13.53593126770548</v>
+        <v>13.53621840039531</v>
       </c>
       <c r="P17" s="3">
-        <v>0.0008560726078554706</v>
+        <v>0.0009128457624207341</v>
       </c>
       <c r="Q17" s="3">
-        <v>10.0996762601344</v>
+        <v>10.09989050082118</v>
       </c>
       <c r="R17" s="3">
-        <v>0.0006387485296366214</v>
+        <v>0.0006811091526359231</v>
       </c>
       <c r="S17" s="3">
         <v>0.9950411153783151</v>
@@ -5166,22 +5166,22 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <v>221.054483972408</v>
+        <v>221.087256594218</v>
       </c>
       <c r="AD17" s="3">
-        <v>0.7492980026089698</v>
+        <v>0.6524101759853309</v>
       </c>
       <c r="AE17" s="3">
-        <v>10.09041642684078</v>
+        <v>10.09191239016856</v>
       </c>
       <c r="AF17" s="3">
-        <v>0.03420301067074608</v>
+        <v>0.02978039729618048</v>
       </c>
       <c r="AG17" s="3">
-        <v>47198.8914382587</v>
+        <v>47205.88895032525</v>
       </c>
       <c r="AH17" s="3">
-        <v>265.2767874518087</v>
+        <v>253.364579486922</v>
       </c>
       <c r="AI17" s="3">
         <v>-4.958884621684923</v>
@@ -5190,16 +5190,16 @@
         <v>1.016860524648371</v>
       </c>
       <c r="AK17" s="3">
-        <v>0.9990831554343809</v>
+        <v>0.9992100794902702</v>
       </c>
       <c r="AL17" s="3">
-        <v>0.0033871346687152</v>
+        <v>0.002949356017414585</v>
       </c>
       <c r="AM17" s="3">
-        <v>0.9990831554343809</v>
+        <v>0.9992100794902702</v>
       </c>
       <c r="AN17" s="3">
-        <v>0.0033871346687152</v>
+        <v>0.002949356017414584</v>
       </c>
       <c r="AO17" s="3" t="s">
         <v>108</v>
@@ -5211,10 +5211,10 @@
         <v>109</v>
       </c>
       <c r="AR17" s="3">
-        <v>2.116751315528863E-05</v>
+        <v>2.116706414620724E-05</v>
       </c>
       <c r="AS17" s="3">
-        <v>9.490787111651057E-08</v>
+        <v>9.490715126626067E-08</v>
       </c>
       <c r="AT17" s="3">
         <v>0.75</v>
@@ -5431,10 +5431,10 @@
         <v>257.4812412484623</v>
       </c>
       <c r="K3" s="3">
-        <v>-3.543703889504424</v>
+        <v>-4.346463241969856</v>
       </c>
       <c r="L3" s="3">
-        <v>1.295645475698016</v>
+        <v>1.136469920403883</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>108</v>
@@ -5487,28 +5487,28 @@
         <v>273890.924484755</v>
       </c>
       <c r="K4">
-        <v>3.827447745538448</v>
+        <v>4.232271268601151</v>
       </c>
       <c r="L4">
-        <v>1.468855587836767</v>
+        <v>1.469447947903504</v>
       </c>
       <c r="M4">
-        <v>377.9962</v>
+        <v>376.1773</v>
       </c>
       <c r="N4">
-        <v>29.4379</v>
+        <v>29.6673</v>
       </c>
       <c r="O4">
-        <v>377.9962</v>
+        <v>376.1773</v>
       </c>
       <c r="P4">
-        <v>29.4241907818</v>
+        <v>29.1557810732</v>
       </c>
       <c r="Q4">
-        <v>11.12201138325179</v>
+        <v>12.23540383790072</v>
       </c>
       <c r="R4">
-        <v>4.367053478150225</v>
+        <v>4.365798617165606</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1">
@@ -5525,10 +5525,10 @@
         <v>1.140344347121444</v>
       </c>
       <c r="E5" s="3">
-        <v>0.874753335520156</v>
+        <v>0.8746839457393562</v>
       </c>
       <c r="F5" s="3">
-        <v>0.003883178879855433</v>
+        <v>0.00425380920800364</v>
       </c>
       <c r="G5" s="3">
         <v>1.001264430295493</v>
@@ -5537,10 +5537,10 @@
         <v>0.002313561294784921</v>
       </c>
       <c r="I5" s="3">
-        <v>47359.14085941869</v>
+        <v>47362.89791980501</v>
       </c>
       <c r="J5" s="3">
-        <v>236.9765091280065</v>
+        <v>254.9830732132042</v>
       </c>
       <c r="K5" s="3">
         <v>-5.0778265256608</v>
@@ -5699,10 +5699,10 @@
         <v>-0.002531664104252674</v>
       </c>
       <c r="G8">
-        <v>0.9731911592080551</v>
+        <v>0.9728862458098875</v>
       </c>
       <c r="H8">
-        <v>0.003706997038098112</v>
+        <v>0.0037058355879008</v>
       </c>
       <c r="I8">
         <v>-340154.879791751</v>
@@ -5717,22 +5717,22 @@
         <v>0.7414785780893494</v>
       </c>
       <c r="M8">
-        <v>391.899</v>
+        <v>390.698</v>
       </c>
       <c r="N8">
-        <v>15.6694</v>
+        <v>15.1773</v>
       </c>
       <c r="O8">
-        <v>391.8992</v>
+        <v>390.6982</v>
       </c>
       <c r="P8">
-        <v>15.8329932016</v>
+        <v>15.026134206</v>
       </c>
       <c r="Q8">
-        <v>1.555658449874069</v>
+        <v>1.550394791013152</v>
       </c>
       <c r="R8">
-        <v>2.241925094840771</v>
+        <v>2.234232746865819</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
@@ -5743,10 +5743,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="3">
-        <v>13536.22066736602</v>
+        <v>13536.29546230322</v>
       </c>
       <c r="D9" s="3">
-        <v>0.9243523028944522</v>
+        <v>0.9879411963471143</v>
       </c>
       <c r="E9" s="3">
         <v>0.8738115895492107</v>
@@ -5755,16 +5755,16 @@
         <v>0.004054549031820016</v>
       </c>
       <c r="G9" s="3">
-        <v>1.001033115095509</v>
+        <v>1.001659859666186</v>
       </c>
       <c r="H9" s="3">
-        <v>0.003121897918845934</v>
+        <v>0.003027256259922575</v>
       </c>
       <c r="I9" s="3">
-        <v>47392.74882044415</v>
+        <v>47422.68334787193</v>
       </c>
       <c r="J9" s="3">
-        <v>264.9409313802134</v>
+        <v>262.5815784577058</v>
       </c>
       <c r="K9" s="3">
         <v>-3.36255752403547</v>
@@ -5811,16 +5811,16 @@
         <v>0.005745860638625362</v>
       </c>
       <c r="G10">
-        <v>0.9731145957682682</v>
+        <v>0.9737798184497762</v>
       </c>
       <c r="H10">
-        <v>0.004199988251975644</v>
+        <v>0.004030714787828039</v>
       </c>
       <c r="I10">
-        <v>40325.48587057323</v>
+        <v>40365.89475532834</v>
       </c>
       <c r="J10">
-        <v>284.2355970724442</v>
+        <v>280.2077133903696</v>
       </c>
       <c r="K10">
         <v>2.421364011313321</v>
@@ -5829,22 +5829,22 @@
         <v>0.6257321135206724</v>
       </c>
       <c r="M10">
-        <v>382.1054</v>
+        <v>384.527</v>
       </c>
       <c r="N10">
-        <v>15.7856</v>
+        <v>15.5405</v>
       </c>
       <c r="O10">
-        <v>382.1034</v>
+        <v>384.5251</v>
       </c>
       <c r="P10">
-        <v>15.4690933588</v>
+        <v>15.360451145</v>
       </c>
       <c r="Q10">
-        <v>7.118163405083836</v>
+        <v>7.166976844287677</v>
       </c>
       <c r="R10">
-        <v>1.86554717139261</v>
+        <v>1.877975566443561</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
@@ -5855,10 +5855,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>13535.71097494706</v>
+        <v>13535.58195951471</v>
       </c>
       <c r="D11" s="3">
-        <v>0.9971701783363144</v>
+        <v>0.933877689330831</v>
       </c>
       <c r="E11" s="3">
         <v>0.8728254319182209</v>
@@ -5867,10 +5867,10 @@
         <v>0.004007704018756541</v>
       </c>
       <c r="G11" s="3">
-        <v>0.9982163511399174</v>
+        <v>0.9982258657152421</v>
       </c>
       <c r="H11" s="3">
-        <v>0.002868473941237969</v>
+        <v>0.002868385429831454</v>
       </c>
       <c r="I11" s="3">
         <v>47311.00669013116</v>
@@ -5911,10 +5911,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>12866.38272537896</v>
+        <v>12866.17744899301</v>
       </c>
       <c r="D12">
-        <v>3.441069766846943</v>
+        <v>3.536292133775905</v>
       </c>
       <c r="E12">
         <v>28.08600122195284</v>
@@ -5923,10 +5923,10 @@
         <v>0.07589057806202364</v>
       </c>
       <c r="G12">
-        <v>0.9783842580929543</v>
+        <v>0.9783951438756596</v>
       </c>
       <c r="H12">
-        <v>0.002565300870091668</v>
+        <v>0.002566078564603508</v>
       </c>
       <c r="I12">
         <v>1368.47348343363</v>
@@ -5941,22 +5941,22 @@
         <v>0.6175524538612926</v>
       </c>
       <c r="M12">
-        <v>401.7789</v>
+        <v>401.8258</v>
       </c>
       <c r="N12">
-        <v>11.7409</v>
+        <v>11.9323</v>
       </c>
       <c r="O12">
-        <v>401.721</v>
+        <v>401.7679</v>
       </c>
       <c r="P12">
-        <v>11.5412628664</v>
+        <v>11.6607250848</v>
       </c>
       <c r="Q12">
-        <v>8.150533719485544</v>
+        <v>8.151612551622513</v>
       </c>
       <c r="R12">
-        <v>1.93705634916366</v>
+        <v>1.937691276964449</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
@@ -5967,10 +5967,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>13537.1201601571</v>
+        <v>13537.11836220323</v>
       </c>
       <c r="D13" s="3">
-        <v>0.9385188327330771</v>
+        <v>0.7857649804420215</v>
       </c>
       <c r="E13" s="3">
         <v>0.8772527516570022</v>
@@ -5979,10 +5979,10 @@
         <v>0.00285419115355003</v>
       </c>
       <c r="G13" s="3">
-        <v>0.9998345192760126</v>
+        <v>0.9998346520706217</v>
       </c>
       <c r="H13" s="3">
-        <v>0.002158910450175707</v>
+        <v>0.002158577944632939</v>
       </c>
       <c r="I13" s="3">
         <v>47153.45294474007</v>
@@ -6023,10 +6023,10 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>7181.536971326349</v>
+        <v>7181.667634955887</v>
       </c>
       <c r="D14">
-        <v>1.784804963863084</v>
+        <v>1.724121682938526</v>
       </c>
       <c r="E14">
         <v>0.3565423140418347</v>
@@ -6035,16 +6035,16 @@
         <v>0.002262092570537395</v>
       </c>
       <c r="G14">
-        <v>0.9800550835068594</v>
+        <v>0.9798302900744216</v>
       </c>
       <c r="H14">
-        <v>0.003505353150675049</v>
+        <v>0.003520944930569855</v>
       </c>
       <c r="I14">
-        <v>60251.66746276931</v>
+        <v>60238.94764399362</v>
       </c>
       <c r="J14">
-        <v>438.5724478132896</v>
+        <v>438.9931104873692</v>
       </c>
       <c r="K14">
         <v>1.712729973920579</v>
@@ -6053,22 +6053,22 @@
         <v>0.6823467466899904</v>
       </c>
       <c r="M14">
-        <v>415.0041</v>
+        <v>413.9135</v>
       </c>
       <c r="N14">
-        <v>18.2225</v>
+        <v>18.0169</v>
       </c>
       <c r="O14">
-        <v>415.0028</v>
+        <v>413.9122</v>
       </c>
       <c r="P14">
-        <v>18.4154485443</v>
+        <v>18.2169532435</v>
       </c>
       <c r="Q14">
-        <v>5.524823909136777</v>
+        <v>5.507846085188723</v>
       </c>
       <c r="R14">
-        <v>2.219722171956008</v>
+        <v>2.212503978707845</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
@@ -6147,10 +6147,10 @@
         <v>0.03826182980799804</v>
       </c>
       <c r="G16">
-        <v>0.9845599176079866</v>
+        <v>0.9844973335876147</v>
       </c>
       <c r="H16">
-        <v>0.002322436199383935</v>
+        <v>0.002322288572620124</v>
       </c>
       <c r="I16">
         <v>1975.161514109602</v>
@@ -6165,22 +6165,22 @@
         <v>0.521458071333824</v>
       </c>
       <c r="M16">
-        <v>431.6856</v>
+        <v>431.3318</v>
       </c>
       <c r="N16">
-        <v>13.79</v>
+        <v>14.0718</v>
       </c>
       <c r="O16">
-        <v>431.6452</v>
+        <v>431.2915</v>
       </c>
       <c r="P16">
-        <v>13.8693552895</v>
+        <v>14.1004283678</v>
       </c>
       <c r="Q16">
-        <v>9.123121977598503</v>
+        <v>9.114020161546508</v>
       </c>
       <c r="R16">
-        <v>1.798772994170248</v>
+        <v>1.798167675300385</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">
@@ -6191,10 +6191,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>13535.93126770548</v>
+        <v>13536.21840039531</v>
       </c>
       <c r="D17" s="3">
-        <v>0.8560726078554707</v>
+        <v>0.9128457624207341</v>
       </c>
       <c r="E17" s="3">
         <v>0.8756726953783925</v>
@@ -6203,16 +6203,16 @@
         <v>0.003925825504962527</v>
       </c>
       <c r="G17" s="3">
-        <v>0.9990831554343809</v>
+        <v>0.9992100794902702</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0033871346687152</v>
+        <v>0.002949356017414584</v>
       </c>
       <c r="I17" s="3">
-        <v>47198.8914382587</v>
+        <v>47205.88895032525</v>
       </c>
       <c r="J17" s="3">
-        <v>265.2767874518087</v>
+        <v>253.364579486922</v>
       </c>
       <c r="K17" s="3">
         <v>-4.958884621684923</v>
